--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233B9D7-EB74-448F-94FC-A355CAED09FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C11577-6D3F-40A9-A372-20DB9825E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="1368" windowWidth="18216" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1332" windowWidth="19812" windowHeight="11628" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -118,10 +118,824 @@
     <t>annotation</t>
   </si>
   <si>
-    <t>typical_evidence</t>
-  </si>
-  <si>
-    <t>implementation_groups</t>
+    <t>I. Objet et champ d’application</t>
+  </si>
+  <si>
+    <t>Cm 1</t>
+  </si>
+  <si>
+    <t>La présente circulaire se réfère aux prescriptions en matière de séparation des fonctions, de gestion des risques et de contrôle interne de l’ordonnance sur les banques (art. 12 et 14e OB ; RS 952.02) et de l’ordonnance sur les établissements financiers (art. 12 et 68 OEFin ; RS 954.11) et concrétise la pratique prudentielle correspondante. Elle tient compte des principes du Comité de Bâle pour une gestion irréprochable des risques opérationnels1 et de la résilience opérationnelle2.</t>
+  </si>
+  <si>
+    <t>[1] CBCB, « Revisions to the Principles for the Sound Management of Operational Risk » (31 mars 2021)
+[2] CBCB, « Principles for Operational Resilience » (31 mars 2021)</t>
+  </si>
+  <si>
+    <t>Cm 2</t>
+  </si>
+  <si>
+    <t>La présente circulaire s’adresse aux banques selon l’art. 1a et aux personnes selon l’art. 1b de la loi sur les banques (LB ; RS 952.0), aux maisons de titres selon les art. 2 al. 1 let. e et 41 de la loi sur les établissements financiers (LEFin ; RS 954.1) ainsi qu’aux groupes financiers et aux conglomérats financiers selon l’art. 3c LB et l’art. 49 LEFin. Par « établissements », on entend ci-après les banques, les personnes selon l’art. 1b LB, les maisons de titres ainsi que les groupes et conglomérats financiers.</t>
+  </si>
+  <si>
+    <t>II. Définitions</t>
+  </si>
+  <si>
+    <t>Cm 3</t>
+  </si>
+  <si>
+    <t>Les risques opérationnels sont définis à l’art. 89 OFR. On entend par là le risque de pertes financières résultant de l’inadéquation ou de la défaillance de processus ou de systèmes internes, d’actions inappropriées de personnes ou d'erreurs qu’elles ont commises ou encore d'événements externes. Sont comprises les pertes financières qui peuvent découler des risques juridiques ou des risques de compliance. La gestion des risques opérationnels prend typiquement également en compte d’autres types de dommages3, dans la mesure où ceux-ci peuvent aussi aboutir à des pertes financières. Les risques stratégiques en sont exclus.</t>
+  </si>
+  <si>
+    <t>[3] Par ex. répercussions négatives sur la réputation, perte potentielle de confiance et perte de clientèle, incidences négatives sur le marché, conséquences réglementaires négatives (par ex. perte potentielle de licence).</t>
+  </si>
+  <si>
+    <t>Cm 4</t>
+  </si>
+  <si>
+    <t>Les risques inhérents sont les risques opérationnels auxquels est exposé l’établissement en raison de ses produits, de ses activités, de ses procédures et de ses systèmes, sans prise en compte des mesures de contrôle et d’atténuation.</t>
+  </si>
+  <si>
+    <t>Cm 5</t>
+  </si>
+  <si>
+    <t>Les risques résiduels sont les risques opérationnels auxquels est exposé l’établissement après prise en compte des mesures de contrôle et d’atténuation.</t>
+  </si>
+  <si>
+    <t>Cm 6</t>
+  </si>
+  <si>
+    <t>Par technologie de l’information et de la communication (TIC), on entend la structure physique et logique (électronique) des systèmes IT et de communication, les différentes composantes matérielles et logicielles, les réseaux, les données et les environnements d’exploitation.</t>
+  </si>
+  <si>
+    <t>Cm 7</t>
+  </si>
+  <si>
+    <t>Les données critiques sont des données qui, compte tenu de la taille, de la complexité, de la structure, du profil de risque ainsi que du modèle d’affaires de l’établissement revêtent une importance telle qu’elles nécessitent des exigences accrues en matière de sécurité. Ces données sont importantes pour la prestation réussie et durable des services de l’établissement ou à des fins réglementaires. Lors de l’évaluation et de la définition de la criticité des données, il faut prendre en compte la confidentialité, l’intégrité et la disponibilité. Chacun de ces trois aspects peut être déterminant pour classifier des données comme critiques.</t>
+  </si>
+  <si>
+    <t>Cm 8</t>
+  </si>
+  <si>
+    <t>Les processus critiques sont des processus qui, s’ils connaissent des incidents ou interruptions majeurs mettent en danger l’exécution des fonctions critiques. Ils font partie des fonctions critiques.</t>
+  </si>
+  <si>
+    <t>Cm 9</t>
+  </si>
+  <si>
+    <t>Le business continuity management (BCM) désigne l’approche adoptée à l’échelle de l’établissement pour rétablir le fonctionnement des processus critiques en cas d’incident ou d’interruption majeurs qui vont au-delà de la gestion des incidents. Il définit la réaction à un incident ou une interruption majeurs. Un BCM efficace diminue les risques résiduels liés aux incidents ou interruptions majeurs.</t>
+  </si>
+  <si>
+    <t>Cm 10</t>
+  </si>
+  <si>
+    <t>Le recovery time objective (RTO) est le délai nécessaire jusqu’au rétablissement d’une application, d’un système et/ou d’un processus. Le recovery point objective (RPO) est la durée maximale acceptable d’une perte de données.</t>
+  </si>
+  <si>
+    <t>Cm 11</t>
+  </si>
+  <si>
+    <t>Le business continuity plan (BCP) est un plan qui définit les procédures, les options de remplacement et les ressources de remplacement nécessaires (les processus de rétablissement) pour garantir la continuité et le rétablissement des processus critiques.</t>
+  </si>
+  <si>
+    <t>Cm 12</t>
+  </si>
+  <si>
+    <t>Le disaster recovery plan (DRP) définit les processus de rétablissement qui permettent d’atteindre les objectifs de rétablissement en cas de défaillance majeure ou de destruction de la TIC, en tenant compte de l’éventuelle indisponibilité de personnes clés.</t>
+  </si>
+  <si>
+    <t>Cm 13</t>
+  </si>
+  <si>
+    <t>Les situations de crise sont des situations exceptionnelles mettant potentiellement en danger l’existence de l’établissement et qui ne peuvent pas être maîtrisées à l’aide de mesures et compétences décisionnelles ordinaires. Elles se distinguent des incidents ordinaires ainsi que des incidents ou interruptions majeurs, qui peuvent être maîtrisés à l’aide de la gestion des incidents en situation normale ou des BCP et DRP définis.</t>
+  </si>
+  <si>
+    <t>Cm 14</t>
+  </si>
+  <si>
+    <t>Les fonctions critiques comprennent :</t>
+  </si>
+  <si>
+    <t>Cm 15</t>
+  </si>
+  <si>
+    <t>a. les activités, les processus et les services, y compris les ressources sous-jacentes nécessaires à leur réalisation, dont l’interruption mettrait en danger la poursuite de l’établissement ou son rôle sur le marché financier, et donc le bon fonctionnement des marchés financiers ; et</t>
+  </si>
+  <si>
+    <t>Cm 16</t>
+  </si>
+  <si>
+    <t>b. les fonctions d’importance systémique selon l’art. 8 LB.</t>
+  </si>
+  <si>
+    <t>Cm 17</t>
+  </si>
+  <si>
+    <t>La tolérance aux interruptions est l’ampleur (par ex. durée ou dommages attendus) de l’interruption d’une fonction critique que l’établissement est disposé à accepter en tenant compte de scénarios graves mais plausibles. Une tolérance aux interruptions doit être définie pour chaque fonction critique.</t>
+  </si>
+  <si>
+    <t>Cm 18</t>
+  </si>
+  <si>
+    <t>La résilience opérationnelle désigne la capacité de l’établissement à pouvoir rétablir ses fonctions critiques en cas d’interruptions dans les limites de la tolérance aux interruptions, c.-à-d. la capacité de l’établissement à identifier les menaces et les défaillances éventuelles, à s’en protéger et à y réagir, à rétablir la marche ordinaire des affaires en cas d’interruptions et à en tirer des enseignements pour minimiser les conséquences sur l’exécution des fonctions critiques. Un établissement résilient sur le plan opérationnel a établi son modèle d’exploitation4 de manière à être moins exposé au risque d’interruptions de ses fonctions critiques. La résilience opérationnelle diminue non seulement les risques résiduels des interruptions, mais aussi le risque inhérent d’être soumis à une interruption. Une gestion efficace des risques opérationnels contribue à renforcer la résilience opérationnelle de l’établissement.</t>
+  </si>
+  <si>
+    <t>[4] Souvent appelé resilience by design</t>
+  </si>
+  <si>
+    <t>III. Principe de proportionnalité</t>
+  </si>
+  <si>
+    <t>Cm 19</t>
+  </si>
+  <si>
+    <t>La présente circulaire s’applique fondamentalement à l’ensemble de ses destinataires. Elle doit cependant être mise en œuvre au cas par cas en fonction de la taille, de la complexité, de la structure et du profil de risque de l’établissement. La FINMA ordonne des allègements ou des renforcements au cas par cas.</t>
+  </si>
+  <si>
+    <t>Cm 20</t>
+  </si>
+  <si>
+    <t>Les banques et les maisons de titres des catégories FINMA 4 et 5 sont exemptées du respect des Cm 33 à 38, 41 à 46, 48, 51, 57, 73, 74, 76 à 78, 80, 87, 92, 93, 96, 103, 104 et 110 à 112.</t>
+  </si>
+  <si>
+    <t>Cm 21</t>
+  </si>
+  <si>
+    <t>Les établissements selon les art. 47a à 47e OFR, les personnes selon l’art. 1b LB ainsi que les maisons de titres qui ne gèrent pas de comptes sont en plus exemptés du respect des exigences des Cm 72, 75, 79 ainsi que 105 à 109.</t>
+  </si>
+  <si>
+    <t>IV. Gestion des risques opérationnels</t>
+  </si>
+  <si>
+    <t>A. Gestion globale des risques opérationnels</t>
+  </si>
+  <si>
+    <t>Cm 22</t>
+  </si>
+  <si>
+    <t>La gestion des risques opérationnels fait partie de la gestion des risques à l’échelle de l’établissement conformément à la circulaire FINMA 2017/1 « Gouvernance d’entreprise – banques ».</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cm 23</t>
+  </si>
+  <si>
+    <t>L’organe responsable de la haute direction approuve l’approche pour la gestion des risques opérationnels pertinents pour l’établissement et surveille son respect. Sont inclus notamment les risques TIC, les cyberrisques, les risques des données critiques, les risques découlant de la conception et de la mise en œuvre du BCM et, le cas échéant, les risques liés aux activités de service transfrontières. Il approuve au moins une fois par année la tolérance au risque en matière de risques opérationnels en fonction de la politique de risque et compte tenu des objectifs stratégiques et financiers de l’établissement. Ce faisant, il tient compte des résultats issus des évaluations de risques et de contrôle selon le Cm 30. Soit il accepte le degré d’exposition aux risques opérationnels de l’établissement, soit il décide d’une adaptation de la tolérance au risque et des modifications stratégiques nécessaires à cet effet5.</t>
+  </si>
+  <si>
+    <t>[5] Par exemple un changement de modèle d’affaires</t>
+  </si>
+  <si>
+    <t>Cm 24</t>
+  </si>
+  <si>
+    <t>L’organe responsable de la haute direction approuve régulièrement les stratégies de gestion des TIC, des cyberrisques, des données critiques et du BCM, et surveille leur respect.</t>
+  </si>
+  <si>
+    <t>Cm 25</t>
+  </si>
+  <si>
+    <t>La direction s’assure de manière compréhensible que les risques opérationnels sont identifiés, évalués, limités et surveillés et que l’efficacité tant de la conception que de la mise en œuvre de cette gestion des risques opérationnels est régulièrement vérifiée. Pour limiter les risques inhérents jugés importants6, elle prend, en fonction de la situation, des mesures complémentaires spécifiques au risque ou renforce les mesures existantes.</t>
+  </si>
+  <si>
+    <t>[6] Appelés aussi risques principaux ou risques clés (key risks)</t>
+  </si>
+  <si>
+    <t>Cm 26</t>
+  </si>
+  <si>
+    <t>Des mesures doivent être mises en œuvre7 pour sensibiliser le personnel à la réduction des risques opérationnels pertinents, en particulier les risques TIC, les cyberrisques, les risques des données critiques et les risques découlant de la conception et de la mise en œuvre du BCM, en tenant compte de ses tâches, compétences et responsabilités.</t>
+  </si>
+  <si>
+    <t>[7] Cela inclut notamment la sélection rigoureuse et la qualification du personnel pour ses tâches, compétences et res- ponsabilités, et sa formation continue dans le cadre de ses activités.</t>
+  </si>
+  <si>
+    <t>Cm 27</t>
+  </si>
+  <si>
+    <t>Si nécessaire, la FINMA définit, dans le cadre de sa surveillance courante, d’autres exigences en matière de gestion des risques opérationnels pour des thèmes spécifiques. Elle le fait avec retenue et en appliquant le principe de proportionnalité.</t>
+  </si>
+  <si>
+    <t>Cm 28</t>
+  </si>
+  <si>
+    <t>Les risques opérationnels doivent être catégorisés de façon uniforme à l’échelle de l’établissement et répertoriés dans un inventaire. Cette catégorisation peut s’appuyer sur la catégorisation des types d’événements utilisée dans le cadre du calcul des fonds propres minimaux pour les risques opérationnels ou sur une taxonomie interne. La catégorisation doit être appliquée de manière cohérente dans tous les domaines de l’établissement et dans toutes les composantes de la gestion des risques opérationnels.</t>
+  </si>
+  <si>
+    <t>Cm 29</t>
+  </si>
+  <si>
+    <t>Des facteurs internes8 et externes9 sont pris en compte dans l’identification des risques opérationnels. Les risques opérationnels identifiés sont évalués de manière compréhensible tant du point de vue des risques inhérents que des risques résiduels.</t>
+  </si>
+  <si>
+    <t>[8] Sont considérés comme facteurs internes par ex. les changements apportés aux produits, aux activités, aux proces- sus et aux systèmes, les résultats d’audit et les pertes internes issues des risques opérationnels.
+[9] Sont considérés comme facteurs externes par ex. les événements de perte reconnus d’autres établissements, les changements sur le plan de la sécurité (par ex. en raison d’influences environnementales, de cyberattaques ou du terrorisme) ou les changements en matière d’exigences réglementaires.</t>
+  </si>
+  <si>
+    <t>Cm 30</t>
+  </si>
+  <si>
+    <t>L’identification et l’évaluation des risques opérationnels s’appuient au moins sur les résultats d’audit10 et les évaluations des risques et des contrôles à effectuer régulièrement. Les évaluations des risques et des contrôles tiennent compte des risques inhérents, de l’efficacité des mesures de contrôle et d’atténuation existantes ainsi que des risques résiduels.</t>
+  </si>
+  <si>
+    <t>[10] Les résultats d’audit comprennent ici les résultats des audits effectués par la révision interne et la société d’audit externe, si disponibles, ainsi que les résultats d’examens effectués par ex. par les domaines d'activité et d'organisa- tion, le contrôle des risques, la fonction de compliance ou les autorités de surveillance.</t>
+  </si>
+  <si>
+    <t>Cm 31</t>
+  </si>
+  <si>
+    <t>Pour évaluer les mesures de contrôle et d’atténuation existantes, une instance de contrôle indépendante procède à un examen régulier de l’efficacité des contrôles clés et le documente (design effectiveness et operating effectiveness testing). Les contrôles clés sont les mesures de contrôle et d’atténuation qui diminuent les risques inhérents considérés comme principaux. La séparation des tâches, compétences et responsabilités pour garantir l’indépendance et prévenir les conflits d’intérêts fait l’objet d’évaluations régulières.</t>
+  </si>
+  <si>
+    <t>Cm 32</t>
+  </si>
+  <si>
+    <t>Des évaluations ad hoc des risques et des contrôles doivent être effectuées avant des changements importants dans les produits, les activités, les procédures et les systèmes. Celles-ci prennent en compte les risques opérationnels découlant du processus de changement et les risques opérationnels de l’état cible. La tolérance au risque est adaptée si besoin et des mesures de contrôle et d’atténuation sont mises en œuvre.</t>
+  </si>
+  <si>
+    <t>Cm 33</t>
+  </si>
+  <si>
+    <t>En fonction de la nature, de l’ampleur, de la complexité et du risque des produits, activités, procédures et systèmes spécifiques à l’établissement, il s’agit d’appliquer les instruments et méthodes supplémentaires suivants :</t>
+  </si>
+  <si>
+    <t>Cm 34</t>
+  </si>
+  <si>
+    <t>a. la collecte et l’analyse systématiques des données de pertes internes et des événements externes pertinents liés à des risques opérationnels ;</t>
+  </si>
+  <si>
+    <t>Cm 35</t>
+  </si>
+  <si>
+    <t>b. les indicateurs de risque et de contrôle pour la surveillance des risques opérationnels et l’identification rapide des hausses de risque pertinentes ;</t>
+  </si>
+  <si>
+    <t>Cm 36</t>
+  </si>
+  <si>
+    <t>c. les analyses de scénario et/ou l’estimation du potentiel de perte compte tenu ou visà-vis des fonds propres minimaux pour les risques opérationnels ;</t>
+  </si>
+  <si>
+    <t>Cm 37</t>
+  </si>
+  <si>
+    <t>d. les analyses comparatives (read across), comme les analyses de pertinence des résultats d’audit pour d’autres domaines de l’établissement ou des comparaisons croisées entre les résultats issus des évaluations des risques et des contrôles de différents domaines.</t>
+  </si>
+  <si>
+    <t>Cm 38</t>
+  </si>
+  <si>
+    <t>La tolérance au risque pour les risques opérationnels tient compte de la tolérance en lien tant avec les risques inhérents11 qu’avec les risques opérationnels résiduels. Elle fait l’objet d’une surveillance au moyen d’indicateurs de risque ou de contrôle.</t>
+  </si>
+  <si>
+    <t>[11] La tolérance au risque par rapport aux risques inhérents tient compte de décisions stratégiques en lien avec le mo- dèle d’affaires ou d’exploitation, par ex. la tolérance aux risques inhérents, qui peuvent découler d’activités avec certains pays ou segments de clientèle, de l’offre de certains produits, de l’application de processus majoritairement manuels, du recours à une infrastructure informatique complexe ou de certaines externalisations (outsourcing).</t>
+  </si>
+  <si>
+    <t>Cm 39</t>
+  </si>
+  <si>
+    <t>Le rapport du contrôle des risques remis au moins une fois par année à l’organe responsable de la haute direction et au moins une fois par semestre à la direction selon les Cm 75 et 76 de la Circ.-FINMA 17/1 rend compte des risques opérationnels selon le niveau supérieur12 de leur catégorisation définie conformément au Cm 28, de leur comparaison avec la tolérance aux risques fixée ainsi que des détails concernant les pertes internes importantes.</t>
+  </si>
+  <si>
+    <t>[12] Le niveau supérieur de la catégorisation est souvent appelé niveau 1 ou level 1. Le rapport peut aussi être effectué de façon plus détaillée.</t>
+  </si>
+  <si>
+    <t>Cm 40</t>
+  </si>
+  <si>
+    <t>En ce qui concerne les risques TIC et les cyberrisques, le rapport remis au moins une fois par année à la direction contient en outre des informations sur l’évolution de ces risques, l’efficacité des contrôles clés correspondants et les événements importants internes et externes en lien avec ces risques.</t>
+  </si>
+  <si>
+    <t>Cm 41</t>
+  </si>
+  <si>
+    <t>Le rapport interne au sens du Cm 39 contient à titre complémentaire les informations suivantes :</t>
+  </si>
+  <si>
+    <t>Cm 42</t>
+  </si>
+  <si>
+    <t>• les facteurs externes pertinents selon la note de bas de page 9,</t>
+  </si>
+  <si>
+    <t>Cm 43</t>
+  </si>
+  <si>
+    <t>• la vue d’ensemble récapitulative sur l’efficacité des contrôles clés selon le Cm 31,</t>
+  </si>
+  <si>
+    <t>Cm 44</t>
+  </si>
+  <si>
+    <t>• les risques opérationnels émergents,</t>
+  </si>
+  <si>
+    <t>Cm 45</t>
+  </si>
+  <si>
+    <t>• les résultats découlant de l’application des instruments et des méthodes supplémentaires selon le Cm 33.</t>
+  </si>
+  <si>
+    <t>Cm 46</t>
+  </si>
+  <si>
+    <t>De plus, conformément au principe de proportionnalité, les banques d’importance systémique rendent compte régulièrement des risques opérationnels au niveau des domaines d’activité et d’organisation exposés à des risques opérationnels pertinents ou principaux.</t>
+  </si>
+  <si>
+    <t>B. Gestion des risques TIC</t>
+  </si>
+  <si>
+    <t>a) Stratégie TIC et gouvernance</t>
+  </si>
+  <si>
+    <t>Cm 47</t>
+  </si>
+  <si>
+    <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et de la sensibilisation aux TIC sont définies aux Cm 23 à 26 et 40.</t>
+  </si>
+  <si>
+    <t>Cm 48</t>
+  </si>
+  <si>
+    <t>La gestion des risques TIC tient compte des normes pertinentes et pratiques reconnues à l’échelle internationale ainsi que de l’influence des nouvelles évolutions technologiques sur les risques TIC.</t>
+  </si>
+  <si>
+    <t>Cm 49</t>
+  </si>
+  <si>
+    <t>La direction s’assure que des procédures, des processus, des contrôles ainsi que des tâches, compétences et responsabilités soient implémentés et documentés tant pour la gestion des changements (change management) que pour l’exploitation TIC (run, maintenance). Ceux-ci sont dotés de ressources qualifiées et appropriées.</t>
+  </si>
+  <si>
+    <t>Cm 50</t>
+  </si>
+  <si>
+    <t>b) Gestion des changements (change management)</t>
+  </si>
+  <si>
+    <t>La gestion des changements définit des procédures, des processus et des contrôles pour toutes les phases de développement ou d’acquisition de TIC. Elle prend en compte dans chaque phase les conséquences du changement qui en découlent pour les risques TIC. Ce faisant, l’accent est mis notamment sur les exigences concernant la confidentialité, l’intégrité et la disponibilité.</t>
+  </si>
+  <si>
+    <t>Cm 51</t>
+  </si>
+  <si>
+    <t>Il faut garantir la séparation entre, d’une part, les environnements de développement ou de test et, d’autre part, l’environnement de production TIC. Cela comprend également une attribution claire de tâches, compétences et responsabilités ainsi qu’une réglementation des autorisations d’accès afférentes.</t>
+  </si>
+  <si>
+    <t>Cm 52</t>
+  </si>
+  <si>
+    <t>Lors du développement et de l’acquisition de TIC, les exigences fonctionnelles et non fonctionnelles13 sont clairement définies et approuvées, puis testées et validées selon leur criticité.</t>
+  </si>
+  <si>
+    <t>[13] Par ex. en ce qui concerne l’architecture ou les exigences à l’égard de la sécurité de l’information</t>
+  </si>
+  <si>
+    <t>c) Exploitation TIC (run, maintenance)</t>
+  </si>
+  <si>
+    <t>Cm 53</t>
+  </si>
+  <si>
+    <t>L’établissement dresse un ou plusieurs inventaire(s) des composantes TIC. L’inventaire inclut les composantes matérielles et logicielles ainsi que les lieux de sauvegarde des données critiques. Il tient compte des dépendances au sein de l’établissement ainsi que des interfaces avec les prestataires externes importants.</t>
+  </si>
+  <si>
+    <t>Cm 54</t>
+  </si>
+  <si>
+    <t>L’inventaire est disponible rapidement et est régulièrement revu et mis à jour en ce qui concerne son exhaustivité et sa véracité.</t>
+  </si>
+  <si>
+    <t>Cm 55</t>
+  </si>
+  <si>
+    <t>L’établissement dispose de procédures, de processus et de contrôles qui garantissent la confidentialité, l’intégrité et la disponibilité de l’environnement de production TIC en tenant compte de la tolérance au risque correspondante.</t>
+  </si>
+  <si>
+    <t>Cm 56</t>
+  </si>
+  <si>
+    <t>L’établissement garantit la transition irréprochable entre la gestion opérationnelle TIC et les procédures BCM et DRP en cas d’incidents ou interruptions majeurs. Il met en œuvre des procédures de sauvegarde et de restauration appropriées qui sont régulièrement testées et validées.</t>
+  </si>
+  <si>
+    <t>Cm 57</t>
+  </si>
+  <si>
+    <t>L’établissement dispose de procédures, de processus et de contrôles qui garantissent une gestion orientée vers le risque des TIC dont la fin d’exploitation approche ou dont la mise hors service prévue a été dépassée.</t>
+  </si>
+  <si>
+    <t>d) Gestion des incidents (incident management)</t>
+  </si>
+  <si>
+    <t>Cm 58</t>
+  </si>
+  <si>
+    <t>L’établissement dispose de procédures, de processus et de contrôles visant à traiter les incidents TIC importants, y compris ceux qui sont dus à des dépendances vis-à-vis de prestataires externes importants ou à des externalisations au sein d’un groupe. Il tient compte de l’ensemble du cycle de vie des incidents TIC importants et définit des tâches, compétences et responsabilités pour traiter ces incidents.</t>
+  </si>
+  <si>
+    <t>Cm 59</t>
+  </si>
+  <si>
+    <t>Le traitement des incidents TIC importants doit être coordonné et rattaché aux processus BCM et DRP.</t>
+  </si>
+  <si>
+    <t>Cm 60</t>
+  </si>
+  <si>
+    <t>Les établissements renseignent sans délai la FINMA sur les incidents TIC qu’ils considèrent comme des perturbations importantes pour l’exécution de leurs processus critiques et qui sont susceptibles de l’intéresser.</t>
+  </si>
+  <si>
+    <t>C. Gestion des cyberrisques</t>
+  </si>
+  <si>
+    <t>Cm 61</t>
+  </si>
+  <si>
+    <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les cyberrisques sont définies aux Cm 23 à 26 et 40.</t>
+  </si>
+  <si>
+    <t>Cm 62</t>
+  </si>
+  <si>
+    <t>L’établissement définit des tâches, compétences et responsabilités claires. Il doit couvrir au moins les aspects suivants selon les meilleures pratiques et normes internationalement reconnues et garantir, développer et améliorer continuellement leur mise en œuvre effective au moyen de procédures, de processus et de contrôles appropriés :</t>
+  </si>
+  <si>
+    <t>Cm 63</t>
+  </si>
+  <si>
+    <t>a. identification des menaces potentielles liées aux cyberattaques14 spécifiques à l’établissement et évaluation des conséquences possibles liées à l’exploitation des vulnérabilités relatives aux composantes TIC répertoriées et des données électroniques critiques (selon Cm 53, 54 et 7) ;</t>
+  </si>
+  <si>
+    <t>[14] Attaques contre la confidentialité, l’intégrité et la disponibilité des TIC ainsi que les données électroniques critiques au moyen de l’exploitation des vulnérabilités ou du contournement des mesures protectrices par des cybercriminels externes ou internes.</t>
+  </si>
+  <si>
+    <t>Cm 64</t>
+  </si>
+  <si>
+    <t>b. protection des composantes TIC répertoriées et des données électroniques critiques contre les cyberattaques par l’implémentation de mesures de protection appropriées, en particulier en ce qui concerne la confidentialité, l’intégrité et la disponibilité ;</t>
+  </si>
+  <si>
+    <t>Cm 65</t>
+  </si>
+  <si>
+    <t>c. enregistrement et détection rapides des cyberattaques sur la base d’un processus de surveillance systématique et constant des composantes TIC répertoriées et des données électroniques critiques ;</t>
+  </si>
+  <si>
+    <t>Cm 66</t>
+  </si>
+  <si>
+    <t>d. réaction aux vulnérabilités et aux cyberattaques identifiées par le développement et l’implémentation de processus appropriés afin de prendre rapidement des mesures d’atténuation et de suppression ; et</t>
+  </si>
+  <si>
+    <t>Cm 67</t>
+  </si>
+  <si>
+    <t>e. garantie d’un rétablissement rapide de la marche ordinaire des affaires après des cyberattaques, grâce à des mesures appropriées.</t>
+  </si>
+  <si>
+    <t>Cm 68</t>
+  </si>
+  <si>
+    <t>La gestion des cyberrisques doit garantir qu’une cyberattaque, qu’elle ait atteint son but entièrement ou partiellement, soit analysée selon son importance pour les composantes TIC répertoriées ainsi que les données électroniques critiques et les processus critiques (y compris les fonctions et services externalisés) et que l’obligation d’annoncer selon la LFINMA soit respectée. Après une première évaluation et une information préalable au service compétent de la FINMA dans les 24 heures, l’annonce doit être transmise dans les 72 heures, conformément au cahier des charges de la plate-forme de saisie EHP (champs obligatoires). Une fois que le cas a été traité par l’établissement, un rapport conclusif sur les causes conforme au degré de gravité doit être remis au service compétent de la FINMA.</t>
+  </si>
+  <si>
+    <t>[15] Analyse visant à identifier les vulnérabilités actuelles des logiciels ainsi que les failles de sécurité de l’infrastructure IT par rapport aux cyberattaques</t>
+  </si>
+  <si>
+    <t>Cm 69</t>
+  </si>
+  <si>
+    <t>La direction fait régulièrement procéder à des analyses de vulnérabilité15 et à des tests d’intrusion16. Ces derniers doivent être effectués par du personnel qualifié disposant de ressources adéquates. Ce faisant, toutes les composantes TIC répertoriées et accessibles par Internet doivent être prises en compte. En outre, les composantes TIC répertoriées et non accessibles par Internet mais qui sont nécessaires à l’exécution de processus critiques ou qui contiennent des données électroniques critiques, doivent être prises en compte. Sur la base des menaces potentielles spécifiques à l’établissement, il y a lieu d’effectuer, en fonction des risques, des cyberexercices17 fondés sur des scénarios. Le résultat des exercices doit être documenté et rapporté en forme appropriée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+[16] Évaluation ciblée et exploitation des vulnérabilités des logiciels et des failles de sécurité des TIC</t>
+  </si>
+  <si>
+    <t>Cm 70</t>
+  </si>
+  <si>
+    <t>Sur la base des menaces potentielles spécifiques à l’établissement, il y a lieu d’effectuer, en fonction des risques, des cyberexercices17 fondés sur des scénarios. Le résultat des exercices doit être documenté et rapporté en forme appropriée.</t>
+  </si>
+  <si>
+    <t>[17] En tenant compte du Cm 19, ces cyberexercices pourraient par ex. inclure des exercices table-top, red teaming, etc.</t>
+  </si>
+  <si>
+    <t>D. Gestion des risques des données critiques</t>
+  </si>
+  <si>
+    <t>Cm 71</t>
+  </si>
+  <si>
+    <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les risques des données critiques sont définies aux Cm 23 à 26.</t>
+  </si>
+  <si>
+    <t>Cm 72</t>
+  </si>
+  <si>
+    <t>La direction définit des processus, des procédures et des contrôles adéquats ainsi que des tâches, compétences et responsabilités claires relatifs au traitement des données critiques identifiées par l’établissement. Par ailleurs, la direction mandate une unité pour créer et maintenir les conditions-cadres permettant de garantir la confidentialité, l’intégrité et la disponibilité des données critiques et de surveiller leur respect.</t>
+  </si>
+  <si>
+    <t>Cm 73</t>
+  </si>
+  <si>
+    <t>L’établissement identifie ses données critiques de manière systématique et exhaustive, les catégorise selon leur criticité et définit des responsabilités claires en matière de données.</t>
+  </si>
+  <si>
+    <t>Cm 74</t>
+  </si>
+  <si>
+    <t>Les données critiques définies par l’établissement sont gérées tout au long de leur cycle de vie.</t>
+  </si>
+  <si>
+    <t>Cm 75</t>
+  </si>
+  <si>
+    <t>Dans ce cadre, des processus, des procédures et des contrôles appropriés garantissent en particulier le respect de la confidentialité, de l’intégrité et de la disponibilité lors de l’administration des données critiques.</t>
+  </si>
+  <si>
+    <t>Cm 76</t>
+  </si>
+  <si>
+    <t>Durant l’exploitation et pendant le développement, le changement et la migration des TIC, l’accès et l’utilisation des données critiques doivent être protégés de manière appropriée vis-à-vis des personnes non autorisées. Cela s’applique également aux données critiques dans les environnements de test.</t>
+  </si>
+  <si>
+    <t>Cm 77</t>
+  </si>
+  <si>
+    <t>Les composantes TIC, qui sauvegardent ou traitent des données critiques, sont à protéger en particulier. L’accès à ces données doit être réglementé systématiquement et surveillé en permanence.</t>
+  </si>
+  <si>
+    <t>Cm 78</t>
+  </si>
+  <si>
+    <t>L’accès aux données critiques et aux fonctionnalités de traitement de ces données est limité aux personnes qui en ont besoin pour accomplir leurs tâches18. À cet égard, l’établissement doit disposer d’un système d’autorisation. L’accès à ce système doit être particulièrement protégé et régulièrement vérifié. Les autorisations contenues dans ce système doivent être régulièrement contrôlées.</t>
+  </si>
+  <si>
+    <t>[18] Par ex. principe du need-to-know et du least privilege</t>
+  </si>
+  <si>
+    <t>Cm 79</t>
+  </si>
+  <si>
+    <t>Lorsque les données critiques sont stockées hors de Suisse19 ou qu’elles sont accessibles depuis l’étranger, les risques accrus qui en résultent doivent être limités de manière appropriée et surveillés au moyen de mesures appropriées et les données doivent être particulièrement protégées.</t>
+  </si>
+  <si>
+    <t>[19] Par ex. à l’aide de solutions de cloud ou de hosting</t>
+  </si>
+  <si>
+    <t>Cm 80</t>
+  </si>
+  <si>
+    <t>Tant les personnes internes qu’externes qui peuvent accéder aux données critiques ou les modifier doivent être soigneusement sélectionnées. Ces personnes doivent être surveillées à l’aide des mesures appropriées20 et formées régulièrement sur le traitement de ces données. Des exigences accrues en matière de sécurité s’appliquent aux personnes bénéficiant de privilèges accrus21. Il convient en outre de tenir une liste de ces personnes et de la mettre continuellement à jour.</t>
+  </si>
+  <si>
+    <t>[20] Par ex. évaluation des fichiers journaux, principe des quatre yeux, etc.
+[21] Par ex. les personnes qui bénéficient de droits d’administration, les utilisatrices et utilisateurs qui disposent d’un ac- cès fonctionnel à une grande quantité de données critiques, etc.</t>
+  </si>
+  <si>
+    <t>Cm 81</t>
+  </si>
+  <si>
+    <t>Les incidents qui entravent de manière importante la confidentialité, l’intégrité ou la disponibilité des données critiques doivent être annoncés immédiatement à la FINMA.</t>
+  </si>
+  <si>
+    <t>Cm 82</t>
+  </si>
+  <si>
+    <t>Une grande importance doit être accordée à l’examen de diligence (due diligence) lors du choix des prestataires qui peuvent accéder aux données critiques ou les traiter22. Il faut définir des critères clairs pour évaluer la manière dont les prestataires gèrent les données critiques et les vérifier avant de signer des contrats. En fonction du risque, les prestataires doivent être soumis à une surveillance et à un contrôle périodiques dans le cadre du système de contrôle interne de l’établissement.</t>
+  </si>
+  <si>
+    <t>[22] Traiter : toute opération relative à des données critiques, quels que soient les moyens et procédés utilisés, notam- ment la collecte, l’enregistrement, la conservation, l’utilisation, la modification, la communication, l’archivage, l’efface- ment ou la destruction de données</t>
+  </si>
+  <si>
+    <t>E. Business continuity management (BCM)</t>
+  </si>
+  <si>
+    <t>Cm 83</t>
+  </si>
+  <si>
+    <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les risques découlant de la conception et de la mise en œuvre du BCM sont définies aux Cm 23 à 26.</t>
+  </si>
+  <si>
+    <t>Cm 84</t>
+  </si>
+  <si>
+    <t>Chaque domaine d’activité ou d’organisation pertinent doit identifier ses processus critiques et les ressources correspondantes nécessaires23 dans le cadre de la business impact analysis (BIA).</t>
+  </si>
+  <si>
+    <t>[23] Personnel, infrastructure (par ex. immeubles, infrastructure des postes de travail), systèmes IT ou infrastructure IT (y compris systèmes de communication), dépendances vis-à-vis d’autres domaines de l’établissement et de tiers, par ex. prestataires ou fournisseurs externes (externalisation), banques centrales ou chambres de compensation.</t>
+  </si>
+  <si>
+    <t>Cm 85</t>
+  </si>
+  <si>
+    <t>Pour les processus critiques, l’établissement définit le RTO et le RPO conformément au Cm 10. Ceux-ci sont coordonnés avec les fournisseurs de prestations24 requis à cet effet et leur respect est régi par des service level agreements ou des contrats, ou garantis par d’autres procédures et contrôles appropriés.</t>
+  </si>
+  <si>
+    <t>[24] Par ex. avec le département IT, d’autres domaines de l’établissement ou des externes.</t>
+  </si>
+  <si>
+    <t>Cm 86</t>
+  </si>
+  <si>
+    <t>L’établissement définit au moins un BCP selon le Cm 11, qui décrit aussi les processus de décision ainsi que les événements déclencheurs du plan et tient compte de la perte des ressources selon le Cm 84. L’acceptation des risques résiduels est documentée de manière adéquate.</t>
+  </si>
+  <si>
+    <t>Cm 87</t>
+  </si>
+  <si>
+    <t>La BIA et le BCP sont établis et documentés de manière cohérente selon une directive applicable à l’échelle de l’établissement. Ils doivent être revus et mis à jour chaque année ainsi qu’en cas de changements majeurs dans l’activité (réorganisations, création d’un nouveau champ d’activité, etc.).</t>
+  </si>
+  <si>
+    <t>Cm 88</t>
+  </si>
+  <si>
+    <t>L’établissement définit au moins un DRP en tant que partie intégrante du BCP. Lorsque des processus critiques ou des parties de ceux-ci sont externalisés, le DRP tient compte des dépendances externes et des dispositions contractuelles ainsi que des solutions alternatives. Le DRP est revu et mis à jour en cas de changements majeurs, mais au moins une fois par année.</t>
+  </si>
+  <si>
+    <t>Cm 89</t>
+  </si>
+  <si>
+    <t>Dans les situations de crise, un état-major de crise est chargé de gérer celle-ci jusqu’au rétablissement de la situation. Les événements déclencheurs d’une crise et les tâches, compétences et responsabilités de l’état-major de crise doivent être réglés au préalable. L’organisation de crise doit être axée sur l’activité commerciale et la structure géographique de l’établissement. L’accessibilité des responsables en situation de crise doit être garantie.</t>
+  </si>
+  <si>
+    <t>Cm 90</t>
+  </si>
+  <si>
+    <t>L’établissement définit une stratégie de communication interne et externe en situation de crise.</t>
+  </si>
+  <si>
+    <t>Cm 91</t>
+  </si>
+  <si>
+    <t>La mise en œuvre du BCP et du DRP ainsi que le bon fonctionnement de l’organisation de crise sont régulièrement soumis à des tests. À cet effet, l’établissement met en œuvre une planification systématique afin de garantir une couverture régulière. Différentes manières de procéder au test avec des degrés d’intensité et d’efficacité variables peuvent être choisies, comme des exercices table-top.</t>
+  </si>
+  <si>
+    <t>Cm 92</t>
+  </si>
+  <si>
+    <t>Les principales mesures du BCP et du DRP ainsi que l’organisation de crise sont testées au moins une fois par année.</t>
+  </si>
+  <si>
+    <t>Cm 93</t>
+  </si>
+  <si>
+    <t>Les parties prenantes, y compris celles issues des fonctions IT et des fonctions spécialisées, participent aux tests pour se familiariser aux processus de rétablissement.</t>
+  </si>
+  <si>
+    <t>Cm 94</t>
+  </si>
+  <si>
+    <t>Les tests comprennent différents scénarios graves mais plausibles, et prennent en compte les dépendances en matière de rétablissement, y compris celles qui existent à l’égard de tiers internes ou externes.</t>
+  </si>
+  <si>
+    <t>Cm 95</t>
+  </si>
+  <si>
+    <t>Des comptes rendus réguliers informent l’organe responsable de la haute direction et la direction des activités de test et de vérification effectuées ainsi que de leurs résultats. Ils présentent clairement les priorités adoptées (par ex. priorisation des processus critiques requis pour l’exécution des fonctions critiques selon le Cm 14) et les lacunes identifiées dans la couverture d’autres processus critiques.</t>
+  </si>
+  <si>
+    <t>Cm 96</t>
+  </si>
+  <si>
+    <t>Les collaborateurs ainsi que les membres de l’organisation de crise doivent être suffisamment formés au sujet de leurs tâches, compétences et responsabilités qui découlent des diverses activités BCM. Cela s’applique aussi bien lors de l’entrée en fonction de nouveaux membres du personnel qu’en ce qui concerne les formations régulières.</t>
+  </si>
+  <si>
+    <t>F. Gestion des risques liés aux activités de service transfrontières</t>
+  </si>
+  <si>
+    <t>Cm 97</t>
+  </si>
+  <si>
+    <t>Quand des établissements ou leurs filiales fournissent des services ou distribuent des produits financiers dans le cadre d’opérations transfrontières, les risques résultant d’une application des législations étrangères (droit fiscal, droit pénal, législation en matière de blanchiment d’argent, etc.) doivent également être identifiés, limités et contrôlés de façon appropriée.</t>
+  </si>
+  <si>
+    <t>Cm 98</t>
+  </si>
+  <si>
+    <t>Les établissements soumettent leurs activités de services transfrontières ainsi que la distribution transfrontière de produits financiers à une analyse approfondie des conditionscadres juridiques et des risques correspondants. Sur la base de cette analyse, les établissements prennent les mesures stratégiques et organisationnelles nécessaires à l’élimination et à la minimisation des risques et les adaptent au fur et à mesure à l’évolution de la situation. Ils possèdent notamment les connaissances spécialisées requises spécifiques aux pays en question, définissent des modèles de prestations spécifiques aux pays desservis, forment le personnel et garantissent le respect des prescriptions grâce à des mesures organisationnelles, des directives et des modèles de rémunération et de sanction correspondants.</t>
+  </si>
+  <si>
+    <t>Cm 99</t>
+  </si>
+  <si>
+    <t>Les risques générés par les gérants de fortune indépendants, les intermédiaires et autres prestataires doivent également être pris en compte. En conséquence, ces partenaires doivent être choisis et instruits avec soin.</t>
+  </si>
+  <si>
+    <t>Cm 100</t>
+  </si>
+  <si>
+    <t>Ce principe s’applique également aux cas dans lesquels une filiale, une succursale ou une entité similaire d’un établissement financier suisse domiciliée à l’étranger offre des services transfrontières à des clients.</t>
+  </si>
+  <si>
+    <t>V. Garantie de la résilience opérationnelle</t>
+  </si>
+  <si>
+    <t>Cm 101</t>
+  </si>
+  <si>
+    <t>L’établissement identifie ses fonctions critiques et leurs tolérances aux interruptions. Celles-ci sont approuvées par l’organe responsable de la haute direction. En outre, l’organe responsable de la haute direction approuve et surveille régulièrement la procédure visant à garantir la résilience opérationnelle.</t>
+  </si>
+  <si>
+    <t>Cm 102</t>
+  </si>
+  <si>
+    <t>L’établissement prend des mesures pour garantir la résilience opérationnelle en tenant compte de scénarios graves, mais plausibles25.</t>
+  </si>
+  <si>
+    <t>[25] Il ne peut être exclu que certains scénarios ne puissent pas être gérés sans intervention de l’État (par ex. pandé- mies, guerres, pénuries d’électricité durables). Pour de tels scénarios, l’établissement doit effectuer des travaux pré- paratoires pour renforcer sa résilience opérationnelle dans le cadre de ses possibilités.</t>
+  </si>
+  <si>
+    <t>Cm 103</t>
+  </si>
+  <si>
+    <t>Les fonctions critiques et leurs tolérances aux interruptions au sens du Cm 14 doivent être approuvées par l’organe responsable de la haute direction au moins une fois par année.</t>
+  </si>
+  <si>
+    <t>Cm 104</t>
+  </si>
+  <si>
+    <t>L’établissement coordonne les composantes pertinentes d’une gestion des risques globale, comme la gestion des risques opérationnels, y compris la gestion des risques TIC et des cyberrisques, le business continuity management, la gestion des externalisations (outsourcing ; cf. circulaire FINMA 2018/3 « Outsourcing ») et le plan d’urgence (chapitre VI), pour qu’elles contribuent à renforcer la résilience opérationnelle de l’établissement. Cela inclut un échange approprié des informations pertinentes entre ces différents domaines.</t>
+  </si>
+  <si>
+    <t>Cm 105</t>
+  </si>
+  <si>
+    <t>La direction et l’organe responsable de la haute direction doivent recevoir au moins une fois par année des rapports sur la résilience opérationnelle ainsi qu’en cas de faiblesses de contrôle importantes ou d’incidents qui menacent la résilience opérationnelle.</t>
+  </si>
+  <si>
+    <t>Cm 106</t>
+  </si>
+  <si>
+    <t>Pour les fonctions critiques, les menaces internes et externes ainsi que l’exploitation correspondante des vulnérabilités sont identifiées et évaluées. Les risques opérationnels en résultant sont identifiés, évalués, limités et surveillés dans le cadre de la gestion des risques opérationnels.</t>
+  </si>
+  <si>
+    <t>Cm 107</t>
+  </si>
+  <si>
+    <t>L’établissement constitue un inventaire de ses fonctions critiques, qui doit être revu et mis à jour au moins une fois par année. Cet inventaire comporte les tolérances aux interruptions des fonctions critiques ainsi que les connexions et les dépendances entre les processus critiques nécessaires et leurs ressources26 pour exécuter les fonctions critiques.</t>
+  </si>
+  <si>
+    <t>[26] Y compris les composantes de l’inventaire pertinentes pour les fonctions critiques selon le Cm 53</t>
+  </si>
+  <si>
+    <t>Cm 108</t>
+  </si>
+  <si>
+    <t>Pour les fonctions critiques, l’établissement documente au minimum les risques opérationnels importants et les contrôles clés.</t>
+  </si>
+  <si>
+    <t>Cm 109</t>
+  </si>
+  <si>
+    <t>Les fonctions critiques et les processus critiques et ressources nécessaires à cet effet sont couverts par les BCP selon le chapitre IV lettre E.</t>
+  </si>
+  <si>
+    <t>Cm 110</t>
+  </si>
+  <si>
+    <t>La capacité à exécuter des fonctions critiques dans les limites de leurs tolérances aux interruptions en cas de scénarios graves mais plausibles est régulièrement testée ou exercée. Il s’agit notamment de scénarios qui se distinguent des interruptions brèves et plutôt limitées en se démarquant par des interruptions de longue durée (par ex. plusieurs mois) et la défaillance de ressources fondamentales27. Les tests ou exercices sont conçus de sorte à ne pas menacer fondamentalement l’établissement.</t>
+  </si>
+  <si>
+    <t>[27] Par ex. pandémie, pénurie d’électricité, défaillance prolongée en raison de l’insolvabilité d’un prestataire important (comme exemple de stressed exit d’un prestataire) ou interdiction persistante de la part de gouvernements étrangers aux fournisseurs de cloud ou d'autres prestataires basés à l'étranger de servir des entreprises suisses.</t>
+  </si>
+  <si>
+    <t>Cm 111</t>
+  </si>
+  <si>
+    <t>S’agissant des banques d’importance systémique, le BCP, le DRP et l’organisation en cas de crise selon le chapitre IV lettre E, pertinents pour la poursuite des fonctions critiques selon le Cm 14, doivent être coordonnés avec leur plan d’urgence selon le chapitre VI.</t>
+  </si>
+  <si>
+    <t>VI. Maintien des prestations critiques lors de la liquidation et de l’assainissement des banques d’importance systémique</t>
+  </si>
+  <si>
+    <t>Cm 112</t>
+  </si>
+  <si>
+    <t>Dans le cadre de leur plan d’urgence, les banques d’importance systémique prennent les mesures requises pour que leurs fonctions d’importance systémique puissent être poursuivies sans interruption (art. 9 al. 2 let. d LB en lien avec les art. 60 ss OB). Elles identifient les prestations requises pour la poursuite des fonctions d’importance systémique en cas de liquidation, d’assainissement ou de restructuration (« prestations critiques ») et prennent les mesures nécessaires à leur poursuite. Elles tiennent compte à cet égard des prescriptions des organismes édictant les standards internationaux.</t>
+  </si>
+  <si>
+    <t>VII. Dispositions transitoires</t>
+  </si>
+  <si>
+    <t>A. À propos de la garantie de la résilience opérationnelle</t>
+  </si>
+  <si>
+    <t>Cm 113</t>
+  </si>
+  <si>
+    <t>L’identification des fonctions critiques, la définition des tolérances aux interruptions et les premières approbations selon les Cm 101 et 103 ainsi que le premier rapport selon le Cm 105 sont attendus dès l’entrée en vigueur de la présente circulaire. Un délai transitoire d’une année à compter de l’entrée en vigueur est applicable pour satisfaire aux exigences selon les Cm 106 à 109 ainsi qu’effectuer les premiers tests selon le Cm 110. La garantie de la résilience opérationnelle selon le Cm 102 ainsi que la satisfaction des exigences selon les Cm 104 et 111 sont attendues dans un délai transitoire de deux ans.</t>
+  </si>
+  <si>
+    <t>B. À propos des exigences de fonds propres pour les risques opérationnels</t>
+  </si>
+  <si>
+    <t>Cm 114</t>
+  </si>
+  <si>
+    <t>Les exigences de fonds propres pour les risques opérationnels au sens des art. 89 ss OFR s’appuient sur les Cm 3 à 116 de la circulaire FINMA 2008/21 « Risques opérationnels – banques » jusqu’à l’entrée en vigueur de l’OFR révisée dans le cadre du paquet de révisions des normes finales de Bâle III et de l’ordonnance d’exécution FINMA correspondante.</t>
   </si>
 </sst>
 </file>
@@ -157,8 +971,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -629,13 +1446,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="114.88671875" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -648,18 +1471,1900 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>235</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>249</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>251</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>260</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>80</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>272</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>276</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>278</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>281</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>285</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>288</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>290</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>294</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>297</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F134" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C11577-6D3F-40A9-A372-20DB9825E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAEDF2B-B5D1-441A-BE66-0BD9AFB191B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1332" windowWidth="19812" windowHeight="11628" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,6 +1834,9 @@
       <c r="A31" t="s">
         <v>80</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" t="s">
         <v>86</v>
       </c>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAEDF2B-B5D1-441A-BE66-0BD9AFB191B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34674602-B821-4E76-B0FB-AFE78883EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,9 +2247,6 @@
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>144</v>
-      </c>
       <c r="D58" t="s">
         <v>145</v>
       </c>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34674602-B821-4E76-B0FB-AFE78883EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA48A8-DC88-4221-ADE6-9D1FAC4CFDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,9 +3327,6 @@
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>80</v>
-      </c>
       <c r="B132">
         <v>3</v>
       </c>
@@ -3352,9 +3349,6 @@
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>80</v>
-      </c>
       <c r="B134">
         <v>3</v>
       </c>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA48A8-DC88-4221-ADE6-9D1FAC4CFDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC348B-A444-42DF-836B-BD9EA0B01118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
     <sheet name="finma_meta" sheetId="2" r:id="rId2"/>
     <sheet name="finma_content" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="574">
   <si>
     <t>type</t>
   </si>
@@ -94,9 +94,6 @@
     <t>publication_date</t>
   </si>
   <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
     <t>framework</t>
   </si>
   <si>
@@ -936,16 +933,861 @@
   </si>
   <si>
     <t>Les exigences de fonds propres pour les risques opérationnels au sens des art. 89 ss OFR s’appuient sur les Cm 3 à 116 de la circulaire FINMA 2008/21 « Risques opérationnels – banques » jusqu’à l’entrée en vigueur de l’OFR révisée dans le cadre du paquet de révisions des normes finales de Bâle III et de l’ordonnance d’exécution FINMA correspondante.</t>
+  </si>
+  <si>
+    <t>name[en]</t>
+  </si>
+  <si>
+    <t>description[en]</t>
+  </si>
+  <si>
+    <t>annotation[en]</t>
+  </si>
+  <si>
+    <t>I. Subject and scope of application</t>
+  </si>
+  <si>
+    <t>This Circular relates to the rules on the segregation of duties, risk management and internal controls contained in the Banking Ordinance (Arts. 12 and 14e BO, SR 952.02) and the Financial Institutions Ordinance (Arts. 12 and 68 FinIO; SR 954.11) and sets out the corresponding supervisory practice. It takes account of the Basel Committee’s principles for the sound management of operational risk1 and operational resilience2.</t>
+  </si>
+  <si>
+    <t>[1] BCBS Revisions to the Principles for the Sound Management of Operational Risk (31 March 2021).
+[2] BCBS Principles for Operational Resilience (31 March 2021).</t>
+  </si>
+  <si>
+    <t>This Circular applies to banks under Article 1a and persons under Article 1b of the Banking Act (BA; SR 952.0), securities dealers under Article 2 para. 1 let. e and Article 41 of the Financial Institutions Act (FinIA; SR 954.1), and financial groups and financial conglomerates under Article 3c BA and Article 49 FinIA. In the following, banks, persons under Article 1b BA, securities firms, financial groups and financial conglomerates are referred to collectively as “institutions”.</t>
+  </si>
+  <si>
+    <t>II. Definition of terms</t>
+  </si>
+  <si>
+    <t>Operational risk is defined in Article 89 CAO. It refers to the risk of financial loss resulting from inadequate or failed internal processes or systems, inappropriate actions taken by people or mistakes made by them, or from external events. This includes the financial losses that can result from legal or compliance risks. Operational risk management typically also takes other types of damage into account3, provided that these can ultimately also result in financial loss. It does not include strategic risk.</t>
+  </si>
+  <si>
+    <t>[3] For example, negative impact on reputation, possible loss of confidence and loss of clients, negative impact on the market, negative regulatory impact (e.g. possible loss of licence).</t>
+  </si>
+  <si>
+    <t>Inherent risks are operational risks that the institution is exposed to through its products, activities, processes and systems, without taking control or mitigation measures into account.</t>
+  </si>
+  <si>
+    <t>Residual risks are operational risks that the institution is exposed to after taking control and mitigation measures into account.</t>
+  </si>
+  <si>
+    <t>Information and communication technology (ICT) refers to the physical and logical (electronic) architecture of IT and communication systems, the individual hardware and software assets, networks, data and operating environments.</t>
+  </si>
+  <si>
+    <t>Critical data are data that, in view of the institution’s size, complexity, structure, risk profile and business model, are of such crucial significance that they require increased security measures. These are data that are crucial for the successful and sustainable provision of the institution’s services or for regulatory purposes. When assessing and determining the criticality of data, the confidentiality as well as the integrity and availability must be taken into account. Each of these three aspects can determine whether data is classified as critical.</t>
+  </si>
+  <si>
+    <t>Critical processes are processes whose significant disruption endanger the provision of critical functions. They are part of the critical functions.</t>
+  </si>
+  <si>
+    <t>Business continuity management (BCM) refers to the institution-wide approach for recovering the operation of critical processes in the event of a significant disruption going beyond incident management. It defines the response to significant disruptions. Effective BCM reduces the residual risks in connection with significant disruptions.</t>
+  </si>
+  <si>
+    <t>The recovery time objective (RTO) is the time within which an application, system and/or process must be recovered. The recovery point objective (RPO) is the maximum tolerable period during which data is lost.</t>
+  </si>
+  <si>
+    <t>The business continuity plan (BCP) is a forward-looking plan that sets out the necessary procedures, recovery options and alternative resources (the recovery processes) for ensuring continuity and recovering critical processes.</t>
+  </si>
+  <si>
+    <t>The disaster recovery plan (DRP) defines the recovery processes for achieving the recovery goals in the event of a catastrophic failure or destruction of the ICT and taking into account the possible loss of key personnel.</t>
+  </si>
+  <si>
+    <t>Crisis situations are exceptional situations that potentially threaten the institution’s existence, and that cannot be managed with ordinary measures and decision-making authority. They differ from incidents and significant disruptions that can be overcome with incident management in normal operation or with the defined BCPs and DRPs.</t>
+  </si>
+  <si>
+    <t>Critical functions include:</t>
+  </si>
+  <si>
+    <t>a. the activities, processes and services – including the underlying resources necessary for their provision – whose disruption would jeopardise the institution’s continuation or its role on the financial market and thus the proper functioning of the financial markets; and</t>
+  </si>
+  <si>
+    <t>b. the systemically important functions under Article 8 BA.</t>
+  </si>
+  <si>
+    <t>The tolerance for disruption is the extent (e.g. the duration or expected damage) of the disruption of a critical function that the institution is willing to accept, taking severe but plausible scenarios into account. A tolerance for disruption must be defined for each critical function.</t>
+  </si>
+  <si>
+    <t>Operational resilience refers to the institution’s ability to restore its critical functions in case of a disruption within the tolerance for disruption. That is to say, the institution’s ability to identify threats and possible failures, to protect itself from them and to respond to them, to restore normal business operations in the event of disruptions and to learn from them, so as to minimise the impact of disruptions on the provision of critical functions. An operationally resilient institution has designed its operating model in such a way4 that it is less exposed to the risk of disruptions in relation to its critical functions. Operational resilience thus reduces not only the residual risks of disruptions, but also the inherent risk of disruptions occurring. Effective operational risk management helps strengthen the institution’s operational resilience.</t>
+  </si>
+  <si>
+    <t>[4] Often also called resilience by design.</t>
+  </si>
+  <si>
+    <t>III. Principle of proportionality</t>
+  </si>
+  <si>
+    <t>This Circular applies to all addressees. However, the requirements are to be implemented on a case-by-case basis, depending on the size, complexity, structure and risk profile of each institution. FINMA can relax or tighten the rules in individual cases.</t>
+  </si>
+  <si>
+    <t>Banks and securities firms in FINMA Categories 4 and 5 are exempt from complying with margin nos. 33–38, 41–46, 48, 51, 57, 73, 74, 76–78, 80, 87, 92, 93, 96, 103, 104 and 110–112.</t>
+  </si>
+  <si>
+    <t>Institutions under Articles 47a–47e CAO, persons under Article 1b BA, and investment firms (non-proprietarian trading) are also exempt from complying with margin nos. 72, 75, 79 and 105–109.</t>
+  </si>
+  <si>
+    <t>IV. Operational risk management</t>
+  </si>
+  <si>
+    <t>A. Overarching operational risk management</t>
+  </si>
+  <si>
+    <t>Operational risk management forms part of institution-wide risk management under FINMA Circular 2017/1 “Corporate governance – banks”.</t>
+  </si>
+  <si>
+    <t>The board of directors approves the basic principles for the management of operational risks relevant for the institution and monitors their application. Among others, these include the ICT risks, the cyber risks, the risks relating to critical data, the risks resulting from the design and implementation of BCM and, where applicable, the risks from crossborder service business. At least once a year, the board of directors approves the risk tolerance for operational risk in accordance with the risk policy, taking the institution’s strategic and financial goals into account. In doing so it considers the results from the risk and control assessments under margin no. 30. It accepts either the extent to which the institution is exposed to operational risk, or decides to adjust the risk tolerance and make the strategic changes necessary for this5.</t>
+  </si>
+  <si>
+    <t>[5] For example, a change to the business model.</t>
+  </si>
+  <si>
+    <t>The board of directors regularly approves strategies for dealing with ICT, cyber risks, critical data and BCM, and monitors their application.</t>
+  </si>
+  <si>
+    <t>The executive board ensures in a comprehensible way that the operational risks are identified, assessed, limited and monitored, and that the effectiveness of both the design and also of the implementation of this operational risk management is regularly reviewed. It takes risk-specific supplementary or intensified measures in order to limit the inherent risks deemed to be material6 as the situation demands.</t>
+  </si>
+  <si>
+    <t>[6] Often called top risks or key risks.</t>
+  </si>
+  <si>
+    <t>To raise awareness among employees for reducing relevant operational risks, particularly ICT risks, cyber risks, risks with regard to critical data and the risks resulting from the design and implementation of BCM, measures are to be implemented and carried out taking into account their tasks, competencies and responsibilities7.</t>
+  </si>
+  <si>
+    <t>[7] Among other things, this includes carefully selecting employees, ensuring that they are suitably qualified for their tasks, competencies and responsibilities and providing them with continuing education within the context of their activities.</t>
+  </si>
+  <si>
+    <t>If necessary, FINMA will define more stringent requirements for operational risk management for specific topics as part of ongoing supervision. This will be done cautiously and in accordance with the proportionality principle.</t>
+  </si>
+  <si>
+    <t>The operational risks must be categorised in a uniform manner across the institution and listed in an inventory. The categorisation may be performed based on the categorisation of event types used to calculate the minimum capital requirements for operational risk or based on an internal taxonomy. The categorisation must be applied consistently in all areas of the institution and in all components of operational risk management.</t>
+  </si>
+  <si>
+    <t>Internal8 and external9 factors shall be taken into account for identifying operational risks. The identified operational risks shall be assessed in a comprehensible way both from the perspective of inherent as well as residual risks.</t>
+  </si>
+  <si>
+    <t>[8] Internal factors include, for example, changes to products, activities, processes and systems, review results and internal losses resulting from operational risks.
+[9] External factors include, for example, loss events at other institutions, changes in the security situation (e.g. as a result of environmental influences, cyber attacks or terrorism) or changes to the regulatory requirements.</t>
+  </si>
+  <si>
+    <t>The identification and assessment of operational risks shall be based on at least review results10 and regularly conducted risk and control assessments. The risk and control assessments shall take into account the inherent risks, the effectiveness of the existing control and mitigation measures and the residual risks.</t>
+  </si>
+  <si>
+    <t>[10] Review results encompass here results of internal and external audits, where available, as well as results of reviews performed, for example, by the business and organisational areas, the risk control and compliance functions or supervisory authorities.</t>
+  </si>
+  <si>
+    <t>To assess the existing control and mitigation measures, in particular a regular assessment of the effectiveness of key controls must be performed and documented by an independent control body (design effectiveness and operating effectiveness testing). Key controls are those control and mitigation measures that minimise the inherent risks deemed to be material. The separation of tasks, competencies and responsibilities to ensure independence and prevent conflicts of interests shall also be regularly assessed.</t>
+  </si>
+  <si>
+    <t>Ad hoc risk and control assessments shall be conducted prior to major changes in products, activities, processes and systems. These shall take into account the operational risks associated with the change process and the operational risks of the target state. If necessary, the risk tolerance should be adjusted and control and mitigation measures implemented.</t>
+  </si>
+  <si>
+    <t>Depending on the type, scope, complexity and risk of institution-specific products, activities, processes and systems, the following tools and methods shall be applied:</t>
+  </si>
+  <si>
+    <t>a. Systematic collection and analysis of internal loss data and relevant external events associated with operational risk;</t>
+  </si>
+  <si>
+    <t>b. Risk and control indicators for monitoring operational risk and identifying relevant risk increases in a timely manner;</t>
+  </si>
+  <si>
+    <t>c. Scenario analyses and/or estimates of the loss potential in view of or in comparison with the minimum capital requirements for operational risk;</t>
+  </si>
+  <si>
+    <t>d. Comparative analyses (read-across), for example, analyses of the relevance of review results for other areas of the institution or comparisons between the results of the risk and control assessments for various areas.</t>
+  </si>
+  <si>
+    <t>The risk tolerance for operational risk takes account of both the tolerance in relation to inherent11 as well as residual operational risk and is monitored using risk or control indicators.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11] The risk tolerance in relation to inherent risk takes account of strategic decisions in relation to the business or operating model, for example, tolerance for the inherent risks associated with serving certain client segments or countries, with offering certain products, with using primarily manual processes, with relying on a complex IT infrastructure or with outsourcing certain operations.
+</t>
+  </si>
+  <si>
+    <t>The risk control function reports to the board of directors at least annually and to the executive board at least every six months in accordance with margin nos. 75–76 of FINMA Circ. 17/1 on the operational risks at the top level12 of the categorisation defined in accordance with margin no. 28, on their comparison with the defined risk tolerance, and on details of material internal losses.</t>
+  </si>
+  <si>
+    <t>[12] The top level of the categorisation is often referred to as level 1. The reporting can also take place on a more detailed level.</t>
+  </si>
+  <si>
+    <t>In relation to the relevant ICT and cyber risks, the report for the executive board produced at least annually shall also contain information on the development of these risks, on the effectiveness of the corresponding key controls, and on material internal and external events in connection with these risks.</t>
+  </si>
+  <si>
+    <t>The internal reporting in accordance with margin no. 39 shall contain in addition the following information:</t>
+  </si>
+  <si>
+    <t>• relevant, external factors in accordance with footnote 9,</t>
+  </si>
+  <si>
+    <t>• summary overview of the effectiveness of the key controls in accordance with margin no. 31,</t>
+  </si>
+  <si>
+    <t>• emerging operational risks;</t>
+  </si>
+  <si>
+    <t>• results from the application of additional tools and methods in accordance with margin no. 33.</t>
+  </si>
+  <si>
+    <t>In accordance with the principle of proportionality, for systemically important banks, regular reporting on operational risks shall also be conducted at the level of the business or organisational areas that are exposed to relevant or material operational risks.</t>
+  </si>
+  <si>
+    <t>B. ICT risk management</t>
+  </si>
+  <si>
+    <t>a) ICT strategy and governance</t>
+  </si>
+  <si>
+    <t>The basic expectations for the strategy, governance and raising of awareness in relation to ICT are set out in margin nos. 23–26 and 40.</t>
+  </si>
+  <si>
+    <t>ICT risk management shall take into account relevant internationally recognised standards and practices as well as the influence of new technological developments on the ICT risks.</t>
+  </si>
+  <si>
+    <t>The executive board shall ensure that procedures, processes and controls as well as tasks, competencies and responsibilities are implemented and documented both for change management and for ICT operations (run, maintenance). These shall be adequately resourced with qualified staff.</t>
+  </si>
+  <si>
+    <t>b) Change management</t>
+  </si>
+  <si>
+    <t>Change management shall define the procedures, processes and controls for all phases in the development or procurement of ICT. In each of these phases it shall consider the impact of the change on the ICT risks. It shall focus in particular on the requirements with regard to confidentiality, integrity and availability.</t>
+  </si>
+  <si>
+    <t>It must be ensured that the development or test environments are separate from the ICT production environment. This also involves the clear allocation of tasks, competencies and responsibilities and laying down rules for the associated access rights.</t>
+  </si>
+  <si>
+    <t>When developing and procuring ICT, functional and non-functional requirements13 shall be clearly defined and approved; they shall be tested and validated based on their criticality.</t>
+  </si>
+  <si>
+    <t>[13] E.g. with regard to architecture or information security requirements.</t>
+  </si>
+  <si>
+    <t>c) ICT operations (run, maintenance)</t>
+  </si>
+  <si>
+    <t>The institution shall keep one or more inventories of the ICT assets. The inventory shall include hardware and software assets as well as the storage locations of critical data. Both dependencies within the institution as well as interfaces to significant external service providers should be taken into account.</t>
+  </si>
+  <si>
+    <t>The inventory is available in real time and shall be reviewed and updated regularly with regard to its completeness and accuracy.</t>
+  </si>
+  <si>
+    <t>The institution shall have procedures, processes and controls in place that ensure the confidentiality, integrity and availability of the ICT production environment, taking into account the respective risk tolerance.</t>
+  </si>
+  <si>
+    <t>The institution shall ensure that it can transition smoothly to its BCP and DRP processes in the event of significant disruptions to its ICT operations. It shall implement adequate back-up processes and recovery processes that are tested and validated regularly.</t>
+  </si>
+  <si>
+    <t>The institution shall have procedures, processes and controls in place to ensure that ICT that its nearing the end of its operational life or whose planned decommissioning date has passed is dealt with in a risk-oriented way.</t>
+  </si>
+  <si>
+    <t>d) Incident management</t>
+  </si>
+  <si>
+    <t>The institution shall have procedures, processes and controls in place for dealing with significant ICT incidents, including those resulting from dependencies on external service providers and outsourcing operations within the group. In this regard, the full life-cycle of significant ICT incidents must be taken into account and tasks, competencies and responsibilities for dealing with these incidents must be defined.</t>
+  </si>
+  <si>
+    <t>Dealing with significant ICT incidents must be coordinated and linked with the processes for BCM and the DRP.</t>
+  </si>
+  <si>
+    <t>ICT incidents that are regarded by the institution as a significant disruption in the provision of its critical processes and are of material significance for supervision must be reported to FINMA without delay.</t>
+  </si>
+  <si>
+    <t>C. Cyber risk management</t>
+  </si>
+  <si>
+    <t>The basic expectations for the strategy, governance and raising of awareness in relation to cyber risks are set out in margin nos. 23–26 and 40.</t>
+  </si>
+  <si>
+    <t>The institution shall define clear tasks, competencies and responsibilities. It must cover at least the following aspects in accordance with internationally recognised standards and practices, and ensure their effective implementation through appropriate procedures, processes and controls and continuously develop and improve them:</t>
+  </si>
+  <si>
+    <t>a. Identification of the institution-specific threat landscape from cyber attacks14 and assessment of the possible impacts of exploiting vulnerabilities with regard to the inventoried ICT assets and the electronic critical data (in accordance with margin nos. 53, 54 and 7);</t>
+  </si>
+  <si>
+    <t>[14] Attacks on the confidentiality, integrity and availability of ICT as well as the electronic critical data that take place as a result of external or internal attackers exploiting vulnerabilities or circumventing protective measures.</t>
+  </si>
+  <si>
+    <t>b. Protection of the inventoried ICT assets and the electronic critical data from cyber attacks by implementing appropriate protective measures, particularly with regard to the confidentiality, integrity and availability;</t>
+  </si>
+  <si>
+    <t>c. Timely logging and detection of cyber attacks on the basis of a process for the systematic and consistent monitoring of the inventoried ICT assets and the electronic critical data;</t>
+  </si>
+  <si>
+    <t>d. Response to identified vulnerabilities and cyber attacks by developing and implementing appropriate processes for taking rapid containment and remediation measures; and</t>
+  </si>
+  <si>
+    <t>e. Ensuring the prompt recovery of normal business operations after a cyber attack through appropriate measures.</t>
+  </si>
+  <si>
+    <t>Cyber risk management must ensure that a successful or partially successful cyber attack is analysed based on its materiality for critical inventoried ICT assets or electronic critical data and critical processes (including outsourced services and functions) and that the reporting obligation under the FINMASA is met. After an initial assessment and preliminary notification to the body responsible at FINMA within 24 hours, the report in accordance with the catalogue of requirements on the EHP survey and application platform (mandatory fields) must be submitted to FINMA within 72 hours. Once the institution has finished processing the case, a conclusive root cause analysis corresponding to the degree of severity must be submitted to the body responsible at FINMA.</t>
+  </si>
+  <si>
+    <t>The executive board shall arrange for vulnerability assessments15 and penetration tests16 to be conducted regularly. These must be performed by qualified staff with adequate resources. All inventoried ICT assets that are accessible over the internet must be taken into account. In addition, inventoried ICT assets that are not accessible over the internet, but that are necessary for the provision of critical processes, or that contain electronic critical data, must be included as well.</t>
+  </si>
+  <si>
+    <t>[15] Analysis used to identify existing software vulnerabilities and security gaps in the IT infrastructure towards cyber attacks.
+[16] Targeted audit and exploitation of software vulnerabilities and security gaps in the ICT.</t>
+  </si>
+  <si>
+    <t>Risk-based, threat intelligence-related scenario cyber exercises17 must be conducted on the basis of the institution-specific threat landscape. The result of the exercises must be documented and reported in an appropriate form.</t>
+  </si>
+  <si>
+    <t>[17] Taking into account margin no. 19, such cyber exercises may include, for example, tabletop, red team exercises etc.</t>
+  </si>
+  <si>
+    <t>D. Critical data risk management</t>
+  </si>
+  <si>
+    <t>The basic expectations for the strategy, governance and raising of awareness in relation to the risks of critical data are set out in margin nos. 23–26.</t>
+  </si>
+  <si>
+    <t>The executive board shall define appropriate processes, procedures and controls as well as clear tasks, competencies and responsibilities for dealing with the data identified as critical by the institution. Furthermore, the executive board shall appoint a unit to establish the framework for ensuring the confidentiality, integrity and availability of critical data and to monitor its observance.</t>
+  </si>
+  <si>
+    <t>The institution shall identify its critical data in a systematic and comprehensive way, categorise it on the basis of its criticality and define clear responsibilities.</t>
+  </si>
+  <si>
+    <t>The critical data defined by the institution must be managed throughout its entire lifecycle.</t>
+  </si>
+  <si>
+    <t>In the management of critical data, in particular the confidentiality, integrity and availability of the critical data must be ensured through appropriate processes, procedures and controls.</t>
+  </si>
+  <si>
+    <t>Critical data must be adequately protected from being accessed and used by unauthorised persons during operations and during the development, change and migration of ICT. This also applies to critical data in test environments.</t>
+  </si>
+  <si>
+    <t>The ICT assets that store or process critical data must be afforded particular protection. Access to these data must be regulated systematically and monitored continuously.</t>
+  </si>
+  <si>
+    <t>Access to critical data and processing functionalities shall be restricted to persons who require this to carry out their tasks18. The institution must have an authorisation system in place. Access to this authorisation system must be afforded particular protection and reviewed on a regular basis. The authorisations included in the authorisation system must be reviewed on a regular basis.</t>
+  </si>
+  <si>
+    <t>[18] For example, need-to-know and least privilege principles.</t>
+  </si>
+  <si>
+    <t>If critical data is stored outside of Switzerland19 or if it can be accessed from abroad, increased risks associated with this must be adequately mitigated and monitored via suitable means and the data afforded particular protection.</t>
+  </si>
+  <si>
+    <t>[19] For example, in the context of cloud or hosting solutions.</t>
+  </si>
+  <si>
+    <t>Both internal and external persons who can access critical data or who can change these must be selected carefully. These persons must be monitored with the help of appropriate measures20 and given regular training in the handling of these data. Increased security requirements shall apply to persons with increased privileges21. In addition, a list of all persons with privileged access rights must be kept and updated on a regular basis.</t>
+  </si>
+  <si>
+    <t>[20] For example, analysis of log files, “four eyes principle” etc.
+[21] For example, persons with administrator rights, users with functional access to a large quantity of critical data etc.</t>
+  </si>
+  <si>
+    <t>Incidents that substantially impair the confidentiality, integrity or availability of critical data must be reported to FINMA without delay.</t>
+  </si>
+  <si>
+    <t>When selecting service providers that can process22 or view critical data, due diligence must be particularly thorough. Clear criteria for assessing how service providers handle critical data must be defined and checked before entering into a contractual agreement. The service providers must be monitored and checked periodically as part of the institution’s internal control system.</t>
+  </si>
+  <si>
+    <t>[22] Processing: any handling of critical data, irrespective of the means and procedures used, in particular the collection, saving, storage, use, changing, disclosing, archiving, deletion or destruction of data.</t>
+  </si>
+  <si>
+    <t>The basic expectations for the strategy, governance and raising of awareness in relation to risks resulting from the design and implementation of BCM are set out in margin nos. 23–26.</t>
+  </si>
+  <si>
+    <t>Every relevant business and organisational area must identify its critical processes and the resources required for these23 in a business impact analysis (BIA).</t>
+  </si>
+  <si>
+    <t>[23] Staff, facilities (e.g. building, workplace infrastructure), information, IT systems or IT infrastructure (including communication systems), dependencies on other areas of the institution and on third parties, e.g. external service providers and suppliers (outsourcing), central banks or clearing houses.</t>
+  </si>
+  <si>
+    <t>The institution shall define the RTO and RPO for the critical processes in accordance with margin no. 10. These shall be coordinated with the necessary service providers24 and adherence to the RTO and RPO shall be regulated by service level agreements or contracts or by other appropriate procedures, processes and controls.</t>
+  </si>
+  <si>
+    <t>[24] For example, with the IT department, other units of the institution or external parties.</t>
+  </si>
+  <si>
+    <t>The institution shall define at least one BCP in accordance with margin no. 11 that also describes the conditions triggering the plan and the decision-making processes, and takes into account the loss of resources in accordance with margin no. 84. The acceptance of residual risks must be adequately documented.</t>
+  </si>
+  <si>
+    <t>The BIA and BCP shall be prepared and documented in a consistent manner following institution-wide guidelines. They must be reviewed and updated annually and on an ad hoc basis in the event of significant changes to the business operations (reorganisations, development of a new business segment etc.).</t>
+  </si>
+  <si>
+    <t>The institution shall define at least one DRP as part of the BCP. If critical processes or parts thereof are outsourced, the DRP shall take into account the external dependencies and contractual provisions as well as alternative solutions. The DRP must be reviewed and updated on an ad hoc basis in the event of significant changes and at least annually.</t>
+  </si>
+  <si>
+    <t>In crisis situations, a crisis unit shall take on the task of crisis management until order is restored. The conditions triggering a crisis and the tasks, competencies and responsibilities of the crisis unit must be regulated in advance and the crisis organisation aligned to the business activities and geographical structure of the institution. The availability of responsible persons in crisis situations must be ensured.</t>
+  </si>
+  <si>
+    <t>The institution shall define a communication strategy for internal and external communication in crisis situations.</t>
+  </si>
+  <si>
+    <t>The implementation of the BCP and DRP as well as the functioning of the crisis organisation must be regularly evaluated through tests. Systematic plans shall be drawn up for this, which ensure regular coverage. Various means of testing of varying intensity and effectiveness can be selected including, for example, tabletop exercises.</t>
+  </si>
+  <si>
+    <t>The most important measures according to the BCP and DRP and the crisis organisation must be tested at least once a year.</t>
+  </si>
+  <si>
+    <t>Relevant stakeholder groups, including those in specialist and IT functions, shall take part in the tests in order to familiarise themselves with the recovery processes.</t>
+  </si>
+  <si>
+    <t>The tests shall encompass various severe but plausible scenarios and take into account recovery dependencies, including those that exist with internal or external third parties.</t>
+  </si>
+  <si>
+    <t>Regular reporting to the board of directors and the executive board shall include information about the testing and review activities carried out and their results. It shall clearly show prioritisations made (e.g. prioritisation of the critical processes necessary for the provision of the critical functions in accordance with margin no. 14) and recognised gaps in the coverage of other critical processes.</t>
+  </si>
+  <si>
+    <t>The employees and members of the crisis organisation shall be adequately trained in their tasks, competencies and responsibilities resulting from the various BCM activities, both when new employees join the institution and as part of regular training.</t>
+  </si>
+  <si>
+    <t>F. Management of risks from cross-border service business</t>
+  </si>
+  <si>
+    <t>If institutions or their group companies provide services or distribute financial products cross-border, then the risks resulting from the application of foreign legislation (tax, criminal, anti-money laundering legislation etc.) must also be adequately identified, limited and controlled.</t>
+  </si>
+  <si>
+    <t>The institutions shall conduct a thorough analysis of their cross-border service business and cross-border distribution of financial products, examining the legal framework and associated risks. Based on this analysis, the institutions shall take the necessary strategic and organisational measures to eliminate and minimise risk, and continuously adapt these to changing conditions. In particular, they shall have the necessary country-specific specialist knowledge, define specific service models for the countries served, train employees and ensure compliance with the guidelines through appropriate organisational measures, directives, remuneration and sanctions models.</t>
+  </si>
+  <si>
+    <t>The risks generated by external asset managers, intermediaries and other service providers must also be taken into account. Accordingly, a diligent approach must be adopted in selecting and instructing these partners.</t>
+  </si>
+  <si>
+    <t>This basic approach also covers situations where a foreign-based subsidiary, branch or similar serves clients of a Swiss financial institution cross-border.</t>
+  </si>
+  <si>
+    <t>V. Ensuring operational resilience</t>
+  </si>
+  <si>
+    <t>The institution shall identify its critical functions and their tolerances for disruption. These must be approved by the board of directors. The board of directors must also regularly approve and monitor the approach for ensuring operational resilience.</t>
+  </si>
+  <si>
+    <t>The institution shall take measures to ensure operational resilience, taking into account severe but plausible scenarios25.</t>
+  </si>
+  <si>
+    <t>[25] It cannot be ruled out that some scenarios cannot be managed without state involvement (e.g. pandemics, wars, long-term power shortages). For such scenarios, preliminary work must be carried out by the institution for the purpose of strengthening its operational resilience to these scenarios in so far as its means allow.</t>
+  </si>
+  <si>
+    <t>The critical functions and the associated tolerances for disruption according to margin no. 14 must be approved at least annually by the board of directors.</t>
+  </si>
+  <si>
+    <t>The institution shall coordinate the relevant components of a comprehensive risk management framework, such as operational risk management, including ICT and cyber risk management, business continuity management, outsourcing management (cf. FINMA Circular 2018/3 “Outsourcing”), and emergency planning (Chapter VI.) such that these contribute to strengthening the institution’s operational resilience. This includes an appropriate exchange of relevant information between these various areas.</t>
+  </si>
+  <si>
+    <t>Reporting to the board of directors and the executive board must take place annually and in the event of significant control weaknesses or incidents that jeopardise operational resilience.</t>
+  </si>
+  <si>
+    <t>Internal and external threats and the corresponding exploitation of vulnerabilities shall be identified and assessed for the critical functions. The resulting operational risks shall be identified, assessed, limited and monitored as part of operational risk management.</t>
+  </si>
+  <si>
+    <t>The institution shall keep an inventory of its critical functions, which is reviewed and updated at least annually. This inventory shall contain the tolerances for disruption of the critical functions, as well as connections and dependencies between the necessary critical processes and their resources26 for providing the critical functions.</t>
+  </si>
+  <si>
+    <t>[26] Including the ICT assets of the inventory in accordance with margin no. 53 relevant to the critical functions.</t>
+  </si>
+  <si>
+    <t>As a minimum, the significant operational risks and the key controls must be documented for the critical functions.</t>
+  </si>
+  <si>
+    <t>The critical functions and the critical processes and resources required for these shall be covered by BCPs pursuant to Chapter IV./E.</t>
+  </si>
+  <si>
+    <t>The ability to provide critical functions within their tolerance for disruption in severe but plausible scenarios shall be tested or exercised regularly. These also include scenarios that differ from shorter and more limited interruptions and that are characterised by a longer duration (e.g. over several months) and a lack of basic resources27. The tests or exercises must be designed in such a way that they do not fundamentally endanger the institution.</t>
+  </si>
+  <si>
+    <t>[27] Examples include a pandemic, a power shortage, a prolonged downtime resulting from the insolvency of a key service provider (as an example of a stressed exit by a service provider) or a long-term prohibition of foreign governments, according to which foreign-based cloud providers or other service providers are no longer permitted to serve Swiss firms.</t>
+  </si>
+  <si>
+    <t>For systemically important banks, the BCP, DRP and the crisis organisation in accordance with Chapter IV./E. that are relevant for the continuation of the critical functions in accordance with margin no. 14 must be coordinated with the emergency planning in accordance with Chapter VI.</t>
+  </si>
+  <si>
+    <t>VI. Continuation of critical services during the resolution and recovery of systemically important banks</t>
+  </si>
+  <si>
+    <t>As part of their emergency planning, systemically important banks shall take the necessary measures for the uninterrupted continuation of systemically important functions (Art. 9 para. 2 let. d BA in conjunction with Art. 60 ff. BO). They shall identify the services necessary to continue the systemically important functions in the event of resolution, recovery or restructuring (“critical services”) and take the measures necessary for their continuation. In doing so they shall take into account the requirements issued by international standard setters in this context.</t>
+  </si>
+  <si>
+    <t>VII. Transitional provisions</t>
+  </si>
+  <si>
+    <t>A. Concerning ensuring operational resilience</t>
+  </si>
+  <si>
+    <t>The identification of critical functions, the definition of tolerances for disruption and initial approvals in accordance with margin nos. 101 and 103, as well as initial reporting in accordance with margin no. 105, will be expected following the Circular’s entry into force. A transitional period of one year from the entry into force shall apply for fulfilling the requirements in accordance with margin nos. 106–109 and the first tests in accordance with margin no. 110. It is expected that operational resilience will be ensured in accordance with margin no. 102 and the requirements met in accordance with margin nos. 104 and 111 within a transitional period of two years.</t>
+  </si>
+  <si>
+    <t>B. Concerning the capital requirements for operational risk</t>
+  </si>
+  <si>
+    <t>The capital requirements for operational risk in accordance with Article 89 ff. CAO shall be based on margin nos. 3–116 of FINMA Circular 2008/21 “Operational risk – banks” until the entry into force of the CAO revised as part of the final Basel III revision package and the implementing FINMA ordinance.</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>FINMA - Circular 2023/01 - Operational risks and resilience - Banks</t>
+  </si>
+  <si>
+    <t>Managing operational risks and ensuring operational resilience
+Reference: FINMA Circ. 23/1 “Operational risks and resilience – banks”
+Date: 7 December 2022
+Entry into force: 1 January 2024
+Concordance: former FINMA Circ. 08/21 “Operational risk – banks”, dated 20 November 2008
+Legal framework: FINMASA Articles 7 para. 1 let. b and 29 para. 1
+                                 BA Article 1b para. 3 let. b, Articles 3 para. 2 let. a and 3f
+                                 BO Articles 12 and 14e
+                                 FinIA Articles 9 and 49
+                                 FinIO Articles 12 and 68</t>
+  </si>
+  <si>
+    <t>Margin no. 1</t>
+  </si>
+  <si>
+    <t>Margin no. 2</t>
+  </si>
+  <si>
+    <t>Margin no. 3</t>
+  </si>
+  <si>
+    <t>Margin no. 4</t>
+  </si>
+  <si>
+    <t>Margin no. 5</t>
+  </si>
+  <si>
+    <t>Margin no. 6</t>
+  </si>
+  <si>
+    <t>Margin no. 7</t>
+  </si>
+  <si>
+    <t>Margin no. 8</t>
+  </si>
+  <si>
+    <t>Margin no. 9</t>
+  </si>
+  <si>
+    <t>Margin no. 10</t>
+  </si>
+  <si>
+    <t>Margin no. 11</t>
+  </si>
+  <si>
+    <t>Margin no. 12</t>
+  </si>
+  <si>
+    <t>Margin no. 13</t>
+  </si>
+  <si>
+    <t>Margin no. 14</t>
+  </si>
+  <si>
+    <t>Margin no. 15</t>
+  </si>
+  <si>
+    <t>Margin no. 16</t>
+  </si>
+  <si>
+    <t>Margin no. 17</t>
+  </si>
+  <si>
+    <t>Margin no. 18</t>
+  </si>
+  <si>
+    <t>Margin no. 19</t>
+  </si>
+  <si>
+    <t>Margin no. 20</t>
+  </si>
+  <si>
+    <t>Margin no. 21</t>
+  </si>
+  <si>
+    <t>Margin no. 22</t>
+  </si>
+  <si>
+    <t>Margin no. 23</t>
+  </si>
+  <si>
+    <t>Margin no. 24</t>
+  </si>
+  <si>
+    <t>Margin no. 25</t>
+  </si>
+  <si>
+    <t>Margin no. 26</t>
+  </si>
+  <si>
+    <t>Margin no. 27</t>
+  </si>
+  <si>
+    <t>Margin no. 28</t>
+  </si>
+  <si>
+    <t>Margin no. 29</t>
+  </si>
+  <si>
+    <t>Margin no. 30</t>
+  </si>
+  <si>
+    <t>Margin no. 31</t>
+  </si>
+  <si>
+    <t>Margin no. 32</t>
+  </si>
+  <si>
+    <t>Margin no. 33</t>
+  </si>
+  <si>
+    <t>Margin no. 34</t>
+  </si>
+  <si>
+    <t>Margin no. 35</t>
+  </si>
+  <si>
+    <t>Margin no. 36</t>
+  </si>
+  <si>
+    <t>Margin no. 37</t>
+  </si>
+  <si>
+    <t>Margin no. 38</t>
+  </si>
+  <si>
+    <t>Margin no. 39</t>
+  </si>
+  <si>
+    <t>Margin no. 40</t>
+  </si>
+  <si>
+    <t>Margin no. 41</t>
+  </si>
+  <si>
+    <t>Margin no. 42</t>
+  </si>
+  <si>
+    <t>Margin no. 43</t>
+  </si>
+  <si>
+    <t>Margin no. 44</t>
+  </si>
+  <si>
+    <t>Margin no. 45</t>
+  </si>
+  <si>
+    <t>Margin no. 46</t>
+  </si>
+  <si>
+    <t>Margin no. 47</t>
+  </si>
+  <si>
+    <t>Margin no. 48</t>
+  </si>
+  <si>
+    <t>Margin no. 49</t>
+  </si>
+  <si>
+    <t>Margin no. 50</t>
+  </si>
+  <si>
+    <t>Margin no. 51</t>
+  </si>
+  <si>
+    <t>Margin no. 52</t>
+  </si>
+  <si>
+    <t>Margin no. 53</t>
+  </si>
+  <si>
+    <t>Margin no. 54</t>
+  </si>
+  <si>
+    <t>Margin no. 55</t>
+  </si>
+  <si>
+    <t>Margin no. 56</t>
+  </si>
+  <si>
+    <t>Margin no. 57</t>
+  </si>
+  <si>
+    <t>Margin no. 58</t>
+  </si>
+  <si>
+    <t>Margin no. 59</t>
+  </si>
+  <si>
+    <t>Margin no. 60</t>
+  </si>
+  <si>
+    <t>Margin no. 61</t>
+  </si>
+  <si>
+    <t>Margin no. 62</t>
+  </si>
+  <si>
+    <t>Margin no. 63</t>
+  </si>
+  <si>
+    <t>Margin no. 64</t>
+  </si>
+  <si>
+    <t>Margin no. 65</t>
+  </si>
+  <si>
+    <t>Margin no. 66</t>
+  </si>
+  <si>
+    <t>Margin no. 67</t>
+  </si>
+  <si>
+    <t>Margin no. 68</t>
+  </si>
+  <si>
+    <t>Margin no. 69</t>
+  </si>
+  <si>
+    <t>Margin no. 70</t>
+  </si>
+  <si>
+    <t>Margin no. 71</t>
+  </si>
+  <si>
+    <t>Margin no. 72</t>
+  </si>
+  <si>
+    <t>Margin no. 73</t>
+  </si>
+  <si>
+    <t>Margin no. 74</t>
+  </si>
+  <si>
+    <t>Margin no. 75</t>
+  </si>
+  <si>
+    <t>Margin no. 76</t>
+  </si>
+  <si>
+    <t>Margin no. 77</t>
+  </si>
+  <si>
+    <t>Margin no. 78</t>
+  </si>
+  <si>
+    <t>Margin no. 79</t>
+  </si>
+  <si>
+    <t>Margin no. 80</t>
+  </si>
+  <si>
+    <t>Margin no. 81</t>
+  </si>
+  <si>
+    <t>Margin no. 82</t>
+  </si>
+  <si>
+    <t>Margin no. 83</t>
+  </si>
+  <si>
+    <t>Margin no. 84</t>
+  </si>
+  <si>
+    <t>Margin no. 85</t>
+  </si>
+  <si>
+    <t>Margin no. 86</t>
+  </si>
+  <si>
+    <t>Margin no. 87</t>
+  </si>
+  <si>
+    <t>Margin no. 88</t>
+  </si>
+  <si>
+    <t>Margin no. 89</t>
+  </si>
+  <si>
+    <t>Margin no. 90</t>
+  </si>
+  <si>
+    <t>Margin no. 91</t>
+  </si>
+  <si>
+    <t>Margin no. 92</t>
+  </si>
+  <si>
+    <t>Margin no. 93</t>
+  </si>
+  <si>
+    <t>Margin no. 94</t>
+  </si>
+  <si>
+    <t>Margin no. 95</t>
+  </si>
+  <si>
+    <t>Margin no. 96</t>
+  </si>
+  <si>
+    <t>Margin no. 97</t>
+  </si>
+  <si>
+    <t>Margin no. 98</t>
+  </si>
+  <si>
+    <t>Margin no. 99</t>
+  </si>
+  <si>
+    <t>Margin no. 100</t>
+  </si>
+  <si>
+    <t>Margin no. 101</t>
+  </si>
+  <si>
+    <t>Margin no. 102</t>
+  </si>
+  <si>
+    <t>Margin no. 103</t>
+  </si>
+  <si>
+    <t>Margin no. 104</t>
+  </si>
+  <si>
+    <t>Margin no. 105</t>
+  </si>
+  <si>
+    <t>Margin no. 106</t>
+  </si>
+  <si>
+    <t>Margin no. 107</t>
+  </si>
+  <si>
+    <t>Margin no. 108</t>
+  </si>
+  <si>
+    <t>Margin no. 109</t>
+  </si>
+  <si>
+    <t>Margin no. 110</t>
+  </si>
+  <si>
+    <t>Margin no. 111</t>
+  </si>
+  <si>
+    <t>Margin no. 112</t>
+  </si>
+  <si>
+    <t>Margin no. 113</t>
+  </si>
+  <si>
+    <t>Margin no. 114</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,11 +1813,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,16 +2123,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="95.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +2151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +2183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1343,36 +2191,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="B13" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -1382,40 +2247,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1431,13 +2298,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1446,24 +2330,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="114.88671875" customWidth="1"/>
     <col min="6" max="6" width="75.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="142" style="1" customWidth="1"/>
+    <col min="9" max="9" width="78.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1475,1892 +2363,2713 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>466</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>473</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>474</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>475</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>477</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>478</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>480</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
         <v>80</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>482</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>484</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>485</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" t="s">
+        <v>487</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>488</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" t="s">
+        <v>490</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" t="s">
+        <v>491</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" t="s">
+        <v>492</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" t="s">
+        <v>495</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" t="s">
+        <v>496</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" t="s">
+        <v>497</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" t="s">
+        <v>498</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" t="s">
+        <v>499</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" t="s">
+        <v>500</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" t="s">
+        <v>501</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" t="s">
+        <v>502</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="E50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" t="s">
+        <v>503</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" t="s">
+        <v>504</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>505</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>506</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>507</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>508</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
-        <v>144</v>
+      <c r="D59" t="s">
+        <v>143</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>509</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>510</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" t="s">
+        <v>511</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>514</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>515</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
         <v>162</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>163</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>517</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>518</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>519</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" t="s">
+        <v>520</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="E74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1"/>
+      <c r="G74" t="s">
+        <v>521</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E75" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" t="s">
+        <v>522</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1"/>
+      <c r="G76" t="s">
+        <v>523</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
         <v>179</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" t="s">
+        <v>524</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
         <v>181</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" t="s">
+        <v>525</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="E79" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1"/>
+      <c r="G79" t="s">
+        <v>526</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
         <v>185</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="E80" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" t="s">
+        <v>527</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="E81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" t="s">
+        <v>528</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="E82" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>529</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>195</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" t="s">
+        <v>530</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
         <v>197</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E85" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1"/>
+      <c r="G85" t="s">
+        <v>531</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
         <v>199</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="E86" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1"/>
+      <c r="G86" t="s">
+        <v>532</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
         <v>201</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="E87" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1"/>
+      <c r="G87" t="s">
+        <v>533</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
         <v>203</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="E88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1"/>
+      <c r="G88" t="s">
+        <v>534</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
         <v>205</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="E89" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1"/>
+      <c r="G89" t="s">
+        <v>535</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="E90" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1"/>
+      <c r="G90" t="s">
+        <v>536</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
         <v>209</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="E91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" t="s">
+        <v>537</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>80</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E92" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" t="s">
+        <v>538</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E93" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" t="s">
+        <v>539</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="E94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1"/>
+      <c r="G94" t="s">
+        <v>540</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
         <v>220</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="E95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>541</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1"/>
+      <c r="G97" t="s">
+        <v>542</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
         <v>226</v>
       </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="E98" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" t="s">
+        <v>543</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="E99" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="E100" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1"/>
+      <c r="G100" t="s">
+        <v>545</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
         <v>234</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>80</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="E101" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1"/>
+      <c r="G101" t="s">
+        <v>546</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
         <v>236</v>
       </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="E102" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1"/>
+      <c r="G102" t="s">
+        <v>547</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
         <v>238</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="E103" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1"/>
+      <c r="G103" t="s">
+        <v>548</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
         <v>240</v>
       </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="E104" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1"/>
+      <c r="G104" t="s">
+        <v>549</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
         <v>242</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="E105" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1"/>
+      <c r="G105" t="s">
+        <v>550</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
         <v>244</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="E106" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1"/>
+      <c r="G106" t="s">
+        <v>551</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
         <v>246</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="E107" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1"/>
+      <c r="G107" t="s">
+        <v>552</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
         <v>248</v>
       </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="E108" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1"/>
+      <c r="G108" t="s">
+        <v>553</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
         <v>250</v>
       </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>80</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="E109" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1"/>
+      <c r="G109" t="s">
+        <v>554</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
         <v>252</v>
       </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>80</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="E110" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>555</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1"/>
+      <c r="G112" t="s">
+        <v>556</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
         <v>257</v>
       </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E113" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1"/>
+      <c r="G113" t="s">
+        <v>557</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
         <v>259</v>
       </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="E114" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" s="1"/>
+      <c r="G114" t="s">
+        <v>558</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
         <v>261</v>
       </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>80</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="E115" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>559</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>560</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>561</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>562</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>563</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>564</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>565</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>277</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>566</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>567</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>282</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>568</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>569</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>570</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>571</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>3</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="F134" s="1"/>
+      <c r="G134" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC348B-A444-42DF-836B-BD9EA0B01118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F2018-1982-4005-9FEA-F8BEB3233BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="848">
   <si>
     <t>type</t>
   </si>
@@ -1772,6 +1772,841 @@
   </si>
   <si>
     <t>Margin no. 114</t>
+  </si>
+  <si>
+    <t>name[it]</t>
+  </si>
+  <si>
+    <t>description[it]</t>
+  </si>
+  <si>
+    <t>annotation[it]</t>
+  </si>
+  <si>
+    <t>I. Oggetto e campo di applicazione</t>
+  </si>
+  <si>
+    <t>nm. 1</t>
+  </si>
+  <si>
+    <t>La presente circolare si riferisce alle prescrizioni dell’Ordinanza sulle banche (artt. 12 e 14e OBCR; RS 952.02) e dell’Ordinanza sugli istituti finanziari (artt. 12 e 68 OIsFi; RS 954.11) concernenti la separazione delle funzioni, la gestione dei rischi e il controllo interno e concretizza la prassi di vigilanza in materia. Tiene conto dei Principi del Comitato di Basilea sulla sana gestione dei rischi operativi1 e sulla resilienza operativa2.</t>
+  </si>
+  <si>
+    <t>[1] BCBS Revisions to the Principles for the Sound Management of Operational Risk (31 marzo 2021).
+[2] BCBS Principles for Operational Resilience (31 marzo 2021).</t>
+  </si>
+  <si>
+    <t>nm. 2</t>
+  </si>
+  <si>
+    <t>La circolare è destinata alle banche secondo l’art. 1a e alle persone secondo l’art. 1b della Legge sulle banche (LBCR; RS 952.0), alle società di intermediazione mobiliare secondo l’art. 2 cpv. 1 lett. e e l’art. 41 della Legge sugli istituti finanziari (LIsFI; RS 954.1) nonché ai gruppi finanziari e ai conglomerati finanziari secondo l’art. 3c LBCR e l’art. 49 LIsFi. Di seguito le banche, le persone secondo l’art. 1b LBCR, le società di intermediazione mobiliare, i gruppi finanziari e i conglomerati finanziari vengono denominati congiuntamente «istituti».</t>
+  </si>
+  <si>
+    <t>II. Definizioni</t>
+  </si>
+  <si>
+    <t>nm. 3</t>
+  </si>
+  <si>
+    <t>I rischi operativi sono definiti nell’art. 89 dell’Ordinanza sui fondi propri (OFoP; RS 952.03). Consistono nel pericolo di incorrere in perdite finanziarie dovute all’inadeguatezza o all’inefficacia delle procedure o dei sistemi interni, all’inadeguatezza delle azioni delle persone o a errori da esse commessi oppure causate da eventi esterni. Essi comprendono le perdite finanziarie che possono insorgere da rischi legali o di compliance. La gestione dei rischi operativi tiene tipicamente conto anche di altre dimensioni del danno3, nella misura in cui esse possano causare tra l’altro perdite finanziarie. Sono esclusi i rischi strategici.</t>
+  </si>
+  <si>
+    <t>[3] Per esempio effetti negativi sulla reputazione, possibile perdita di fiducia e di clienti, effetti negativi sul mercato, effetti regolatori negativi (p. es. possibile perdita della licenza).</t>
+  </si>
+  <si>
+    <t>nm. 4</t>
+  </si>
+  <si>
+    <t>I rischi inerenti sono rischi operativi a cui l’istituto è esposto a causa dei suoi prodotti, processi e sistemi e delle sue attività senza considerare le misure di controllo e di attenuazione.</t>
+  </si>
+  <si>
+    <t>nm. 5</t>
+  </si>
+  <si>
+    <t>I rischi residui sono rischi operativi a cui l’istituto è esposto dopo aver considerato le misure di controllo e di attenuazione.</t>
+  </si>
+  <si>
+    <t>nm. 6</t>
+  </si>
+  <si>
+    <t>Le tecnologie dell'informazione e della comunicazione (TIC) designano la struttura fisica e logica (elettronica) dei sistemi informatici e di comunicazione, le singoli componenti hardware e software, le reti, i dati e gli ambienti operativi.</t>
+  </si>
+  <si>
+    <t>nm. 7</t>
+  </si>
+  <si>
+    <t>I dati critici sono dati che, in considerazione delle dimensioni, della complessità, della struttura, del profilo di rischio e del modello commerciale dell’istituto sono importanti a tal punto da richiedere uno standard più elevato di sicurezza. Si tratta di dati essenziali ai fini dell’erogazione efficace e continuativa dei servizi dell’istituto o per scopi regolatori. Per valutare e determinare la criticità dei dati è necessario considerarne sia la confidenzialità sia l’integrità e la disponibilità. Ognuno di questi tre aspetti può essere determinante per classificare i dati come critici.</t>
+  </si>
+  <si>
+    <t>nm. 8</t>
+  </si>
+  <si>
+    <t>I processi critici sono processi la cui perturbazione importante o interruzione compromette lo svolgimento delle funzioni critiche, di cui sono parte.</t>
+  </si>
+  <si>
+    <t>nm. 9</t>
+  </si>
+  <si>
+    <t>Il business continuity management (BCM) designa l’approccio adottato a livello di istituto per ripristinare i processi critici in caso di perturbazione o interruzione importante che vada al di là della gestione degli incidenti. Definisce dunque la reazione a perturbazioni importanti o interruzioni. Un BCM efficace riduce i rischi residui correlati a perturbazioni importanti o interruzioni.</t>
+  </si>
+  <si>
+    <t>nm. 10</t>
+  </si>
+  <si>
+    <t>Il recovery time objective (RTO) è il tempo necessario per ripristinare un’applicazione, un sistema e/o un processo. Il recovery point objective (RPO) è la durata massima tollerabile di una perdita di dati.</t>
+  </si>
+  <si>
+    <t>nm. 11</t>
+  </si>
+  <si>
+    <t>Il business continuity plan (BCP) è un piano previdente che definisce le procedure, le opzioni di ripristino e le risorse sostitutive necessarie (i processi di ripristino) per garantire la continuità e il ripristino dei processi critici.</t>
+  </si>
+  <si>
+    <t>nm. 12</t>
+  </si>
+  <si>
+    <t>Il disaster recovery plan (DRP) definisce i processi di ripristino necessari per conseguire gli obiettivi di ripristino in caso di un guasto grave o di distruzione delle tecnologie dell’informazione e della comunicazione (TIC) e in considerazione dell’eventuale assenza di persone chiave.</t>
+  </si>
+  <si>
+    <t>nm. 13</t>
+  </si>
+  <si>
+    <t>Le situazioni di crisi sono situazioni straordinarie, che costituiscono una potenziale minaccia per l’esistenza e non possono essere fronteggiate con misure e competenze decisionali ordinarie. Si distinguono dagli incidenti (incidents) e dalle perturbazioni o dalle interruzioni importanti che possono essere fronteggiate con la gestione degli incidenti nell’esercizio normale o con i BCP e i DRP stabiliti.</t>
+  </si>
+  <si>
+    <t>nm. 14</t>
+  </si>
+  <si>
+    <t>Le funzioni critiche comprendono:</t>
+  </si>
+  <si>
+    <t>nm. 15</t>
+  </si>
+  <si>
+    <t>a. le attività, i processi e i servizi, incluse le risorse sottostanti necessarie al loro svolgimento, la cui interruzione pregiudicherebbe il mantenimento dell’attività dell’istituto o il suo ruolo sul mercato finanziario, quindi anche la funzionalità dei mercati finanziari; e</t>
+  </si>
+  <si>
+    <t>nm. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. le funzioni di rilevanza sistemica secondo l’art. 8 LBCR. </t>
+  </si>
+  <si>
+    <t>nm. 17</t>
+  </si>
+  <si>
+    <t>La tolleranza alle interruzioni è la portata (p. es. durata o danni attesi) dell’interruzione di una funzione critica, che l’istituto è disposto ad accettare considerando scenari gravi, ma plausibili. Per ogni funzione critica deve essere definita una tolleranza alle interruzioni.</t>
+  </si>
+  <si>
+    <t>nm. 18</t>
+  </si>
+  <si>
+    <t>La resilienza operativa designa la capacità dell’istituto di ripristinare le sue funzioni critiche in caso di interruzioni entro i limiti di tolleranza alle interruzioni, ossia la capacità dell’istituto di individuare minacce e possibili disfunzioni, proteggersi da esse e reagire, ripristinare l’attività ordinaria in caso di interruzioni e trarne insegnamenti per minimizzare le conseguenze sullo svolgimento delle funzioni critiche. Un istituto operativamente resiliente ha strutturato il suo modello operativo4 in modo tale da essere meno esposto al rischio di interruzioni in riferimento alle sue funzioni critiche. La resilienza operativa riduce quindi non solo i rischi residui delle interruzioni, ma anche il rischio inerente che si verifichino interruzioni. Una gestione efficace dei rischi operativi contribuisce a rafforzare la resilienza operativa dell’istituto.</t>
+  </si>
+  <si>
+    <t>[4] Spesso chiamato anche resilience by design.</t>
+  </si>
+  <si>
+    <t>III. Principio di proporzionalità</t>
+  </si>
+  <si>
+    <t>nm. 19</t>
+  </si>
+  <si>
+    <t>La presente circolare si applica fondamentalmente a tutti i suoi destinatari, tuttavia i requisiti da adempiere nel singolo caso si differenziano in funzione delle dimensioni, della complessità, della struttura e del profilo di rischio dell’istituto. Nel singolo caso, la FINMA può ordinare facilitazioni o inasprimenti.</t>
+  </si>
+  <si>
+    <t>nm. 20</t>
+  </si>
+  <si>
+    <t>Le banche e le società di intermediazione mobiliare delle categorie FINMA 4 e 5 sono esentate dall’adempimento dei numeri marginali 33–38, 41–46, 48, 51, 57, 73, 74, 76–78, 80, 87, 92, 93, 96, 103, 104 e 110–112.</t>
+  </si>
+  <si>
+    <t>nm. 21</t>
+  </si>
+  <si>
+    <t>Gli istituti di cui agli artt. 47a–47e OFoP, le persone secondo l’art. 1b LBCR e le società di intermediazione mobiliare che non tengono conti sono inoltre esentate dall’adempimento dei numeri marginali 72, 75, 79 e 105–109.</t>
+  </si>
+  <si>
+    <t>IV. Gestione dei rischi operativi</t>
+  </si>
+  <si>
+    <t>A. Gestione trasversale dei rischi operativi</t>
+  </si>
+  <si>
+    <t>nm. 22</t>
+  </si>
+  <si>
+    <t>La gestione dei rischi operativi rientra nella gestione del rischio a livello di istituto conformemente alla Circolare FINMA 17/1 «Corporate governance – banche».</t>
+  </si>
+  <si>
+    <t>nm. 23</t>
+  </si>
+  <si>
+    <t>L’organo preposto all’alta direzione approva i principi della gestione dei rischi operativi rilevanti per l’istituto e vigila sulla loro osservanza. Vi rientrano, tra l’altro, i rischi TIC, i cyber-rischi, i rischi concernenti i dati critici, i rischi derivanti dalla configurazione e dell’implementazione del BCM ed eventualmente i rischi afferenti alle prestazioni di servizio transfrontaliere. Almeno una volta all’anno approva la tolleranza al rischio per i rischi operativi conformemente alla politica di rischio in considerazione degli obiettivi strategici e finanziari dell’istituto. Al riguardo considera i risultati delle valutazioni del rischio e dei controlli secondo il nm. 30. Accetta la misura dell’esposizione ai rischi operativi da parte dell’istituto oppure decide un adeguamento della tolleranza al rischio e i necessari cambiamenti a livello strategico5.</t>
+  </si>
+  <si>
+    <t>[5] Per esempio un cambiamento del modello commerciale.</t>
+  </si>
+  <si>
+    <t>nm. 24</t>
+  </si>
+  <si>
+    <t>L’organo preposto all’alta direzione approva periodicamente le strategie di gestione delle TIC, dei cyber-rischi, dei dati critici e del BCM e vigila sulla loro osservanza.</t>
+  </si>
+  <si>
+    <t>nm. 25</t>
+  </si>
+  <si>
+    <t>La direzione assicura in modo attendibile che i rischi operativi siano identificati, valutati, limitati e monitorati e che l’efficacia sia della configurazione sia dell’attuazione di tale gestione dei rischi operativi sia periodicamente verificata. Per limitare i rischi inerenti considerati essenziali6 adotta misure integrative o inasprimenti in funzione del rischio specifico.</t>
+  </si>
+  <si>
+    <t>[6] Spesso chiamati rischi chiave (key risks).</t>
+  </si>
+  <si>
+    <t>nm. 26</t>
+  </si>
+  <si>
+    <t>Per rendere i collaboratori sempre più consapevoli dell’importanza di ridurre i rischi operativi rilevanti, in particolare i rischi TIC, i cyber-rischi, i rischi concernenti i dati critici e i rischi derivanti dalla configurazione e dall’implementazione del BCM, è necessario implementare misure tenendo in considerazione i loro compiti, le competenze e le responsabilità (CCR)7.</t>
+  </si>
+  <si>
+    <t>[7] Ciò implica, tra l’altro, la selezione accurata e la qualificazione del personale per i CCR e la formazione continua nel quadro delle sue attività.</t>
+  </si>
+  <si>
+    <t>nm. 27</t>
+  </si>
+  <si>
+    <t>Se necessario, nell’ambito della vigilanza continua la FINMA definisce ulteriori requisiti in materia di gestione dei rischi operativi per temi specifici. Ciò avviene con moderazione e applicando il principio di proporzionalità.</t>
+  </si>
+  <si>
+    <t>nm. 28</t>
+  </si>
+  <si>
+    <t>I rischi operativi devono essere categorizzati secondo criteri unitari a livello di istituto e inventariati. Questa categorizzazione può essere effettuata rifacendosi alla categorizzazione utilizzata nel calcolo dei fondi propri minimi per i rischi operativi o mediante una tassonomia interna. Essa deve essere applicata in modo sistematico in tutti i settori dell’istituto e in tutte le componenti della gestione dei rischi operativi.</t>
+  </si>
+  <si>
+    <t>nm. 29</t>
+  </si>
+  <si>
+    <t>Per identificare i rischi operativi vengono considerati fattori interni8 ed esterni9. I rischi operativi individuati sono valutati in modo attendibile nell’ottica sia dei rischi inerenti sia di quelli residui.</t>
+  </si>
+  <si>
+    <t>[8] Sono considerati fattori interni, per esempio, i cambiamenti apportati ai prodotti, alle attività, ai processi e ai sistemi, i risultati dell’audit e le perdite interne derivanti dai rischi operativi.
+[9] Sono considerati fattori esterni, per esempio, gli eventi che generano perdite in altri istituti, i cambiamenti sul piano della sicurezza (p. es. dovuti a impatti ambientali, cyber-attacchi o terrorismo) o gli adeguamenti ai requisiti normativi.</t>
+  </si>
+  <si>
+    <t>nm. 30</t>
+  </si>
+  <si>
+    <t>L’identificazione e la valutazione dei rischi operativi si basano almeno sui risultati dell’audit10 e sulle valutazioni dei rischi e dei controlli da effettuare regolarmente. Tali valutazioni tengono conto dei rischi inerenti, dell’efficacia delle misure di controllo e di attenuazione esistenti e dei rischi residui.</t>
+  </si>
+  <si>
+    <t>[10] In questo caso i risultati dell’audit comprendono gli esiti della revisione interna e della società di audit esterna, se disponibili, nonché i risultati delle verifiche svolte, per esempio, dalle divisioni commerciali e organizzative, dal con- trollo del rischio, dalla funzione preposta alla compliance o dalle autorità di vigilanza.</t>
+  </si>
+  <si>
+    <t>nm. 31</t>
+  </si>
+  <si>
+    <t>Per valutare le misure di controllo e di attenuazione esistenti si procede in particolare a un esame regolare dell’efficacia dei controlli chiave da parte di un’istanza di controllo indipendente (design effectiveness e operating effectiveness testing), documentandone i risultati. I controlli chiave sono le misure di controllo e di attenuazione che minimizzano i rischi inerenti considerati essenziali. Anche la separazione dei CCR per garantire l’indipendenza e prevenire i conflitti di interessi è oggetto di valutazioni periodiche.</t>
+  </si>
+  <si>
+    <t>nm. 32</t>
+  </si>
+  <si>
+    <t>Prima di apportare cambiamenti sostanziali a livello di prodotti, attività, processi e sistemi è necessario effettuare valutazioni ad hoc dei rischi e dei controlli, che prendono in considerazione i rischi operativi derivanti dal processo di cambiamento e i rischi operativi delle condizioni target. Ove necessario, vengono adeguati i limiti di tolleranza al rischio e attuate misure di controllo e di attenuazione.</t>
+  </si>
+  <si>
+    <t>nm. 33</t>
+  </si>
+  <si>
+    <t>In funzione della natura, della portata, della complessità e del rischio dei prodotti, delle attività, dei processi e dei sistemi specifici all’istituto, devono essere applicati gli ulteriori strumenti e metodi seguenti:</t>
+  </si>
+  <si>
+    <t>nm. 34</t>
+  </si>
+  <si>
+    <t>a. raccolta e analisi sistematiche dei dati interni di perdita e degli eventi esterni rilevanti correlati a rischi operativi;</t>
+  </si>
+  <si>
+    <t>nm. 35</t>
+  </si>
+  <si>
+    <t>b. indicatori di rischio e di controllo per il monitoraggio dei rischi operativi e la tempestiva identificazione degli aumenti rilevanti dei rischi;</t>
+  </si>
+  <si>
+    <t>nm. 36</t>
+  </si>
+  <si>
+    <t>c. analisi di scenario e/o stima del potenziale di perdita in considerazione dei o rispetto ai fondi propri minimi per i rischi operativi;</t>
+  </si>
+  <si>
+    <t>nm. 37</t>
+  </si>
+  <si>
+    <t>d. analisi comparative (read-across), per esempio analisi della rilevanza dei risultati dell’audit in altri settori dell’istituto o confronti tra i risultati delle valutazioni del rischio e dei controlli di diversi settori.</t>
+  </si>
+  <si>
+    <t>nm. 38</t>
+  </si>
+  <si>
+    <t>La tolleranza al rischio per i rischi operativi tiene conto della tolleranza in rapporto ai rischi operativi inerenti11 e a quelli residui ed è monitorata mediante indicatori di rischio o di controllo.</t>
+  </si>
+  <si>
+    <t>[11] La tolleranza al rischio in riferimento ai rischi inerenti considera decisioni strategiche che concernono il modello com- merciale o operativo, per esempio la tolleranza per i rischi inerenti implicati dall’erogazione di servizi a determinati segmenti di clientela o Paesi, dall’offerta di determinati prodotti, dall’applicazione di processi prevalentemente ma- nuali, dall’utilizzo di un’infrastruttura informatica complessa o da determinate esternalizzazioni (outsourcing).</t>
+  </si>
+  <si>
+    <t>nm. 39</t>
+  </si>
+  <si>
+    <t>Il controllo dei rischi presenta all’organo preposto all’alta direzione almeno una volta all’anno e alla direzione almeno a ritmo semestrale in conformità ai nm. 75–76 della Circolare FINMA 17/1 un rapporto sui rischi operativi al massimo livello12 della categorizzazione definita secondo il nm. 28, sul loro confronto con la tolleranza al rischio stabilita e sui dettagli concernenti le perdite interne sostanziali.</t>
+  </si>
+  <si>
+    <t>[12] Il massimo livello della categorizzazione viene spesso chiamato livello 1 o level 1. Il rapporto può essere effettuato anche a un livello più dettagliato.</t>
+  </si>
+  <si>
+    <t>nm. 40</t>
+  </si>
+  <si>
+    <t>In riferimento ai rischi TIC e ai cyber-rischi rilevanti, il rapporto da presentare alla direzione almeno una volta all’anno contiene inoltre informazioni sull’evoluzione di tali rischi, sull’efficacia dei relativi controlli chiave e su importanti eventi interni ed esterni in relazione a tali rischi.</t>
+  </si>
+  <si>
+    <t>nm. 41</t>
+  </si>
+  <si>
+    <t>Il rapporto interno di cui al nm. 39 contiene a titolo complementare le seguenti informazioni:</t>
+  </si>
+  <si>
+    <t>nm. 42</t>
+  </si>
+  <si>
+    <t>• i fattori esterni rilevanti secondo la nota 9,</t>
+  </si>
+  <si>
+    <t>nm. 43</t>
+  </si>
+  <si>
+    <t>• una panoramica ricapitolativa sull’efficacia dei controlli chiave secondo il nm. 31,</t>
+  </si>
+  <si>
+    <t>nm. 44</t>
+  </si>
+  <si>
+    <t>• i rischi operativi emergenti,</t>
+  </si>
+  <si>
+    <t>nm. 45</t>
+  </si>
+  <si>
+    <t>• i risultati derivanti dall’applicazione degli ulteriori strumenti e metodi secondo il nm. 33.</t>
+  </si>
+  <si>
+    <t>nm. 46</t>
+  </si>
+  <si>
+    <t>Conformemente al principio di proporzionalità, per le banche di rilevanza sistemica viene presentato un resoconto periodico sui rischi operativi anche al livello delle divisioni commerciali e organizzative esposte a rischi operativi rilevanti o essenziali.</t>
+  </si>
+  <si>
+    <t>B. Gestione dei rischi TIC</t>
+  </si>
+  <si>
+    <t>a) Strategia TIC e governance</t>
+  </si>
+  <si>
+    <t>nm. 47</t>
+  </si>
+  <si>
+    <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento alle TIC sono enunciate nei nm. 23–26 e 40.</t>
+  </si>
+  <si>
+    <t>nm. 48</t>
+  </si>
+  <si>
+    <t>La gestione dei rischi TIC considera standard e pratiche rilevanti riconosciuti a livello internazionale, nonché l’impatto di nuovi sviluppi tecnologici sui rischi TIC.</t>
+  </si>
+  <si>
+    <t>nm. 49</t>
+  </si>
+  <si>
+    <t>La direzione assicura, sia per la gestione del cambiamento (change management) sia per l’esercizio delle TIC (run, maintenance), l’implementazione e la documentazione di procedure, processi, controlli e CCR, a cui sono assegnate risorse qualificate e appropriate.</t>
+  </si>
+  <si>
+    <t>b) Gestione del cambiamento (change management)</t>
+  </si>
+  <si>
+    <t>nm. 50</t>
+  </si>
+  <si>
+    <t>La gestione del cambiamento definisce procedure, processi e controlli per tutte le fasi dello sviluppo o dell’acquisto di TIC e, in ognuna di queste fasi, considera l’impatto del cambiamento sui rischi TIC, focalizzandosi sui requisiti in materia di confidenzialità, integrità e disponibilità.</t>
+  </si>
+  <si>
+    <t>nm. 51</t>
+  </si>
+  <si>
+    <t>Occorre garantire una separazione tra gli ambienti di sviluppo o di test delle TIC e l’ambiente della loro produzione. Ciò comprende anche una chiara attribuzione dei CCR e la regolamentazione dei conseguenti diritti di accesso.</t>
+  </si>
+  <si>
+    <t>nm. 52</t>
+  </si>
+  <si>
+    <t>Nelle fasi di sviluppo e di acquisto delle TIC le esigenze funzionali e non funzionali13 sono definite chiaramente e approvate, quindi testate e convalidate in funzione della loro criticità.</t>
+  </si>
+  <si>
+    <t>[13] P. es. per quanto attiene all’architettura o ai requisiti di sicurezza delle informazioni.</t>
+  </si>
+  <si>
+    <t>c) Esercizio delle TIC (run, maintenance)</t>
+  </si>
+  <si>
+    <t>nm. 53</t>
+  </si>
+  <si>
+    <t>L’istituto tiene uno o più inventari delle componenti TIC. L’inventario include componenti hardware e software nonché i luoghi di archiviazione di dati critici. Tiene conto delle dipendenze all’interno dell’istituto e delle interfacce con importanti fornitori esterni di servizi.</t>
+  </si>
+  <si>
+    <t>nm. 54</t>
+  </si>
+  <si>
+    <t>L’inventario, disponibile in tempi brevi, viene regolarmente verificato in termini di completezza ed esattezza e aggiornato.</t>
+  </si>
+  <si>
+    <t>nm. 55</t>
+  </si>
+  <si>
+    <t>L’istituto dispone di procedure, processi e controlli che garantiscono la confidenzialità, l’integrità e la disponibilità dell’ambiente di produzione delle TIC considerando la rispettiva tolleranza al rischio.</t>
+  </si>
+  <si>
+    <t>nm. 56</t>
+  </si>
+  <si>
+    <t>L’istituto garantisce il passaggio senza difficoltà dall’esercizio delle TIC ai suoi processi BCP e DRP in caso di perturbazioni importanti o interruzioni. Implementa opportuni processi di backup e di ripristino, che sono regolarmente testati e convalidati.</t>
+  </si>
+  <si>
+    <t>nm. 57</t>
+  </si>
+  <si>
+    <t>L’istituto dispone di procedure, processi e controlli che garantiscono una gestione orientata al rischio delle TIC la cui vita operativa volge al termine o che hanno superato il periodo di disattivazione previsto.</t>
+  </si>
+  <si>
+    <t>d) Gestione degli incidenti (incident management)</t>
+  </si>
+  <si>
+    <t>nm. 58</t>
+  </si>
+  <si>
+    <t>L’istituto dispone di procedure, processi e controlli volti a trattare incidenti TIC rilevanti, inclusi quelli riconducibili a dipendenze da importanti fornitori esterni di servizi e da esternalizzazioni in seno al gruppo. Al riguardo è necessario considerare l’intero ciclo di vita degli incidenti TIC importanti e definire i CCR per trattare questi incidenti.</t>
+  </si>
+  <si>
+    <t>nm. 59</t>
+  </si>
+  <si>
+    <t>Il trattamento degli incidenti TIC importanti deve essere coordinato e collegato ai processi BCM e DRP.</t>
+  </si>
+  <si>
+    <t>nm. 60</t>
+  </si>
+  <si>
+    <t>Gli incidenti TIC considerati dall’istituto come una perturbazione importante per lo svolgimento dei suoi processi critici e rilevanti ai fini della vigilanza devono essere notificati senza indugio alla FINMA.</t>
+  </si>
+  <si>
+    <t>C. Gestione dei cyber-rischi</t>
+  </si>
+  <si>
+    <t>nm. 61</t>
+  </si>
+  <si>
+    <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai cyber-rischi sono enunciate nei nm. 23–26 e 40.</t>
+  </si>
+  <si>
+    <t>nm. 62</t>
+  </si>
+  <si>
+    <t>L’istituto definisce chiari CCR. Deve coprire almeno gli aspetti seguenti secondo standard e pratiche riconosciuti a livello internazionale e garantire, sviluppare e migliorare conti- nuamente la loro effettiva attuazione mediante procedure, processi e controlli adeguati:</t>
+  </si>
+  <si>
+    <t>nm. 63</t>
+  </si>
+  <si>
+    <t>a. identificazione delle potenziali minacce dovute a cyber-attacchi14 specifiche all’istituto e valutazione delle possibili conseguenze dello sfruttamento delle vulnerabilità relative alle componenti inventariate delle TIC e ai dati elettronici critici (in conformità al nm. 53, 54 e 7);</t>
+  </si>
+  <si>
+    <t>[14] Attacchi alla confidenzialità, all’integrità e alla disponibilità delle TIC, nonché ai dati elettronici critici che si verificano mediante lo sfruttamento delle vulnerabilità o l’elusione delle misure di protezione da parte di aggressori esterni o interni.</t>
+  </si>
+  <si>
+    <t>nm. 64</t>
+  </si>
+  <si>
+    <t>b. protezione delle componenti inventariate delle TIC e dei dati elettronici critici contro i cyber-attacchi mediante l’attuazione di misure di protezione adeguate, in particolare in riferimento alla confidenzialità, all’integrità e alla disponibilità;</t>
+  </si>
+  <si>
+    <t>nm. 65</t>
+  </si>
+  <si>
+    <t>c. individuazione e registrazione tempestive dei cyber-attacchi sulla base di un processo di monitoraggio sistematico e continuo delle componenti inventariate delle TIC e dei dati elettronici critici;</t>
+  </si>
+  <si>
+    <t>nm. 66</t>
+  </si>
+  <si>
+    <t>d. reazione alle vulnerabilità identificate e ai cyber-attacchi mediante lo sviluppo e l’implementazione di processi appropriati, che consentono di adottare tempestivamente misure di attenuazione e di eliminazione; e</t>
+  </si>
+  <si>
+    <t>nm. 67</t>
+  </si>
+  <si>
+    <t>e. garanzia di un rapido ripristino del normale esercizio in seguito a cyber-attacchi con misure appropriate.</t>
+  </si>
+  <si>
+    <t>nm. 68</t>
+  </si>
+  <si>
+    <t>La gestione dei cyber-rischi deve garantire che un cyber-attacco riuscito o parzialmente riuscito sia analizzato in base alla sua rilevanza per le componenti critiche inventariate delle TIC e i dati elettronici critici, nonché i processi critici (incl. i servizi e le funzioni esternalizzati) e che l’obbligo di comunicazione secondo la LFINMA sia rispettato. Dopo una prima valutazione e un’informazione preliminare al servizio competente della FINMA entro 24 ore, la comunicazione deve essere trasmessa entro 72 ore in conformità all’elenco dei requisiti della Piattaforma di rilevamento EHP (campi obbligatori). Una volta che l’istituto ha concluso la trattazione del caso, deve essere presentato al servizio competente della FINMA un rapporto conclusivo sulle cause commisurato al grado di gravità.</t>
+  </si>
+  <si>
+    <t>nm. 69</t>
+  </si>
+  <si>
+    <t>La direzione dispone regolarmente lo svolgimento di analisi di vulnerabilità15 e test di intrusione (penetration test)16, che devono essere eseguiti da personale qualificato con risorse adeguate. In proposito occorre considerare tutte le componenti inventariate delle TIC accessibili tramite internet. Inoltre, devono essere considerate le componenti inventariate delle TIC non accessibili tramite internet, ma necessarie per lo svolgimento di processi critici o contenenti dati elettronici critici.</t>
+  </si>
+  <si>
+    <t>[15] Analisi volta a identificare le vulnerabilità esistenti a livello di software e le falle di sicurezza nell’infrastruttura IT nei confronti di cyber-attacchi.
+[16] Esame mirato e sfruttamento delle vulnerabilità a livello di software e delle falle di sicurezza nelle TIC.</t>
+  </si>
+  <si>
+    <t>nm. 70</t>
+  </si>
+  <si>
+    <t>Sulla base delle minacce potenziali specifiche all’istituto, devono essere svolti cyberesercizi in funzione dei rischi e riferiti allo scenario in questione17. Il risultato degli esercizi deve essere documentato facendone rapporto in forma adeguata.</t>
+  </si>
+  <si>
+    <t>[17] Considerando il nm. 19, questi cyber-esercizi potrebbero includere, per esempio, esercizi di simulazione (table-top exercises), red teaming ecc.</t>
+  </si>
+  <si>
+    <t>D. Gestione dei rischi dei dati critici</t>
+  </si>
+  <si>
+    <t>nm. 71</t>
+  </si>
+  <si>
+    <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai rischi dei dati critici sono enunciate nei nm. 23–26.</t>
+  </si>
+  <si>
+    <t>nm. 72</t>
+  </si>
+  <si>
+    <t>La direzione definisce processi, procedure e controlli adeguati nonché chiari CCR concernenti la gestione dei dati critici individuati dall’istituto. Inoltre, la direzione designa un’unità preposta alla creazione di condizioni quadro che garantiscano la confidenzialità, l’integrità e la disponibilità di dati critici e al controllo del loro rispetto.</t>
+  </si>
+  <si>
+    <t>nm. 73</t>
+  </si>
+  <si>
+    <t>L’istituto individua i suoi dati critici in modo sistematico ed esaustivo, li categorizza in funzione del loro grado di criticità e definisce chiare responsabilità in materia di dati.</t>
+  </si>
+  <si>
+    <t>nm. 74</t>
+  </si>
+  <si>
+    <t>I dati critici definiti dall’istituto sono gestiti lungo il loro intero ciclo di vita.</t>
+  </si>
+  <si>
+    <t>nm. 75</t>
+  </si>
+  <si>
+    <t>Al riguardo, il rispetto della confidenzialità, dell’integrità e della disponibilità nella gestione di dati critici è garantito mediante processi, procedure e controlli adeguati.</t>
+  </si>
+  <si>
+    <t>nm. 76</t>
+  </si>
+  <si>
+    <t>Nell’esercizio e durante lo sviluppo, il cambiamento e la migrazione delle TIC, i dati critici devono essere protetti dall’accesso e dall’utilizzo da parte di soggetti non autorizzati. Questo vale anche per i dati critici in ambienti di test.</t>
+  </si>
+  <si>
+    <t>nm. 77</t>
+  </si>
+  <si>
+    <t>In particolare devono essere protette le componenti delle TIC in cui sono archiviati o trattati dati critici. È necessario regolamentare sistematicamente e monitorare continuamente l’accesso a questi dati.</t>
+  </si>
+  <si>
+    <t>nm. 78</t>
+  </si>
+  <si>
+    <t>L’accesso ai dati critici e alle funzioni legate al trattamento di questi dati è limitato alle persone che necessitano dei dati per svolgere i propri compiti18. Al riguardo l’istituto deve disporre di un sistema di autorizzazione. L’accesso a tale sistema di autorizzazione deve essere protetto in modo particolare e verificato regolarmente. Le autorizzazioni contenute nel sistema devono essere verificate regolarmente.</t>
+  </si>
+  <si>
+    <t>[18] P. es. principio del need-to-know e del privilegio minimo (least privilege).</t>
+  </si>
+  <si>
+    <t>nm. 79</t>
+  </si>
+  <si>
+    <t>Se i dati critici sono archiviati al di fuori della Svizzera19 o sono accessibili dall’estero, è necessario limitare adeguatamente i rischi superiori che ne derivano e monitorarli mediante misure adeguate, nonché proteggere i dati in modo particolare.</t>
+  </si>
+  <si>
+    <t>[19] P. es. mediante soluzioni di cloud o di hosting.</t>
+  </si>
+  <si>
+    <t>nm. 80</t>
+  </si>
+  <si>
+    <t>Occorre scegliere accuratamente le persone interne e quelle esterne che possono accedere ai dati critici o modificarli. Tali persone devono essere sorvegliate mediante misure appropriate20 e formate regolarmente sulla gestione di questi dati. Alle persone che beneficiano di maggiori privilegi21 si applicano requisiti di sicurezza più rigorosi. Inoltre, deve essere tenuto un elenco di tutte le persone che beneficiano di maggiori privilegi e aggiornato continuamente.</t>
+  </si>
+  <si>
+    <t>[20] P. es. valutazione di file log, principio del doppio controllo ecc.
+[21] P. es. persone con diritti di amministratore, utenti con accesso funzionale a una grossa quantità di dati critici ecc.</t>
+  </si>
+  <si>
+    <t>nm. 81</t>
+  </si>
+  <si>
+    <t>Gli incidenti che compromettono in misura significativa la confidenzialità, l’integrità o la disponibilità di dati critici devono essere notificati senza indugio alla FINMA.</t>
+  </si>
+  <si>
+    <t>nm. 82</t>
+  </si>
+  <si>
+    <t>Nella scelta dei fornitori di servizi che trattano dati critici22 o possono consultarli deve essere attribuita una notevole importanza alla verifica della diligenza (due diligence). Occorre definire criteri chiari per valutare il modo in cui i fornitori di servizi gestiscono dati critici ed esaminarlo prima di firmare i contratti. I fornitori di servizi devono essere sottoposti a un monitoraggio e a un controllo periodici nell’ambito del sistema di controllo interno dell’istituto.</t>
+  </si>
+  <si>
+    <t>[22] Trattamento: qualunque modo di gestire dati critici, a prescindere dai mezzi e dalle procedure impiegati, in particolare l’acquisizione, il salvataggio, la custodia, l’utilizzo, la modifica, la divulgazione, l’archiviazione, la cancellazione o l’eliminazione dei dati.</t>
+  </si>
+  <si>
+    <t>nm. 83</t>
+  </si>
+  <si>
+    <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai rischi che derivano dalla configurazione e dall’implementazione del BCM sono enunciate nei nm. 23–26.</t>
+  </si>
+  <si>
+    <t>nm. 84</t>
+  </si>
+  <si>
+    <t>Ogni divisione operativa e organizzativa rilevante deve individuare i suoi processi critici e le risorse necessarie23 nell’ambito della business impact analysis (BIA).</t>
+  </si>
+  <si>
+    <t>[23] Personale, infrastrutture (p. es. immobili, infrastruttura dei posti di lavoro), informazioni, sistemi IT o infrastruttura IT (compresi i sistemi di comunicazione), dipendenze da altri settori dell’istituto e da terzi, p. es. erogatori di servizi e fornitori esterni (outsourcing), banche centrali o stanze di compensazione.</t>
+  </si>
+  <si>
+    <t>nm. 85</t>
+  </si>
+  <si>
+    <t>Per i processi critici, l’istituto definisce il RTO e il RPO secondo il nm. 10, coordinandoli con i necessari fornitori di servizi24. La loro osservanza è disciplinata mediante service level agreement o contratti, oppure è garantita mediante procedure, processi e controlli appropriati.</t>
+  </si>
+  <si>
+    <t>[24] P. es. con la sezione IT, altre divisioni dell’istituto o esterni.</t>
+  </si>
+  <si>
+    <t>nm. 86</t>
+  </si>
+  <si>
+    <t>L’istituto definisce almeno un BCP secondo il nm. 11, che descrive anche gli eventi che comportano l’attivazione del piano e i processi decisionali e tiene conto della perdita di risorse secondo il nm. 84. I rischi residui accettati sono documentati in maniera adeguata.</t>
+  </si>
+  <si>
+    <t>nm. 87</t>
+  </si>
+  <si>
+    <t>La BIA e il BCP sono allestiti e documentati in modo sistematico secondo una direttiva applicabile a tutto l’istituto. Devono essere verificati e aggiornati ogni anno e ad hoc in caso di cambiamenti sostanziali nell’attività (riorganizzazioni, creazione di un nuovo campo di attività ecc.).</t>
+  </si>
+  <si>
+    <t>nm. 88</t>
+  </si>
+  <si>
+    <t>L’istituto definisce almeno un DRP come parte integrante del BCP. Se vengono esternalizzati processi critici o singole parti di essi, il DRP tiene conto delle dipendenze interne e delle disposizioni contrattuali nonché di soluzioni alternative. Il DRP è verificato e aggiornato ad hoc in caso di cambiamenti sostanziali, ma almeno una volta all’anno.</t>
+  </si>
+  <si>
+    <t>nm. 89</t>
+  </si>
+  <si>
+    <t>Nelle situazioni di crisi, uno stato maggiore di crisi è incaricato di gestire la crisi fino al ripristino della situazione conforme. Gli eventi che scatenano una crisi e i CCR dello stato maggiore di crisi devono essere previamente regolamentati e l’organizzazione di crisi deve essere incentrata sull’attività commerciale e la struttura geografica dell’istituto. Nelle situazioni di crisi deve essere garantita la reperibilità dei responsabili.</t>
+  </si>
+  <si>
+    <t>nm. 90</t>
+  </si>
+  <si>
+    <t>L’istituto definisce una strategia di comunicazione interna ed esterna nelle situazioni di crisi.</t>
+  </si>
+  <si>
+    <t>nm. 91</t>
+  </si>
+  <si>
+    <t>L’attuazione del BCP e del DRP e la funzionalità dell’organizzazione di crisi sono regolarmente valutate. A tal fine l’istituto appronta una pianificazione sistematica dei test che garantisce la copertura regolare. È possibile scegliere diverse modalità di test con gradi di intensità e di efficacia variabile, per esempio gli esercizi table-top.</t>
+  </si>
+  <si>
+    <t>nm. 92</t>
+  </si>
+  <si>
+    <t>Le principali misure in conformità al BCP e al DRP e l’organizzazione di crisi sono testate almeno una volta all’anno.</t>
+  </si>
+  <si>
+    <t>nm. 93</t>
+  </si>
+  <si>
+    <t>I principali stakeholder, compresi quelli che svolgono funzioni specialistiche e IT, partecipano ai test per acquisire dimestichezza con i processi di ripristino.</t>
+  </si>
+  <si>
+    <t>nm. 94</t>
+  </si>
+  <si>
+    <t>I test comprendono scenari di diversa gravità, ma plausibili e considerano le dipendenze ai fini del ripristino, comprese quelle nei confronti di terzi interni o esterni.</t>
+  </si>
+  <si>
+    <t>nm. 95</t>
+  </si>
+  <si>
+    <t>Resoconti periodici all’organo preposto all’alta direzione e alla direzione informano in merito alle attività di test e di verifica condotte e ai relativi risultati. Presentano chiaramente le priorità adottate (p. es. gerarchia delle priorità dei processi critici necessari per l’esecuzione delle funzioni critiche secondo il nm. 14) e le lacune individuate nella copertura di altri processi critici.</t>
+  </si>
+  <si>
+    <t>nm. 96</t>
+  </si>
+  <si>
+    <t>I collaboratori e i membri dell’organizzazione di crisi sono adeguatamente preparati riguardo ai loro CCR riconducibili alle diverse attività di BCM sia al momento dell’entrata in servizio sia nel corso delle formazioni periodiche.</t>
+  </si>
+  <si>
+    <t>F. Gestione dei rischi afferenti alle prestazioni di servizio transfrontaliere</t>
+  </si>
+  <si>
+    <t>nm. 97</t>
+  </si>
+  <si>
+    <t>Se gli istituti o le società del gruppo forniscono servizi o distribuiscono prodotti finanziari oltrefrontiera, anche i rischi risultanti dall’applicazione delle normative estere (diritto fiscale, penale, in materia di riciclaggio di denaro ecc.) devono essere adeguatamente rilevati, limitati e controllati.</t>
+  </si>
+  <si>
+    <t>nm. 98</t>
+  </si>
+  <si>
+    <t>Gli istituti sottopongono le loro prestazioni di servizio transfrontaliere e la distribuzione transfrontaliera di prodotti finanziari a un’analisi approfondita delle condizioni quadro giuridiche e dei rischi correlati. Sulla base di questa analisi, gli istituti adottano le necessarie misure strategiche e organizzative volte a eliminare e minimizzare i rischi e le adeguano continuamente all’evolversi della situazione. In particolare dispongono delle necessarie competenze specialistiche specifiche ai vari Paesi, definiscono specifici modelli di servizi per i Paesi in cui li erogano, formano i collaboratori e garantiscono l’osservanza delle prescrizioni mediante misure organizzative, direttive, modelli retributivi e sanzionatori.</t>
+  </si>
+  <si>
+    <t>nm. 99</t>
+  </si>
+  <si>
+    <t>È necessario considerare anche i rischi generati da gestori patrimoniali indipendenti, intermediari e altri fornitori di servizi. I partner devono essere scelti e formati con l’opportuna accuratezza.</t>
+  </si>
+  <si>
+    <t>nm. 100</t>
+  </si>
+  <si>
+    <t>Questo principio si applica pure alle situazioni in cui una filiale, una succursale o un’entità simile con sede all’estero di un istituto finanziario svizzero fornisce servizi transfrontalieri ai clienti.</t>
+  </si>
+  <si>
+    <t>V. Garanzia della resilienza operativa</t>
+  </si>
+  <si>
+    <t>nm. 101</t>
+  </si>
+  <si>
+    <t>L’istituto identifica le sue funzioni critiche e i rispettivi limiti di tolleranza alle interruzioni, che sono approvati dall’organo preposto all’alta direzione. Inoltre, l’organo preposto all’alta direzione approva e sorveglia regolarmente la procedura volta a garantire la resilienza operativa.</t>
+  </si>
+  <si>
+    <t>nm. 102</t>
+  </si>
+  <si>
+    <t>L’istituto adotta misure per garantire la resilienza operativa considerando scenari gravi, ma plausibili25.</t>
+  </si>
+  <si>
+    <t>[25] Non si può escludere che alcuni scenari non possano essere fronteggiati senza il coinvolgimento dello Stato (p. es. pandemie, guerre, persistente penuria di energia). In tali casi l’istituto deve svolgere lavori preliminari volti a raffor- zare la sua resilienza operativa nei confronti di questi scenari nell’ambito delle sue possibilità.</t>
+  </si>
+  <si>
+    <t>nm. 103</t>
+  </si>
+  <si>
+    <t>Le funzioni critiche e i correlati limiti di tolleranza alle interruzioni secondo il nm. 14 devono essere approvati dall’organo preposto all’alta direzione almeno una volta all’anno.</t>
+  </si>
+  <si>
+    <t>nm. 104</t>
+  </si>
+  <si>
+    <t>L’istituto coordina le principali componenti di una gestione completa del rischio, per esempio la gestione dei rischi operativi, inclusa la gestione del rischi TIC e dei cyber-rischi, il business continuity management, la gestione delle esternalizzazioni (outsourcing; cfr. Circ. FINMA 18/3 «Outsourcing») e la pianificazione d’emergenza (capitolo VI), affinché contribuiscano a rafforzare la resilienza operativa dell’istituto. Ciò include uno scambio adeguato delle informazioni rilevanti tra i diversi ambiti.</t>
+  </si>
+  <si>
+    <t>nm. 105</t>
+  </si>
+  <si>
+    <t>L’organo preposto all’alta direzione e la direzione devono ricevere almeno una volta all’anno un resoconto sulla resilienza operativa, nonché in caso di lacune sostanziali nei controlli o di incidenti che compromettono la resilienza operativa.</t>
+  </si>
+  <si>
+    <t>nm. 106</t>
+  </si>
+  <si>
+    <t>Per le funzioni critiche si procede a identificare e valutare le minacce interne ed esterne come pure lo sfruttamento delle vulnerabilità. I risultanti rischi operativi sono identificati, valutati, limitati e monitorati nell’ambito della loro gestione.</t>
+  </si>
+  <si>
+    <t>nm. 107</t>
+  </si>
+  <si>
+    <t>L’istituto tiene un inventario delle sue funzioni critiche da verificare e aggiornare almeno una volta all’anno. Tale inventario contiene le tolleranze alle interruzioni delle funzioni critiche, nonché i collegamenti e le dipendenze tra i processi critici necessari e le relative risorse26 per svolgere le funzioni critiche.</t>
+  </si>
+  <si>
+    <t>[26] Incluse le componenti dell’inventario rilevanti per le funzioni critiche secondo il nm. 53.</t>
+  </si>
+  <si>
+    <t>nm. 108</t>
+  </si>
+  <si>
+    <t>Per le funzioni critiche sono documentati almeno i rischi operativi essenziali e i controlli chiave.</t>
+  </si>
+  <si>
+    <t>nm. 109</t>
+  </si>
+  <si>
+    <t>Le funzioni critiche nonché le risorse e i processi critici necessari alla loro esecuzione sono coperti dai BCP secondo il capitolo IV. lettera e.</t>
+  </si>
+  <si>
+    <t>nm. 110</t>
+  </si>
+  <si>
+    <t>La capacità di eseguire funzioni critiche entro i loro limiti di tolleranza alle interruzioni in scenari gravi, ma plausibili è regolarmente testata o esercitata. Ciò comprende anche gli scenari che si differenziano dalle interruzioni brevi e con un effetto piuttosto limitato e sono caratterizzati da una durata prolungata (p. es. diversi mesi) e dall’insufficienza delle risorse fondamentali27. I test e gli esercizi sono configurati in modo tale da non costituire una minaccia sostanziale per l’istituto.</t>
+  </si>
+  <si>
+    <t>[27] Tra gli altri, una pandemia, una penuria di energia, un’insufficienza prolungata ascrivibile all’insolvenza di un impor- tante fornitore di servizi (p. es. con conseguente ritiro da un accordo di outsourcing) o un divieto prolungato da parte di governi stranieri, in base al quale i fornitori di servizi cloud o altri fornitori di servizi con sede all’estero non sono più autorizzati a erogare servizi alle società svizzere.</t>
+  </si>
+  <si>
+    <t>nm. 111</t>
+  </si>
+  <si>
+    <t>Per le banche di rilevanza sistemica, il BCP, il DRP e l’organizzazione di crisi in conformità al capitolo IV. lett. E., rilevanti per il mantenimento delle funzioni critiche secondo il nm. 14, devono essere coordinati con la pianificazione d’emergenza in conformità al capitolo VI.</t>
+  </si>
+  <si>
+    <t>VI. Mantenimento dei servizi critici in caso di liquidazione o risanamento delle banche di rilevanza sistemica</t>
+  </si>
+  <si>
+    <t>nm. 112</t>
+  </si>
+  <si>
+    <t>Nel quadro della loro pianificazione d’emergenza, le banche di rilevanza sistemica adottano le misure necessarie per garantire il mantenimento senza interruzioni delle funzioni di rilevanza sistemica (art. 9 cpv. 2 lett. d LBCR in combinato disposto con l’art. 60 segg. OBCR). Identificano i servizi essenziali per il mantenimento delle funzioni di rilevanza sistemica in caso di liquidazione, risanamento o ristrutturazione («servizi critici») e adottano le misure necessarie a tale scopo. Al riguardo tengono conto delle disposizioni emanate in materia dagli organismi internazionali di standardizzazione.</t>
+  </si>
+  <si>
+    <t>VII. Disposizioni transitorie</t>
+  </si>
+  <si>
+    <t>A. Concernenti la garanzia della resilienza operativa</t>
+  </si>
+  <si>
+    <t>nm. 113</t>
+  </si>
+  <si>
+    <t>L’identificazione delle funzioni critiche, la definizione della tolleranza alle interruzioni e le prime approvazioni in conformità ai nm. 101 e 103, nonché un primo resoconto secondo il nm. 105 sono attesi a partire dall’entrata in vigore della presente circolare. Per l’adempimento dei requisiti di cui ai nm. 106–109 e i primi test secondo il nm. 110 è accordato un termine transitorio di un anno dall’entrata in vigore. La garanzia della resilienza operativa in conformità al nm. 102 e l’adempimento dei requisiti di cui ai nm. 104 e 111 sono attesi entro un termine transitorio di due anni.</t>
+  </si>
+  <si>
+    <t>B. Concernenti le esigenze in materia di fondi propri per la copertura dei rischi operativi</t>
+  </si>
+  <si>
+    <t>nm. 114</t>
+  </si>
+  <si>
+    <t>Le esigenze in materia di fondi propri per i rischi operativi ai sensi degli artt. 89 segg. OFoP sono rette dai nm. 3–116 della Circolare FINMA 08/21 «Rischi operativi – banche» sino all’entrata in vigore dell’OFoP riveduta nel quadro del pacchetto di revisioni «Basilea III finale» e della relativa ordinanza esecutiva della FINMA.</t>
+  </si>
+  <si>
+    <t>FINMA - Circolare 2023/01 - Rischi operativi e resilienza - Banche</t>
+  </si>
+  <si>
+    <t>Gestione dei rischi operativi e garanzia della resilienza ope- rativa
+Riferimento: Circ. FINMA 23/1 «Rischi operativi e resilienza – banche»
+Data: 7 dicembre 2022
+Entrata in vigore: 1° gennaio 2024
+Concordanza: sostituisce la Circ. FINMA 08/21 «Rischi operativi – banche» del 20 novembre 2008
+Basi legali: LFINMA art. 7 cpv. 1 lett. b e art. 29 cpv. 1
+                     LBCR art. 1b cpv. 3 lett. b, art. 3 cpv. 2 lett. a e art. 3f
+                     OBCR artt. 12 e 14e
+                     LIsFi artt. 9 e 49
+                     OIsFi artt. 12 e 68</t>
   </si>
 </sst>
 </file>
@@ -1813,14 +2648,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2123,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,35 +3041,51 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>457</v>
       </c>
     </row>
@@ -2247,15 +3096,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2314,7 +3164,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -2322,6 +3172,22 @@
         <v>459</v>
       </c>
       <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" t="s">
+        <v>847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2330,23 +3196,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="114.88671875" customWidth="1"/>
     <col min="6" max="6" width="75.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="142" style="1" customWidth="1"/>
     <col min="9" max="9" width="78.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="157.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="67.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2374,8 +3243,17 @@
       <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2387,8 +3265,11 @@
       <c r="G2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2410,8 +3291,17 @@
       <c r="I3" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2428,8 +3318,14 @@
       <c r="H4" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>581</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2441,8 +3337,11 @@
       <c r="G5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2464,8 +3363,17 @@
       <c r="I6" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2482,8 +3390,14 @@
       <c r="H7" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2500,8 +3414,14 @@
       <c r="H8" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>589</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2518,8 +3438,14 @@
       <c r="H9" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>591</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -2536,8 +3462,14 @@
       <c r="H10" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>593</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2554,8 +3486,14 @@
       <c r="H11" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>595</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -2572,8 +3510,14 @@
       <c r="H12" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>597</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -2590,8 +3534,14 @@
       <c r="H13" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>599</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -2608,8 +3558,14 @@
       <c r="H14" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>601</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -2626,8 +3582,14 @@
       <c r="H15" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>603</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -2644,8 +3606,14 @@
       <c r="H16" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>605</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -2662,8 +3630,14 @@
       <c r="H17" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -2680,8 +3654,14 @@
       <c r="H18" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>609</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -2698,8 +3678,14 @@
       <c r="H19" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>611</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -2716,8 +3702,14 @@
       <c r="H20" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>613</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -2739,8 +3731,17 @@
       <c r="I21" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>615</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -2752,8 +3753,11 @@
       <c r="G22" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -2770,8 +3774,14 @@
       <c r="H23" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>619</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -2788,8 +3798,14 @@
       <c r="H24" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>621</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -2806,8 +3822,14 @@
       <c r="H25" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>623</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
@@ -2819,8 +3841,11 @@
       <c r="G26" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -2832,8 +3857,11 @@
       <c r="G27" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3</v>
       </c>
@@ -2850,8 +3878,14 @@
       <c r="H28" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>627</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2876,8 +3910,17 @@
       <c r="I29" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2897,8 +3940,14 @@
       <c r="H30" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>632</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2923,8 +3972,17 @@
       <c r="I31" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>634</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2949,8 +4007,17 @@
       <c r="I32" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>637</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2970,8 +4037,14 @@
       <c r="H33" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>640</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2991,8 +4064,14 @@
       <c r="H34" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>642</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -3017,8 +4096,17 @@
       <c r="I35" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>644</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3043,8 +4131,17 @@
       <c r="I36" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>647</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3064,8 +4161,14 @@
       <c r="H37" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>650</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3085,8 +4188,14 @@
       <c r="H38" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>652</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3106,8 +4215,14 @@
       <c r="H39" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>654</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -3127,8 +4242,14 @@
       <c r="H40" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>656</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3148,8 +4269,14 @@
       <c r="H41" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>658</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3169,8 +4296,14 @@
       <c r="H42" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>660</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -3190,8 +4323,14 @@
       <c r="H43" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>662</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3216,8 +4355,17 @@
       <c r="I44" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>664</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3242,8 +4390,17 @@
       <c r="I45" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>667</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3263,8 +4420,14 @@
       <c r="H46" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>670</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -3284,8 +4447,14 @@
       <c r="H47" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>672</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3305,8 +4474,14 @@
       <c r="H48" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>674</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -3326,8 +4501,14 @@
       <c r="H49" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>676</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -3347,8 +4528,14 @@
       <c r="H50" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>678</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3368,8 +4555,14 @@
       <c r="H51" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>680</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3389,8 +4582,14 @@
       <c r="H52" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>682</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
@@ -3402,11 +4601,11 @@
       <c r="G53" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
+      <c r="J53" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>3</v>
       </c>
@@ -3418,8 +4617,11 @@
       <c r="G54" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3439,8 +4641,14 @@
       <c r="H55" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>686</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -3460,8 +4668,14 @@
       <c r="H56" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>688</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3481,11 +4695,14 @@
       <c r="H57" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
+      <c r="J57" t="s">
+        <v>690</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>3</v>
       </c>
@@ -3497,8 +4714,11 @@
       <c r="G58" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3518,8 +4738,14 @@
       <c r="H59" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>693</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3539,8 +4765,14 @@
       <c r="H60" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>695</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3565,8 +4797,17 @@
       <c r="I61" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>697</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -3578,8 +4819,11 @@
       <c r="G62" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3599,8 +4843,14 @@
       <c r="H63" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>701</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3620,8 +4870,14 @@
       <c r="H64" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>703</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3641,8 +4897,14 @@
       <c r="H65" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>705</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3662,8 +4924,14 @@
       <c r="H66" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>707</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3683,8 +4951,14 @@
       <c r="H67" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>709</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -3696,8 +4970,11 @@
       <c r="G68" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3717,8 +4994,14 @@
       <c r="H69" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>712</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3738,8 +5021,14 @@
       <c r="H70" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>714</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3759,8 +5048,14 @@
       <c r="H71" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>716</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>2</v>
       </c>
@@ -3772,8 +5067,11 @@
       <c r="G72" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3793,8 +5091,14 @@
       <c r="H73" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>719</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3814,8 +5118,14 @@
       <c r="H74" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>721</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3840,8 +5150,17 @@
       <c r="I75" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>723</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3861,8 +5180,14 @@
       <c r="H76" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>726</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3882,8 +5207,14 @@
       <c r="H77" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>728</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -3903,8 +5234,14 @@
       <c r="H78" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>730</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3924,8 +5261,14 @@
       <c r="H79" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>732</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3947,8 +5290,14 @@
       <c r="H80" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>734</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3973,8 +5322,17 @@
       <c r="I81" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>736</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -3999,8 +5357,17 @@
       <c r="I82" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>739</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>2</v>
       </c>
@@ -4012,8 +5379,11 @@
       <c r="G83" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -4033,8 +5403,14 @@
       <c r="H84" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>743</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -4054,8 +5430,14 @@
       <c r="H85" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>745</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -4075,8 +5457,14 @@
       <c r="H86" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>747</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4096,8 +5484,14 @@
       <c r="H87" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>749</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -4117,8 +5511,14 @@
       <c r="H88" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>751</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -4138,8 +5538,14 @@
       <c r="H89" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -4159,8 +5565,14 @@
       <c r="H90" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>755</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -4185,8 +5597,17 @@
       <c r="I91" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>757</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -4211,8 +5632,17 @@
       <c r="I92" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>760</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -4237,8 +5667,17 @@
       <c r="I93" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>763</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -4258,8 +5697,14 @@
       <c r="H94" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>766</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -4284,8 +5729,17 @@
       <c r="I95" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>768</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>2</v>
       </c>
@@ -4297,8 +5751,11 @@
       <c r="G96" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -4318,8 +5775,14 @@
       <c r="H97" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>771</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -4344,8 +5807,17 @@
       <c r="I98" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>773</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -4370,8 +5842,17 @@
       <c r="I99" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>776</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +5872,14 @@
       <c r="H100" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>779</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -4412,8 +5899,14 @@
       <c r="H101" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>781</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -4433,8 +5926,14 @@
       <c r="H102" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>783</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -4454,8 +5953,14 @@
       <c r="H103" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>785</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -4475,8 +5980,14 @@
       <c r="H104" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>787</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -4496,8 +6007,14 @@
       <c r="H105" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>789</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -4517,8 +6034,14 @@
       <c r="H106" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>791</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -4538,8 +6061,14 @@
       <c r="H107" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>793</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -4559,8 +6088,14 @@
       <c r="H108" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>795</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -4580,8 +6115,14 @@
       <c r="H109" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>797</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -4601,8 +6142,14 @@
       <c r="H110" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>799</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>2</v>
       </c>
@@ -4614,8 +6161,11 @@
       <c r="G111" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -4635,8 +6185,14 @@
       <c r="H112" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>802</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>79</v>
       </c>
@@ -4656,8 +6212,14 @@
       <c r="H113" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>804</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -4677,8 +6239,14 @@
       <c r="H114" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>806</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -4698,8 +6266,14 @@
       <c r="H115" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>808</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>1</v>
       </c>
@@ -4711,8 +6285,11 @@
       <c r="G116" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -4732,8 +6309,14 @@
       <c r="H117" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>811</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>79</v>
       </c>
@@ -4758,8 +6341,17 @@
       <c r="I118" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>813</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>79</v>
       </c>
@@ -4779,8 +6371,14 @@
       <c r="H119" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>816</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -4800,8 +6398,14 @@
       <c r="H120" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>818</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -4821,8 +6425,14 @@
       <c r="H121" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>820</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -4842,8 +6452,14 @@
       <c r="H122" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>822</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -4868,8 +6484,17 @@
       <c r="I123" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>824</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -4889,8 +6514,14 @@
       <c r="H124" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>827</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -4910,8 +6541,14 @@
       <c r="H125" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>829</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -4936,8 +6573,17 @@
       <c r="I126" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>831</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -4957,8 +6603,14 @@
       <c r="H127" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>834</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>1</v>
       </c>
@@ -4970,8 +6622,11 @@
       <c r="G128" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -4991,8 +6646,14 @@
       <c r="H129" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>837</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
@@ -5004,8 +6665,11 @@
       <c r="G130" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>2</v>
       </c>
@@ -5017,8 +6681,11 @@
       <c r="G131" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3</v>
       </c>
@@ -5029,14 +6696,20 @@
         <v>295</v>
       </c>
       <c r="F132" s="1"/>
-      <c r="G132" s="3" t="s">
+      <c r="G132" t="s">
         <v>572</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>841</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>2</v>
       </c>
@@ -5048,8 +6721,12 @@
       <c r="G133" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>843</v>
+      </c>
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>3</v>
       </c>
@@ -5060,12 +6737,19 @@
         <v>298</v>
       </c>
       <c r="F134" s="1"/>
-      <c r="G134" s="4" t="s">
+      <c r="G134" t="s">
         <v>573</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="J134" t="s">
+        <v>844</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="L134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F2018-1982-4005-9FEA-F8BEB3233BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10781BB1-C13D-4766-AF29-DDE5C0794E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1123">
   <si>
     <t>type</t>
   </si>
@@ -2607,6 +2607,844 @@
                      OBCR artt. 12 e 14e
                      LIsFi artt. 9 e 49
                      OIsFi artt. 12 e 68</t>
+  </si>
+  <si>
+    <t>name[de]</t>
+  </si>
+  <si>
+    <t>description[de]</t>
+  </si>
+  <si>
+    <t>annotation[de]</t>
+  </si>
+  <si>
+    <t>I. Gegenstand und Geltungsbereich</t>
+  </si>
+  <si>
+    <t>Rz 1</t>
+  </si>
+  <si>
+    <t>Dieses Rundschreiben bezieht sich auf die Vorschriften über die Funktionentrennung, das Risikomanagement und die interne Kontrolle der Bankenverordnung (Art. 12 und 14e BankV; SR 952.02) und der Finanzinstitutsverordnung (Art. 12 und 68 FINIV; SR 954.11) und konkretisiert die entsprechende Aufsichtspraxis. Es berücksichtigt die Basler Grundsätze zum einwandfreien Management der operationellen Risiken1 und der operationellen Resilienz2.</t>
+  </si>
+  <si>
+    <t>[1] BCBS Revisions to the Principles for the Sound Management of Operational Risk (31 March 2021)
+[2] BCBS Principles for Operational Resilience (31 March 2021)</t>
+  </si>
+  <si>
+    <t>Rz 2</t>
+  </si>
+  <si>
+    <t>Das Rundschreiben richtet sich an Banken nach Art. 1a und Personen nach Art. 1b Bankengesetz (BankG; SR 952.0), Wertpapierhäuser nach Art. 2 Abs. 1 Bst. e und Art. 41 des Finanzinstitutsgesetzes (FINIG; SR 954.1) sowie an Finanzgruppen und Finanzkonglomerate nach Art. 3c BankG und Art. 49 FINIG. Im Folgenden werden Banken, Personen nach Art. 1b BankG, Wertpapierhäuser, Finanzgruppen und Finanzkonglomerate unter dem Begriff „Institute“ zusammengefasst.</t>
+  </si>
+  <si>
+    <t>II. Begriffe</t>
+  </si>
+  <si>
+    <t>Rz 3</t>
+  </si>
+  <si>
+    <t>Operationelle Risiken sind in Art. 89 ERV definiert. Es handelt sich um die Gefahr von finanziellen Verlusten, die in Folge der Unangemessenheit oder des Versagens von internen Prozessen oder Systemen, des unangemessenen Handelns von Menschen oder durch sie begangene Fehler, oder in Folge von externen Ereignissen eintreten. Dies beinhaltet die finanziellen Verluste, die aus Rechts- oder Compliance-Risiken entstehen können. Das Management der operationellen Risiken berücksichtigt typischerweise auch andere Schadensdimensionen3, sofern diese letztendlich auch in finanziellen Verlusten resultieren können. Dabei ausgeschlossen sind die strategischen Risiken.</t>
+  </si>
+  <si>
+    <t>[3] Bspw. negative Auswirkungen auf die Reputation, möglicher Vertrauensverlust und Verlust von Kundinnen und Kun- den, negative Auswirkungen auf den Markt, negative regulatorische Auswirkungen (z. Bsp. möglicher Verlust der Lizenz).</t>
+  </si>
+  <si>
+    <t>Rz 4</t>
+  </si>
+  <si>
+    <t>Inhärente Risiken sind operationelle Risiken, denen das Institut durch seine Produkte, Aktivitäten, Prozesse und Systeme ausgesetzt ist, ohne Berücksichtigung von Kontroll- und Minderungsmassnahmen.</t>
+  </si>
+  <si>
+    <t>Rz 5</t>
+  </si>
+  <si>
+    <t>Residuale Risiken sind operationelle Risiken, denen das Institut nach der Berücksichtigung von Kontroll- und Minderungsmassnahmen ausgesetzt ist.</t>
+  </si>
+  <si>
+    <t>Rz 6</t>
+  </si>
+  <si>
+    <t>Die Informations- und Kommunikationstechnologie (IKT) bezeichnet den physischen und logischen (elektronischen) Aufbau von IT- und Kommunikationssystemen, die einzelnen Hard- und Softwarekomponenten, Netzwerke, Daten und Betriebsumgebungen.</t>
+  </si>
+  <si>
+    <t>Rz 7</t>
+  </si>
+  <si>
+    <t>Kritische Daten sind Daten, die in Anbetracht der Grösse, der Komplexität, der Struktur, des Risikoprofils sowie des Geschäftsmodells des Instituts von so wesentlicher Bedeutung sind, dass sie einen erhöhten Sicherheitsanspruch erfordern. Dabei handelt es sich um Daten, die für die erfolgreiche und nachhaltige Erbringung der Dienstleistungen des Instituts oder für regulatorische Zwecke wesentlich sind. Bei der Beurteilung und Festlegung der Kritikalität von Daten sind sowohl die Vertraulichkeit als auch die Integrität und Verfügbarkeit zu berücksichtigen. Jeder dieser drei Aspekte kann ausschlaggebend dafür sein, dass Daten als kritisch klassifiziert werden.</t>
+  </si>
+  <si>
+    <t>Rz 8</t>
+  </si>
+  <si>
+    <t>Kritische Prozesse sind Prozesse, deren bedeutende Störung oder Unterbrechung die Erbringung kritischer Funktionen gefährden. Sie sind ein Bestandteil der kritischen Funktionen.</t>
+  </si>
+  <si>
+    <t>Rz 9</t>
+  </si>
+  <si>
+    <t>Das Business Continuity Management (BCM) bezeichnet den institutsweiten Ansatz, um im Falle einer über das Vorfallmanagement hinausgehenden, bedeutenden Störung oder Unterbrechung den Betrieb der kritischen Prozesse wiederherzustellen. Es definiert die Reaktion auf bedeutende Störungen oder Unterbrechungen. Ein effektives BCM vermindert die residualen Risiken im Zusammenhang mit bedeutenden Störungen oder Unterbrechungen.</t>
+  </si>
+  <si>
+    <t>Rz 10</t>
+  </si>
+  <si>
+    <t>Die Recovery Time Objective (RTO) ist die Zeit bis zur Wiederherstellung einer Anwendung, eines Systems und/oder eines Prozesses. Die Recovery Point Objective (RPO) ist die maximal tolerierbare Zeitspanne eines Datenverlusts.</t>
+  </si>
+  <si>
+    <t>Rz 11</t>
+  </si>
+  <si>
+    <t>Der Business Continuity Plan (BCP) ist ein vorausschauender Plan, der die notwendigen Vorgehensweisen, Wiederherstellungsoptionen und Ersatzressourcen (die Wiederherstellungsprozesse) zur Sicherstellung der Kontinuität und zur Wiederherstellung der kritischen Prozesse festlegt.</t>
+  </si>
+  <si>
+    <t>Rz 12</t>
+  </si>
+  <si>
+    <t>Der Disaster Recovery Plan (DRP) definiert die Wiederherstellungsprozesse, um im Fall eines schwerwiegenden Ausfalls oder einer Zerstörung der IKT und unter Berücksichtigung des möglichen Ausfalls von Schlüsselpersonen, die Wiederherstellungsziele zu erreichen.</t>
+  </si>
+  <si>
+    <t>Rz 13</t>
+  </si>
+  <si>
+    <t>Krisensituationen sind ausserordentliche, potenziell existenzbedrohende Situationen, welche nicht mit ordentlichen Massnahmen und Entscheidungskompetenzen bewältigt werden können. Sie unterscheiden sich von Vorfällen (Incidents bzw. Störungen) und bedeutenden Störungen oder Unterbrechungen, welche mit dem Vorfallmanagement im Normalbetrieb oder den festgelegten BCPs und DRPs bewältigt werden können.</t>
+  </si>
+  <si>
+    <t>Rz 14</t>
+  </si>
+  <si>
+    <t>Kritische Funktionen beinhalten:</t>
+  </si>
+  <si>
+    <t>Rz 15</t>
+  </si>
+  <si>
+    <t>a. die Aktivitäten, Prozesse und Dienstleistungen, inklusive die für ihre Erbringung notwendigen zugrundeliegenden Ressourcen, deren Unterbrechung die Weiterführung des Instituts oder seine Rolle im Finanzmarkt und damit die Funktionsfähigkeit der Finanzmärkte gefährden würde; und</t>
+  </si>
+  <si>
+    <t>Rz 16</t>
+  </si>
+  <si>
+    <t>b. die systemrelevanten Funktionen nach Art. 8 BankG.</t>
+  </si>
+  <si>
+    <t>Rz 17</t>
+  </si>
+  <si>
+    <t>Die Unterbrechungstoleranz ist das Ausmass (bspw. Dauer oder erwarteter Schaden) der Unterbrechung einer kritischen Funktion, das das Institut unter Berücksichtigung von schwerwiegenden, aber plausiblen Szenarien zu akzeptieren bereit ist. Für jede kritische Funktion ist eine Unterbrechungstoleranz zu definieren.</t>
+  </si>
+  <si>
+    <t>Rz 18</t>
+  </si>
+  <si>
+    <t>Operationelle Resilienz bezeichnet die Fähigkeit des Instituts, seine kritischen Funktionen bei Unterbrechungen innerhalb der Unterbrechungstoleranz wiederherstellen zu können. D. h., die Fähigkeit des Instituts, Bedrohungen und mögliche Ausfälle zu identifizieren, sich davor zu schützen und darauf zu reagieren, bei Unterbrechungen den ordentlichen Geschäftsbetrieb wiederherzustellen und daraus zu lernen, um die Auswirkungen von Unterbrechungen auf die Erbringung der kritischen Funktionen zu minimieren. Ein operationell resilientes Institut hat sein Betriebsmodell so aufgebaut4, dass es in Bezug auf seine kritischen Funktionen dem Risiko von Unterbrechungen weniger ausgesetzt ist. Die operationelle Resilienz verringert somit nicht nur die residualen Risiken von Unterbrechungen, sondern auch das inhärente Risiko, dass es zu Unterbrechungen kommt. Ein effektives Management der operationellen Risiken trägt dazu bei, die operationelle Resilienz des Instituts zu stärken.</t>
+  </si>
+  <si>
+    <t>[4] Häufig auch Resilience by Design genannt.</t>
+  </si>
+  <si>
+    <t>III. Proportionalitätsprinzip</t>
+  </si>
+  <si>
+    <t>Rz 19</t>
+  </si>
+  <si>
+    <t>Dieses Rundschreiben gilt grundsätzlich für alle seiner Adressaten. Die Anforderungen sind jedoch im Einzelfall abhängig von der Grösse, der Komplexität, der Struktur und des Risikoprofils des Instituts umzusetzen. Die FINMA ordnet im Einzelfall Erleichterungen oder Verschärfungen an.</t>
+  </si>
+  <si>
+    <t>Rz 20</t>
+  </si>
+  <si>
+    <t>Banken und Wertpapierhäuser der FINMA-Kategorien 4 und 5 sind von der Erfüllung der Rz 33–38, 41–46, 48, 51, 57, 73, 74, 76–78, 80, 87, 92, 93, 96, 103, 104 und 110–112 ausgenommen.</t>
+  </si>
+  <si>
+    <t>Rz 21</t>
+  </si>
+  <si>
+    <t>Institute nach Art. 47a–47e ERV, Personen gemäss Art. 1b BankG, sowie nicht-kontoführende Wertpapierhäuser sind zusätzlich von der Erfüllung der Rz 72, 75, 79 und 105–109 ausgenommen.</t>
+  </si>
+  <si>
+    <t>IV. Management der operationellen Risiken</t>
+  </si>
+  <si>
+    <t>A. Übergreifendes Management der operationellen Risiken</t>
+  </si>
+  <si>
+    <t>Rz 22</t>
+  </si>
+  <si>
+    <t>Das Management der operationellen Risiken ist Teil des institutsweiten Risikomanagements nach FINMA-Rundschreiben 2017/1 „Corporate Governance – Banken“.</t>
+  </si>
+  <si>
+    <t>Rz 23</t>
+  </si>
+  <si>
+    <t>Das Oberleitungsorgan genehmigt die Grundzüge des Managements der operationellen Risiken, die für das Institut relevant sind, und überwacht deren Einhaltung. Darunter fallen unter anderem die IKT-Risiken, die Cyber-Risiken, die Risiken hinsichtlich kritischer Daten, die Risiken aus der Ausgestaltung und Implementierung des BCM und gegebenenfalls die Risiken aus dem grenzüberschreitenden Dienstleistungsgeschäft. Es genehmigt mindestens jährlich die Risikotoleranz für operationelle Risiken nach Massgabe der Risikopolitik in Anbetracht der strategischen und finanziellen Ziele des Instituts. Dabei berücksichtigt es die Ergebnisse aus den Risiko- und Kontrollbeurteilungen nach Rz 30. Es akzeptiert entweder das Ausmass, in dem das Institut den operationellen Risiken ausgesetzt ist, oder entscheidet über eine Anpassung der Risikotoleranz und die dafür notwendigen, strategischen Änderungen5.</t>
+  </si>
+  <si>
+    <t>[5] Zum Beispiel eine Änderung des Geschäftsmodells</t>
+  </si>
+  <si>
+    <t>Rz 24</t>
+  </si>
+  <si>
+    <t>Das Oberleitungsorgan genehmigt regelmässig Strategien für den Umgang mit der IKT, den Cyber-Risiken, den kritischen Daten und dem BCM, und überwacht deren Einhaltung.</t>
+  </si>
+  <si>
+    <t>Rz 25</t>
+  </si>
+  <si>
+    <t>Die Geschäftsleitung stellt nachvollziehbar sicher, dass die operationellen Risiken identifiziert, beurteilt, begrenzt und überwacht werden, und dass die Effektivität sowohl der Ausgestaltung als auch der Implementierung dieses Managements der operationellen Risiken regelmässig überprüft wird. Für die Begrenzung der als wesentlich beurteilten, inhärenten Risiken6 ergreift sie situativ risikospezifische ergänzende oder verschärfende Massnahmen.</t>
+  </si>
+  <si>
+    <t>[6] Häufig Top-Risiken oder Schlüsselrisiken (Key Risks) genannt.</t>
+  </si>
+  <si>
+    <t>Rz 26</t>
+  </si>
+  <si>
+    <t>Zur Stärkung des Bewusstseins der Mitarbeitenden zur Reduktion von relevanten operationellen Risiken, insbesondere der IKT-Risiken, der Cyber-Risiken, der Risiken hinsichtlich kritischer Daten und der Risiken aus der Ausgestaltung und Implementierung des BCM, sind unter Berücksichtigung ihrer Aufgaben, Kompetenzen und Verantwortlichkeiten (AKV) Massnahmen zu implementieren7.</t>
+  </si>
+  <si>
+    <t>[7] Dies beinhaltet unter anderem die sorgfältige Auswahl und Qualifikation von Mitarbeitenden für ihre AKV und ihre kontinuierliche Weiterbildung im Rahmen ihrer Aktivitäten.</t>
+  </si>
+  <si>
+    <t>Rz 27</t>
+  </si>
+  <si>
+    <t>Falls notwendig, definiert die FINMA im Rahmen der laufenden Aufsicht für spezifische Themen weitergehende Anforderungen an das Management der operationellen Risiken. Dies geschieht zurückhaltend und unter Anwendung des Proportionalitätsprinzips.</t>
+  </si>
+  <si>
+    <t>Rz 28</t>
+  </si>
+  <si>
+    <t>Die operationellen Risiken sind institutsweit einheitlich zu kategorisieren und in einem Inventar aufzuführen. Diese Kategorisierung kann in Anlehnung an die für die Berechnung der Mindesteigenmittel für operationelle Risiken verwendete Kategorisierung der Ereignistypen oder mittels einer internen Taxonomie erfolgen. Die Kategorisierung ist in allen Bereichen des Instituts und in allen Komponenten des Managements der operationellen Risiken konsistent anzuwenden.</t>
+  </si>
+  <si>
+    <t>Rz 29</t>
+  </si>
+  <si>
+    <t>Für die Identifikation der operationellen Risiken werden interne8 und externe9 Faktoren berücksichtigt. Die identifizierten operationellen Risiken werden sowohl aus Sicht der inhärenten als auch der residualen Risiken nachvollziehbar beurteilt.</t>
+  </si>
+  <si>
+    <t>[8] Interne Faktoren sind beispielsweise Änderungen in den Produkten, Aktivitäten, Prozessen und Systemen, Prüfer- gebnisse und interne Verluste aus operationellen Risiken.
+[9] Externe Faktoren sind beispielsweise erkannte Verlustereignisse anderer Institute, Änderungen in der Sicherheits- lage (bspw. durch Umwelteinflüsse, Cyber-Attacken oder Terrorismus) oder Änderungen in den regulatorischen An- forderungen.</t>
+  </si>
+  <si>
+    <t>Rz 30</t>
+  </si>
+  <si>
+    <t>Die Identifikation und Beurteilung der operationellen Risiken stützt sich mindestens auf Prüfergebnisse10 und regelmässig durchzuführende Risiko- und Kontrollbeurteilungen. Die Risiko- und Kontrollbeurteilungen berücksichtigen die inhärenten Risiken, die Effektivität der bestehenden Kontroll- und Minderungsmassnahmen und die residualen Risiken.</t>
+  </si>
+  <si>
+    <t>[10] Prüfergebnisse umfassen hier Resultate der internen Revision und der externen Prüfgesellschaft, sofern vorhanden, sowie Ergebnisse von Überprüfungen durch bspw. die Geschäfts- und Organisationsbereiche, die Risikokontrolle, die Compliance-Funktion oder Aufsichtsbehörden.</t>
+  </si>
+  <si>
+    <t>Rz 31</t>
+  </si>
+  <si>
+    <t>Für die Beurteilung der bestehenden Kontroll- und Minderungsmassnahmen wird insbesondere eine regelmässige Beurteilung der Effektivität der Schlüsselkontrollen durch eine unabhängige Kontrollinstanz vorgenommen und dokumentiert (Design Effectiveness und Operating Effectiveness Testing). Dabei sind Schlüsselkontrollen diejenigen Kontroll- und Minderungsmassnahmen, die die als wesentlich beurteilten, inhärenten Risiken minimieren. Auch wird die Trennung der AKV zur Sicherstellung der Unabhängigkeit und Vorbeugung vor Interessenskonflikten regelmässig beurteilt.</t>
+  </si>
+  <si>
+    <t>Rz 32</t>
+  </si>
+  <si>
+    <t>Vor wesentlichen Änderungen in den Produkten, Aktivitäten, Prozessen und Systemen sind ad hoc Risiko- und Kontrollbeurteilungen durchzuführen. Diese berücksichtigen die mit dem Änderungsprozess einhergehenden operationellen Risiken und die operationellen Risiken des Zielzustands. Bei Bedarf werden die Risikotoleranz angepasst und Kontroll- und Minderungsmassnahmen implementiert.</t>
+  </si>
+  <si>
+    <t>Rz 33</t>
+  </si>
+  <si>
+    <t>In Abhängigkeit von Art, Umfang, Komplexität und Risiko der institutsspezifischen Produkte, Aktivitäten, Prozesse und Systeme sind folgende weiteren Instrumente und Methoden anzuwenden:</t>
+  </si>
+  <si>
+    <t>Rz 34</t>
+  </si>
+  <si>
+    <t>a. Systematische Erhebung und Analyse interner Verlustdaten und relevanter externer Ereignisse, die mit operationellen Risiken verbunden sind;</t>
+  </si>
+  <si>
+    <t>Rz 35</t>
+  </si>
+  <si>
+    <t>b. Risiko- und Kontrollindikatoren für die Überwachung der operationellen Risiken und zeitnahe Identifikation von relevanten Risikoerhöhungen;</t>
+  </si>
+  <si>
+    <t>Rz 36</t>
+  </si>
+  <si>
+    <t>c. Szenarioanalysen und/oder Abschätzung des Verlustpotenzials in Anbetracht der bzw. in Gegenüberstellung mit den Mindesteigenmitteln für operationelle Risiken;</t>
+  </si>
+  <si>
+    <t>Rz 37</t>
+  </si>
+  <si>
+    <t>d. Vergleichende Analysen (Read-across), beispielsweise Analysen der Relevanz von Prüfergebnissen für andere Bereiche des Instituts oder Vergleiche zwischen den Ergebnissen der Risiko- und Kontrollbeurteilungen verschiedener Bereiche.</t>
+  </si>
+  <si>
+    <t>Rz 38</t>
+  </si>
+  <si>
+    <t>Die Risikotoleranz für operationelle Risiken berücksichtigt sowohl die Toleranz in Bezug auf inhärente11 als auch auf residuale operationelle Risiken und wird anhand von Risikooder Kontrollindikatoren überwacht.</t>
+  </si>
+  <si>
+    <t>[11] Die Risikotoleranz in Bezug auf inhärente Risiken berücksichtigt strategische Entscheidungen in Bezug auf das Ge- schäfts- oder Betriebsmodell, bspw. Toleranz für die inhärenten Risiken, die mit der Bedienung gewisser Kundenseg- mente oder Länder einhergehen, mit dem Angebot gewisser Produkte, mit der Anwendung vorwiegend manueller Prozesse, mit der Abstützung auf eine komplexe IT-Infrastruktur oder mit gewissen Auslagerungen (Outsourcing).</t>
+  </si>
+  <si>
+    <t>Rz 39</t>
+  </si>
+  <si>
+    <t>Die Risikokontrolle erstattet dem Oberleitungsorgan mindestens jährlich und der Geschäftsleitung mindestens halbjährlich nach Rz 75–76 FINMA-RS 17/1 Bericht über die operationellen Risiken entlang der obersten Stufe12 der nach Rz 28 definierten Kategorisierung, über deren Vergleich mit der festgelegten Risikotoleranz, sowie über Einzelheiten zu wesentlichen internen Verlusten.</t>
+  </si>
+  <si>
+    <t>[12] Die oberste Stufe der Kategorisierung wird häufig Stufe 1 oder Level 1 genannt. Die Berichterstattung kann auch auf einer detaillierteren Stufe erfolgen.</t>
+  </si>
+  <si>
+    <t>Rz 40</t>
+  </si>
+  <si>
+    <t>In Bezug auf die relevanten IKT- und Cyber-Risiken beinhaltet die mindestens jährlich erfolgende Berichterstattung an die Geschäftsleitung zudem Informationen zur Entwicklung dieser Risiken, zur Effektivität der entsprechenden Schlüsselkontrollen und zu wesentlichen internen und externen Ereignissen im Zusammenhang mit diesen Risiken.</t>
+  </si>
+  <si>
+    <t>Rz 41</t>
+  </si>
+  <si>
+    <t>Die interne Berichterstattung nach Rz 39 enthält ergänzend folgende Informationen:</t>
+  </si>
+  <si>
+    <t>Rz 42</t>
+  </si>
+  <si>
+    <t>• relevante, externe Faktoren nach Fussnote 9,</t>
+  </si>
+  <si>
+    <t>Rz 43</t>
+  </si>
+  <si>
+    <t>• zusammenfassende Gesamtübersicht über die Effektivität der Schlüsselkontrollen nach Rz 31,</t>
+  </si>
+  <si>
+    <t>Rz 44</t>
+  </si>
+  <si>
+    <t>• neu aufkommende operationelle Risiken,</t>
+  </si>
+  <si>
+    <t>Rz 45</t>
+  </si>
+  <si>
+    <t>• Ergebnisse aus der Anwendung zusätzlicher Instrumente und Methoden nach Rz 33.</t>
+  </si>
+  <si>
+    <t>Rz 46</t>
+  </si>
+  <si>
+    <t>Entsprechend dem Proportionalitätsprinzip wird für die systemrelevanten Banken auch auf Ebene der Geschäfts- oder Organisationsbereiche, die relevanten oder wesentlichen operationellen Risiken ausgesetzt sind, eine regelmässige Berichterstattung zu den operationellen Risiken vorgenommen.</t>
+  </si>
+  <si>
+    <t>B. Management der IKT-Risiken</t>
+  </si>
+  <si>
+    <t>a) IKT-Strategie und Governance</t>
+  </si>
+  <si>
+    <t>Rz 47</t>
+  </si>
+  <si>
+    <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die IKT sind in Rz 23–26 und 40 festgehalten.</t>
+  </si>
+  <si>
+    <t>Rz 48</t>
+  </si>
+  <si>
+    <t>Das Management der IKT-Risiken berücksichtigt relevante international anerkannte Standards und Practices sowie den Einfluss von neuen technologischen Entwicklungen auf die IKT-Risiken.</t>
+  </si>
+  <si>
+    <t>Rz 49</t>
+  </si>
+  <si>
+    <t>Die Geschäftsleitung stellt sicher, dass sowohl für das Änderungsmanagement (Change Management) als auch für den IKT-Betrieb (Run, Maintenance) Verfahren, Prozesse und Kontrollen sowie AKV implementiert und dokumentiert sind. Diese sind mit qualifizierten und angemessenen Ressourcen ausgestattet.</t>
+  </si>
+  <si>
+    <t>b) Änderungsmanagement (Change Management)</t>
+  </si>
+  <si>
+    <t>Rz 50</t>
+  </si>
+  <si>
+    <t>Für alle Phasen der Entwicklung oder Beschaffung von IKT definiert das Änderungsmanagement Verfahren, Prozesse, und Kontrollen. In jeder dieser Phasen berücksichtigt es die Auswirkungen der Änderung auf die IKT-Risiken. Dabei stehen insbesondere auch die Anforderungen hinsichtlich Vertraulichkeit, Integrität und Verfügbarkeit im Fokus.</t>
+  </si>
+  <si>
+    <t>Rz 51</t>
+  </si>
+  <si>
+    <t>Es ist eine Trennung zwischen den Umgebungen für die Entwicklung oder das Testen und der Umgebung für die IKT-Produktion sicherzustellen. Dies umfasst auch eine eindeutige Zuweisung von AKV und eine Regelung der damit einhergehenden Zugangsberechtigungen.</t>
+  </si>
+  <si>
+    <t>Rz 52</t>
+  </si>
+  <si>
+    <t>Bei Entwicklung und Beschaffung von IKT werden funktionale und nicht-funktionale Anforderungen13 klar definiert und genehmigt und gemäss ihrer Kritikalität getestet und validiert.</t>
+  </si>
+  <si>
+    <t>[13] Bspw. im Hinblick auf die Architektur oder die Anforderungen an die Informationssicherheit.</t>
+  </si>
+  <si>
+    <t>c) IKT-Betrieb (Run, Maintenance)</t>
+  </si>
+  <si>
+    <t>Rz 53</t>
+  </si>
+  <si>
+    <t>Das Institut führt ein oder mehrere Inventar(-e) der Bestandteile der IKT. Das Inventar umfasst Hardware- und Software-Komponenten sowie Ablageorte kritischer Daten. Dabei werden sowohl Abhängigkeiten innerhalb des Instituts als auch Schnittstellen zu wesentlichen externen Dienstleistern berücksichtigt.</t>
+  </si>
+  <si>
+    <t>Rz 54</t>
+  </si>
+  <si>
+    <t>Das Inventar ist zeitnah verfügbar und wird regelmässig hinsichtlich Vollständigkeit und Richtigkeit überprüft und aktualisiert.</t>
+  </si>
+  <si>
+    <t>Rz 55</t>
+  </si>
+  <si>
+    <t>Das Institut verfügt über Verfahren, Prozesse, und Kontrollen, die die Vertraulichkeit, Integrität und Verfügbarkeit der IKT-Produktionsumgebung unter Berücksichtigung der jeweiligen Risikotoleranz sicherstellen.</t>
+  </si>
+  <si>
+    <t>Rz 56</t>
+  </si>
+  <si>
+    <t>Das Institut stellt sicher, dass es bei bedeutenden Störungen oder Unterbrechungen reibungslos vom IKT-Betrieb in seine BCP- und DRP-Prozesse übergehen kann. Es implementiert angemessene Back-up-Prozesse und Wiederherstellungsprozesse, die regelmässig getestet und validiert werden.</t>
+  </si>
+  <si>
+    <t>Rz 57</t>
+  </si>
+  <si>
+    <t>Das Institut verfügt über Verfahren, Prozesse und Kontrollen, die einen risikoorientierten Umgang mit IKT, deren Betriebsende naht oder deren geplante Dekommissionierung überschritten wurde, sicherstellt.</t>
+  </si>
+  <si>
+    <t>d) Vorfallmanagement (Incident Management)</t>
+  </si>
+  <si>
+    <t>Rz 58</t>
+  </si>
+  <si>
+    <t>Das Institut verfügt über Verfahren, Prozesse und Kontrollen zur Behandlung wesentlicher IKT-Vorfälle, einschliesslich solcher, die auf Abhängigkeiten von wesentlichen externen Dienstleistern und konzerninternen Auslagerungen zurückzuführen sind. Dabei ist der gesamte Lebenszyklus von wesentlichen IKT-Vorfällen zu berücksichtigen und AKV zur Behandlung dieser Vorfälle sind zu definieren.</t>
+  </si>
+  <si>
+    <t>Rz 59</t>
+  </si>
+  <si>
+    <t>Die Behandlung wesentlicher IKT-Vorfälle ist mit den Prozessen zum BCM und dem DRP abzustimmen und zu verknüpfen.</t>
+  </si>
+  <si>
+    <t>Rz 60</t>
+  </si>
+  <si>
+    <t>IKT-Vorfälle, die vom Institut als wesentliche Störung bei der Erbringung seiner kritischen Prozesse erachtet werden und für die Aufsicht von wesentlicher Bedeutung sind, müssen der FINMA unverzüglich gemeldet werden.</t>
+  </si>
+  <si>
+    <t>C. Management der Cyber-Risiken</t>
+  </si>
+  <si>
+    <t>Rz 61</t>
+  </si>
+  <si>
+    <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die Cyber-Risiken sind in Rz 23–26 und 40 festgehalten.</t>
+  </si>
+  <si>
+    <t>Rz 62</t>
+  </si>
+  <si>
+    <t>Das Institut definiert eindeutige AKV. Es hat mindestens die folgenden Aspekte nach international anerkannten Standards und Practices abzudecken und deren effektive Umsetzung durch geeignete Verfahren, Prozesse und Kontrollen zu gewährleisten und kontinuierlich weiter zu entwickeln und zu verbessern:</t>
+  </si>
+  <si>
+    <t>Rz 63</t>
+  </si>
+  <si>
+    <t>a. Identifikation der institutsspezifischen Bedrohungspotenziale durch Cyber-Attacken14 und Beurteilung der möglichen Auswirkungen der Ausnützung von Schwachstellen bezüglich der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten (gemäss Rz 53, 54 und 7);</t>
+  </si>
+  <si>
+    <t>[14] Angriffe auf die Vertraulichkeit, die Integrität und die Verfügbarkeit von IKT sowie auf die elektronischen kritischen Daten, welche durch die Ausnutzung von Schwachstellen oder Umgehung von Schutzmassnahmen durch externe oder interne Angreifende stattfinden.</t>
+  </si>
+  <si>
+    <t>Rz 64</t>
+  </si>
+  <si>
+    <t>b. Schutz der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten vor Cyber-Attacken durch die Implementierung angemessener Schutzmassnahmen, insbesondere im Hinblick auf die Vertraulichkeit, Integrität und Verfügbarkeit;</t>
+  </si>
+  <si>
+    <t>Rz 65</t>
+  </si>
+  <si>
+    <t>c. Zeitnahe Aufzeichnung und Erkennung von Cyber-Attacken auf Basis eines Prozesses zur systematischen und durchgängigen Überwachung der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten;</t>
+  </si>
+  <si>
+    <t>Rz 66</t>
+  </si>
+  <si>
+    <t>d. Reaktion auf identifizierte Schwachstellen und Cyber-Attacken durch die Entwicklung und Implementierung angemessener Prozesse, um zeitnah Massnahmen für die Eindämmung und Beseitigung einzuleiten; und</t>
+  </si>
+  <si>
+    <t>Rz 67</t>
+  </si>
+  <si>
+    <t>e. Sicherstellung einer zeitnahen Wiederherstellung des ordentlichen Geschäftsbetriebs nach Cyber-Attacken durch geeignete Massnahmen.</t>
+  </si>
+  <si>
+    <t>Rz 68</t>
+  </si>
+  <si>
+    <t>Das Management der Cyber-Risiken hat sicherzustellen, dass eine erfolgreiche oder teilweise erfolgreiche Cyber-Attacke nach seiner Wesentlichkeit für kritische inventarisierte IKT-Bestandteile bzw. elektronische kritische Daten sowie kritische Prozesse (inkl. ausgelagerte Dienstleistungen und Funktionen) analysiert wird und die Meldepflicht nach FINMAG eingehalten wird. Nach erfolgter Erstbeurteilung und der Vororientierung an die zuständige Stelle bei der FINMA innerhalb von 24 Stunden ist die Meldung gemäss dem Anforderungskatalog der Erhebungsplattform EHP (Pflichtfelder) innerhalb von 72 Stunden zu übermitteln. Nach Abschluss der institutsseitigen Fallbearbeitung ist ein dem Schweregrad entsprechender abschliessender Ursachenbericht an die zuständige Stelle bei der FINMA einzureichen.</t>
+  </si>
+  <si>
+    <t>Rz 69</t>
+  </si>
+  <si>
+    <t>Die Geschäftsleitung lässt regelmässig Verwundbarkeitsanalysen15 und Penetrationstests16 durchführen. Diese müssen durch qualifiziertes Personal mit angemessenen Ressourcen ausgeführt werden. Dabei sind alle inventarisierten Bestandteile der IKT, die über das Internet erreichbar sind, zu berücksichtigen. Zudem sind inventarisierte Bestandteile der IKT, welche nicht über das Internet erreichbar, aber für die Erbringung von kritischen Prozessen notwendig sind, oder welche elektronische kritische Daten beinhalten, zu berücksichtigen.</t>
+  </si>
+  <si>
+    <t>[15] Analyse zur Identifikation von derzeit bestehenden Software-Schwachstellen und Sicherheitslücken in der IT-Infra- struktur gegenüber Cyber-Attacken
+[16] Gezielte Prüfung und das Ausnützen von Software-Schwachstellen und Sicherheitslücken in der IKT</t>
+  </si>
+  <si>
+    <t>Rz 70</t>
+  </si>
+  <si>
+    <t>Auf Basis der institutsspezifischen Bedrohungspotenziale müssen risikobasiert szenariobezogene Cyber-Übungen17 durchgeführt werden. Das Ergebnis der Übungen ist in geeigneter Form zu dokumentieren und zu rapportieren.</t>
+  </si>
+  <si>
+    <t>[17] Unter Berücksichtigung der Rz 19 könnten solche Cyber-Übungen beispielsweise beinhalten, Table-Top-, Red Teaming-Übungen usw.</t>
+  </si>
+  <si>
+    <t>D. Management der Risiken kritischer Daten</t>
+  </si>
+  <si>
+    <t>Rz 71</t>
+  </si>
+  <si>
+    <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die Risiken kritischer Daten sind in Rz 23–26 festgehalten.</t>
+  </si>
+  <si>
+    <t>Rz 72</t>
+  </si>
+  <si>
+    <t>Die Geschäftsleitung definiert geeignete Prozesse, Verfahren und Kontrollen sowie eindeutige AKV zum Umgang mit den vom Institut identifizierten kritischen Daten. Darüber hinaus beauftragt die Geschäftsleitung eine Einheit, um Rahmenbedingungen zur Sicherstellung der Vertraulichkeit, Integrität und Verfügbarkeit von kritischen Daten zu schaffen und ihre Einhaltung zu überwachen.</t>
+  </si>
+  <si>
+    <t>Rz 73</t>
+  </si>
+  <si>
+    <t>Das Institut identifiziert seine kritischen Daten systematisch und vollständig, kategorisiert diese nach ihrer Kritikalität und definiert eindeutige Datenverantwortlichkeiten.</t>
+  </si>
+  <si>
+    <t>Rz 74</t>
+  </si>
+  <si>
+    <t>Die vom Institut definierten kritischen Daten werden entlang ihres gesamten Lebenszyklus verwaltet.</t>
+  </si>
+  <si>
+    <t>Rz 75</t>
+  </si>
+  <si>
+    <t>Dabei wird insbesondere die Einhaltung der Vertraulichkeit, Integrität und Verfügbarkeit bei der Verwaltung von kritischen Daten durch geeignete Prozesse, Verfahren und Kontrollen gewährleistet.</t>
+  </si>
+  <si>
+    <t>Rz 76</t>
+  </si>
+  <si>
+    <t>Kritische Daten sind im Betrieb und während der Entwicklung, Veränderung und Migration von IKT vor dem Zugriff und der Nutzung durch Unberechtigte angemessen zu schützen. Dies gilt auch für kritische Daten in Testumgebungen.</t>
+  </si>
+  <si>
+    <t>Rz 77</t>
+  </si>
+  <si>
+    <t>Die Bestandteile der IKT, die kritische Daten speichern oder verarbeiten, sind besonders zu schützen. Dabei ist der Zugriff auf diese Daten systematisch zu regeln und laufend zu überwachen.</t>
+  </si>
+  <si>
+    <t>Rz 78</t>
+  </si>
+  <si>
+    <t>Der Zugriff auf kritische Daten und verarbeitende Funktionalitäten ist auf Personen beschränkt, welche diesen zur Erfüllung ihrer Aufgaben benötigen18. Dabei muss das Institut über ein Autorisierungssystem verfügen. Der Zugang zu diesem Autorisierungssystem ist besonders zu schützen und regelmässig zu überprüfen. Die im Autorisierungssystem enthaltenen Berechtigungen sind regelmässig zu überprüfen.</t>
+  </si>
+  <si>
+    <t>[18] Bspw. Need-to-know- und Least Privilege-Prinzip</t>
+  </si>
+  <si>
+    <t>Rz 79</t>
+  </si>
+  <si>
+    <t>Falls kritische Daten ausserhalb der Schweiz gespeichert werden19 oder vom Ausland aus auf sie zugegriffen werden kann, sind die damit verbundenen erhöhten Risiken angemessen zu begrenzen und mit geeigneten Massnahmen zu überwachen sowie die Daten besonders zu schützen.</t>
+  </si>
+  <si>
+    <t>[19] Bspw. im Rahmen von Cloud- oder Hosting-Lösungen</t>
+  </si>
+  <si>
+    <t>Rz 80</t>
+  </si>
+  <si>
+    <t>Sowohl interne wie externe Personen, die auf kritische Daten zugreifen oder diese verändern können, sind sorgfältig auszuwählen. Diese Personen sind mit geeigneten Massnahmen zu überwachen20 und regelmässig im Umgang mit diesen Daten zu schulen. Für Personen mit erhöhten Privilegien21 gelten erhöhte Sicherheitsanforderungen. Es ist zudem eine Liste aller Personen mit erhöhten Privilegien zu führen und laufend zu aktualisieren.</t>
+  </si>
+  <si>
+    <t>[20] Bspw. Auswertung von Log-Dateien, Vier-Augen-Prinzip usw.
+[21] Bspw. Personen mit Administratorenrechten, Anwender mit funktionalem Zugriff auf eine grosse Menge an kritischen Daten usw.</t>
+  </si>
+  <si>
+    <t>Rz 81</t>
+  </si>
+  <si>
+    <t>Vorfälle, die die Vertraulichkeit, Integrität oder Verfügbarkeit von kritischen Daten wesentlich beeinträchtigen, müssen der FINMA unverzüglich gemeldet werden.</t>
+  </si>
+  <si>
+    <t>Rz 82</t>
+  </si>
+  <si>
+    <t>Bei der Auswahl von Dienstleistern, die kritische Daten bearbeiten22 oder einsehen können, ist der Sorgfaltsprüfung (Due Diligence) eine hohe Bedeutung beizumessen. Es sind klare Kriterien für die Beurteilung des Umgangs der Dienstleister mit kritischen Daten zu definieren und vor Vertragsvereinbarung zu prüfen. Die Dienstleister sind im Rahmen des internen Kontrollsystems des Instituts risikoorientiert periodisch zu überwachen und zu kontrollieren.</t>
+  </si>
+  <si>
+    <t>[22] Bearbeiten: jeder Umgang mit kritischen Daten, unabhängig von den angewandten Mitteln und Verfahren, insbeson- dere das Beschaffen, Speichern, Aufbewahren, Verwenden, Verändern, Bekanntgeben, Archivieren, Löschen oder Vernichten von Daten.</t>
+  </si>
+  <si>
+    <t>E. Business Continuity Management (BCM)</t>
+  </si>
+  <si>
+    <t>Rz 83</t>
+  </si>
+  <si>
+    <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf Risiken aus der Ausgestaltung und Implementierung des BCM sind in Rz 23–26 festgehalten.</t>
+  </si>
+  <si>
+    <t>Rz 84</t>
+  </si>
+  <si>
+    <t>Jeder relevante Geschäfts- und Organisationsbereich hat im Rahmen der Business Impact Analyse (BIA) seine kritischen Prozesse und die dafür benötigten Ressourcen23 zu identifizieren.</t>
+  </si>
+  <si>
+    <t>[23] Personal, Einrichtungen (bspw. Gebäude, Arbeitsplatzinfrastruktur), Informationen, IT-Systeme oder IT-Infrastruktur (inkl. Kommunikationssysteme), Abhängigkeiten zu andern Bereichen des Instituts und zu Drittparteien, bspw. exter- nen Dienstleistern und Lieferanten (Outsourcing), Zentralbanken oder Clearinghäusern.</t>
+  </si>
+  <si>
+    <t>Rz 85</t>
+  </si>
+  <si>
+    <t>Für die kritischen Prozesse definiert das Institut die RTO und RPO nach Rz 10. Diese sind mit den dafür erforderlichen Leistungserbringern24 abgestimmt und die Einhaltung der RTO und RPO wird durch Service Level Agreements oder Verträge geregelt oder durch andere geeignete Verfahren, Prozesse und Kontrollen sichergestellt.</t>
+  </si>
+  <si>
+    <t>[24] Bspw. mit der IT-Abteilung, anderen Bereichen des Instituts oder Externen</t>
+  </si>
+  <si>
+    <t>Rz 86</t>
+  </si>
+  <si>
+    <t>Das Institut definiert mindestens einen BCP nach Rz 11, der auch die den Plan auslösenden Gegebenheiten und Entscheidungsprozesse beschreibt und den Verlust der Ressourcen nach Rz 84 berücksichtigt. Die Akzeptanz von residualen Risiken wird angemessen dokumentiert.</t>
+  </si>
+  <si>
+    <t>Rz 87</t>
+  </si>
+  <si>
+    <t>Die BIA und BCP werden einer institutsweiten Vorgabe folgend auf konsistente Art erstellt und dokumentiert. Sie sind jährlich sowie ad hoc im Falle wesentlicher Änderungen im Geschäftsbetrieb (Reorganisationen, Aufbau eines neuen Geschäftsfelds, usw.) zu überprüfen und zu aktualisieren.</t>
+  </si>
+  <si>
+    <t>Rz 88</t>
+  </si>
+  <si>
+    <t>Das Institut definiert als Teil des BCP mindestens einen DRP. Wenn kritische Prozesse oder Teile davon ausgelagert sind, berücksichtigt der DRP die externen Abhängigkeiten und vertraglichen Regelungen sowie alternative Lösungen. Der DRP wird ad hoc im Falle wesentlicher Änderungen und mindestens jährlich überprüft und aktualisiert.</t>
+  </si>
+  <si>
+    <t>Rz 89</t>
+  </si>
+  <si>
+    <t>In Krisensituationen hat ein Krisenstab die Aufgabe der Krisenbewältigung bis zur Wiederherstellung eines ordnungsgemässen Zustands zu übernehmen. Die eine Krise auslösenden Gegebenheiten und die AKV des Krisenstabs sind vorgängig zu regeln, und die Krisenorganisation auf die Geschäftstätigkeit und geographische Struktur des Instituts auszurichten. Die Erreichbarkeit der Verantwortungsträger in Krisensituationen ist sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Rz 90</t>
+  </si>
+  <si>
+    <t>Das Institut definiert eine Kommunikationsstrategie für die interne und externe Kommunikation in Krisensituationen.</t>
+  </si>
+  <si>
+    <t>Rz 91</t>
+  </si>
+  <si>
+    <t>Mit Tests wird die Umsetzung der BCP und des DRP sowie die Funktionsfähigkeit der Krisenorganisation regelmässig beurteilt. Dafür wird eine systematische Planung erstellt, die die regelmässige Abdeckung sicherstellt. Es können verschiedene Vorgehen zum Testen von unterschiedlicher Intensität und Effektivität gewählt werden, so auch bspw. Table-Top-Übungen.</t>
+  </si>
+  <si>
+    <t>Rz 92</t>
+  </si>
+  <si>
+    <t>Die gemäss BCP und DRP wichtigsten Massnahmen und die Krisenorganisation werden mindestens einmal jährlich getestet.</t>
+  </si>
+  <si>
+    <t>Rz 93</t>
+  </si>
+  <si>
+    <t>Relevante Anspruchsgruppen, einschliesslich diejenigen in Fach- und IT-Funktionen, nehmen an den Tests teil, um sich mit den Wiederherstellungsprozessen vertraut zu machen.</t>
+  </si>
+  <si>
+    <t>Rz 94</t>
+  </si>
+  <si>
+    <t>Die Tests umfassen verschiedene schwerwiegende, aber plausible Szenarien und berücksichtigen Wiederherstellungsabhängigkeiten, einschliesslich solcher, die zu internen oder externen Drittparteien bestehen.</t>
+  </si>
+  <si>
+    <t>Rz 95</t>
+  </si>
+  <si>
+    <t>Eine regelmässige Berichterstattung an das Oberleitungsorgan und die Geschäftsleitung informiert über die durchgeführten Test- und Überprüfungsaktivitäten und deren Ergebnisse. Sie zeigt vorgenommene Priorisierungen (bspw. Priorisierung der für die Erbringung der kritischen Funktionen nach Rz 14 benötigten kritischen Prozesse) und erkannte Lücken in der Abdeckung anderer kritischer Prozesse klar auf.</t>
+  </si>
+  <si>
+    <t>Rz 96</t>
+  </si>
+  <si>
+    <t>Die Mitarbeitenden sowie die Mitglieder der Krisenorganisation werden hinsichtlich ihrer AKV, die sich aus den diversen BCM Aktivitäten ergeben, ausreichend geschult, sowohl bei Neueintritt von Mitarbeitenden als auch als Teil regelmässiger Schulungen.</t>
+  </si>
+  <si>
+    <t>F. Management der Risiken aus dem grenzüberschreitenden Dienstleistungsgeschäft</t>
+  </si>
+  <si>
+    <t>Rz 97</t>
+  </si>
+  <si>
+    <t>Wenn Institute oder ihre Gruppengesellschaften grenzüberschreitend Dienstleistungen erbringen oder Finanzprodukte vertreiben, sind auch die aus einer Anwendung ausländischer Rechtsvorschriften (Steuer-, Straf-, Geldwäschereirecht usw.) resultierenden Risiken angemessen zu erfassen, begrenzen und kontrollieren.</t>
+  </si>
+  <si>
+    <t>Rz 98</t>
+  </si>
+  <si>
+    <t>Die Institute unterziehen ihr grenzüberschreitendes Dienstleistungsgeschäft sowie den grenzüberschreitenden Vertrieb von Finanzprodukten einer vertieften Analyse der rechtlichen Rahmenbedingungen und der damit verbundenen Risiken. Gestützt auf diese Analyse treffen die Institute die erforderlichen strategischen und organisatorischen Massnahmen zur Risikoeliminierung und -minimierung und passen diese laufend geänderten Bedingungen an. Insbesondere verfügen sie über das notwendige länderspezifische Fachwissen, definieren spezifische Dienstleistungsmodelle für die bedienten Länder, schulen die Mitarbeitenden und stellen durch entsprechende organisatorische Massnahmen, Weisungen, Vergütungs- und Sanktionsmodelle die Einhaltung der Vorgaben sicher.</t>
+  </si>
+  <si>
+    <t>Rz 99</t>
+  </si>
+  <si>
+    <t>Auch die durch externe Vermögensverwalter, Vermittler und andere Dienstleister generierten Risiken sind zu berücksichtigen. Entsprechend ist bei der Auswahl und Instruktion dieser Partner sorgfältig vorzugehen.</t>
+  </si>
+  <si>
+    <t>Rz 100</t>
+  </si>
+  <si>
+    <t>Von diesem Grundsatz werden auch Konstellationen erfasst, in denen eine im Ausland ansässige Tochtergesellschaft, Zweigniederlassung oder dergleichen eines Schweizer Finanzinstituts Kunden grenzüberschreitend bedient.</t>
+  </si>
+  <si>
+    <t>V. Sicherstellung der operationellen Resilienz</t>
+  </si>
+  <si>
+    <t>Rz 101</t>
+  </si>
+  <si>
+    <t>Das Institut identifiziert seine kritischen Funktionen und deren Unterbrechungstoleranzen. Diese werden vom Oberleitungsorgan genehmigt. Ausserdem genehmigt und überwacht das Oberleitungsorgan regelmässig das Vorgehen zur Sicherstellung der operationellen Resilienz.</t>
+  </si>
+  <si>
+    <t>Rz 102</t>
+  </si>
+  <si>
+    <t>Das Institut trifft Massnahmen zur Sicherstellung der operationellen Resilienz unter Berücksichtigung schwerwiegender, aber plausibler Szenarien25.</t>
+  </si>
+  <si>
+    <t>[25] Es kann nicht ausgeschlossen werden, dass manche Szenarien nicht ohne Einbezug des Staates bewältigt werden können (bspw. Pandemien, Kriege, langanhaltende Strommangellage). Für solche Szenarien sind durch das Institut Vorarbeiten zwecks Stärkung seiner operationellen Resilienz gegenüber diesen Szenarien im Rahmen seiner Mög- lichkeiten zu leisten.</t>
+  </si>
+  <si>
+    <t>Rz 103</t>
+  </si>
+  <si>
+    <t>Die kritischen Funktionen und die damit verbundenen Unterbrechungstoleranzen nach Rz 14 sind mindestens jährlich durch das Oberleitungsorgan zu genehmigen.</t>
+  </si>
+  <si>
+    <t>Rz 104</t>
+  </si>
+  <si>
+    <t>Das Institut koordiniert die relevanten Bestandteile eines umfassenden Risikomanagements wie beispielsweise das Management der operationellen Risiken, inklusive das Management der IKT- und Cyber-Risiken, das Business Continuity Management, das Management von Auslagerungen (Outsourcing; vgl. das FINMA-Rundschreiben 2018/3 „Outsourcing“), und die Notfallplanung (Kapitel VI) dahingehend, dass diese zu einer Stärkung der operationellen Resilienz des Instituts beitragen. Dies beinhaltet einen angemessenen Austausch relevanter Informationen zwischen diesen verschiedenen Bereichen.</t>
+  </si>
+  <si>
+    <t>Rz 105</t>
+  </si>
+  <si>
+    <t>Zur operationellen Resilienz hat mindestens jährlich eine Berichterstattung an das Oberleitungsorgan und die Geschäftsleitung zu erfolgen, sowie bei wesentlichen Kontrollschwächen oder Vorfällen, die die operationelle Resilienz gefährden.</t>
+  </si>
+  <si>
+    <t>Rz 106</t>
+  </si>
+  <si>
+    <t>Für die kritischen Funktionen werden interne und externe Bedrohungen sowie die entsprechende Ausnützung von Verwundbarkeiten identifiziert und beurteilt. Die daraus resultierenden operationellen Risiken werden im Rahmen des Managements der operationellen Risiken identifiziert, beurteilt, begrenzt und überwacht.</t>
+  </si>
+  <si>
+    <t>Rz 107</t>
+  </si>
+  <si>
+    <t>Das Institut führt ein Inventar seiner kritischen Funktionen, das mindestens jährlich überprüft und aktualisiert wird. Dieses Inventar beinhaltet die Unterbrechungstoleranzen der kritischen Funktionen, sowie die Verbindungen und Abhängigkeiten zwischen den benötigten kritischen Prozessen und deren Ressourcen26 zur Erbringung der kritischen Funktionen.</t>
+  </si>
+  <si>
+    <t>[26] Inklusive die für die kritischen Funktionen relevanten Bestandteile des Inventars nach Rz 53</t>
+  </si>
+  <si>
+    <t>Rz 108</t>
+  </si>
+  <si>
+    <t>Für die kritischen Funktionen werden mindestens die wesentlichen operationellen Risiken und die Schlüsselkontrollen dokumentiert.</t>
+  </si>
+  <si>
+    <t>Rz 109</t>
+  </si>
+  <si>
+    <t>Die kritischen Funktionen und die dafür benötigten kritischen Prozesse und Ressourcen sind durch BCPs nach Kapitel IV Bst. E abgedeckt.</t>
+  </si>
+  <si>
+    <t>Rz 110</t>
+  </si>
+  <si>
+    <t>Die Fähigkeit, kritische Funktionen innerhalb ihrer Unterbrechungstoleranz unter schwerwiegenden, aber plausiblen Szenarien erbringen zu können, wird regelmässig getestet oder geübt. Dazu gehören auch Szenarien, die sich von kürzeren und eher begrenzt wirkenden Unterbrechungen unterscheiden und sich durch eine längere Zeitdauer (bspw. über Monate hinweg) und einen Ausfall grundlegender Ressourcen auszeichnen27. Die Tests bzw. Übungen werden dabei so gestaltet sein, dass sie das Institut nicht grundlegend gefährden.</t>
+  </si>
+  <si>
+    <t>[27] Beispiele sind eine Pandemie, eine Strommangellage, ein längerer Ausfall durch die Insolvenz eines wichtigen Dienstleisters (als Beispiel für einen Stressed Exit eines Dienstleisters) oder ein längeranhaltendes Verbot ausländi- scher Regierungen, gemäss dem auslandsbasierte Cloud-Anbieter oder andere Dienstleister schweizerische Firmen nicht mehr bedienen dürfen.</t>
+  </si>
+  <si>
+    <t>Rz 111</t>
+  </si>
+  <si>
+    <t>Für systemrelevante Banken sind die für die Weiterführung der kritischen Funktionen nach Rz 14 relevanten BCP, DRP und die Krisenorganisation nach Kapitel IV Bst. E. mit der Notfallplanung nach Kapitel VI abzustimmen.</t>
+  </si>
+  <si>
+    <t>VI. Weiterführung von kritischen Dienstleistungen bei der Abwicklung und Sanierung von systemrelevanten Banken</t>
+  </si>
+  <si>
+    <t>Rz 112</t>
+  </si>
+  <si>
+    <t>Systemrelevante Banken treffen im Rahmen ihrer Notfallplanung die für die unterbruchsfreie Weiterführung von systemrelevanten Funktionen nötigen Massnahmen (Art. 9 Abs. 2 Bst. d BankG i.V.m. Art. 60 ff. BankV). Sie identifizieren die zur Fortführung der systemrelevanten Funktionen im Fall der Abwicklung, Sanierung oder Restrukturierung notwendigen Dienstleistungen („kritische Dienstleistungen“) und ergreifen die für deren Weiterführung nötigen Massnahmen. Dabei berücksichtigen sie die in diesem Zusammenhang von internationalen Standardsettern erlassenen Vorgaben.</t>
+  </si>
+  <si>
+    <t>VII. Übergangsbestimmungen</t>
+  </si>
+  <si>
+    <t>A. Betreffend die Sicherstellung der operationellen Resilienz</t>
+  </si>
+  <si>
+    <t>Rz 113</t>
+  </si>
+  <si>
+    <t>Die Identifikation der kritischen Funktionen, die Definition der Unterbrechungstoleranzen und erste Genehmigungen nach Rz 101 und 103, sowie eine erste Berichterstattung nach Rz 105, werden ab Inkrafttreten des Rundschreibens erwartet. Für die Erfüllung der Anforderungen nach den Rz 106–109 sowie erste Tests nach Rz 110 gilt eine Übergangsfrist von einem Jahr ab Inkrafttreten. Die Sicherstellung der operationellen Resilienz nach Rz 102 sowie die Erfüllung der Anforderungen nach den Rz 104 und 111 werden innert einer Übergangsfrist von zwei Jahren erwartet.</t>
+  </si>
+  <si>
+    <t>B. Betreffend die Eigenmittelanforderungen für operationelle Risiken</t>
+  </si>
+  <si>
+    <t>Rz 114</t>
+  </si>
+  <si>
+    <t>Die Eigenmittelanforderungen für operationelle Risiken nach Art. 89 ff. ERV richten sich bis zum Inkrafttreten der im Rahmen des Revisionspakets „Basel III final“ revidierten ERV und der ausführenden FINMA-Verordnung dazu nach den Rz 3–116 des FINMA-Rundschreibens 2008/21 „Operationelle Risiken – Banken“.</t>
+  </si>
+  <si>
+    <t>FINMA - Rundschreiben 2023/01 - Operationelle Risiken und Resilienz - Banken</t>
+  </si>
+  <si>
+    <t>Management der operationellen Risiken und Sicherstellung der operationellen Resilienz
+Referenz: FINMA-RS 23/1 „Operationelle Risiken und Resilienz – Banken“
+Erlass: 7. Dezember 2022
+Inkraftsetzung: 1. Januar 2024
+Konkordanz: vormals FINMA-RS 08/21 „Operationelle Risiken – Banken“ vom 20. November 2008
+Rechtliche Grundlagen: FINMAG Art. 7 Abs. 1 Bst. b und 29 Abs. 1
+                                           BankG Art. 1b Abs. 3 Bst. b, Art. 3 Abs. 2 Bst. a und 3f
+                                           BankV Art. 12 und 14e
+                                           FINIG Art. 9 und 49
+                                           FINIV Art. 12 und 68</t>
   </si>
 </sst>
 </file>
@@ -2648,12 +3486,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2956,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,33 +3898,49 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>848</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+        <v>849</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>457</v>
       </c>
     </row>
@@ -3096,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3181,12 +4036,28 @@
         <v>846</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>575</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>849</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -3196,11 +4067,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3213,9 +4084,12 @@
     <col min="10" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="157.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="67.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="190.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="89.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3252,8 +4126,17 @@
       <c r="L1" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>848</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3268,8 +4151,11 @@
       <c r="J2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3300,8 +4186,17 @@
       <c r="L3" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>852</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -3324,8 +4219,14 @@
       <c r="K4" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>855</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3340,8 +4241,11 @@
       <c r="J5" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3372,8 +4276,17 @@
       <c r="L6" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>858</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -3396,8 +4309,14 @@
       <c r="K7" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>861</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -3420,8 +4339,14 @@
       <c r="K8" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>863</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -3444,8 +4369,14 @@
       <c r="K9" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>865</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -3468,8 +4399,14 @@
       <c r="K10" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>867</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -3492,8 +4429,14 @@
       <c r="K11" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>869</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -3516,8 +4459,14 @@
       <c r="K12" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>871</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3540,8 +4489,14 @@
       <c r="K13" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>873</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -3564,8 +4519,14 @@
       <c r="K14" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>875</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -3588,8 +4549,14 @@
       <c r="K15" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>877</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -3612,8 +4579,14 @@
       <c r="K16" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>879</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -3636,8 +4609,14 @@
       <c r="K17" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>881</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -3660,8 +4639,14 @@
       <c r="K18" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>883</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -3684,8 +4669,14 @@
       <c r="K19" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>885</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3708,8 +4699,14 @@
       <c r="K20" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>887</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3740,8 +4737,17 @@
       <c r="L21" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>889</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -3756,8 +4762,11 @@
       <c r="J22" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -3780,8 +4789,14 @@
       <c r="K23" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>893</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -3804,8 +4819,14 @@
       <c r="K24" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>895</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -3828,8 +4849,14 @@
       <c r="K25" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>897</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
@@ -3844,8 +4871,11 @@
       <c r="J26" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -3860,8 +4890,11 @@
       <c r="J27" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3</v>
       </c>
@@ -3884,8 +4917,14 @@
       <c r="K28" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>901</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3919,8 +4958,17 @@
       <c r="L29" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>903</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3946,8 +4994,14 @@
       <c r="K30" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>906</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3981,8 +5035,17 @@
       <c r="L31" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>908</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -4016,8 +5079,17 @@
       <c r="L32" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>911</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -4043,8 +5115,14 @@
       <c r="K33" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>914</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -4070,8 +5148,14 @@
       <c r="K34" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>916</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -4105,8 +5189,17 @@
       <c r="L35" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M35" t="s">
+        <v>918</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4140,8 +5233,17 @@
       <c r="L36" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>921</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -4167,8 +5269,14 @@
       <c r="K37" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>924</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -4194,8 +5302,14 @@
       <c r="K38" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>926</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4221,8 +5335,14 @@
       <c r="K39" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>928</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4248,8 +5368,14 @@
       <c r="K40" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>930</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4275,8 +5401,14 @@
       <c r="K41" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>932</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4302,8 +5434,14 @@
       <c r="K42" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>934</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4329,8 +5467,14 @@
       <c r="K43" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="M43" t="s">
+        <v>936</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4364,8 +5508,17 @@
       <c r="L44" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>938</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -4399,8 +5552,17 @@
       <c r="L45" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>941</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -4426,8 +5588,14 @@
       <c r="K46" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>944</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -4453,8 +5621,14 @@
       <c r="K47" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>946</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4480,8 +5654,14 @@
       <c r="K48" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>948</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4507,8 +5687,14 @@
       <c r="K49" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" t="s">
+        <v>950</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -4534,8 +5720,14 @@
       <c r="K50" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>952</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -4561,8 +5753,14 @@
       <c r="K51" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>954</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4588,8 +5786,14 @@
       <c r="K52" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>956</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
@@ -4604,8 +5808,11 @@
       <c r="J53" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>3</v>
       </c>
@@ -4620,8 +5827,11 @@
       <c r="J54" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -4647,8 +5857,14 @@
       <c r="K55" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M55" t="s">
+        <v>960</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -4674,8 +5890,14 @@
       <c r="K56" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M56" t="s">
+        <v>962</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -4701,8 +5923,14 @@
       <c r="K57" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" t="s">
+        <v>964</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>3</v>
       </c>
@@ -4717,8 +5945,11 @@
       <c r="J58" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M58" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -4744,8 +5975,14 @@
       <c r="K59" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M59" t="s">
+        <v>967</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -4771,8 +6008,14 @@
       <c r="K60" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M60" t="s">
+        <v>969</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -4806,8 +6049,17 @@
       <c r="L61" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
+        <v>971</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -4822,8 +6074,11 @@
       <c r="J62" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -4849,8 +6104,14 @@
       <c r="K63" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
+        <v>975</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -4876,8 +6137,14 @@
       <c r="K64" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M64" t="s">
+        <v>977</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -4903,8 +6170,14 @@
       <c r="K65" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>979</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4930,8 +6203,14 @@
       <c r="K66" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M66" t="s">
+        <v>981</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4957,8 +6236,14 @@
       <c r="K67" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>983</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -4973,8 +6258,11 @@
       <c r="J68" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -5000,8 +6288,14 @@
       <c r="K69" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" t="s">
+        <v>986</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5027,8 +6321,14 @@
       <c r="K70" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M70" t="s">
+        <v>988</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -5054,8 +6354,14 @@
       <c r="K71" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" t="s">
+        <v>990</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>2</v>
       </c>
@@ -5070,8 +6376,11 @@
       <c r="J72" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M72" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5097,8 +6406,14 @@
       <c r="K73" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M73" t="s">
+        <v>993</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -5124,8 +6439,14 @@
       <c r="K74" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M74" t="s">
+        <v>995</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -5159,8 +6480,17 @@
       <c r="L75" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M75" t="s">
+        <v>997</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -5186,8 +6516,14 @@
       <c r="K76" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M76" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -5213,8 +6549,14 @@
       <c r="K77" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M77" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -5240,8 +6582,14 @@
       <c r="K78" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -5267,8 +6615,14 @@
       <c r="K79" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5296,8 +6650,14 @@
       <c r="K80" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M80" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5331,8 +6691,17 @@
       <c r="L81" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M81" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -5366,8 +6735,17 @@
       <c r="L82" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>2</v>
       </c>
@@ -5382,8 +6760,11 @@
       <c r="J83" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M83" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -5409,8 +6790,14 @@
       <c r="K84" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M84" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -5436,8 +6823,14 @@
       <c r="K85" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M85" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -5463,8 +6856,14 @@
       <c r="K86" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -5490,8 +6889,14 @@
       <c r="K87" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M87" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -5517,8 +6922,14 @@
       <c r="K88" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M88" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -5544,8 +6955,14 @@
       <c r="K89" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M89" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -5571,8 +6988,14 @@
       <c r="K90" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M90" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -5606,8 +7029,17 @@
       <c r="L91" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -5641,8 +7073,17 @@
       <c r="L92" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M92" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -5676,8 +7117,17 @@
       <c r="L93" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M93" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -5703,8 +7153,14 @@
       <c r="K94" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M94" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -5738,8 +7194,17 @@
       <c r="L95" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>2</v>
       </c>
@@ -5754,8 +7219,11 @@
       <c r="J96" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M96" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -5781,8 +7249,14 @@
       <c r="K97" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M97" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -5816,8 +7290,17 @@
       <c r="L98" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M98" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -5851,8 +7334,17 @@
       <c r="L99" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M99" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>79</v>
       </c>
@@ -5878,8 +7370,14 @@
       <c r="K100" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M100" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>79</v>
       </c>
@@ -5905,8 +7403,14 @@
       <c r="K101" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M101" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -5932,8 +7436,14 @@
       <c r="K102" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M102" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -5959,8 +7469,14 @@
       <c r="K103" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>79</v>
       </c>
@@ -5986,8 +7502,14 @@
       <c r="K104" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M104" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>79</v>
       </c>
@@ -6013,8 +7535,14 @@
       <c r="K105" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -6040,8 +7568,14 @@
       <c r="K106" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M106" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -6067,8 +7601,14 @@
       <c r="K107" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M107" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -6094,8 +7634,14 @@
       <c r="K108" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M108" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -6121,8 +7667,14 @@
       <c r="K109" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -6148,8 +7700,14 @@
       <c r="K110" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>2</v>
       </c>
@@ -6164,8 +7722,11 @@
       <c r="J111" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M111" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>79</v>
       </c>
@@ -6191,8 +7752,14 @@
       <c r="K112" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M112" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>79</v>
       </c>
@@ -6218,8 +7785,14 @@
       <c r="K113" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M113" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -6245,8 +7818,14 @@
       <c r="K114" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M114" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -6272,8 +7851,14 @@
       <c r="K115" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>1</v>
       </c>
@@ -6288,8 +7873,11 @@
       <c r="J116" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M116" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -6315,8 +7903,14 @@
       <c r="K117" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M117" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>79</v>
       </c>
@@ -6350,8 +7944,17 @@
       <c r="L118" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M118" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>79</v>
       </c>
@@ -6377,8 +7980,14 @@
       <c r="K119" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M119" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>79</v>
       </c>
@@ -6404,8 +8013,14 @@
       <c r="K120" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M120" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -6431,8 +8046,14 @@
       <c r="K121" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M121" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>79</v>
       </c>
@@ -6458,8 +8079,14 @@
       <c r="K122" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M122" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -6493,8 +8120,17 @@
       <c r="L123" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -6520,8 +8156,14 @@
       <c r="K124" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M124" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -6547,8 +8189,14 @@
       <c r="K125" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M125" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -6582,8 +8230,17 @@
       <c r="L126" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M126" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>79</v>
       </c>
@@ -6609,8 +8266,14 @@
       <c r="K127" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>1</v>
       </c>
@@ -6625,8 +8288,11 @@
       <c r="J128" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M128" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -6652,8 +8318,14 @@
       <c r="K129" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
@@ -6668,8 +8340,11 @@
       <c r="J130" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>2</v>
       </c>
@@ -6684,8 +8359,11 @@
       <c r="J131" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M131" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3</v>
       </c>
@@ -6708,8 +8386,14 @@
       <c r="K132" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>2</v>
       </c>
@@ -6725,8 +8409,11 @@
         <v>843</v>
       </c>
       <c r="L133"/>
-    </row>
-    <row r="134" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M133" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>3</v>
       </c>
@@ -6750,6 +8437,12 @@
         <v>845</v>
       </c>
       <c r="L134"/>
+      <c r="M134" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>1120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tools/excel/finma/finma-2023-01.xlsx
+++ b/tools/excel/finma/finma-2023-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10781BB1-C13D-4766-AF29-DDE5C0794E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD7DF3-8747-4A75-AA61-7DE1B54A3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="667">
   <si>
     <t>type</t>
   </si>
@@ -118,9 +118,6 @@
     <t>I. Objet et champ d’application</t>
   </si>
   <si>
-    <t>Cm 1</t>
-  </si>
-  <si>
     <t>La présente circulaire se réfère aux prescriptions en matière de séparation des fonctions, de gestion des risques et de contrôle interne de l’ordonnance sur les banques (art. 12 et 14e OB ; RS 952.02) et de l’ordonnance sur les établissements financiers (art. 12 et 68 OEFin ; RS 954.11) et concrétise la pratique prudentielle correspondante. Elle tient compte des principes du Comité de Bâle pour une gestion irréprochable des risques opérationnels1 et de la résilience opérationnelle2.</t>
   </si>
   <si>
@@ -128,111 +125,60 @@
 [2] CBCB, « Principles for Operational Resilience » (31 mars 2021)</t>
   </si>
   <si>
-    <t>Cm 2</t>
-  </si>
-  <si>
     <t>La présente circulaire s’adresse aux banques selon l’art. 1a et aux personnes selon l’art. 1b de la loi sur les banques (LB ; RS 952.0), aux maisons de titres selon les art. 2 al. 1 let. e et 41 de la loi sur les établissements financiers (LEFin ; RS 954.1) ainsi qu’aux groupes financiers et aux conglomérats financiers selon l’art. 3c LB et l’art. 49 LEFin. Par « établissements », on entend ci-après les banques, les personnes selon l’art. 1b LB, les maisons de titres ainsi que les groupes et conglomérats financiers.</t>
   </si>
   <si>
     <t>II. Définitions</t>
   </si>
   <si>
-    <t>Cm 3</t>
-  </si>
-  <si>
     <t>Les risques opérationnels sont définis à l’art. 89 OFR. On entend par là le risque de pertes financières résultant de l’inadéquation ou de la défaillance de processus ou de systèmes internes, d’actions inappropriées de personnes ou d'erreurs qu’elles ont commises ou encore d'événements externes. Sont comprises les pertes financières qui peuvent découler des risques juridiques ou des risques de compliance. La gestion des risques opérationnels prend typiquement également en compte d’autres types de dommages3, dans la mesure où ceux-ci peuvent aussi aboutir à des pertes financières. Les risques stratégiques en sont exclus.</t>
   </si>
   <si>
     <t>[3] Par ex. répercussions négatives sur la réputation, perte potentielle de confiance et perte de clientèle, incidences négatives sur le marché, conséquences réglementaires négatives (par ex. perte potentielle de licence).</t>
   </si>
   <si>
-    <t>Cm 4</t>
-  </si>
-  <si>
     <t>Les risques inhérents sont les risques opérationnels auxquels est exposé l’établissement en raison de ses produits, de ses activités, de ses procédures et de ses systèmes, sans prise en compte des mesures de contrôle et d’atténuation.</t>
   </si>
   <si>
-    <t>Cm 5</t>
-  </si>
-  <si>
     <t>Les risques résiduels sont les risques opérationnels auxquels est exposé l’établissement après prise en compte des mesures de contrôle et d’atténuation.</t>
   </si>
   <si>
-    <t>Cm 6</t>
-  </si>
-  <si>
     <t>Par technologie de l’information et de la communication (TIC), on entend la structure physique et logique (électronique) des systèmes IT et de communication, les différentes composantes matérielles et logicielles, les réseaux, les données et les environnements d’exploitation.</t>
   </si>
   <si>
-    <t>Cm 7</t>
-  </si>
-  <si>
     <t>Les données critiques sont des données qui, compte tenu de la taille, de la complexité, de la structure, du profil de risque ainsi que du modèle d’affaires de l’établissement revêtent une importance telle qu’elles nécessitent des exigences accrues en matière de sécurité. Ces données sont importantes pour la prestation réussie et durable des services de l’établissement ou à des fins réglementaires. Lors de l’évaluation et de la définition de la criticité des données, il faut prendre en compte la confidentialité, l’intégrité et la disponibilité. Chacun de ces trois aspects peut être déterminant pour classifier des données comme critiques.</t>
   </si>
   <si>
-    <t>Cm 8</t>
-  </si>
-  <si>
     <t>Les processus critiques sont des processus qui, s’ils connaissent des incidents ou interruptions majeurs mettent en danger l’exécution des fonctions critiques. Ils font partie des fonctions critiques.</t>
   </si>
   <si>
-    <t>Cm 9</t>
-  </si>
-  <si>
     <t>Le business continuity management (BCM) désigne l’approche adoptée à l’échelle de l’établissement pour rétablir le fonctionnement des processus critiques en cas d’incident ou d’interruption majeurs qui vont au-delà de la gestion des incidents. Il définit la réaction à un incident ou une interruption majeurs. Un BCM efficace diminue les risques résiduels liés aux incidents ou interruptions majeurs.</t>
   </si>
   <si>
-    <t>Cm 10</t>
-  </si>
-  <si>
     <t>Le recovery time objective (RTO) est le délai nécessaire jusqu’au rétablissement d’une application, d’un système et/ou d’un processus. Le recovery point objective (RPO) est la durée maximale acceptable d’une perte de données.</t>
   </si>
   <si>
-    <t>Cm 11</t>
-  </si>
-  <si>
     <t>Le business continuity plan (BCP) est un plan qui définit les procédures, les options de remplacement et les ressources de remplacement nécessaires (les processus de rétablissement) pour garantir la continuité et le rétablissement des processus critiques.</t>
   </si>
   <si>
-    <t>Cm 12</t>
-  </si>
-  <si>
     <t>Le disaster recovery plan (DRP) définit les processus de rétablissement qui permettent d’atteindre les objectifs de rétablissement en cas de défaillance majeure ou de destruction de la TIC, en tenant compte de l’éventuelle indisponibilité de personnes clés.</t>
   </si>
   <si>
-    <t>Cm 13</t>
-  </si>
-  <si>
     <t>Les situations de crise sont des situations exceptionnelles mettant potentiellement en danger l’existence de l’établissement et qui ne peuvent pas être maîtrisées à l’aide de mesures et compétences décisionnelles ordinaires. Elles se distinguent des incidents ordinaires ainsi que des incidents ou interruptions majeurs, qui peuvent être maîtrisés à l’aide de la gestion des incidents en situation normale ou des BCP et DRP définis.</t>
   </si>
   <si>
-    <t>Cm 14</t>
-  </si>
-  <si>
     <t>Les fonctions critiques comprennent :</t>
   </si>
   <si>
-    <t>Cm 15</t>
-  </si>
-  <si>
     <t>a. les activités, les processus et les services, y compris les ressources sous-jacentes nécessaires à leur réalisation, dont l’interruption mettrait en danger la poursuite de l’établissement ou son rôle sur le marché financier, et donc le bon fonctionnement des marchés financiers ; et</t>
   </si>
   <si>
-    <t>Cm 16</t>
-  </si>
-  <si>
     <t>b. les fonctions d’importance systémique selon l’art. 8 LB.</t>
   </si>
   <si>
-    <t>Cm 17</t>
-  </si>
-  <si>
     <t>La tolérance aux interruptions est l’ampleur (par ex. durée ou dommages attendus) de l’interruption d’une fonction critique que l’établissement est disposé à accepter en tenant compte de scénarios graves mais plausibles. Une tolérance aux interruptions doit être définie pour chaque fonction critique.</t>
   </si>
   <si>
-    <t>Cm 18</t>
-  </si>
-  <si>
     <t>La résilience opérationnelle désigne la capacité de l’établissement à pouvoir rétablir ses fonctions critiques en cas d’interruptions dans les limites de la tolérance aux interruptions, c.-à-d. la capacité de l’établissement à identifier les menaces et les défaillances éventuelles, à s’en protéger et à y réagir, à rétablir la marche ordinaire des affaires en cas d’interruptions et à en tirer des enseignements pour minimiser les conséquences sur l’exécution des fonctions critiques. Un établissement résilient sur le plan opérationnel a établi son modèle d’exploitation4 de manière à être moins exposé au risque d’interruptions de ses fonctions critiques. La résilience opérationnelle diminue non seulement les risques résiduels des interruptions, mais aussi le risque inhérent d’être soumis à une interruption. Une gestion efficace des risques opérationnels contribue à renforcer la résilience opérationnelle de l’établissement.</t>
   </si>
   <si>
@@ -242,21 +188,12 @@
     <t>III. Principe de proportionnalité</t>
   </si>
   <si>
-    <t>Cm 19</t>
-  </si>
-  <si>
     <t>La présente circulaire s’applique fondamentalement à l’ensemble de ses destinataires. Elle doit cependant être mise en œuvre au cas par cas en fonction de la taille, de la complexité, de la structure et du profil de risque de l’établissement. La FINMA ordonne des allègements ou des renforcements au cas par cas.</t>
   </si>
   <si>
-    <t>Cm 20</t>
-  </si>
-  <si>
     <t>Les banques et les maisons de titres des catégories FINMA 4 et 5 sont exemptées du respect des Cm 33 à 38, 41 à 46, 48, 51, 57, 73, 74, 76 à 78, 80, 87, 92, 93, 96, 103, 104 et 110 à 112.</t>
   </si>
   <si>
-    <t>Cm 21</t>
-  </si>
-  <si>
     <t>Les établissements selon les art. 47a à 47e OFR, les personnes selon l’art. 1b LB ainsi que les maisons de titres qui ne gèrent pas de comptes sont en plus exemptés du respect des exigences des Cm 72, 75, 79 ainsi que 105 à 109.</t>
   </si>
   <si>
@@ -266,61 +203,37 @@
     <t>A. Gestion globale des risques opérationnels</t>
   </si>
   <si>
-    <t>Cm 22</t>
-  </si>
-  <si>
     <t>La gestion des risques opérationnels fait partie de la gestion des risques à l’échelle de l’établissement conformément à la circulaire FINMA 2017/1 « Gouvernance d’entreprise – banques ».</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Cm 23</t>
-  </si>
-  <si>
     <t>L’organe responsable de la haute direction approuve l’approche pour la gestion des risques opérationnels pertinents pour l’établissement et surveille son respect. Sont inclus notamment les risques TIC, les cyberrisques, les risques des données critiques, les risques découlant de la conception et de la mise en œuvre du BCM et, le cas échéant, les risques liés aux activités de service transfrontières. Il approuve au moins une fois par année la tolérance au risque en matière de risques opérationnels en fonction de la politique de risque et compte tenu des objectifs stratégiques et financiers de l’établissement. Ce faisant, il tient compte des résultats issus des évaluations de risques et de contrôle selon le Cm 30. Soit il accepte le degré d’exposition aux risques opérationnels de l’établissement, soit il décide d’une adaptation de la tolérance au risque et des modifications stratégiques nécessaires à cet effet5.</t>
   </si>
   <si>
     <t>[5] Par exemple un changement de modèle d’affaires</t>
   </si>
   <si>
-    <t>Cm 24</t>
-  </si>
-  <si>
     <t>L’organe responsable de la haute direction approuve régulièrement les stratégies de gestion des TIC, des cyberrisques, des données critiques et du BCM, et surveille leur respect.</t>
   </si>
   <si>
-    <t>Cm 25</t>
-  </si>
-  <si>
     <t>La direction s’assure de manière compréhensible que les risques opérationnels sont identifiés, évalués, limités et surveillés et que l’efficacité tant de la conception que de la mise en œuvre de cette gestion des risques opérationnels est régulièrement vérifiée. Pour limiter les risques inhérents jugés importants6, elle prend, en fonction de la situation, des mesures complémentaires spécifiques au risque ou renforce les mesures existantes.</t>
   </si>
   <si>
     <t>[6] Appelés aussi risques principaux ou risques clés (key risks)</t>
   </si>
   <si>
-    <t>Cm 26</t>
-  </si>
-  <si>
     <t>Des mesures doivent être mises en œuvre7 pour sensibiliser le personnel à la réduction des risques opérationnels pertinents, en particulier les risques TIC, les cyberrisques, les risques des données critiques et les risques découlant de la conception et de la mise en œuvre du BCM, en tenant compte de ses tâches, compétences et responsabilités.</t>
   </si>
   <si>
     <t>[7] Cela inclut notamment la sélection rigoureuse et la qualification du personnel pour ses tâches, compétences et res- ponsabilités, et sa formation continue dans le cadre de ses activités.</t>
   </si>
   <si>
-    <t>Cm 27</t>
-  </si>
-  <si>
     <t>Si nécessaire, la FINMA définit, dans le cadre de sa surveillance courante, d’autres exigences en matière de gestion des risques opérationnels pour des thèmes spécifiques. Elle le fait avec retenue et en appliquant le principe de proportionnalité.</t>
   </si>
   <si>
-    <t>Cm 28</t>
-  </si>
-  <si>
     <t>Les risques opérationnels doivent être catégorisés de façon uniforme à l’échelle de l’établissement et répertoriés dans un inventaire. Cette catégorisation peut s’appuyer sur la catégorisation des types d’événements utilisée dans le cadre du calcul des fonds propres minimaux pour les risques opérationnels ou sur une taxonomie interne. La catégorisation doit être appliquée de manière cohérente dans tous les domaines de l’établissement et dans toutes les composantes de la gestion des risques opérationnels.</t>
-  </si>
-  <si>
-    <t>Cm 29</t>
   </si>
   <si>
     <t>Des facteurs internes8 et externes9 sont pris en compte dans l’identification des risques opérationnels. Les risques opérationnels identifiés sont évalués de manière compréhensible tant du point de vue des risques inhérents que des risques résiduels.</t>
@@ -330,114 +243,63 @@
 [9] Sont considérés comme facteurs externes par ex. les événements de perte reconnus d’autres établissements, les changements sur le plan de la sécurité (par ex. en raison d’influences environnementales, de cyberattaques ou du terrorisme) ou les changements en matière d’exigences réglementaires.</t>
   </si>
   <si>
-    <t>Cm 30</t>
-  </si>
-  <si>
     <t>L’identification et l’évaluation des risques opérationnels s’appuient au moins sur les résultats d’audit10 et les évaluations des risques et des contrôles à effectuer régulièrement. Les évaluations des risques et des contrôles tiennent compte des risques inhérents, de l’efficacité des mesures de contrôle et d’atténuation existantes ainsi que des risques résiduels.</t>
   </si>
   <si>
     <t>[10] Les résultats d’audit comprennent ici les résultats des audits effectués par la révision interne et la société d’audit externe, si disponibles, ainsi que les résultats d’examens effectués par ex. par les domaines d'activité et d'organisa- tion, le contrôle des risques, la fonction de compliance ou les autorités de surveillance.</t>
   </si>
   <si>
-    <t>Cm 31</t>
-  </si>
-  <si>
     <t>Pour évaluer les mesures de contrôle et d’atténuation existantes, une instance de contrôle indépendante procède à un examen régulier de l’efficacité des contrôles clés et le documente (design effectiveness et operating effectiveness testing). Les contrôles clés sont les mesures de contrôle et d’atténuation qui diminuent les risques inhérents considérés comme principaux. La séparation des tâches, compétences et responsabilités pour garantir l’indépendance et prévenir les conflits d’intérêts fait l’objet d’évaluations régulières.</t>
   </si>
   <si>
-    <t>Cm 32</t>
-  </si>
-  <si>
     <t>Des évaluations ad hoc des risques et des contrôles doivent être effectuées avant des changements importants dans les produits, les activités, les procédures et les systèmes. Celles-ci prennent en compte les risques opérationnels découlant du processus de changement et les risques opérationnels de l’état cible. La tolérance au risque est adaptée si besoin et des mesures de contrôle et d’atténuation sont mises en œuvre.</t>
   </si>
   <si>
-    <t>Cm 33</t>
-  </si>
-  <si>
     <t>En fonction de la nature, de l’ampleur, de la complexité et du risque des produits, activités, procédures et systèmes spécifiques à l’établissement, il s’agit d’appliquer les instruments et méthodes supplémentaires suivants :</t>
   </si>
   <si>
-    <t>Cm 34</t>
-  </si>
-  <si>
     <t>a. la collecte et l’analyse systématiques des données de pertes internes et des événements externes pertinents liés à des risques opérationnels ;</t>
   </si>
   <si>
-    <t>Cm 35</t>
-  </si>
-  <si>
     <t>b. les indicateurs de risque et de contrôle pour la surveillance des risques opérationnels et l’identification rapide des hausses de risque pertinentes ;</t>
   </si>
   <si>
-    <t>Cm 36</t>
-  </si>
-  <si>
     <t>c. les analyses de scénario et/ou l’estimation du potentiel de perte compte tenu ou visà-vis des fonds propres minimaux pour les risques opérationnels ;</t>
   </si>
   <si>
-    <t>Cm 37</t>
-  </si>
-  <si>
     <t>d. les analyses comparatives (read across), comme les analyses de pertinence des résultats d’audit pour d’autres domaines de l’établissement ou des comparaisons croisées entre les résultats issus des évaluations des risques et des contrôles de différents domaines.</t>
   </si>
   <si>
-    <t>Cm 38</t>
-  </si>
-  <si>
     <t>La tolérance au risque pour les risques opérationnels tient compte de la tolérance en lien tant avec les risques inhérents11 qu’avec les risques opérationnels résiduels. Elle fait l’objet d’une surveillance au moyen d’indicateurs de risque ou de contrôle.</t>
   </si>
   <si>
     <t>[11] La tolérance au risque par rapport aux risques inhérents tient compte de décisions stratégiques en lien avec le mo- dèle d’affaires ou d’exploitation, par ex. la tolérance aux risques inhérents, qui peuvent découler d’activités avec certains pays ou segments de clientèle, de l’offre de certains produits, de l’application de processus majoritairement manuels, du recours à une infrastructure informatique complexe ou de certaines externalisations (outsourcing).</t>
   </si>
   <si>
-    <t>Cm 39</t>
-  </si>
-  <si>
     <t>Le rapport du contrôle des risques remis au moins une fois par année à l’organe responsable de la haute direction et au moins une fois par semestre à la direction selon les Cm 75 et 76 de la Circ.-FINMA 17/1 rend compte des risques opérationnels selon le niveau supérieur12 de leur catégorisation définie conformément au Cm 28, de leur comparaison avec la tolérance aux risques fixée ainsi que des détails concernant les pertes internes importantes.</t>
   </si>
   <si>
     <t>[12] Le niveau supérieur de la catégorisation est souvent appelé niveau 1 ou level 1. Le rapport peut aussi être effectué de façon plus détaillée.</t>
   </si>
   <si>
-    <t>Cm 40</t>
-  </si>
-  <si>
     <t>En ce qui concerne les risques TIC et les cyberrisques, le rapport remis au moins une fois par année à la direction contient en outre des informations sur l’évolution de ces risques, l’efficacité des contrôles clés correspondants et les événements importants internes et externes en lien avec ces risques.</t>
   </si>
   <si>
-    <t>Cm 41</t>
-  </si>
-  <si>
     <t>Le rapport interne au sens du Cm 39 contient à titre complémentaire les informations suivantes :</t>
   </si>
   <si>
-    <t>Cm 42</t>
-  </si>
-  <si>
     <t>• les facteurs externes pertinents selon la note de bas de page 9,</t>
   </si>
   <si>
-    <t>Cm 43</t>
-  </si>
-  <si>
     <t>• la vue d’ensemble récapitulative sur l’efficacité des contrôles clés selon le Cm 31,</t>
   </si>
   <si>
-    <t>Cm 44</t>
-  </si>
-  <si>
     <t>• les risques opérationnels émergents,</t>
   </si>
   <si>
-    <t>Cm 45</t>
-  </si>
-  <si>
     <t>• les résultats découlant de l’application des instruments et des méthodes supplémentaires selon le Cm 33.</t>
   </si>
   <si>
-    <t>Cm 46</t>
-  </si>
-  <si>
     <t>De plus, conformément au principe de proportionnalité, les banques d’importance systémique rendent compte régulièrement des risques opérationnels au niveau des domaines d’activité et d’organisation exposés à des risques opérationnels pertinents ou principaux.</t>
   </si>
   <si>
@@ -447,42 +309,24 @@
     <t>a) Stratégie TIC et gouvernance</t>
   </si>
   <si>
-    <t>Cm 47</t>
-  </si>
-  <si>
     <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et de la sensibilisation aux TIC sont définies aux Cm 23 à 26 et 40.</t>
   </si>
   <si>
-    <t>Cm 48</t>
-  </si>
-  <si>
     <t>La gestion des risques TIC tient compte des normes pertinentes et pratiques reconnues à l’échelle internationale ainsi que de l’influence des nouvelles évolutions technologiques sur les risques TIC.</t>
   </si>
   <si>
-    <t>Cm 49</t>
-  </si>
-  <si>
     <t>La direction s’assure que des procédures, des processus, des contrôles ainsi que des tâches, compétences et responsabilités soient implémentés et documentés tant pour la gestion des changements (change management) que pour l’exploitation TIC (run, maintenance). Ceux-ci sont dotés de ressources qualifiées et appropriées.</t>
   </si>
   <si>
-    <t>Cm 50</t>
-  </si>
-  <si>
     <t>b) Gestion des changements (change management)</t>
   </si>
   <si>
     <t>La gestion des changements définit des procédures, des processus et des contrôles pour toutes les phases de développement ou d’acquisition de TIC. Elle prend en compte dans chaque phase les conséquences du changement qui en découlent pour les risques TIC. Ce faisant, l’accent est mis notamment sur les exigences concernant la confidentialité, l’intégrité et la disponibilité.</t>
   </si>
   <si>
-    <t>Cm 51</t>
-  </si>
-  <si>
     <t>Il faut garantir la séparation entre, d’une part, les environnements de développement ou de test et, d’autre part, l’environnement de production TIC. Cela comprend également une attribution claire de tâches, compétences et responsabilités ainsi qu’une réglementation des autorisations d’accès afférentes.</t>
   </si>
   <si>
-    <t>Cm 52</t>
-  </si>
-  <si>
     <t>Lors du développement et de l’acquisition de TIC, les exigences fonctionnelles et non fonctionnelles13 sont clairement définies et approuvées, puis testées et validées selon leur criticité.</t>
   </si>
   <si>
@@ -492,115 +336,64 @@
     <t>c) Exploitation TIC (run, maintenance)</t>
   </si>
   <si>
-    <t>Cm 53</t>
-  </si>
-  <si>
     <t>L’établissement dresse un ou plusieurs inventaire(s) des composantes TIC. L’inventaire inclut les composantes matérielles et logicielles ainsi que les lieux de sauvegarde des données critiques. Il tient compte des dépendances au sein de l’établissement ainsi que des interfaces avec les prestataires externes importants.</t>
   </si>
   <si>
-    <t>Cm 54</t>
-  </si>
-  <si>
     <t>L’inventaire est disponible rapidement et est régulièrement revu et mis à jour en ce qui concerne son exhaustivité et sa véracité.</t>
   </si>
   <si>
-    <t>Cm 55</t>
-  </si>
-  <si>
     <t>L’établissement dispose de procédures, de processus et de contrôles qui garantissent la confidentialité, l’intégrité et la disponibilité de l’environnement de production TIC en tenant compte de la tolérance au risque correspondante.</t>
   </si>
   <si>
-    <t>Cm 56</t>
-  </si>
-  <si>
     <t>L’établissement garantit la transition irréprochable entre la gestion opérationnelle TIC et les procédures BCM et DRP en cas d’incidents ou interruptions majeurs. Il met en œuvre des procédures de sauvegarde et de restauration appropriées qui sont régulièrement testées et validées.</t>
   </si>
   <si>
-    <t>Cm 57</t>
-  </si>
-  <si>
     <t>L’établissement dispose de procédures, de processus et de contrôles qui garantissent une gestion orientée vers le risque des TIC dont la fin d’exploitation approche ou dont la mise hors service prévue a été dépassée.</t>
   </si>
   <si>
     <t>d) Gestion des incidents (incident management)</t>
   </si>
   <si>
-    <t>Cm 58</t>
-  </si>
-  <si>
     <t>L’établissement dispose de procédures, de processus et de contrôles visant à traiter les incidents TIC importants, y compris ceux qui sont dus à des dépendances vis-à-vis de prestataires externes importants ou à des externalisations au sein d’un groupe. Il tient compte de l’ensemble du cycle de vie des incidents TIC importants et définit des tâches, compétences et responsabilités pour traiter ces incidents.</t>
   </si>
   <si>
-    <t>Cm 59</t>
-  </si>
-  <si>
     <t>Le traitement des incidents TIC importants doit être coordonné et rattaché aux processus BCM et DRP.</t>
   </si>
   <si>
-    <t>Cm 60</t>
-  </si>
-  <si>
     <t>Les établissements renseignent sans délai la FINMA sur les incidents TIC qu’ils considèrent comme des perturbations importantes pour l’exécution de leurs processus critiques et qui sont susceptibles de l’intéresser.</t>
   </si>
   <si>
     <t>C. Gestion des cyberrisques</t>
   </si>
   <si>
-    <t>Cm 61</t>
-  </si>
-  <si>
     <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les cyberrisques sont définies aux Cm 23 à 26 et 40.</t>
   </si>
   <si>
-    <t>Cm 62</t>
-  </si>
-  <si>
     <t>L’établissement définit des tâches, compétences et responsabilités claires. Il doit couvrir au moins les aspects suivants selon les meilleures pratiques et normes internationalement reconnues et garantir, développer et améliorer continuellement leur mise en œuvre effective au moyen de procédures, de processus et de contrôles appropriés :</t>
   </si>
   <si>
-    <t>Cm 63</t>
-  </si>
-  <si>
     <t>a. identification des menaces potentielles liées aux cyberattaques14 spécifiques à l’établissement et évaluation des conséquences possibles liées à l’exploitation des vulnérabilités relatives aux composantes TIC répertoriées et des données électroniques critiques (selon Cm 53, 54 et 7) ;</t>
   </si>
   <si>
     <t>[14] Attaques contre la confidentialité, l’intégrité et la disponibilité des TIC ainsi que les données électroniques critiques au moyen de l’exploitation des vulnérabilités ou du contournement des mesures protectrices par des cybercriminels externes ou internes.</t>
   </si>
   <si>
-    <t>Cm 64</t>
-  </si>
-  <si>
     <t>b. protection des composantes TIC répertoriées et des données électroniques critiques contre les cyberattaques par l’implémentation de mesures de protection appropriées, en particulier en ce qui concerne la confidentialité, l’intégrité et la disponibilité ;</t>
   </si>
   <si>
-    <t>Cm 65</t>
-  </si>
-  <si>
     <t>c. enregistrement et détection rapides des cyberattaques sur la base d’un processus de surveillance systématique et constant des composantes TIC répertoriées et des données électroniques critiques ;</t>
   </si>
   <si>
-    <t>Cm 66</t>
-  </si>
-  <si>
     <t>d. réaction aux vulnérabilités et aux cyberattaques identifiées par le développement et l’implémentation de processus appropriés afin de prendre rapidement des mesures d’atténuation et de suppression ; et</t>
   </si>
   <si>
-    <t>Cm 67</t>
-  </si>
-  <si>
     <t>e. garantie d’un rétablissement rapide de la marche ordinaire des affaires après des cyberattaques, grâce à des mesures appropriées.</t>
   </si>
   <si>
-    <t>Cm 68</t>
-  </si>
-  <si>
     <t>La gestion des cyberrisques doit garantir qu’une cyberattaque, qu’elle ait atteint son but entièrement ou partiellement, soit analysée selon son importance pour les composantes TIC répertoriées ainsi que les données électroniques critiques et les processus critiques (y compris les fonctions et services externalisés) et que l’obligation d’annoncer selon la LFINMA soit respectée. Après une première évaluation et une information préalable au service compétent de la FINMA dans les 24 heures, l’annonce doit être transmise dans les 72 heures, conformément au cahier des charges de la plate-forme de saisie EHP (champs obligatoires). Une fois que le cas a été traité par l’établissement, un rapport conclusif sur les causes conforme au degré de gravité doit être remis au service compétent de la FINMA.</t>
   </si>
   <si>
     <t>[15] Analyse visant à identifier les vulnérabilités actuelles des logiciels ainsi que les failles de sécurité de l’infrastructure IT par rapport aux cyberattaques</t>
-  </si>
-  <si>
-    <t>Cm 69</t>
   </si>
   <si>
     <t>La direction fait régulièrement procéder à des analyses de vulnérabilité15 et à des tests d’intrusion16. Ces derniers doivent être effectués par du personnel qualifié disposant de ressources adéquates. Ce faisant, toutes les composantes TIC répertoriées et accessibles par Internet doivent être prises en compte. En outre, les composantes TIC répertoriées et non accessibles par Internet mais qui sont nécessaires à l’exécution de processus critiques ou qui contiennent des données électroniques critiques, doivent être prises en compte. Sur la base des menaces potentielles spécifiques à l’établissement, il y a lieu d’effectuer, en fonction des risques, des cyberexercices17 fondés sur des scénarios. Le résultat des exercices doit être documenté et rapporté en forme appropriée.</t>
@@ -610,9 +403,6 @@
 [16] Évaluation ciblée et exploitation des vulnérabilités des logiciels et des failles de sécurité des TIC</t>
   </si>
   <si>
-    <t>Cm 70</t>
-  </si>
-  <si>
     <t>Sur la base des menaces potentielles spécifiques à l’établissement, il y a lieu d’effectuer, en fonction des risques, des cyberexercices17 fondés sur des scénarios. Le résultat des exercices doit être documenté et rapporté en forme appropriée.</t>
   </si>
   <si>
@@ -622,67 +412,37 @@
     <t>D. Gestion des risques des données critiques</t>
   </si>
   <si>
-    <t>Cm 71</t>
-  </si>
-  <si>
     <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les risques des données critiques sont définies aux Cm 23 à 26.</t>
   </si>
   <si>
-    <t>Cm 72</t>
-  </si>
-  <si>
     <t>La direction définit des processus, des procédures et des contrôles adéquats ainsi que des tâches, compétences et responsabilités claires relatifs au traitement des données critiques identifiées par l’établissement. Par ailleurs, la direction mandate une unité pour créer et maintenir les conditions-cadres permettant de garantir la confidentialité, l’intégrité et la disponibilité des données critiques et de surveiller leur respect.</t>
   </si>
   <si>
-    <t>Cm 73</t>
-  </si>
-  <si>
     <t>L’établissement identifie ses données critiques de manière systématique et exhaustive, les catégorise selon leur criticité et définit des responsabilités claires en matière de données.</t>
   </si>
   <si>
-    <t>Cm 74</t>
-  </si>
-  <si>
     <t>Les données critiques définies par l’établissement sont gérées tout au long de leur cycle de vie.</t>
   </si>
   <si>
-    <t>Cm 75</t>
-  </si>
-  <si>
     <t>Dans ce cadre, des processus, des procédures et des contrôles appropriés garantissent en particulier le respect de la confidentialité, de l’intégrité et de la disponibilité lors de l’administration des données critiques.</t>
   </si>
   <si>
-    <t>Cm 76</t>
-  </si>
-  <si>
     <t>Durant l’exploitation et pendant le développement, le changement et la migration des TIC, l’accès et l’utilisation des données critiques doivent être protégés de manière appropriée vis-à-vis des personnes non autorisées. Cela s’applique également aux données critiques dans les environnements de test.</t>
   </si>
   <si>
-    <t>Cm 77</t>
-  </si>
-  <si>
     <t>Les composantes TIC, qui sauvegardent ou traitent des données critiques, sont à protéger en particulier. L’accès à ces données doit être réglementé systématiquement et surveillé en permanence.</t>
   </si>
   <si>
-    <t>Cm 78</t>
-  </si>
-  <si>
     <t>L’accès aux données critiques et aux fonctionnalités de traitement de ces données est limité aux personnes qui en ont besoin pour accomplir leurs tâches18. À cet égard, l’établissement doit disposer d’un système d’autorisation. L’accès à ce système doit être particulièrement protégé et régulièrement vérifié. Les autorisations contenues dans ce système doivent être régulièrement contrôlées.</t>
   </si>
   <si>
     <t>[18] Par ex. principe du need-to-know et du least privilege</t>
   </si>
   <si>
-    <t>Cm 79</t>
-  </si>
-  <si>
     <t>Lorsque les données critiques sont stockées hors de Suisse19 ou qu’elles sont accessibles depuis l’étranger, les risques accrus qui en résultent doivent être limités de manière appropriée et surveillés au moyen de mesures appropriées et les données doivent être particulièrement protégées.</t>
   </si>
   <si>
     <t>[19] Par ex. à l’aide de solutions de cloud ou de hosting</t>
-  </si>
-  <si>
-    <t>Cm 80</t>
   </si>
   <si>
     <t>Tant les personnes internes qu’externes qui peuvent accéder aux données critiques ou les modifier doivent être soigneusement sélectionnées. Ces personnes doivent être surveillées à l’aide des mesures appropriées20 et formées régulièrement sur le traitement de ces données. Des exigences accrues en matière de sécurité s’appliquent aux personnes bénéficiant de privilèges accrus21. Il convient en outre de tenir une liste de ces personnes et de la mettre continuellement à jour.</t>
@@ -692,15 +452,9 @@
 [21] Par ex. les personnes qui bénéficient de droits d’administration, les utilisatrices et utilisateurs qui disposent d’un ac- cès fonctionnel à une grande quantité de données critiques, etc.</t>
   </si>
   <si>
-    <t>Cm 81</t>
-  </si>
-  <si>
     <t>Les incidents qui entravent de manière importante la confidentialité, l’intégrité ou la disponibilité des données critiques doivent être annoncés immédiatement à la FINMA.</t>
   </si>
   <si>
-    <t>Cm 82</t>
-  </si>
-  <si>
     <t>Une grande importance doit être accordée à l’examen de diligence (due diligence) lors du choix des prestataires qui peuvent accéder aux données critiques ou les traiter22. Il faut définir des critères clairs pour évaluer la manière dont les prestataires gèrent les données critiques et les vérifier avant de signer des contrats. En fonction du risque, les prestataires doivent être soumis à une surveillance et à un contrôle périodiques dans le cadre du système de contrôle interne de l’établissement.</t>
   </si>
   <si>
@@ -710,207 +464,117 @@
     <t>E. Business continuity management (BCM)</t>
   </si>
   <si>
-    <t>Cm 83</t>
-  </si>
-  <si>
     <t>Les attentes fondamentales à l’égard de la stratégie, de la gouvernance et du renforcement de la prise de conscience en lien avec les risques découlant de la conception et de la mise en œuvre du BCM sont définies aux Cm 23 à 26.</t>
   </si>
   <si>
-    <t>Cm 84</t>
-  </si>
-  <si>
     <t>Chaque domaine d’activité ou d’organisation pertinent doit identifier ses processus critiques et les ressources correspondantes nécessaires23 dans le cadre de la business impact analysis (BIA).</t>
   </si>
   <si>
     <t>[23] Personnel, infrastructure (par ex. immeubles, infrastructure des postes de travail), systèmes IT ou infrastructure IT (y compris systèmes de communication), dépendances vis-à-vis d’autres domaines de l’établissement et de tiers, par ex. prestataires ou fournisseurs externes (externalisation), banques centrales ou chambres de compensation.</t>
   </si>
   <si>
-    <t>Cm 85</t>
-  </si>
-  <si>
     <t>Pour les processus critiques, l’établissement définit le RTO et le RPO conformément au Cm 10. Ceux-ci sont coordonnés avec les fournisseurs de prestations24 requis à cet effet et leur respect est régi par des service level agreements ou des contrats, ou garantis par d’autres procédures et contrôles appropriés.</t>
   </si>
   <si>
     <t>[24] Par ex. avec le département IT, d’autres domaines de l’établissement ou des externes.</t>
   </si>
   <si>
-    <t>Cm 86</t>
-  </si>
-  <si>
     <t>L’établissement définit au moins un BCP selon le Cm 11, qui décrit aussi les processus de décision ainsi que les événements déclencheurs du plan et tient compte de la perte des ressources selon le Cm 84. L’acceptation des risques résiduels est documentée de manière adéquate.</t>
   </si>
   <si>
-    <t>Cm 87</t>
-  </si>
-  <si>
     <t>La BIA et le BCP sont établis et documentés de manière cohérente selon une directive applicable à l’échelle de l’établissement. Ils doivent être revus et mis à jour chaque année ainsi qu’en cas de changements majeurs dans l’activité (réorganisations, création d’un nouveau champ d’activité, etc.).</t>
   </si>
   <si>
-    <t>Cm 88</t>
-  </si>
-  <si>
     <t>L’établissement définit au moins un DRP en tant que partie intégrante du BCP. Lorsque des processus critiques ou des parties de ceux-ci sont externalisés, le DRP tient compte des dépendances externes et des dispositions contractuelles ainsi que des solutions alternatives. Le DRP est revu et mis à jour en cas de changements majeurs, mais au moins une fois par année.</t>
   </si>
   <si>
-    <t>Cm 89</t>
-  </si>
-  <si>
     <t>Dans les situations de crise, un état-major de crise est chargé de gérer celle-ci jusqu’au rétablissement de la situation. Les événements déclencheurs d’une crise et les tâches, compétences et responsabilités de l’état-major de crise doivent être réglés au préalable. L’organisation de crise doit être axée sur l’activité commerciale et la structure géographique de l’établissement. L’accessibilité des responsables en situation de crise doit être garantie.</t>
   </si>
   <si>
-    <t>Cm 90</t>
-  </si>
-  <si>
     <t>L’établissement définit une stratégie de communication interne et externe en situation de crise.</t>
   </si>
   <si>
-    <t>Cm 91</t>
-  </si>
-  <si>
     <t>La mise en œuvre du BCP et du DRP ainsi que le bon fonctionnement de l’organisation de crise sont régulièrement soumis à des tests. À cet effet, l’établissement met en œuvre une planification systématique afin de garantir une couverture régulière. Différentes manières de procéder au test avec des degrés d’intensité et d’efficacité variables peuvent être choisies, comme des exercices table-top.</t>
   </si>
   <si>
-    <t>Cm 92</t>
-  </si>
-  <si>
     <t>Les principales mesures du BCP et du DRP ainsi que l’organisation de crise sont testées au moins une fois par année.</t>
   </si>
   <si>
-    <t>Cm 93</t>
-  </si>
-  <si>
     <t>Les parties prenantes, y compris celles issues des fonctions IT et des fonctions spécialisées, participent aux tests pour se familiariser aux processus de rétablissement.</t>
   </si>
   <si>
-    <t>Cm 94</t>
-  </si>
-  <si>
     <t>Les tests comprennent différents scénarios graves mais plausibles, et prennent en compte les dépendances en matière de rétablissement, y compris celles qui existent à l’égard de tiers internes ou externes.</t>
   </si>
   <si>
-    <t>Cm 95</t>
-  </si>
-  <si>
     <t>Des comptes rendus réguliers informent l’organe responsable de la haute direction et la direction des activités de test et de vérification effectuées ainsi que de leurs résultats. Ils présentent clairement les priorités adoptées (par ex. priorisation des processus critiques requis pour l’exécution des fonctions critiques selon le Cm 14) et les lacunes identifiées dans la couverture d’autres processus critiques.</t>
   </si>
   <si>
-    <t>Cm 96</t>
-  </si>
-  <si>
     <t>Les collaborateurs ainsi que les membres de l’organisation de crise doivent être suffisamment formés au sujet de leurs tâches, compétences et responsabilités qui découlent des diverses activités BCM. Cela s’applique aussi bien lors de l’entrée en fonction de nouveaux membres du personnel qu’en ce qui concerne les formations régulières.</t>
   </si>
   <si>
     <t>F. Gestion des risques liés aux activités de service transfrontières</t>
   </si>
   <si>
-    <t>Cm 97</t>
-  </si>
-  <si>
     <t>Quand des établissements ou leurs filiales fournissent des services ou distribuent des produits financiers dans le cadre d’opérations transfrontières, les risques résultant d’une application des législations étrangères (droit fiscal, droit pénal, législation en matière de blanchiment d’argent, etc.) doivent également être identifiés, limités et contrôlés de façon appropriée.</t>
   </si>
   <si>
-    <t>Cm 98</t>
-  </si>
-  <si>
     <t>Les établissements soumettent leurs activités de services transfrontières ainsi que la distribution transfrontière de produits financiers à une analyse approfondie des conditionscadres juridiques et des risques correspondants. Sur la base de cette analyse, les établissements prennent les mesures stratégiques et organisationnelles nécessaires à l’élimination et à la minimisation des risques et les adaptent au fur et à mesure à l’évolution de la situation. Ils possèdent notamment les connaissances spécialisées requises spécifiques aux pays en question, définissent des modèles de prestations spécifiques aux pays desservis, forment le personnel et garantissent le respect des prescriptions grâce à des mesures organisationnelles, des directives et des modèles de rémunération et de sanction correspondants.</t>
   </si>
   <si>
-    <t>Cm 99</t>
-  </si>
-  <si>
     <t>Les risques générés par les gérants de fortune indépendants, les intermédiaires et autres prestataires doivent également être pris en compte. En conséquence, ces partenaires doivent être choisis et instruits avec soin.</t>
   </si>
   <si>
-    <t>Cm 100</t>
-  </si>
-  <si>
     <t>Ce principe s’applique également aux cas dans lesquels une filiale, une succursale ou une entité similaire d’un établissement financier suisse domiciliée à l’étranger offre des services transfrontières à des clients.</t>
   </si>
   <si>
     <t>V. Garantie de la résilience opérationnelle</t>
   </si>
   <si>
-    <t>Cm 101</t>
-  </si>
-  <si>
     <t>L’établissement identifie ses fonctions critiques et leurs tolérances aux interruptions. Celles-ci sont approuvées par l’organe responsable de la haute direction. En outre, l’organe responsable de la haute direction approuve et surveille régulièrement la procédure visant à garantir la résilience opérationnelle.</t>
   </si>
   <si>
-    <t>Cm 102</t>
-  </si>
-  <si>
     <t>L’établissement prend des mesures pour garantir la résilience opérationnelle en tenant compte de scénarios graves, mais plausibles25.</t>
   </si>
   <si>
     <t>[25] Il ne peut être exclu que certains scénarios ne puissent pas être gérés sans intervention de l’État (par ex. pandé- mies, guerres, pénuries d’électricité durables). Pour de tels scénarios, l’établissement doit effectuer des travaux pré- paratoires pour renforcer sa résilience opérationnelle dans le cadre de ses possibilités.</t>
   </si>
   <si>
-    <t>Cm 103</t>
-  </si>
-  <si>
     <t>Les fonctions critiques et leurs tolérances aux interruptions au sens du Cm 14 doivent être approuvées par l’organe responsable de la haute direction au moins une fois par année.</t>
   </si>
   <si>
-    <t>Cm 104</t>
-  </si>
-  <si>
     <t>L’établissement coordonne les composantes pertinentes d’une gestion des risques globale, comme la gestion des risques opérationnels, y compris la gestion des risques TIC et des cyberrisques, le business continuity management, la gestion des externalisations (outsourcing ; cf. circulaire FINMA 2018/3 « Outsourcing ») et le plan d’urgence (chapitre VI), pour qu’elles contribuent à renforcer la résilience opérationnelle de l’établissement. Cela inclut un échange approprié des informations pertinentes entre ces différents domaines.</t>
   </si>
   <si>
-    <t>Cm 105</t>
-  </si>
-  <si>
     <t>La direction et l’organe responsable de la haute direction doivent recevoir au moins une fois par année des rapports sur la résilience opérationnelle ainsi qu’en cas de faiblesses de contrôle importantes ou d’incidents qui menacent la résilience opérationnelle.</t>
   </si>
   <si>
-    <t>Cm 106</t>
-  </si>
-  <si>
     <t>Pour les fonctions critiques, les menaces internes et externes ainsi que l’exploitation correspondante des vulnérabilités sont identifiées et évaluées. Les risques opérationnels en résultant sont identifiés, évalués, limités et surveillés dans le cadre de la gestion des risques opérationnels.</t>
   </si>
   <si>
-    <t>Cm 107</t>
-  </si>
-  <si>
     <t>L’établissement constitue un inventaire de ses fonctions critiques, qui doit être revu et mis à jour au moins une fois par année. Cet inventaire comporte les tolérances aux interruptions des fonctions critiques ainsi que les connexions et les dépendances entre les processus critiques nécessaires et leurs ressources26 pour exécuter les fonctions critiques.</t>
   </si>
   <si>
     <t>[26] Y compris les composantes de l’inventaire pertinentes pour les fonctions critiques selon le Cm 53</t>
   </si>
   <si>
-    <t>Cm 108</t>
-  </si>
-  <si>
     <t>Pour les fonctions critiques, l’établissement documente au minimum les risques opérationnels importants et les contrôles clés.</t>
   </si>
   <si>
-    <t>Cm 109</t>
-  </si>
-  <si>
     <t>Les fonctions critiques et les processus critiques et ressources nécessaires à cet effet sont couverts par les BCP selon le chapitre IV lettre E.</t>
   </si>
   <si>
-    <t>Cm 110</t>
-  </si>
-  <si>
     <t>La capacité à exécuter des fonctions critiques dans les limites de leurs tolérances aux interruptions en cas de scénarios graves mais plausibles est régulièrement testée ou exercée. Il s’agit notamment de scénarios qui se distinguent des interruptions brèves et plutôt limitées en se démarquant par des interruptions de longue durée (par ex. plusieurs mois) et la défaillance de ressources fondamentales27. Les tests ou exercices sont conçus de sorte à ne pas menacer fondamentalement l’établissement.</t>
   </si>
   <si>
     <t>[27] Par ex. pandémie, pénurie d’électricité, défaillance prolongée en raison de l’insolvabilité d’un prestataire important (comme exemple de stressed exit d’un prestataire) ou interdiction persistante de la part de gouvernements étrangers aux fournisseurs de cloud ou d'autres prestataires basés à l'étranger de servir des entreprises suisses.</t>
   </si>
   <si>
-    <t>Cm 111</t>
-  </si>
-  <si>
     <t>S’agissant des banques d’importance systémique, le BCP, le DRP et l’organisation en cas de crise selon le chapitre IV lettre E, pertinents pour la poursuite des fonctions critiques selon le Cm 14, doivent être coordonnés avec leur plan d’urgence selon le chapitre VI.</t>
   </si>
   <si>
     <t>VI. Maintien des prestations critiques lors de la liquidation et de l’assainissement des banques d’importance systémique</t>
   </si>
   <si>
-    <t>Cm 112</t>
-  </si>
-  <si>
     <t>Dans le cadre de leur plan d’urgence, les banques d’importance systémique prennent les mesures requises pour que leurs fonctions d’importance systémique puissent être poursuivies sans interruption (art. 9 al. 2 let. d LB en lien avec les art. 60 ss OB). Elles identifient les prestations requises pour la poursuite des fonctions d’importance systémique en cas de liquidation, d’assainissement ou de restructuration (« prestations critiques ») et prennent les mesures nécessaires à leur poursuite. Elles tiennent compte à cet égard des prescriptions des organismes édictant les standards internationaux.</t>
   </si>
   <si>
@@ -920,16 +584,10 @@
     <t>A. À propos de la garantie de la résilience opérationnelle</t>
   </si>
   <si>
-    <t>Cm 113</t>
-  </si>
-  <si>
     <t>L’identification des fonctions critiques, la définition des tolérances aux interruptions et les premières approbations selon les Cm 101 et 103 ainsi que le premier rapport selon le Cm 105 sont attendus dès l’entrée en vigueur de la présente circulaire. Un délai transitoire d’une année à compter de l’entrée en vigueur est applicable pour satisfaire aux exigences selon les Cm 106 à 109 ainsi qu’effectuer les premiers tests selon le Cm 110. La garantie de la résilience opérationnelle selon le Cm 102 ainsi que la satisfaction des exigences selon les Cm 104 et 111 sont attendues dans un délai transitoire de deux ans.</t>
   </si>
   <si>
     <t>B. À propos des exigences de fonds propres pour les risques opérationnels</t>
-  </si>
-  <si>
-    <t>Cm 114</t>
   </si>
   <si>
     <t>Les exigences de fonds propres pour les risques opérationnels au sens des art. 89 ss OFR s’appuient sur les Cm 3 à 116 de la circulaire FINMA 2008/21 « Risques opérationnels – banques » jusqu’à l’entrée en vigueur de l’OFR révisée dans le cadre du paquet de révisions des normes finales de Bâle III et de l’ordonnance d’exécution FINMA correspondante.</t>
@@ -1432,348 +1090,6 @@
                                  FinIO Articles 12 and 68</t>
   </si>
   <si>
-    <t>Margin no. 1</t>
-  </si>
-  <si>
-    <t>Margin no. 2</t>
-  </si>
-  <si>
-    <t>Margin no. 3</t>
-  </si>
-  <si>
-    <t>Margin no. 4</t>
-  </si>
-  <si>
-    <t>Margin no. 5</t>
-  </si>
-  <si>
-    <t>Margin no. 6</t>
-  </si>
-  <si>
-    <t>Margin no. 7</t>
-  </si>
-  <si>
-    <t>Margin no. 8</t>
-  </si>
-  <si>
-    <t>Margin no. 9</t>
-  </si>
-  <si>
-    <t>Margin no. 10</t>
-  </si>
-  <si>
-    <t>Margin no. 11</t>
-  </si>
-  <si>
-    <t>Margin no. 12</t>
-  </si>
-  <si>
-    <t>Margin no. 13</t>
-  </si>
-  <si>
-    <t>Margin no. 14</t>
-  </si>
-  <si>
-    <t>Margin no. 15</t>
-  </si>
-  <si>
-    <t>Margin no. 16</t>
-  </si>
-  <si>
-    <t>Margin no. 17</t>
-  </si>
-  <si>
-    <t>Margin no. 18</t>
-  </si>
-  <si>
-    <t>Margin no. 19</t>
-  </si>
-  <si>
-    <t>Margin no. 20</t>
-  </si>
-  <si>
-    <t>Margin no. 21</t>
-  </si>
-  <si>
-    <t>Margin no. 22</t>
-  </si>
-  <si>
-    <t>Margin no. 23</t>
-  </si>
-  <si>
-    <t>Margin no. 24</t>
-  </si>
-  <si>
-    <t>Margin no. 25</t>
-  </si>
-  <si>
-    <t>Margin no. 26</t>
-  </si>
-  <si>
-    <t>Margin no. 27</t>
-  </si>
-  <si>
-    <t>Margin no. 28</t>
-  </si>
-  <si>
-    <t>Margin no. 29</t>
-  </si>
-  <si>
-    <t>Margin no. 30</t>
-  </si>
-  <si>
-    <t>Margin no. 31</t>
-  </si>
-  <si>
-    <t>Margin no. 32</t>
-  </si>
-  <si>
-    <t>Margin no. 33</t>
-  </si>
-  <si>
-    <t>Margin no. 34</t>
-  </si>
-  <si>
-    <t>Margin no. 35</t>
-  </si>
-  <si>
-    <t>Margin no. 36</t>
-  </si>
-  <si>
-    <t>Margin no. 37</t>
-  </si>
-  <si>
-    <t>Margin no. 38</t>
-  </si>
-  <si>
-    <t>Margin no. 39</t>
-  </si>
-  <si>
-    <t>Margin no. 40</t>
-  </si>
-  <si>
-    <t>Margin no. 41</t>
-  </si>
-  <si>
-    <t>Margin no. 42</t>
-  </si>
-  <si>
-    <t>Margin no. 43</t>
-  </si>
-  <si>
-    <t>Margin no. 44</t>
-  </si>
-  <si>
-    <t>Margin no. 45</t>
-  </si>
-  <si>
-    <t>Margin no. 46</t>
-  </si>
-  <si>
-    <t>Margin no. 47</t>
-  </si>
-  <si>
-    <t>Margin no. 48</t>
-  </si>
-  <si>
-    <t>Margin no. 49</t>
-  </si>
-  <si>
-    <t>Margin no. 50</t>
-  </si>
-  <si>
-    <t>Margin no. 51</t>
-  </si>
-  <si>
-    <t>Margin no. 52</t>
-  </si>
-  <si>
-    <t>Margin no. 53</t>
-  </si>
-  <si>
-    <t>Margin no. 54</t>
-  </si>
-  <si>
-    <t>Margin no. 55</t>
-  </si>
-  <si>
-    <t>Margin no. 56</t>
-  </si>
-  <si>
-    <t>Margin no. 57</t>
-  </si>
-  <si>
-    <t>Margin no. 58</t>
-  </si>
-  <si>
-    <t>Margin no. 59</t>
-  </si>
-  <si>
-    <t>Margin no. 60</t>
-  </si>
-  <si>
-    <t>Margin no. 61</t>
-  </si>
-  <si>
-    <t>Margin no. 62</t>
-  </si>
-  <si>
-    <t>Margin no. 63</t>
-  </si>
-  <si>
-    <t>Margin no. 64</t>
-  </si>
-  <si>
-    <t>Margin no. 65</t>
-  </si>
-  <si>
-    <t>Margin no. 66</t>
-  </si>
-  <si>
-    <t>Margin no. 67</t>
-  </si>
-  <si>
-    <t>Margin no. 68</t>
-  </si>
-  <si>
-    <t>Margin no. 69</t>
-  </si>
-  <si>
-    <t>Margin no. 70</t>
-  </si>
-  <si>
-    <t>Margin no. 71</t>
-  </si>
-  <si>
-    <t>Margin no. 72</t>
-  </si>
-  <si>
-    <t>Margin no. 73</t>
-  </si>
-  <si>
-    <t>Margin no. 74</t>
-  </si>
-  <si>
-    <t>Margin no. 75</t>
-  </si>
-  <si>
-    <t>Margin no. 76</t>
-  </si>
-  <si>
-    <t>Margin no. 77</t>
-  </si>
-  <si>
-    <t>Margin no. 78</t>
-  </si>
-  <si>
-    <t>Margin no. 79</t>
-  </si>
-  <si>
-    <t>Margin no. 80</t>
-  </si>
-  <si>
-    <t>Margin no. 81</t>
-  </si>
-  <si>
-    <t>Margin no. 82</t>
-  </si>
-  <si>
-    <t>Margin no. 83</t>
-  </si>
-  <si>
-    <t>Margin no. 84</t>
-  </si>
-  <si>
-    <t>Margin no. 85</t>
-  </si>
-  <si>
-    <t>Margin no. 86</t>
-  </si>
-  <si>
-    <t>Margin no. 87</t>
-  </si>
-  <si>
-    <t>Margin no. 88</t>
-  </si>
-  <si>
-    <t>Margin no. 89</t>
-  </si>
-  <si>
-    <t>Margin no. 90</t>
-  </si>
-  <si>
-    <t>Margin no. 91</t>
-  </si>
-  <si>
-    <t>Margin no. 92</t>
-  </si>
-  <si>
-    <t>Margin no. 93</t>
-  </si>
-  <si>
-    <t>Margin no. 94</t>
-  </si>
-  <si>
-    <t>Margin no. 95</t>
-  </si>
-  <si>
-    <t>Margin no. 96</t>
-  </si>
-  <si>
-    <t>Margin no. 97</t>
-  </si>
-  <si>
-    <t>Margin no. 98</t>
-  </si>
-  <si>
-    <t>Margin no. 99</t>
-  </si>
-  <si>
-    <t>Margin no. 100</t>
-  </si>
-  <si>
-    <t>Margin no. 101</t>
-  </si>
-  <si>
-    <t>Margin no. 102</t>
-  </si>
-  <si>
-    <t>Margin no. 103</t>
-  </si>
-  <si>
-    <t>Margin no. 104</t>
-  </si>
-  <si>
-    <t>Margin no. 105</t>
-  </si>
-  <si>
-    <t>Margin no. 106</t>
-  </si>
-  <si>
-    <t>Margin no. 107</t>
-  </si>
-  <si>
-    <t>Margin no. 108</t>
-  </si>
-  <si>
-    <t>Margin no. 109</t>
-  </si>
-  <si>
-    <t>Margin no. 110</t>
-  </si>
-  <si>
-    <t>Margin no. 111</t>
-  </si>
-  <si>
-    <t>Margin no. 112</t>
-  </si>
-  <si>
-    <t>Margin no. 113</t>
-  </si>
-  <si>
-    <t>Margin no. 114</t>
-  </si>
-  <si>
     <t>name[it]</t>
   </si>
   <si>
@@ -1784,9 +1100,6 @@
   </si>
   <si>
     <t>I. Oggetto e campo di applicazione</t>
-  </si>
-  <si>
-    <t>nm. 1</t>
   </si>
   <si>
     <t>La presente circolare si riferisce alle prescrizioni dell’Ordinanza sulle banche (artt. 12 e 14e OBCR; RS 952.02) e dell’Ordinanza sugli istituti finanziari (artt. 12 e 68 OIsFi; RS 954.11) concernenti la separazione delle funzioni, la gestione dei rischi e il controllo interno e concretizza la prassi di vigilanza in materia. Tiene conto dei Principi del Comitato di Basilea sulla sana gestione dei rischi operativi1 e sulla resilienza operativa2.</t>
@@ -1796,111 +1109,60 @@
 [2] BCBS Principles for Operational Resilience (31 marzo 2021).</t>
   </si>
   <si>
-    <t>nm. 2</t>
-  </si>
-  <si>
     <t>La circolare è destinata alle banche secondo l’art. 1a e alle persone secondo l’art. 1b della Legge sulle banche (LBCR; RS 952.0), alle società di intermediazione mobiliare secondo l’art. 2 cpv. 1 lett. e e l’art. 41 della Legge sugli istituti finanziari (LIsFI; RS 954.1) nonché ai gruppi finanziari e ai conglomerati finanziari secondo l’art. 3c LBCR e l’art. 49 LIsFi. Di seguito le banche, le persone secondo l’art. 1b LBCR, le società di intermediazione mobiliare, i gruppi finanziari e i conglomerati finanziari vengono denominati congiuntamente «istituti».</t>
   </si>
   <si>
     <t>II. Definizioni</t>
   </si>
   <si>
-    <t>nm. 3</t>
-  </si>
-  <si>
     <t>I rischi operativi sono definiti nell’art. 89 dell’Ordinanza sui fondi propri (OFoP; RS 952.03). Consistono nel pericolo di incorrere in perdite finanziarie dovute all’inadeguatezza o all’inefficacia delle procedure o dei sistemi interni, all’inadeguatezza delle azioni delle persone o a errori da esse commessi oppure causate da eventi esterni. Essi comprendono le perdite finanziarie che possono insorgere da rischi legali o di compliance. La gestione dei rischi operativi tiene tipicamente conto anche di altre dimensioni del danno3, nella misura in cui esse possano causare tra l’altro perdite finanziarie. Sono esclusi i rischi strategici.</t>
   </si>
   <si>
     <t>[3] Per esempio effetti negativi sulla reputazione, possibile perdita di fiducia e di clienti, effetti negativi sul mercato, effetti regolatori negativi (p. es. possibile perdita della licenza).</t>
   </si>
   <si>
-    <t>nm. 4</t>
-  </si>
-  <si>
     <t>I rischi inerenti sono rischi operativi a cui l’istituto è esposto a causa dei suoi prodotti, processi e sistemi e delle sue attività senza considerare le misure di controllo e di attenuazione.</t>
   </si>
   <si>
-    <t>nm. 5</t>
-  </si>
-  <si>
     <t>I rischi residui sono rischi operativi a cui l’istituto è esposto dopo aver considerato le misure di controllo e di attenuazione.</t>
   </si>
   <si>
-    <t>nm. 6</t>
-  </si>
-  <si>
     <t>Le tecnologie dell'informazione e della comunicazione (TIC) designano la struttura fisica e logica (elettronica) dei sistemi informatici e di comunicazione, le singoli componenti hardware e software, le reti, i dati e gli ambienti operativi.</t>
   </si>
   <si>
-    <t>nm. 7</t>
-  </si>
-  <si>
     <t>I dati critici sono dati che, in considerazione delle dimensioni, della complessità, della struttura, del profilo di rischio e del modello commerciale dell’istituto sono importanti a tal punto da richiedere uno standard più elevato di sicurezza. Si tratta di dati essenziali ai fini dell’erogazione efficace e continuativa dei servizi dell’istituto o per scopi regolatori. Per valutare e determinare la criticità dei dati è necessario considerarne sia la confidenzialità sia l’integrità e la disponibilità. Ognuno di questi tre aspetti può essere determinante per classificare i dati come critici.</t>
   </si>
   <si>
-    <t>nm. 8</t>
-  </si>
-  <si>
     <t>I processi critici sono processi la cui perturbazione importante o interruzione compromette lo svolgimento delle funzioni critiche, di cui sono parte.</t>
   </si>
   <si>
-    <t>nm. 9</t>
-  </si>
-  <si>
     <t>Il business continuity management (BCM) designa l’approccio adottato a livello di istituto per ripristinare i processi critici in caso di perturbazione o interruzione importante che vada al di là della gestione degli incidenti. Definisce dunque la reazione a perturbazioni importanti o interruzioni. Un BCM efficace riduce i rischi residui correlati a perturbazioni importanti o interruzioni.</t>
   </si>
   <si>
-    <t>nm. 10</t>
-  </si>
-  <si>
     <t>Il recovery time objective (RTO) è il tempo necessario per ripristinare un’applicazione, un sistema e/o un processo. Il recovery point objective (RPO) è la durata massima tollerabile di una perdita di dati.</t>
   </si>
   <si>
-    <t>nm. 11</t>
-  </si>
-  <si>
     <t>Il business continuity plan (BCP) è un piano previdente che definisce le procedure, le opzioni di ripristino e le risorse sostitutive necessarie (i processi di ripristino) per garantire la continuità e il ripristino dei processi critici.</t>
   </si>
   <si>
-    <t>nm. 12</t>
-  </si>
-  <si>
     <t>Il disaster recovery plan (DRP) definisce i processi di ripristino necessari per conseguire gli obiettivi di ripristino in caso di un guasto grave o di distruzione delle tecnologie dell’informazione e della comunicazione (TIC) e in considerazione dell’eventuale assenza di persone chiave.</t>
   </si>
   <si>
-    <t>nm. 13</t>
-  </si>
-  <si>
     <t>Le situazioni di crisi sono situazioni straordinarie, che costituiscono una potenziale minaccia per l’esistenza e non possono essere fronteggiate con misure e competenze decisionali ordinarie. Si distinguono dagli incidenti (incidents) e dalle perturbazioni o dalle interruzioni importanti che possono essere fronteggiate con la gestione degli incidenti nell’esercizio normale o con i BCP e i DRP stabiliti.</t>
   </si>
   <si>
-    <t>nm. 14</t>
-  </si>
-  <si>
     <t>Le funzioni critiche comprendono:</t>
   </si>
   <si>
-    <t>nm. 15</t>
-  </si>
-  <si>
     <t>a. le attività, i processi e i servizi, incluse le risorse sottostanti necessarie al loro svolgimento, la cui interruzione pregiudicherebbe il mantenimento dell’attività dell’istituto o il suo ruolo sul mercato finanziario, quindi anche la funzionalità dei mercati finanziari; e</t>
   </si>
   <si>
-    <t>nm. 16</t>
-  </si>
-  <si>
     <t xml:space="preserve">b. le funzioni di rilevanza sistemica secondo l’art. 8 LBCR. </t>
   </si>
   <si>
-    <t>nm. 17</t>
-  </si>
-  <si>
     <t>La tolleranza alle interruzioni è la portata (p. es. durata o danni attesi) dell’interruzione di una funzione critica, che l’istituto è disposto ad accettare considerando scenari gravi, ma plausibili. Per ogni funzione critica deve essere definita una tolleranza alle interruzioni.</t>
   </si>
   <si>
-    <t>nm. 18</t>
-  </si>
-  <si>
     <t>La resilienza operativa designa la capacità dell’istituto di ripristinare le sue funzioni critiche in caso di interruzioni entro i limiti di tolleranza alle interruzioni, ossia la capacità dell’istituto di individuare minacce e possibili disfunzioni, proteggersi da esse e reagire, ripristinare l’attività ordinaria in caso di interruzioni e trarne insegnamenti per minimizzare le conseguenze sullo svolgimento delle funzioni critiche. Un istituto operativamente resiliente ha strutturato il suo modello operativo4 in modo tale da essere meno esposto al rischio di interruzioni in riferimento alle sue funzioni critiche. La resilienza operativa riduce quindi non solo i rischi residui delle interruzioni, ma anche il rischio inerente che si verifichino interruzioni. Una gestione efficace dei rischi operativi contribuisce a rafforzare la resilienza operativa dell’istituto.</t>
   </si>
   <si>
@@ -1910,21 +1172,12 @@
     <t>III. Principio di proporzionalità</t>
   </si>
   <si>
-    <t>nm. 19</t>
-  </si>
-  <si>
     <t>La presente circolare si applica fondamentalmente a tutti i suoi destinatari, tuttavia i requisiti da adempiere nel singolo caso si differenziano in funzione delle dimensioni, della complessità, della struttura e del profilo di rischio dell’istituto. Nel singolo caso, la FINMA può ordinare facilitazioni o inasprimenti.</t>
   </si>
   <si>
-    <t>nm. 20</t>
-  </si>
-  <si>
     <t>Le banche e le società di intermediazione mobiliare delle categorie FINMA 4 e 5 sono esentate dall’adempimento dei numeri marginali 33–38, 41–46, 48, 51, 57, 73, 74, 76–78, 80, 87, 92, 93, 96, 103, 104 e 110–112.</t>
   </si>
   <si>
-    <t>nm. 21</t>
-  </si>
-  <si>
     <t>Gli istituti di cui agli artt. 47a–47e OFoP, le persone secondo l’art. 1b LBCR e le società di intermediazione mobiliare che non tengono conti sono inoltre esentate dall’adempimento dei numeri marginali 72, 75, 79 e 105–109.</t>
   </si>
   <si>
@@ -1934,58 +1187,34 @@
     <t>A. Gestione trasversale dei rischi operativi</t>
   </si>
   <si>
-    <t>nm. 22</t>
-  </si>
-  <si>
     <t>La gestione dei rischi operativi rientra nella gestione del rischio a livello di istituto conformemente alla Circolare FINMA 17/1 «Corporate governance – banche».</t>
   </si>
   <si>
-    <t>nm. 23</t>
-  </si>
-  <si>
     <t>L’organo preposto all’alta direzione approva i principi della gestione dei rischi operativi rilevanti per l’istituto e vigila sulla loro osservanza. Vi rientrano, tra l’altro, i rischi TIC, i cyber-rischi, i rischi concernenti i dati critici, i rischi derivanti dalla configurazione e dell’implementazione del BCM ed eventualmente i rischi afferenti alle prestazioni di servizio transfrontaliere. Almeno una volta all’anno approva la tolleranza al rischio per i rischi operativi conformemente alla politica di rischio in considerazione degli obiettivi strategici e finanziari dell’istituto. Al riguardo considera i risultati delle valutazioni del rischio e dei controlli secondo il nm. 30. Accetta la misura dell’esposizione ai rischi operativi da parte dell’istituto oppure decide un adeguamento della tolleranza al rischio e i necessari cambiamenti a livello strategico5.</t>
   </si>
   <si>
     <t>[5] Per esempio un cambiamento del modello commerciale.</t>
   </si>
   <si>
-    <t>nm. 24</t>
-  </si>
-  <si>
     <t>L’organo preposto all’alta direzione approva periodicamente le strategie di gestione delle TIC, dei cyber-rischi, dei dati critici e del BCM e vigila sulla loro osservanza.</t>
   </si>
   <si>
-    <t>nm. 25</t>
-  </si>
-  <si>
     <t>La direzione assicura in modo attendibile che i rischi operativi siano identificati, valutati, limitati e monitorati e che l’efficacia sia della configurazione sia dell’attuazione di tale gestione dei rischi operativi sia periodicamente verificata. Per limitare i rischi inerenti considerati essenziali6 adotta misure integrative o inasprimenti in funzione del rischio specifico.</t>
   </si>
   <si>
     <t>[6] Spesso chiamati rischi chiave (key risks).</t>
   </si>
   <si>
-    <t>nm. 26</t>
-  </si>
-  <si>
     <t>Per rendere i collaboratori sempre più consapevoli dell’importanza di ridurre i rischi operativi rilevanti, in particolare i rischi TIC, i cyber-rischi, i rischi concernenti i dati critici e i rischi derivanti dalla configurazione e dall’implementazione del BCM, è necessario implementare misure tenendo in considerazione i loro compiti, le competenze e le responsabilità (CCR)7.</t>
   </si>
   <si>
     <t>[7] Ciò implica, tra l’altro, la selezione accurata e la qualificazione del personale per i CCR e la formazione continua nel quadro delle sue attività.</t>
   </si>
   <si>
-    <t>nm. 27</t>
-  </si>
-  <si>
     <t>Se necessario, nell’ambito della vigilanza continua la FINMA definisce ulteriori requisiti in materia di gestione dei rischi operativi per temi specifici. Ciò avviene con moderazione e applicando il principio di proporzionalità.</t>
   </si>
   <si>
-    <t>nm. 28</t>
-  </si>
-  <si>
     <t>I rischi operativi devono essere categorizzati secondo criteri unitari a livello di istituto e inventariati. Questa categorizzazione può essere effettuata rifacendosi alla categorizzazione utilizzata nel calcolo dei fondi propri minimi per i rischi operativi o mediante una tassonomia interna. Essa deve essere applicata in modo sistematico in tutti i settori dell’istituto e in tutte le componenti della gestione dei rischi operativi.</t>
-  </si>
-  <si>
-    <t>nm. 29</t>
   </si>
   <si>
     <t>Per identificare i rischi operativi vengono considerati fattori interni8 ed esterni9. I rischi operativi individuati sono valutati in modo attendibile nell’ottica sia dei rischi inerenti sia di quelli residui.</t>
@@ -1995,114 +1224,63 @@
 [9] Sono considerati fattori esterni, per esempio, gli eventi che generano perdite in altri istituti, i cambiamenti sul piano della sicurezza (p. es. dovuti a impatti ambientali, cyber-attacchi o terrorismo) o gli adeguamenti ai requisiti normativi.</t>
   </si>
   <si>
-    <t>nm. 30</t>
-  </si>
-  <si>
     <t>L’identificazione e la valutazione dei rischi operativi si basano almeno sui risultati dell’audit10 e sulle valutazioni dei rischi e dei controlli da effettuare regolarmente. Tali valutazioni tengono conto dei rischi inerenti, dell’efficacia delle misure di controllo e di attenuazione esistenti e dei rischi residui.</t>
   </si>
   <si>
     <t>[10] In questo caso i risultati dell’audit comprendono gli esiti della revisione interna e della società di audit esterna, se disponibili, nonché i risultati delle verifiche svolte, per esempio, dalle divisioni commerciali e organizzative, dal con- trollo del rischio, dalla funzione preposta alla compliance o dalle autorità di vigilanza.</t>
   </si>
   <si>
-    <t>nm. 31</t>
-  </si>
-  <si>
     <t>Per valutare le misure di controllo e di attenuazione esistenti si procede in particolare a un esame regolare dell’efficacia dei controlli chiave da parte di un’istanza di controllo indipendente (design effectiveness e operating effectiveness testing), documentandone i risultati. I controlli chiave sono le misure di controllo e di attenuazione che minimizzano i rischi inerenti considerati essenziali. Anche la separazione dei CCR per garantire l’indipendenza e prevenire i conflitti di interessi è oggetto di valutazioni periodiche.</t>
   </si>
   <si>
-    <t>nm. 32</t>
-  </si>
-  <si>
     <t>Prima di apportare cambiamenti sostanziali a livello di prodotti, attività, processi e sistemi è necessario effettuare valutazioni ad hoc dei rischi e dei controlli, che prendono in considerazione i rischi operativi derivanti dal processo di cambiamento e i rischi operativi delle condizioni target. Ove necessario, vengono adeguati i limiti di tolleranza al rischio e attuate misure di controllo e di attenuazione.</t>
   </si>
   <si>
-    <t>nm. 33</t>
-  </si>
-  <si>
     <t>In funzione della natura, della portata, della complessità e del rischio dei prodotti, delle attività, dei processi e dei sistemi specifici all’istituto, devono essere applicati gli ulteriori strumenti e metodi seguenti:</t>
   </si>
   <si>
-    <t>nm. 34</t>
-  </si>
-  <si>
     <t>a. raccolta e analisi sistematiche dei dati interni di perdita e degli eventi esterni rilevanti correlati a rischi operativi;</t>
   </si>
   <si>
-    <t>nm. 35</t>
-  </si>
-  <si>
     <t>b. indicatori di rischio e di controllo per il monitoraggio dei rischi operativi e la tempestiva identificazione degli aumenti rilevanti dei rischi;</t>
   </si>
   <si>
-    <t>nm. 36</t>
-  </si>
-  <si>
     <t>c. analisi di scenario e/o stima del potenziale di perdita in considerazione dei o rispetto ai fondi propri minimi per i rischi operativi;</t>
   </si>
   <si>
-    <t>nm. 37</t>
-  </si>
-  <si>
     <t>d. analisi comparative (read-across), per esempio analisi della rilevanza dei risultati dell’audit in altri settori dell’istituto o confronti tra i risultati delle valutazioni del rischio e dei controlli di diversi settori.</t>
   </si>
   <si>
-    <t>nm. 38</t>
-  </si>
-  <si>
     <t>La tolleranza al rischio per i rischi operativi tiene conto della tolleranza in rapporto ai rischi operativi inerenti11 e a quelli residui ed è monitorata mediante indicatori di rischio o di controllo.</t>
   </si>
   <si>
     <t>[11] La tolleranza al rischio in riferimento ai rischi inerenti considera decisioni strategiche che concernono il modello com- merciale o operativo, per esempio la tolleranza per i rischi inerenti implicati dall’erogazione di servizi a determinati segmenti di clientela o Paesi, dall’offerta di determinati prodotti, dall’applicazione di processi prevalentemente ma- nuali, dall’utilizzo di un’infrastruttura informatica complessa o da determinate esternalizzazioni (outsourcing).</t>
   </si>
   <si>
-    <t>nm. 39</t>
-  </si>
-  <si>
     <t>Il controllo dei rischi presenta all’organo preposto all’alta direzione almeno una volta all’anno e alla direzione almeno a ritmo semestrale in conformità ai nm. 75–76 della Circolare FINMA 17/1 un rapporto sui rischi operativi al massimo livello12 della categorizzazione definita secondo il nm. 28, sul loro confronto con la tolleranza al rischio stabilita e sui dettagli concernenti le perdite interne sostanziali.</t>
   </si>
   <si>
     <t>[12] Il massimo livello della categorizzazione viene spesso chiamato livello 1 o level 1. Il rapporto può essere effettuato anche a un livello più dettagliato.</t>
   </si>
   <si>
-    <t>nm. 40</t>
-  </si>
-  <si>
     <t>In riferimento ai rischi TIC e ai cyber-rischi rilevanti, il rapporto da presentare alla direzione almeno una volta all’anno contiene inoltre informazioni sull’evoluzione di tali rischi, sull’efficacia dei relativi controlli chiave e su importanti eventi interni ed esterni in relazione a tali rischi.</t>
   </si>
   <si>
-    <t>nm. 41</t>
-  </si>
-  <si>
     <t>Il rapporto interno di cui al nm. 39 contiene a titolo complementare le seguenti informazioni:</t>
   </si>
   <si>
-    <t>nm. 42</t>
-  </si>
-  <si>
     <t>• i fattori esterni rilevanti secondo la nota 9,</t>
   </si>
   <si>
-    <t>nm. 43</t>
-  </si>
-  <si>
     <t>• una panoramica ricapitolativa sull’efficacia dei controlli chiave secondo il nm. 31,</t>
   </si>
   <si>
-    <t>nm. 44</t>
-  </si>
-  <si>
     <t>• i rischi operativi emergenti,</t>
   </si>
   <si>
-    <t>nm. 45</t>
-  </si>
-  <si>
     <t>• i risultati derivanti dall’applicazione degli ulteriori strumenti e metodi secondo il nm. 33.</t>
   </si>
   <si>
-    <t>nm. 46</t>
-  </si>
-  <si>
     <t>Conformemente al principio di proporzionalità, per le banche di rilevanza sistemica viene presentato un resoconto periodico sui rischi operativi anche al livello delle divisioni commerciali e organizzative esposte a rischi operativi rilevanti o essenziali.</t>
   </si>
   <si>
@@ -2112,42 +1290,24 @@
     <t>a) Strategia TIC e governance</t>
   </si>
   <si>
-    <t>nm. 47</t>
-  </si>
-  <si>
     <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento alle TIC sono enunciate nei nm. 23–26 e 40.</t>
   </si>
   <si>
-    <t>nm. 48</t>
-  </si>
-  <si>
     <t>La gestione dei rischi TIC considera standard e pratiche rilevanti riconosciuti a livello internazionale, nonché l’impatto di nuovi sviluppi tecnologici sui rischi TIC.</t>
   </si>
   <si>
-    <t>nm. 49</t>
-  </si>
-  <si>
     <t>La direzione assicura, sia per la gestione del cambiamento (change management) sia per l’esercizio delle TIC (run, maintenance), l’implementazione e la documentazione di procedure, processi, controlli e CCR, a cui sono assegnate risorse qualificate e appropriate.</t>
   </si>
   <si>
     <t>b) Gestione del cambiamento (change management)</t>
   </si>
   <si>
-    <t>nm. 50</t>
-  </si>
-  <si>
     <t>La gestione del cambiamento definisce procedure, processi e controlli per tutte le fasi dello sviluppo o dell’acquisto di TIC e, in ognuna di queste fasi, considera l’impatto del cambiamento sui rischi TIC, focalizzandosi sui requisiti in materia di confidenzialità, integrità e disponibilità.</t>
   </si>
   <si>
-    <t>nm. 51</t>
-  </si>
-  <si>
     <t>Occorre garantire una separazione tra gli ambienti di sviluppo o di test delle TIC e l’ambiente della loro produzione. Ciò comprende anche una chiara attribuzione dei CCR e la regolamentazione dei conseguenti diritti di accesso.</t>
   </si>
   <si>
-    <t>nm. 52</t>
-  </si>
-  <si>
     <t>Nelle fasi di sviluppo e di acquisto delle TIC le esigenze funzionali e non funzionali13 sono definite chiaramente e approvate, quindi testate e convalidate in funzione della loro criticità.</t>
   </si>
   <si>
@@ -2157,112 +1317,61 @@
     <t>c) Esercizio delle TIC (run, maintenance)</t>
   </si>
   <si>
-    <t>nm. 53</t>
-  </si>
-  <si>
     <t>L’istituto tiene uno o più inventari delle componenti TIC. L’inventario include componenti hardware e software nonché i luoghi di archiviazione di dati critici. Tiene conto delle dipendenze all’interno dell’istituto e delle interfacce con importanti fornitori esterni di servizi.</t>
   </si>
   <si>
-    <t>nm. 54</t>
-  </si>
-  <si>
     <t>L’inventario, disponibile in tempi brevi, viene regolarmente verificato in termini di completezza ed esattezza e aggiornato.</t>
   </si>
   <si>
-    <t>nm. 55</t>
-  </si>
-  <si>
     <t>L’istituto dispone di procedure, processi e controlli che garantiscono la confidenzialità, l’integrità e la disponibilità dell’ambiente di produzione delle TIC considerando la rispettiva tolleranza al rischio.</t>
   </si>
   <si>
-    <t>nm. 56</t>
-  </si>
-  <si>
     <t>L’istituto garantisce il passaggio senza difficoltà dall’esercizio delle TIC ai suoi processi BCP e DRP in caso di perturbazioni importanti o interruzioni. Implementa opportuni processi di backup e di ripristino, che sono regolarmente testati e convalidati.</t>
   </si>
   <si>
-    <t>nm. 57</t>
-  </si>
-  <si>
     <t>L’istituto dispone di procedure, processi e controlli che garantiscono una gestione orientata al rischio delle TIC la cui vita operativa volge al termine o che hanno superato il periodo di disattivazione previsto.</t>
   </si>
   <si>
     <t>d) Gestione degli incidenti (incident management)</t>
   </si>
   <si>
-    <t>nm. 58</t>
-  </si>
-  <si>
     <t>L’istituto dispone di procedure, processi e controlli volti a trattare incidenti TIC rilevanti, inclusi quelli riconducibili a dipendenze da importanti fornitori esterni di servizi e da esternalizzazioni in seno al gruppo. Al riguardo è necessario considerare l’intero ciclo di vita degli incidenti TIC importanti e definire i CCR per trattare questi incidenti.</t>
   </si>
   <si>
-    <t>nm. 59</t>
-  </si>
-  <si>
     <t>Il trattamento degli incidenti TIC importanti deve essere coordinato e collegato ai processi BCM e DRP.</t>
   </si>
   <si>
-    <t>nm. 60</t>
-  </si>
-  <si>
     <t>Gli incidenti TIC considerati dall’istituto come una perturbazione importante per lo svolgimento dei suoi processi critici e rilevanti ai fini della vigilanza devono essere notificati senza indugio alla FINMA.</t>
   </si>
   <si>
     <t>C. Gestione dei cyber-rischi</t>
   </si>
   <si>
-    <t>nm. 61</t>
-  </si>
-  <si>
     <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai cyber-rischi sono enunciate nei nm. 23–26 e 40.</t>
   </si>
   <si>
-    <t>nm. 62</t>
-  </si>
-  <si>
     <t>L’istituto definisce chiari CCR. Deve coprire almeno gli aspetti seguenti secondo standard e pratiche riconosciuti a livello internazionale e garantire, sviluppare e migliorare conti- nuamente la loro effettiva attuazione mediante procedure, processi e controlli adeguati:</t>
   </si>
   <si>
-    <t>nm. 63</t>
-  </si>
-  <si>
     <t>a. identificazione delle potenziali minacce dovute a cyber-attacchi14 specifiche all’istituto e valutazione delle possibili conseguenze dello sfruttamento delle vulnerabilità relative alle componenti inventariate delle TIC e ai dati elettronici critici (in conformità al nm. 53, 54 e 7);</t>
   </si>
   <si>
     <t>[14] Attacchi alla confidenzialità, all’integrità e alla disponibilità delle TIC, nonché ai dati elettronici critici che si verificano mediante lo sfruttamento delle vulnerabilità o l’elusione delle misure di protezione da parte di aggressori esterni o interni.</t>
   </si>
   <si>
-    <t>nm. 64</t>
-  </si>
-  <si>
     <t>b. protezione delle componenti inventariate delle TIC e dei dati elettronici critici contro i cyber-attacchi mediante l’attuazione di misure di protezione adeguate, in particolare in riferimento alla confidenzialità, all’integrità e alla disponibilità;</t>
   </si>
   <si>
-    <t>nm. 65</t>
-  </si>
-  <si>
     <t>c. individuazione e registrazione tempestive dei cyber-attacchi sulla base di un processo di monitoraggio sistematico e continuo delle componenti inventariate delle TIC e dei dati elettronici critici;</t>
   </si>
   <si>
-    <t>nm. 66</t>
-  </si>
-  <si>
     <t>d. reazione alle vulnerabilità identificate e ai cyber-attacchi mediante lo sviluppo e l’implementazione di processi appropriati, che consentono di adottare tempestivamente misure di attenuazione e di eliminazione; e</t>
   </si>
   <si>
-    <t>nm. 67</t>
-  </si>
-  <si>
     <t>e. garanzia di un rapido ripristino del normale esercizio in seguito a cyber-attacchi con misure appropriate.</t>
   </si>
   <si>
-    <t>nm. 68</t>
-  </si>
-  <si>
     <t>La gestione dei cyber-rischi deve garantire che un cyber-attacco riuscito o parzialmente riuscito sia analizzato in base alla sua rilevanza per le componenti critiche inventariate delle TIC e i dati elettronici critici, nonché i processi critici (incl. i servizi e le funzioni esternalizzati) e che l’obbligo di comunicazione secondo la LFINMA sia rispettato. Dopo una prima valutazione e un’informazione preliminare al servizio competente della FINMA entro 24 ore, la comunicazione deve essere trasmessa entro 72 ore in conformità all’elenco dei requisiti della Piattaforma di rilevamento EHP (campi obbligatori). Una volta che l’istituto ha concluso la trattazione del caso, deve essere presentato al servizio competente della FINMA un rapporto conclusivo sulle cause commisurato al grado di gravità.</t>
-  </si>
-  <si>
-    <t>nm. 69</t>
   </si>
   <si>
     <t>La direzione dispone regolarmente lo svolgimento di analisi di vulnerabilità15 e test di intrusione (penetration test)16, che devono essere eseguiti da personale qualificato con risorse adeguate. In proposito occorre considerare tutte le componenti inventariate delle TIC accessibili tramite internet. Inoltre, devono essere considerate le componenti inventariate delle TIC non accessibili tramite internet, ma necessarie per lo svolgimento di processi critici o contenenti dati elettronici critici.</t>
@@ -2272,9 +1381,6 @@
 [16] Esame mirato e sfruttamento delle vulnerabilità a livello di software e delle falle di sicurezza nelle TIC.</t>
   </si>
   <si>
-    <t>nm. 70</t>
-  </si>
-  <si>
     <t>Sulla base delle minacce potenziali specifiche all’istituto, devono essere svolti cyberesercizi in funzione dei rischi e riferiti allo scenario in questione17. Il risultato degli esercizi deve essere documentato facendone rapporto in forma adeguata.</t>
   </si>
   <si>
@@ -2284,67 +1390,37 @@
     <t>D. Gestione dei rischi dei dati critici</t>
   </si>
   <si>
-    <t>nm. 71</t>
-  </si>
-  <si>
     <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai rischi dei dati critici sono enunciate nei nm. 23–26.</t>
   </si>
   <si>
-    <t>nm. 72</t>
-  </si>
-  <si>
     <t>La direzione definisce processi, procedure e controlli adeguati nonché chiari CCR concernenti la gestione dei dati critici individuati dall’istituto. Inoltre, la direzione designa un’unità preposta alla creazione di condizioni quadro che garantiscano la confidenzialità, l’integrità e la disponibilità di dati critici e al controllo del loro rispetto.</t>
   </si>
   <si>
-    <t>nm. 73</t>
-  </si>
-  <si>
     <t>L’istituto individua i suoi dati critici in modo sistematico ed esaustivo, li categorizza in funzione del loro grado di criticità e definisce chiare responsabilità in materia di dati.</t>
   </si>
   <si>
-    <t>nm. 74</t>
-  </si>
-  <si>
     <t>I dati critici definiti dall’istituto sono gestiti lungo il loro intero ciclo di vita.</t>
   </si>
   <si>
-    <t>nm. 75</t>
-  </si>
-  <si>
     <t>Al riguardo, il rispetto della confidenzialità, dell’integrità e della disponibilità nella gestione di dati critici è garantito mediante processi, procedure e controlli adeguati.</t>
   </si>
   <si>
-    <t>nm. 76</t>
-  </si>
-  <si>
     <t>Nell’esercizio e durante lo sviluppo, il cambiamento e la migrazione delle TIC, i dati critici devono essere protetti dall’accesso e dall’utilizzo da parte di soggetti non autorizzati. Questo vale anche per i dati critici in ambienti di test.</t>
   </si>
   <si>
-    <t>nm. 77</t>
-  </si>
-  <si>
     <t>In particolare devono essere protette le componenti delle TIC in cui sono archiviati o trattati dati critici. È necessario regolamentare sistematicamente e monitorare continuamente l’accesso a questi dati.</t>
   </si>
   <si>
-    <t>nm. 78</t>
-  </si>
-  <si>
     <t>L’accesso ai dati critici e alle funzioni legate al trattamento di questi dati è limitato alle persone che necessitano dei dati per svolgere i propri compiti18. Al riguardo l’istituto deve disporre di un sistema di autorizzazione. L’accesso a tale sistema di autorizzazione deve essere protetto in modo particolare e verificato regolarmente. Le autorizzazioni contenute nel sistema devono essere verificate regolarmente.</t>
   </si>
   <si>
     <t>[18] P. es. principio del need-to-know e del privilegio minimo (least privilege).</t>
   </si>
   <si>
-    <t>nm. 79</t>
-  </si>
-  <si>
     <t>Se i dati critici sono archiviati al di fuori della Svizzera19 o sono accessibili dall’estero, è necessario limitare adeguatamente i rischi superiori che ne derivano e monitorarli mediante misure adeguate, nonché proteggere i dati in modo particolare.</t>
   </si>
   <si>
     <t>[19] P. es. mediante soluzioni di cloud o di hosting.</t>
-  </si>
-  <si>
-    <t>nm. 80</t>
   </si>
   <si>
     <t>Occorre scegliere accuratamente le persone interne e quelle esterne che possono accedere ai dati critici o modificarli. Tali persone devono essere sorvegliate mediante misure appropriate20 e formate regolarmente sulla gestione di questi dati. Alle persone che beneficiano di maggiori privilegi21 si applicano requisiti di sicurezza più rigorosi. Inoltre, deve essere tenuto un elenco di tutte le persone che beneficiano di maggiori privilegi e aggiornato continuamente.</t>
@@ -2354,222 +1430,126 @@
 [21] P. es. persone con diritti di amministratore, utenti con accesso funzionale a una grossa quantità di dati critici ecc.</t>
   </si>
   <si>
-    <t>nm. 81</t>
-  </si>
-  <si>
     <t>Gli incidenti che compromettono in misura significativa la confidenzialità, l’integrità o la disponibilità di dati critici devono essere notificati senza indugio alla FINMA.</t>
   </si>
   <si>
-    <t>nm. 82</t>
-  </si>
-  <si>
     <t>Nella scelta dei fornitori di servizi che trattano dati critici22 o possono consultarli deve essere attribuita una notevole importanza alla verifica della diligenza (due diligence). Occorre definire criteri chiari per valutare il modo in cui i fornitori di servizi gestiscono dati critici ed esaminarlo prima di firmare i contratti. I fornitori di servizi devono essere sottoposti a un monitoraggio e a un controllo periodici nell’ambito del sistema di controllo interno dell’istituto.</t>
   </si>
   <si>
     <t>[22] Trattamento: qualunque modo di gestire dati critici, a prescindere dai mezzi e dalle procedure impiegati, in particolare l’acquisizione, il salvataggio, la custodia, l’utilizzo, la modifica, la divulgazione, l’archiviazione, la cancellazione o l’eliminazione dei dati.</t>
   </si>
   <si>
-    <t>nm. 83</t>
-  </si>
-  <si>
     <t>Le aspettative fondamentali poste alla strategia, alla governance e al rafforzamento della consapevolezza in riferimento ai rischi che derivano dalla configurazione e dall’implementazione del BCM sono enunciate nei nm. 23–26.</t>
   </si>
   <si>
-    <t>nm. 84</t>
-  </si>
-  <si>
     <t>Ogni divisione operativa e organizzativa rilevante deve individuare i suoi processi critici e le risorse necessarie23 nell’ambito della business impact analysis (BIA).</t>
   </si>
   <si>
     <t>[23] Personale, infrastrutture (p. es. immobili, infrastruttura dei posti di lavoro), informazioni, sistemi IT o infrastruttura IT (compresi i sistemi di comunicazione), dipendenze da altri settori dell’istituto e da terzi, p. es. erogatori di servizi e fornitori esterni (outsourcing), banche centrali o stanze di compensazione.</t>
   </si>
   <si>
-    <t>nm. 85</t>
-  </si>
-  <si>
     <t>Per i processi critici, l’istituto definisce il RTO e il RPO secondo il nm. 10, coordinandoli con i necessari fornitori di servizi24. La loro osservanza è disciplinata mediante service level agreement o contratti, oppure è garantita mediante procedure, processi e controlli appropriati.</t>
   </si>
   <si>
     <t>[24] P. es. con la sezione IT, altre divisioni dell’istituto o esterni.</t>
   </si>
   <si>
-    <t>nm. 86</t>
-  </si>
-  <si>
     <t>L’istituto definisce almeno un BCP secondo il nm. 11, che descrive anche gli eventi che comportano l’attivazione del piano e i processi decisionali e tiene conto della perdita di risorse secondo il nm. 84. I rischi residui accettati sono documentati in maniera adeguata.</t>
   </si>
   <si>
-    <t>nm. 87</t>
-  </si>
-  <si>
     <t>La BIA e il BCP sono allestiti e documentati in modo sistematico secondo una direttiva applicabile a tutto l’istituto. Devono essere verificati e aggiornati ogni anno e ad hoc in caso di cambiamenti sostanziali nell’attività (riorganizzazioni, creazione di un nuovo campo di attività ecc.).</t>
   </si>
   <si>
-    <t>nm. 88</t>
-  </si>
-  <si>
     <t>L’istituto definisce almeno un DRP come parte integrante del BCP. Se vengono esternalizzati processi critici o singole parti di essi, il DRP tiene conto delle dipendenze interne e delle disposizioni contrattuali nonché di soluzioni alternative. Il DRP è verificato e aggiornato ad hoc in caso di cambiamenti sostanziali, ma almeno una volta all’anno.</t>
   </si>
   <si>
-    <t>nm. 89</t>
-  </si>
-  <si>
     <t>Nelle situazioni di crisi, uno stato maggiore di crisi è incaricato di gestire la crisi fino al ripristino della situazione conforme. Gli eventi che scatenano una crisi e i CCR dello stato maggiore di crisi devono essere previamente regolamentati e l’organizzazione di crisi deve essere incentrata sull’attività commerciale e la struttura geografica dell’istituto. Nelle situazioni di crisi deve essere garantita la reperibilità dei responsabili.</t>
   </si>
   <si>
-    <t>nm. 90</t>
-  </si>
-  <si>
     <t>L’istituto definisce una strategia di comunicazione interna ed esterna nelle situazioni di crisi.</t>
   </si>
   <si>
-    <t>nm. 91</t>
-  </si>
-  <si>
     <t>L’attuazione del BCP e del DRP e la funzionalità dell’organizzazione di crisi sono regolarmente valutate. A tal fine l’istituto appronta una pianificazione sistematica dei test che garantisce la copertura regolare. È possibile scegliere diverse modalità di test con gradi di intensità e di efficacia variabile, per esempio gli esercizi table-top.</t>
   </si>
   <si>
-    <t>nm. 92</t>
-  </si>
-  <si>
     <t>Le principali misure in conformità al BCP e al DRP e l’organizzazione di crisi sono testate almeno una volta all’anno.</t>
   </si>
   <si>
-    <t>nm. 93</t>
-  </si>
-  <si>
     <t>I principali stakeholder, compresi quelli che svolgono funzioni specialistiche e IT, partecipano ai test per acquisire dimestichezza con i processi di ripristino.</t>
   </si>
   <si>
-    <t>nm. 94</t>
-  </si>
-  <si>
     <t>I test comprendono scenari di diversa gravità, ma plausibili e considerano le dipendenze ai fini del ripristino, comprese quelle nei confronti di terzi interni o esterni.</t>
   </si>
   <si>
-    <t>nm. 95</t>
-  </si>
-  <si>
     <t>Resoconti periodici all’organo preposto all’alta direzione e alla direzione informano in merito alle attività di test e di verifica condotte e ai relativi risultati. Presentano chiaramente le priorità adottate (p. es. gerarchia delle priorità dei processi critici necessari per l’esecuzione delle funzioni critiche secondo il nm. 14) e le lacune individuate nella copertura di altri processi critici.</t>
   </si>
   <si>
-    <t>nm. 96</t>
-  </si>
-  <si>
     <t>I collaboratori e i membri dell’organizzazione di crisi sono adeguatamente preparati riguardo ai loro CCR riconducibili alle diverse attività di BCM sia al momento dell’entrata in servizio sia nel corso delle formazioni periodiche.</t>
   </si>
   <si>
     <t>F. Gestione dei rischi afferenti alle prestazioni di servizio transfrontaliere</t>
   </si>
   <si>
-    <t>nm. 97</t>
-  </si>
-  <si>
     <t>Se gli istituti o le società del gruppo forniscono servizi o distribuiscono prodotti finanziari oltrefrontiera, anche i rischi risultanti dall’applicazione delle normative estere (diritto fiscale, penale, in materia di riciclaggio di denaro ecc.) devono essere adeguatamente rilevati, limitati e controllati.</t>
   </si>
   <si>
-    <t>nm. 98</t>
-  </si>
-  <si>
     <t>Gli istituti sottopongono le loro prestazioni di servizio transfrontaliere e la distribuzione transfrontaliera di prodotti finanziari a un’analisi approfondita delle condizioni quadro giuridiche e dei rischi correlati. Sulla base di questa analisi, gli istituti adottano le necessarie misure strategiche e organizzative volte a eliminare e minimizzare i rischi e le adeguano continuamente all’evolversi della situazione. In particolare dispongono delle necessarie competenze specialistiche specifiche ai vari Paesi, definiscono specifici modelli di servizi per i Paesi in cui li erogano, formano i collaboratori e garantiscono l’osservanza delle prescrizioni mediante misure organizzative, direttive, modelli retributivi e sanzionatori.</t>
   </si>
   <si>
-    <t>nm. 99</t>
-  </si>
-  <si>
     <t>È necessario considerare anche i rischi generati da gestori patrimoniali indipendenti, intermediari e altri fornitori di servizi. I partner devono essere scelti e formati con l’opportuna accuratezza.</t>
   </si>
   <si>
-    <t>nm. 100</t>
-  </si>
-  <si>
     <t>Questo principio si applica pure alle situazioni in cui una filiale, una succursale o un’entità simile con sede all’estero di un istituto finanziario svizzero fornisce servizi transfrontalieri ai clienti.</t>
   </si>
   <si>
     <t>V. Garanzia della resilienza operativa</t>
   </si>
   <si>
-    <t>nm. 101</t>
-  </si>
-  <si>
     <t>L’istituto identifica le sue funzioni critiche e i rispettivi limiti di tolleranza alle interruzioni, che sono approvati dall’organo preposto all’alta direzione. Inoltre, l’organo preposto all’alta direzione approva e sorveglia regolarmente la procedura volta a garantire la resilienza operativa.</t>
   </si>
   <si>
-    <t>nm. 102</t>
-  </si>
-  <si>
     <t>L’istituto adotta misure per garantire la resilienza operativa considerando scenari gravi, ma plausibili25.</t>
   </si>
   <si>
     <t>[25] Non si può escludere che alcuni scenari non possano essere fronteggiati senza il coinvolgimento dello Stato (p. es. pandemie, guerre, persistente penuria di energia). In tali casi l’istituto deve svolgere lavori preliminari volti a raffor- zare la sua resilienza operativa nei confronti di questi scenari nell’ambito delle sue possibilità.</t>
   </si>
   <si>
-    <t>nm. 103</t>
-  </si>
-  <si>
     <t>Le funzioni critiche e i correlati limiti di tolleranza alle interruzioni secondo il nm. 14 devono essere approvati dall’organo preposto all’alta direzione almeno una volta all’anno.</t>
   </si>
   <si>
-    <t>nm. 104</t>
-  </si>
-  <si>
     <t>L’istituto coordina le principali componenti di una gestione completa del rischio, per esempio la gestione dei rischi operativi, inclusa la gestione del rischi TIC e dei cyber-rischi, il business continuity management, la gestione delle esternalizzazioni (outsourcing; cfr. Circ. FINMA 18/3 «Outsourcing») e la pianificazione d’emergenza (capitolo VI), affinché contribuiscano a rafforzare la resilienza operativa dell’istituto. Ciò include uno scambio adeguato delle informazioni rilevanti tra i diversi ambiti.</t>
   </si>
   <si>
-    <t>nm. 105</t>
-  </si>
-  <si>
     <t>L’organo preposto all’alta direzione e la direzione devono ricevere almeno una volta all’anno un resoconto sulla resilienza operativa, nonché in caso di lacune sostanziali nei controlli o di incidenti che compromettono la resilienza operativa.</t>
   </si>
   <si>
-    <t>nm. 106</t>
-  </si>
-  <si>
     <t>Per le funzioni critiche si procede a identificare e valutare le minacce interne ed esterne come pure lo sfruttamento delle vulnerabilità. I risultanti rischi operativi sono identificati, valutati, limitati e monitorati nell’ambito della loro gestione.</t>
   </si>
   <si>
-    <t>nm. 107</t>
-  </si>
-  <si>
     <t>L’istituto tiene un inventario delle sue funzioni critiche da verificare e aggiornare almeno una volta all’anno. Tale inventario contiene le tolleranze alle interruzioni delle funzioni critiche, nonché i collegamenti e le dipendenze tra i processi critici necessari e le relative risorse26 per svolgere le funzioni critiche.</t>
   </si>
   <si>
     <t>[26] Incluse le componenti dell’inventario rilevanti per le funzioni critiche secondo il nm. 53.</t>
   </si>
   <si>
-    <t>nm. 108</t>
-  </si>
-  <si>
     <t>Per le funzioni critiche sono documentati almeno i rischi operativi essenziali e i controlli chiave.</t>
   </si>
   <si>
-    <t>nm. 109</t>
-  </si>
-  <si>
     <t>Le funzioni critiche nonché le risorse e i processi critici necessari alla loro esecuzione sono coperti dai BCP secondo il capitolo IV. lettera e.</t>
   </si>
   <si>
-    <t>nm. 110</t>
-  </si>
-  <si>
     <t>La capacità di eseguire funzioni critiche entro i loro limiti di tolleranza alle interruzioni in scenari gravi, ma plausibili è regolarmente testata o esercitata. Ciò comprende anche gli scenari che si differenziano dalle interruzioni brevi e con un effetto piuttosto limitato e sono caratterizzati da una durata prolungata (p. es. diversi mesi) e dall’insufficienza delle risorse fondamentali27. I test e gli esercizi sono configurati in modo tale da non costituire una minaccia sostanziale per l’istituto.</t>
   </si>
   <si>
     <t>[27] Tra gli altri, una pandemia, una penuria di energia, un’insufficienza prolungata ascrivibile all’insolvenza di un impor- tante fornitore di servizi (p. es. con conseguente ritiro da un accordo di outsourcing) o un divieto prolungato da parte di governi stranieri, in base al quale i fornitori di servizi cloud o altri fornitori di servizi con sede all’estero non sono più autorizzati a erogare servizi alle società svizzere.</t>
   </si>
   <si>
-    <t>nm. 111</t>
-  </si>
-  <si>
     <t>Per le banche di rilevanza sistemica, il BCP, il DRP e l’organizzazione di crisi in conformità al capitolo IV. lett. E., rilevanti per il mantenimento delle funzioni critiche secondo il nm. 14, devono essere coordinati con la pianificazione d’emergenza in conformità al capitolo VI.</t>
   </si>
   <si>
     <t>VI. Mantenimento dei servizi critici in caso di liquidazione o risanamento delle banche di rilevanza sistemica</t>
   </si>
   <si>
-    <t>nm. 112</t>
-  </si>
-  <si>
     <t>Nel quadro della loro pianificazione d’emergenza, le banche di rilevanza sistemica adottano le misure necessarie per garantire il mantenimento senza interruzioni delle funzioni di rilevanza sistemica (art. 9 cpv. 2 lett. d LBCR in combinato disposto con l’art. 60 segg. OBCR). Identificano i servizi essenziali per il mantenimento delle funzioni di rilevanza sistemica in caso di liquidazione, risanamento o ristrutturazione («servizi critici») e adottano le misure necessarie a tale scopo. Al riguardo tengono conto delle disposizioni emanate in materia dagli organismi internazionali di standardizzazione.</t>
   </si>
   <si>
@@ -2579,16 +1559,10 @@
     <t>A. Concernenti la garanzia della resilienza operativa</t>
   </si>
   <si>
-    <t>nm. 113</t>
-  </si>
-  <si>
     <t>L’identificazione delle funzioni critiche, la definizione della tolleranza alle interruzioni e le prime approvazioni in conformità ai nm. 101 e 103, nonché un primo resoconto secondo il nm. 105 sono attesi a partire dall’entrata in vigore della presente circolare. Per l’adempimento dei requisiti di cui ai nm. 106–109 e i primi test secondo il nm. 110 è accordato un termine transitorio di un anno dall’entrata in vigore. La garanzia della resilienza operativa in conformità al nm. 102 e l’adempimento dei requisiti di cui ai nm. 104 e 111 sono attesi entro un termine transitorio di due anni.</t>
   </si>
   <si>
     <t>B. Concernenti le esigenze in materia di fondi propri per la copertura dei rischi operativi</t>
-  </si>
-  <si>
-    <t>nm. 114</t>
   </si>
   <si>
     <t>Le esigenze in materia di fondi propri per i rischi operativi ai sensi degli artt. 89 segg. OFoP sono rette dai nm. 3–116 della Circolare FINMA 08/21 «Rischi operativi – banche» sino all’entrata in vigore dell’OFoP riveduta nel quadro del pacchetto di revisioni «Basilea III finale» e della relativa ordinanza esecutiva della FINMA.</t>
@@ -2621,9 +1595,6 @@
     <t>I. Gegenstand und Geltungsbereich</t>
   </si>
   <si>
-    <t>Rz 1</t>
-  </si>
-  <si>
     <t>Dieses Rundschreiben bezieht sich auf die Vorschriften über die Funktionentrennung, das Risikomanagement und die interne Kontrolle der Bankenverordnung (Art. 12 und 14e BankV; SR 952.02) und der Finanzinstitutsverordnung (Art. 12 und 68 FINIV; SR 954.11) und konkretisiert die entsprechende Aufsichtspraxis. Es berücksichtigt die Basler Grundsätze zum einwandfreien Management der operationellen Risiken1 und der operationellen Resilienz2.</t>
   </si>
   <si>
@@ -2631,111 +1602,60 @@
 [2] BCBS Principles for Operational Resilience (31 March 2021)</t>
   </si>
   <si>
-    <t>Rz 2</t>
-  </si>
-  <si>
     <t>Das Rundschreiben richtet sich an Banken nach Art. 1a und Personen nach Art. 1b Bankengesetz (BankG; SR 952.0), Wertpapierhäuser nach Art. 2 Abs. 1 Bst. e und Art. 41 des Finanzinstitutsgesetzes (FINIG; SR 954.1) sowie an Finanzgruppen und Finanzkonglomerate nach Art. 3c BankG und Art. 49 FINIG. Im Folgenden werden Banken, Personen nach Art. 1b BankG, Wertpapierhäuser, Finanzgruppen und Finanzkonglomerate unter dem Begriff „Institute“ zusammengefasst.</t>
   </si>
   <si>
     <t>II. Begriffe</t>
   </si>
   <si>
-    <t>Rz 3</t>
-  </si>
-  <si>
     <t>Operationelle Risiken sind in Art. 89 ERV definiert. Es handelt sich um die Gefahr von finanziellen Verlusten, die in Folge der Unangemessenheit oder des Versagens von internen Prozessen oder Systemen, des unangemessenen Handelns von Menschen oder durch sie begangene Fehler, oder in Folge von externen Ereignissen eintreten. Dies beinhaltet die finanziellen Verluste, die aus Rechts- oder Compliance-Risiken entstehen können. Das Management der operationellen Risiken berücksichtigt typischerweise auch andere Schadensdimensionen3, sofern diese letztendlich auch in finanziellen Verlusten resultieren können. Dabei ausgeschlossen sind die strategischen Risiken.</t>
   </si>
   <si>
     <t>[3] Bspw. negative Auswirkungen auf die Reputation, möglicher Vertrauensverlust und Verlust von Kundinnen und Kun- den, negative Auswirkungen auf den Markt, negative regulatorische Auswirkungen (z. Bsp. möglicher Verlust der Lizenz).</t>
   </si>
   <si>
-    <t>Rz 4</t>
-  </si>
-  <si>
     <t>Inhärente Risiken sind operationelle Risiken, denen das Institut durch seine Produkte, Aktivitäten, Prozesse und Systeme ausgesetzt ist, ohne Berücksichtigung von Kontroll- und Minderungsmassnahmen.</t>
   </si>
   <si>
-    <t>Rz 5</t>
-  </si>
-  <si>
     <t>Residuale Risiken sind operationelle Risiken, denen das Institut nach der Berücksichtigung von Kontroll- und Minderungsmassnahmen ausgesetzt ist.</t>
   </si>
   <si>
-    <t>Rz 6</t>
-  </si>
-  <si>
     <t>Die Informations- und Kommunikationstechnologie (IKT) bezeichnet den physischen und logischen (elektronischen) Aufbau von IT- und Kommunikationssystemen, die einzelnen Hard- und Softwarekomponenten, Netzwerke, Daten und Betriebsumgebungen.</t>
   </si>
   <si>
-    <t>Rz 7</t>
-  </si>
-  <si>
     <t>Kritische Daten sind Daten, die in Anbetracht der Grösse, der Komplexität, der Struktur, des Risikoprofils sowie des Geschäftsmodells des Instituts von so wesentlicher Bedeutung sind, dass sie einen erhöhten Sicherheitsanspruch erfordern. Dabei handelt es sich um Daten, die für die erfolgreiche und nachhaltige Erbringung der Dienstleistungen des Instituts oder für regulatorische Zwecke wesentlich sind. Bei der Beurteilung und Festlegung der Kritikalität von Daten sind sowohl die Vertraulichkeit als auch die Integrität und Verfügbarkeit zu berücksichtigen. Jeder dieser drei Aspekte kann ausschlaggebend dafür sein, dass Daten als kritisch klassifiziert werden.</t>
   </si>
   <si>
-    <t>Rz 8</t>
-  </si>
-  <si>
     <t>Kritische Prozesse sind Prozesse, deren bedeutende Störung oder Unterbrechung die Erbringung kritischer Funktionen gefährden. Sie sind ein Bestandteil der kritischen Funktionen.</t>
   </si>
   <si>
-    <t>Rz 9</t>
-  </si>
-  <si>
     <t>Das Business Continuity Management (BCM) bezeichnet den institutsweiten Ansatz, um im Falle einer über das Vorfallmanagement hinausgehenden, bedeutenden Störung oder Unterbrechung den Betrieb der kritischen Prozesse wiederherzustellen. Es definiert die Reaktion auf bedeutende Störungen oder Unterbrechungen. Ein effektives BCM vermindert die residualen Risiken im Zusammenhang mit bedeutenden Störungen oder Unterbrechungen.</t>
   </si>
   <si>
-    <t>Rz 10</t>
-  </si>
-  <si>
     <t>Die Recovery Time Objective (RTO) ist die Zeit bis zur Wiederherstellung einer Anwendung, eines Systems und/oder eines Prozesses. Die Recovery Point Objective (RPO) ist die maximal tolerierbare Zeitspanne eines Datenverlusts.</t>
   </si>
   <si>
-    <t>Rz 11</t>
-  </si>
-  <si>
     <t>Der Business Continuity Plan (BCP) ist ein vorausschauender Plan, der die notwendigen Vorgehensweisen, Wiederherstellungsoptionen und Ersatzressourcen (die Wiederherstellungsprozesse) zur Sicherstellung der Kontinuität und zur Wiederherstellung der kritischen Prozesse festlegt.</t>
   </si>
   <si>
-    <t>Rz 12</t>
-  </si>
-  <si>
     <t>Der Disaster Recovery Plan (DRP) definiert die Wiederherstellungsprozesse, um im Fall eines schwerwiegenden Ausfalls oder einer Zerstörung der IKT und unter Berücksichtigung des möglichen Ausfalls von Schlüsselpersonen, die Wiederherstellungsziele zu erreichen.</t>
   </si>
   <si>
-    <t>Rz 13</t>
-  </si>
-  <si>
     <t>Krisensituationen sind ausserordentliche, potenziell existenzbedrohende Situationen, welche nicht mit ordentlichen Massnahmen und Entscheidungskompetenzen bewältigt werden können. Sie unterscheiden sich von Vorfällen (Incidents bzw. Störungen) und bedeutenden Störungen oder Unterbrechungen, welche mit dem Vorfallmanagement im Normalbetrieb oder den festgelegten BCPs und DRPs bewältigt werden können.</t>
   </si>
   <si>
-    <t>Rz 14</t>
-  </si>
-  <si>
     <t>Kritische Funktionen beinhalten:</t>
   </si>
   <si>
-    <t>Rz 15</t>
-  </si>
-  <si>
     <t>a. die Aktivitäten, Prozesse und Dienstleistungen, inklusive die für ihre Erbringung notwendigen zugrundeliegenden Ressourcen, deren Unterbrechung die Weiterführung des Instituts oder seine Rolle im Finanzmarkt und damit die Funktionsfähigkeit der Finanzmärkte gefährden würde; und</t>
   </si>
   <si>
-    <t>Rz 16</t>
-  </si>
-  <si>
     <t>b. die systemrelevanten Funktionen nach Art. 8 BankG.</t>
   </si>
   <si>
-    <t>Rz 17</t>
-  </si>
-  <si>
     <t>Die Unterbrechungstoleranz ist das Ausmass (bspw. Dauer oder erwarteter Schaden) der Unterbrechung einer kritischen Funktion, das das Institut unter Berücksichtigung von schwerwiegenden, aber plausiblen Szenarien zu akzeptieren bereit ist. Für jede kritische Funktion ist eine Unterbrechungstoleranz zu definieren.</t>
   </si>
   <si>
-    <t>Rz 18</t>
-  </si>
-  <si>
     <t>Operationelle Resilienz bezeichnet die Fähigkeit des Instituts, seine kritischen Funktionen bei Unterbrechungen innerhalb der Unterbrechungstoleranz wiederherstellen zu können. D. h., die Fähigkeit des Instituts, Bedrohungen und mögliche Ausfälle zu identifizieren, sich davor zu schützen und darauf zu reagieren, bei Unterbrechungen den ordentlichen Geschäftsbetrieb wiederherzustellen und daraus zu lernen, um die Auswirkungen von Unterbrechungen auf die Erbringung der kritischen Funktionen zu minimieren. Ein operationell resilientes Institut hat sein Betriebsmodell so aufgebaut4, dass es in Bezug auf seine kritischen Funktionen dem Risiko von Unterbrechungen weniger ausgesetzt ist. Die operationelle Resilienz verringert somit nicht nur die residualen Risiken von Unterbrechungen, sondern auch das inhärente Risiko, dass es zu Unterbrechungen kommt. Ein effektives Management der operationellen Risiken trägt dazu bei, die operationelle Resilienz des Instituts zu stärken.</t>
   </si>
   <si>
@@ -2745,21 +1665,12 @@
     <t>III. Proportionalitätsprinzip</t>
   </si>
   <si>
-    <t>Rz 19</t>
-  </si>
-  <si>
     <t>Dieses Rundschreiben gilt grundsätzlich für alle seiner Adressaten. Die Anforderungen sind jedoch im Einzelfall abhängig von der Grösse, der Komplexität, der Struktur und des Risikoprofils des Instituts umzusetzen. Die FINMA ordnet im Einzelfall Erleichterungen oder Verschärfungen an.</t>
   </si>
   <si>
-    <t>Rz 20</t>
-  </si>
-  <si>
     <t>Banken und Wertpapierhäuser der FINMA-Kategorien 4 und 5 sind von der Erfüllung der Rz 33–38, 41–46, 48, 51, 57, 73, 74, 76–78, 80, 87, 92, 93, 96, 103, 104 und 110–112 ausgenommen.</t>
   </si>
   <si>
-    <t>Rz 21</t>
-  </si>
-  <si>
     <t>Institute nach Art. 47a–47e ERV, Personen gemäss Art. 1b BankG, sowie nicht-kontoführende Wertpapierhäuser sind zusätzlich von der Erfüllung der Rz 72, 75, 79 und 105–109 ausgenommen.</t>
   </si>
   <si>
@@ -2769,58 +1680,34 @@
     <t>A. Übergreifendes Management der operationellen Risiken</t>
   </si>
   <si>
-    <t>Rz 22</t>
-  </si>
-  <si>
     <t>Das Management der operationellen Risiken ist Teil des institutsweiten Risikomanagements nach FINMA-Rundschreiben 2017/1 „Corporate Governance – Banken“.</t>
   </si>
   <si>
-    <t>Rz 23</t>
-  </si>
-  <si>
     <t>Das Oberleitungsorgan genehmigt die Grundzüge des Managements der operationellen Risiken, die für das Institut relevant sind, und überwacht deren Einhaltung. Darunter fallen unter anderem die IKT-Risiken, die Cyber-Risiken, die Risiken hinsichtlich kritischer Daten, die Risiken aus der Ausgestaltung und Implementierung des BCM und gegebenenfalls die Risiken aus dem grenzüberschreitenden Dienstleistungsgeschäft. Es genehmigt mindestens jährlich die Risikotoleranz für operationelle Risiken nach Massgabe der Risikopolitik in Anbetracht der strategischen und finanziellen Ziele des Instituts. Dabei berücksichtigt es die Ergebnisse aus den Risiko- und Kontrollbeurteilungen nach Rz 30. Es akzeptiert entweder das Ausmass, in dem das Institut den operationellen Risiken ausgesetzt ist, oder entscheidet über eine Anpassung der Risikotoleranz und die dafür notwendigen, strategischen Änderungen5.</t>
   </si>
   <si>
     <t>[5] Zum Beispiel eine Änderung des Geschäftsmodells</t>
   </si>
   <si>
-    <t>Rz 24</t>
-  </si>
-  <si>
     <t>Das Oberleitungsorgan genehmigt regelmässig Strategien für den Umgang mit der IKT, den Cyber-Risiken, den kritischen Daten und dem BCM, und überwacht deren Einhaltung.</t>
   </si>
   <si>
-    <t>Rz 25</t>
-  </si>
-  <si>
     <t>Die Geschäftsleitung stellt nachvollziehbar sicher, dass die operationellen Risiken identifiziert, beurteilt, begrenzt und überwacht werden, und dass die Effektivität sowohl der Ausgestaltung als auch der Implementierung dieses Managements der operationellen Risiken regelmässig überprüft wird. Für die Begrenzung der als wesentlich beurteilten, inhärenten Risiken6 ergreift sie situativ risikospezifische ergänzende oder verschärfende Massnahmen.</t>
   </si>
   <si>
     <t>[6] Häufig Top-Risiken oder Schlüsselrisiken (Key Risks) genannt.</t>
   </si>
   <si>
-    <t>Rz 26</t>
-  </si>
-  <si>
     <t>Zur Stärkung des Bewusstseins der Mitarbeitenden zur Reduktion von relevanten operationellen Risiken, insbesondere der IKT-Risiken, der Cyber-Risiken, der Risiken hinsichtlich kritischer Daten und der Risiken aus der Ausgestaltung und Implementierung des BCM, sind unter Berücksichtigung ihrer Aufgaben, Kompetenzen und Verantwortlichkeiten (AKV) Massnahmen zu implementieren7.</t>
   </si>
   <si>
     <t>[7] Dies beinhaltet unter anderem die sorgfältige Auswahl und Qualifikation von Mitarbeitenden für ihre AKV und ihre kontinuierliche Weiterbildung im Rahmen ihrer Aktivitäten.</t>
   </si>
   <si>
-    <t>Rz 27</t>
-  </si>
-  <si>
     <t>Falls notwendig, definiert die FINMA im Rahmen der laufenden Aufsicht für spezifische Themen weitergehende Anforderungen an das Management der operationellen Risiken. Dies geschieht zurückhaltend und unter Anwendung des Proportionalitätsprinzips.</t>
   </si>
   <si>
-    <t>Rz 28</t>
-  </si>
-  <si>
     <t>Die operationellen Risiken sind institutsweit einheitlich zu kategorisieren und in einem Inventar aufzuführen. Diese Kategorisierung kann in Anlehnung an die für die Berechnung der Mindesteigenmittel für operationelle Risiken verwendete Kategorisierung der Ereignistypen oder mittels einer internen Taxonomie erfolgen. Die Kategorisierung ist in allen Bereichen des Instituts und in allen Komponenten des Managements der operationellen Risiken konsistent anzuwenden.</t>
-  </si>
-  <si>
-    <t>Rz 29</t>
   </si>
   <si>
     <t>Für die Identifikation der operationellen Risiken werden interne8 und externe9 Faktoren berücksichtigt. Die identifizierten operationellen Risiken werden sowohl aus Sicht der inhärenten als auch der residualen Risiken nachvollziehbar beurteilt.</t>
@@ -2830,114 +1717,63 @@
 [9] Externe Faktoren sind beispielsweise erkannte Verlustereignisse anderer Institute, Änderungen in der Sicherheits- lage (bspw. durch Umwelteinflüsse, Cyber-Attacken oder Terrorismus) oder Änderungen in den regulatorischen An- forderungen.</t>
   </si>
   <si>
-    <t>Rz 30</t>
-  </si>
-  <si>
     <t>Die Identifikation und Beurteilung der operationellen Risiken stützt sich mindestens auf Prüfergebnisse10 und regelmässig durchzuführende Risiko- und Kontrollbeurteilungen. Die Risiko- und Kontrollbeurteilungen berücksichtigen die inhärenten Risiken, die Effektivität der bestehenden Kontroll- und Minderungsmassnahmen und die residualen Risiken.</t>
   </si>
   <si>
     <t>[10] Prüfergebnisse umfassen hier Resultate der internen Revision und der externen Prüfgesellschaft, sofern vorhanden, sowie Ergebnisse von Überprüfungen durch bspw. die Geschäfts- und Organisationsbereiche, die Risikokontrolle, die Compliance-Funktion oder Aufsichtsbehörden.</t>
   </si>
   <si>
-    <t>Rz 31</t>
-  </si>
-  <si>
     <t>Für die Beurteilung der bestehenden Kontroll- und Minderungsmassnahmen wird insbesondere eine regelmässige Beurteilung der Effektivität der Schlüsselkontrollen durch eine unabhängige Kontrollinstanz vorgenommen und dokumentiert (Design Effectiveness und Operating Effectiveness Testing). Dabei sind Schlüsselkontrollen diejenigen Kontroll- und Minderungsmassnahmen, die die als wesentlich beurteilten, inhärenten Risiken minimieren. Auch wird die Trennung der AKV zur Sicherstellung der Unabhängigkeit und Vorbeugung vor Interessenskonflikten regelmässig beurteilt.</t>
   </si>
   <si>
-    <t>Rz 32</t>
-  </si>
-  <si>
     <t>Vor wesentlichen Änderungen in den Produkten, Aktivitäten, Prozessen und Systemen sind ad hoc Risiko- und Kontrollbeurteilungen durchzuführen. Diese berücksichtigen die mit dem Änderungsprozess einhergehenden operationellen Risiken und die operationellen Risiken des Zielzustands. Bei Bedarf werden die Risikotoleranz angepasst und Kontroll- und Minderungsmassnahmen implementiert.</t>
   </si>
   <si>
-    <t>Rz 33</t>
-  </si>
-  <si>
     <t>In Abhängigkeit von Art, Umfang, Komplexität und Risiko der institutsspezifischen Produkte, Aktivitäten, Prozesse und Systeme sind folgende weiteren Instrumente und Methoden anzuwenden:</t>
   </si>
   <si>
-    <t>Rz 34</t>
-  </si>
-  <si>
     <t>a. Systematische Erhebung und Analyse interner Verlustdaten und relevanter externer Ereignisse, die mit operationellen Risiken verbunden sind;</t>
   </si>
   <si>
-    <t>Rz 35</t>
-  </si>
-  <si>
     <t>b. Risiko- und Kontrollindikatoren für die Überwachung der operationellen Risiken und zeitnahe Identifikation von relevanten Risikoerhöhungen;</t>
   </si>
   <si>
-    <t>Rz 36</t>
-  </si>
-  <si>
     <t>c. Szenarioanalysen und/oder Abschätzung des Verlustpotenzials in Anbetracht der bzw. in Gegenüberstellung mit den Mindesteigenmitteln für operationelle Risiken;</t>
   </si>
   <si>
-    <t>Rz 37</t>
-  </si>
-  <si>
     <t>d. Vergleichende Analysen (Read-across), beispielsweise Analysen der Relevanz von Prüfergebnissen für andere Bereiche des Instituts oder Vergleiche zwischen den Ergebnissen der Risiko- und Kontrollbeurteilungen verschiedener Bereiche.</t>
   </si>
   <si>
-    <t>Rz 38</t>
-  </si>
-  <si>
     <t>Die Risikotoleranz für operationelle Risiken berücksichtigt sowohl die Toleranz in Bezug auf inhärente11 als auch auf residuale operationelle Risiken und wird anhand von Risikooder Kontrollindikatoren überwacht.</t>
   </si>
   <si>
     <t>[11] Die Risikotoleranz in Bezug auf inhärente Risiken berücksichtigt strategische Entscheidungen in Bezug auf das Ge- schäfts- oder Betriebsmodell, bspw. Toleranz für die inhärenten Risiken, die mit der Bedienung gewisser Kundenseg- mente oder Länder einhergehen, mit dem Angebot gewisser Produkte, mit der Anwendung vorwiegend manueller Prozesse, mit der Abstützung auf eine komplexe IT-Infrastruktur oder mit gewissen Auslagerungen (Outsourcing).</t>
   </si>
   <si>
-    <t>Rz 39</t>
-  </si>
-  <si>
     <t>Die Risikokontrolle erstattet dem Oberleitungsorgan mindestens jährlich und der Geschäftsleitung mindestens halbjährlich nach Rz 75–76 FINMA-RS 17/1 Bericht über die operationellen Risiken entlang der obersten Stufe12 der nach Rz 28 definierten Kategorisierung, über deren Vergleich mit der festgelegten Risikotoleranz, sowie über Einzelheiten zu wesentlichen internen Verlusten.</t>
   </si>
   <si>
     <t>[12] Die oberste Stufe der Kategorisierung wird häufig Stufe 1 oder Level 1 genannt. Die Berichterstattung kann auch auf einer detaillierteren Stufe erfolgen.</t>
   </si>
   <si>
-    <t>Rz 40</t>
-  </si>
-  <si>
     <t>In Bezug auf die relevanten IKT- und Cyber-Risiken beinhaltet die mindestens jährlich erfolgende Berichterstattung an die Geschäftsleitung zudem Informationen zur Entwicklung dieser Risiken, zur Effektivität der entsprechenden Schlüsselkontrollen und zu wesentlichen internen und externen Ereignissen im Zusammenhang mit diesen Risiken.</t>
   </si>
   <si>
-    <t>Rz 41</t>
-  </si>
-  <si>
     <t>Die interne Berichterstattung nach Rz 39 enthält ergänzend folgende Informationen:</t>
   </si>
   <si>
-    <t>Rz 42</t>
-  </si>
-  <si>
     <t>• relevante, externe Faktoren nach Fussnote 9,</t>
   </si>
   <si>
-    <t>Rz 43</t>
-  </si>
-  <si>
     <t>• zusammenfassende Gesamtübersicht über die Effektivität der Schlüsselkontrollen nach Rz 31,</t>
   </si>
   <si>
-    <t>Rz 44</t>
-  </si>
-  <si>
     <t>• neu aufkommende operationelle Risiken,</t>
   </si>
   <si>
-    <t>Rz 45</t>
-  </si>
-  <si>
     <t>• Ergebnisse aus der Anwendung zusätzlicher Instrumente und Methoden nach Rz 33.</t>
   </si>
   <si>
-    <t>Rz 46</t>
-  </si>
-  <si>
     <t>Entsprechend dem Proportionalitätsprinzip wird für die systemrelevanten Banken auch auf Ebene der Geschäfts- oder Organisationsbereiche, die relevanten oder wesentlichen operationellen Risiken ausgesetzt sind, eine regelmässige Berichterstattung zu den operationellen Risiken vorgenommen.</t>
   </si>
   <si>
@@ -2947,42 +1783,24 @@
     <t>a) IKT-Strategie und Governance</t>
   </si>
   <si>
-    <t>Rz 47</t>
-  </si>
-  <si>
     <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die IKT sind in Rz 23–26 und 40 festgehalten.</t>
   </si>
   <si>
-    <t>Rz 48</t>
-  </si>
-  <si>
     <t>Das Management der IKT-Risiken berücksichtigt relevante international anerkannte Standards und Practices sowie den Einfluss von neuen technologischen Entwicklungen auf die IKT-Risiken.</t>
   </si>
   <si>
-    <t>Rz 49</t>
-  </si>
-  <si>
     <t>Die Geschäftsleitung stellt sicher, dass sowohl für das Änderungsmanagement (Change Management) als auch für den IKT-Betrieb (Run, Maintenance) Verfahren, Prozesse und Kontrollen sowie AKV implementiert und dokumentiert sind. Diese sind mit qualifizierten und angemessenen Ressourcen ausgestattet.</t>
   </si>
   <si>
     <t>b) Änderungsmanagement (Change Management)</t>
   </si>
   <si>
-    <t>Rz 50</t>
-  </si>
-  <si>
     <t>Für alle Phasen der Entwicklung oder Beschaffung von IKT definiert das Änderungsmanagement Verfahren, Prozesse, und Kontrollen. In jeder dieser Phasen berücksichtigt es die Auswirkungen der Änderung auf die IKT-Risiken. Dabei stehen insbesondere auch die Anforderungen hinsichtlich Vertraulichkeit, Integrität und Verfügbarkeit im Fokus.</t>
   </si>
   <si>
-    <t>Rz 51</t>
-  </si>
-  <si>
     <t>Es ist eine Trennung zwischen den Umgebungen für die Entwicklung oder das Testen und der Umgebung für die IKT-Produktion sicherzustellen. Dies umfasst auch eine eindeutige Zuweisung von AKV und eine Regelung der damit einhergehenden Zugangsberechtigungen.</t>
   </si>
   <si>
-    <t>Rz 52</t>
-  </si>
-  <si>
     <t>Bei Entwicklung und Beschaffung von IKT werden funktionale und nicht-funktionale Anforderungen13 klar definiert und genehmigt und gemäss ihrer Kritikalität getestet und validiert.</t>
   </si>
   <si>
@@ -2992,112 +1810,61 @@
     <t>c) IKT-Betrieb (Run, Maintenance)</t>
   </si>
   <si>
-    <t>Rz 53</t>
-  </si>
-  <si>
     <t>Das Institut führt ein oder mehrere Inventar(-e) der Bestandteile der IKT. Das Inventar umfasst Hardware- und Software-Komponenten sowie Ablageorte kritischer Daten. Dabei werden sowohl Abhängigkeiten innerhalb des Instituts als auch Schnittstellen zu wesentlichen externen Dienstleistern berücksichtigt.</t>
   </si>
   <si>
-    <t>Rz 54</t>
-  </si>
-  <si>
     <t>Das Inventar ist zeitnah verfügbar und wird regelmässig hinsichtlich Vollständigkeit und Richtigkeit überprüft und aktualisiert.</t>
   </si>
   <si>
-    <t>Rz 55</t>
-  </si>
-  <si>
     <t>Das Institut verfügt über Verfahren, Prozesse, und Kontrollen, die die Vertraulichkeit, Integrität und Verfügbarkeit der IKT-Produktionsumgebung unter Berücksichtigung der jeweiligen Risikotoleranz sicherstellen.</t>
   </si>
   <si>
-    <t>Rz 56</t>
-  </si>
-  <si>
     <t>Das Institut stellt sicher, dass es bei bedeutenden Störungen oder Unterbrechungen reibungslos vom IKT-Betrieb in seine BCP- und DRP-Prozesse übergehen kann. Es implementiert angemessene Back-up-Prozesse und Wiederherstellungsprozesse, die regelmässig getestet und validiert werden.</t>
   </si>
   <si>
-    <t>Rz 57</t>
-  </si>
-  <si>
     <t>Das Institut verfügt über Verfahren, Prozesse und Kontrollen, die einen risikoorientierten Umgang mit IKT, deren Betriebsende naht oder deren geplante Dekommissionierung überschritten wurde, sicherstellt.</t>
   </si>
   <si>
     <t>d) Vorfallmanagement (Incident Management)</t>
   </si>
   <si>
-    <t>Rz 58</t>
-  </si>
-  <si>
     <t>Das Institut verfügt über Verfahren, Prozesse und Kontrollen zur Behandlung wesentlicher IKT-Vorfälle, einschliesslich solcher, die auf Abhängigkeiten von wesentlichen externen Dienstleistern und konzerninternen Auslagerungen zurückzuführen sind. Dabei ist der gesamte Lebenszyklus von wesentlichen IKT-Vorfällen zu berücksichtigen und AKV zur Behandlung dieser Vorfälle sind zu definieren.</t>
   </si>
   <si>
-    <t>Rz 59</t>
-  </si>
-  <si>
     <t>Die Behandlung wesentlicher IKT-Vorfälle ist mit den Prozessen zum BCM und dem DRP abzustimmen und zu verknüpfen.</t>
   </si>
   <si>
-    <t>Rz 60</t>
-  </si>
-  <si>
     <t>IKT-Vorfälle, die vom Institut als wesentliche Störung bei der Erbringung seiner kritischen Prozesse erachtet werden und für die Aufsicht von wesentlicher Bedeutung sind, müssen der FINMA unverzüglich gemeldet werden.</t>
   </si>
   <si>
     <t>C. Management der Cyber-Risiken</t>
   </si>
   <si>
-    <t>Rz 61</t>
-  </si>
-  <si>
     <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die Cyber-Risiken sind in Rz 23–26 und 40 festgehalten.</t>
   </si>
   <si>
-    <t>Rz 62</t>
-  </si>
-  <si>
     <t>Das Institut definiert eindeutige AKV. Es hat mindestens die folgenden Aspekte nach international anerkannten Standards und Practices abzudecken und deren effektive Umsetzung durch geeignete Verfahren, Prozesse und Kontrollen zu gewährleisten und kontinuierlich weiter zu entwickeln und zu verbessern:</t>
   </si>
   <si>
-    <t>Rz 63</t>
-  </si>
-  <si>
     <t>a. Identifikation der institutsspezifischen Bedrohungspotenziale durch Cyber-Attacken14 und Beurteilung der möglichen Auswirkungen der Ausnützung von Schwachstellen bezüglich der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten (gemäss Rz 53, 54 und 7);</t>
   </si>
   <si>
     <t>[14] Angriffe auf die Vertraulichkeit, die Integrität und die Verfügbarkeit von IKT sowie auf die elektronischen kritischen Daten, welche durch die Ausnutzung von Schwachstellen oder Umgehung von Schutzmassnahmen durch externe oder interne Angreifende stattfinden.</t>
   </si>
   <si>
-    <t>Rz 64</t>
-  </si>
-  <si>
     <t>b. Schutz der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten vor Cyber-Attacken durch die Implementierung angemessener Schutzmassnahmen, insbesondere im Hinblick auf die Vertraulichkeit, Integrität und Verfügbarkeit;</t>
   </si>
   <si>
-    <t>Rz 65</t>
-  </si>
-  <si>
     <t>c. Zeitnahe Aufzeichnung und Erkennung von Cyber-Attacken auf Basis eines Prozesses zur systematischen und durchgängigen Überwachung der inventarisierten Bestandteile der IKT und der elektronischen kritischen Daten;</t>
   </si>
   <si>
-    <t>Rz 66</t>
-  </si>
-  <si>
     <t>d. Reaktion auf identifizierte Schwachstellen und Cyber-Attacken durch die Entwicklung und Implementierung angemessener Prozesse, um zeitnah Massnahmen für die Eindämmung und Beseitigung einzuleiten; und</t>
   </si>
   <si>
-    <t>Rz 67</t>
-  </si>
-  <si>
     <t>e. Sicherstellung einer zeitnahen Wiederherstellung des ordentlichen Geschäftsbetriebs nach Cyber-Attacken durch geeignete Massnahmen.</t>
   </si>
   <si>
-    <t>Rz 68</t>
-  </si>
-  <si>
     <t>Das Management der Cyber-Risiken hat sicherzustellen, dass eine erfolgreiche oder teilweise erfolgreiche Cyber-Attacke nach seiner Wesentlichkeit für kritische inventarisierte IKT-Bestandteile bzw. elektronische kritische Daten sowie kritische Prozesse (inkl. ausgelagerte Dienstleistungen und Funktionen) analysiert wird und die Meldepflicht nach FINMAG eingehalten wird. Nach erfolgter Erstbeurteilung und der Vororientierung an die zuständige Stelle bei der FINMA innerhalb von 24 Stunden ist die Meldung gemäss dem Anforderungskatalog der Erhebungsplattform EHP (Pflichtfelder) innerhalb von 72 Stunden zu übermitteln. Nach Abschluss der institutsseitigen Fallbearbeitung ist ein dem Schweregrad entsprechender abschliessender Ursachenbericht an die zuständige Stelle bei der FINMA einzureichen.</t>
-  </si>
-  <si>
-    <t>Rz 69</t>
   </si>
   <si>
     <t>Die Geschäftsleitung lässt regelmässig Verwundbarkeitsanalysen15 und Penetrationstests16 durchführen. Diese müssen durch qualifiziertes Personal mit angemessenen Ressourcen ausgeführt werden. Dabei sind alle inventarisierten Bestandteile der IKT, die über das Internet erreichbar sind, zu berücksichtigen. Zudem sind inventarisierte Bestandteile der IKT, welche nicht über das Internet erreichbar, aber für die Erbringung von kritischen Prozessen notwendig sind, oder welche elektronische kritische Daten beinhalten, zu berücksichtigen.</t>
@@ -3107,9 +1874,6 @@
 [16] Gezielte Prüfung und das Ausnützen von Software-Schwachstellen und Sicherheitslücken in der IKT</t>
   </si>
   <si>
-    <t>Rz 70</t>
-  </si>
-  <si>
     <t>Auf Basis der institutsspezifischen Bedrohungspotenziale müssen risikobasiert szenariobezogene Cyber-Übungen17 durchgeführt werden. Das Ergebnis der Übungen ist in geeigneter Form zu dokumentieren und zu rapportieren.</t>
   </si>
   <si>
@@ -3119,67 +1883,37 @@
     <t>D. Management der Risiken kritischer Daten</t>
   </si>
   <si>
-    <t>Rz 71</t>
-  </si>
-  <si>
     <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf die Risiken kritischer Daten sind in Rz 23–26 festgehalten.</t>
   </si>
   <si>
-    <t>Rz 72</t>
-  </si>
-  <si>
     <t>Die Geschäftsleitung definiert geeignete Prozesse, Verfahren und Kontrollen sowie eindeutige AKV zum Umgang mit den vom Institut identifizierten kritischen Daten. Darüber hinaus beauftragt die Geschäftsleitung eine Einheit, um Rahmenbedingungen zur Sicherstellung der Vertraulichkeit, Integrität und Verfügbarkeit von kritischen Daten zu schaffen und ihre Einhaltung zu überwachen.</t>
   </si>
   <si>
-    <t>Rz 73</t>
-  </si>
-  <si>
     <t>Das Institut identifiziert seine kritischen Daten systematisch und vollständig, kategorisiert diese nach ihrer Kritikalität und definiert eindeutige Datenverantwortlichkeiten.</t>
   </si>
   <si>
-    <t>Rz 74</t>
-  </si>
-  <si>
     <t>Die vom Institut definierten kritischen Daten werden entlang ihres gesamten Lebenszyklus verwaltet.</t>
   </si>
   <si>
-    <t>Rz 75</t>
-  </si>
-  <si>
     <t>Dabei wird insbesondere die Einhaltung der Vertraulichkeit, Integrität und Verfügbarkeit bei der Verwaltung von kritischen Daten durch geeignete Prozesse, Verfahren und Kontrollen gewährleistet.</t>
   </si>
   <si>
-    <t>Rz 76</t>
-  </si>
-  <si>
     <t>Kritische Daten sind im Betrieb und während der Entwicklung, Veränderung und Migration von IKT vor dem Zugriff und der Nutzung durch Unberechtigte angemessen zu schützen. Dies gilt auch für kritische Daten in Testumgebungen.</t>
   </si>
   <si>
-    <t>Rz 77</t>
-  </si>
-  <si>
     <t>Die Bestandteile der IKT, die kritische Daten speichern oder verarbeiten, sind besonders zu schützen. Dabei ist der Zugriff auf diese Daten systematisch zu regeln und laufend zu überwachen.</t>
   </si>
   <si>
-    <t>Rz 78</t>
-  </si>
-  <si>
     <t>Der Zugriff auf kritische Daten und verarbeitende Funktionalitäten ist auf Personen beschränkt, welche diesen zur Erfüllung ihrer Aufgaben benötigen18. Dabei muss das Institut über ein Autorisierungssystem verfügen. Der Zugang zu diesem Autorisierungssystem ist besonders zu schützen und regelmässig zu überprüfen. Die im Autorisierungssystem enthaltenen Berechtigungen sind regelmässig zu überprüfen.</t>
   </si>
   <si>
     <t>[18] Bspw. Need-to-know- und Least Privilege-Prinzip</t>
   </si>
   <si>
-    <t>Rz 79</t>
-  </si>
-  <si>
     <t>Falls kritische Daten ausserhalb der Schweiz gespeichert werden19 oder vom Ausland aus auf sie zugegriffen werden kann, sind die damit verbundenen erhöhten Risiken angemessen zu begrenzen und mit geeigneten Massnahmen zu überwachen sowie die Daten besonders zu schützen.</t>
   </si>
   <si>
     <t>[19] Bspw. im Rahmen von Cloud- oder Hosting-Lösungen</t>
-  </si>
-  <si>
-    <t>Rz 80</t>
   </si>
   <si>
     <t>Sowohl interne wie externe Personen, die auf kritische Daten zugreifen oder diese verändern können, sind sorgfältig auszuwählen. Diese Personen sind mit geeigneten Massnahmen zu überwachen20 und regelmässig im Umgang mit diesen Daten zu schulen. Für Personen mit erhöhten Privilegien21 gelten erhöhte Sicherheitsanforderungen. Es ist zudem eine Liste aller Personen mit erhöhten Privilegien zu führen und laufend zu aktualisieren.</t>
@@ -3189,15 +1923,9 @@
 [21] Bspw. Personen mit Administratorenrechten, Anwender mit funktionalem Zugriff auf eine grosse Menge an kritischen Daten usw.</t>
   </si>
   <si>
-    <t>Rz 81</t>
-  </si>
-  <si>
     <t>Vorfälle, die die Vertraulichkeit, Integrität oder Verfügbarkeit von kritischen Daten wesentlich beeinträchtigen, müssen der FINMA unverzüglich gemeldet werden.</t>
   </si>
   <si>
-    <t>Rz 82</t>
-  </si>
-  <si>
     <t>Bei der Auswahl von Dienstleistern, die kritische Daten bearbeiten22 oder einsehen können, ist der Sorgfaltsprüfung (Due Diligence) eine hohe Bedeutung beizumessen. Es sind klare Kriterien für die Beurteilung des Umgangs der Dienstleister mit kritischen Daten zu definieren und vor Vertragsvereinbarung zu prüfen. Die Dienstleister sind im Rahmen des internen Kontrollsystems des Instituts risikoorientiert periodisch zu überwachen und zu kontrollieren.</t>
   </si>
   <si>
@@ -3207,207 +1935,117 @@
     <t>E. Business Continuity Management (BCM)</t>
   </si>
   <si>
-    <t>Rz 83</t>
-  </si>
-  <si>
     <t>Die grundsätzlichen Erwartungen an die Strategie, Governance und Stärkung des Bewusstseins in Bezug auf Risiken aus der Ausgestaltung und Implementierung des BCM sind in Rz 23–26 festgehalten.</t>
   </si>
   <si>
-    <t>Rz 84</t>
-  </si>
-  <si>
     <t>Jeder relevante Geschäfts- und Organisationsbereich hat im Rahmen der Business Impact Analyse (BIA) seine kritischen Prozesse und die dafür benötigten Ressourcen23 zu identifizieren.</t>
   </si>
   <si>
     <t>[23] Personal, Einrichtungen (bspw. Gebäude, Arbeitsplatzinfrastruktur), Informationen, IT-Systeme oder IT-Infrastruktur (inkl. Kommunikationssysteme), Abhängigkeiten zu andern Bereichen des Instituts und zu Drittparteien, bspw. exter- nen Dienstleistern und Lieferanten (Outsourcing), Zentralbanken oder Clearinghäusern.</t>
   </si>
   <si>
-    <t>Rz 85</t>
-  </si>
-  <si>
     <t>Für die kritischen Prozesse definiert das Institut die RTO und RPO nach Rz 10. Diese sind mit den dafür erforderlichen Leistungserbringern24 abgestimmt und die Einhaltung der RTO und RPO wird durch Service Level Agreements oder Verträge geregelt oder durch andere geeignete Verfahren, Prozesse und Kontrollen sichergestellt.</t>
   </si>
   <si>
     <t>[24] Bspw. mit der IT-Abteilung, anderen Bereichen des Instituts oder Externen</t>
   </si>
   <si>
-    <t>Rz 86</t>
-  </si>
-  <si>
     <t>Das Institut definiert mindestens einen BCP nach Rz 11, der auch die den Plan auslösenden Gegebenheiten und Entscheidungsprozesse beschreibt und den Verlust der Ressourcen nach Rz 84 berücksichtigt. Die Akzeptanz von residualen Risiken wird angemessen dokumentiert.</t>
   </si>
   <si>
-    <t>Rz 87</t>
-  </si>
-  <si>
     <t>Die BIA und BCP werden einer institutsweiten Vorgabe folgend auf konsistente Art erstellt und dokumentiert. Sie sind jährlich sowie ad hoc im Falle wesentlicher Änderungen im Geschäftsbetrieb (Reorganisationen, Aufbau eines neuen Geschäftsfelds, usw.) zu überprüfen und zu aktualisieren.</t>
   </si>
   <si>
-    <t>Rz 88</t>
-  </si>
-  <si>
     <t>Das Institut definiert als Teil des BCP mindestens einen DRP. Wenn kritische Prozesse oder Teile davon ausgelagert sind, berücksichtigt der DRP die externen Abhängigkeiten und vertraglichen Regelungen sowie alternative Lösungen. Der DRP wird ad hoc im Falle wesentlicher Änderungen und mindestens jährlich überprüft und aktualisiert.</t>
   </si>
   <si>
-    <t>Rz 89</t>
-  </si>
-  <si>
     <t>In Krisensituationen hat ein Krisenstab die Aufgabe der Krisenbewältigung bis zur Wiederherstellung eines ordnungsgemässen Zustands zu übernehmen. Die eine Krise auslösenden Gegebenheiten und die AKV des Krisenstabs sind vorgängig zu regeln, und die Krisenorganisation auf die Geschäftstätigkeit und geographische Struktur des Instituts auszurichten. Die Erreichbarkeit der Verantwortungsträger in Krisensituationen ist sicherzustellen.</t>
   </si>
   <si>
-    <t>Rz 90</t>
-  </si>
-  <si>
     <t>Das Institut definiert eine Kommunikationsstrategie für die interne und externe Kommunikation in Krisensituationen.</t>
   </si>
   <si>
-    <t>Rz 91</t>
-  </si>
-  <si>
     <t>Mit Tests wird die Umsetzung der BCP und des DRP sowie die Funktionsfähigkeit der Krisenorganisation regelmässig beurteilt. Dafür wird eine systematische Planung erstellt, die die regelmässige Abdeckung sicherstellt. Es können verschiedene Vorgehen zum Testen von unterschiedlicher Intensität und Effektivität gewählt werden, so auch bspw. Table-Top-Übungen.</t>
   </si>
   <si>
-    <t>Rz 92</t>
-  </si>
-  <si>
     <t>Die gemäss BCP und DRP wichtigsten Massnahmen und die Krisenorganisation werden mindestens einmal jährlich getestet.</t>
   </si>
   <si>
-    <t>Rz 93</t>
-  </si>
-  <si>
     <t>Relevante Anspruchsgruppen, einschliesslich diejenigen in Fach- und IT-Funktionen, nehmen an den Tests teil, um sich mit den Wiederherstellungsprozessen vertraut zu machen.</t>
   </si>
   <si>
-    <t>Rz 94</t>
-  </si>
-  <si>
     <t>Die Tests umfassen verschiedene schwerwiegende, aber plausible Szenarien und berücksichtigen Wiederherstellungsabhängigkeiten, einschliesslich solcher, die zu internen oder externen Drittparteien bestehen.</t>
   </si>
   <si>
-    <t>Rz 95</t>
-  </si>
-  <si>
     <t>Eine regelmässige Berichterstattung an das Oberleitungsorgan und die Geschäftsleitung informiert über die durchgeführten Test- und Überprüfungsaktivitäten und deren Ergebnisse. Sie zeigt vorgenommene Priorisierungen (bspw. Priorisierung der für die Erbringung der kritischen Funktionen nach Rz 14 benötigten kritischen Prozesse) und erkannte Lücken in der Abdeckung anderer kritischer Prozesse klar auf.</t>
   </si>
   <si>
-    <t>Rz 96</t>
-  </si>
-  <si>
     <t>Die Mitarbeitenden sowie die Mitglieder der Krisenorganisation werden hinsichtlich ihrer AKV, die sich aus den diversen BCM Aktivitäten ergeben, ausreichend geschult, sowohl bei Neueintritt von Mitarbeitenden als auch als Teil regelmässiger Schulungen.</t>
   </si>
   <si>
     <t>F. Management der Risiken aus dem grenzüberschreitenden Dienstleistungsgeschäft</t>
   </si>
   <si>
-    <t>Rz 97</t>
-  </si>
-  <si>
     <t>Wenn Institute oder ihre Gruppengesellschaften grenzüberschreitend Dienstleistungen erbringen oder Finanzprodukte vertreiben, sind auch die aus einer Anwendung ausländischer Rechtsvorschriften (Steuer-, Straf-, Geldwäschereirecht usw.) resultierenden Risiken angemessen zu erfassen, begrenzen und kontrollieren.</t>
   </si>
   <si>
-    <t>Rz 98</t>
-  </si>
-  <si>
     <t>Die Institute unterziehen ihr grenzüberschreitendes Dienstleistungsgeschäft sowie den grenzüberschreitenden Vertrieb von Finanzprodukten einer vertieften Analyse der rechtlichen Rahmenbedingungen und der damit verbundenen Risiken. Gestützt auf diese Analyse treffen die Institute die erforderlichen strategischen und organisatorischen Massnahmen zur Risikoeliminierung und -minimierung und passen diese laufend geänderten Bedingungen an. Insbesondere verfügen sie über das notwendige länderspezifische Fachwissen, definieren spezifische Dienstleistungsmodelle für die bedienten Länder, schulen die Mitarbeitenden und stellen durch entsprechende organisatorische Massnahmen, Weisungen, Vergütungs- und Sanktionsmodelle die Einhaltung der Vorgaben sicher.</t>
   </si>
   <si>
-    <t>Rz 99</t>
-  </si>
-  <si>
     <t>Auch die durch externe Vermögensverwalter, Vermittler und andere Dienstleister generierten Risiken sind zu berücksichtigen. Entsprechend ist bei der Auswahl und Instruktion dieser Partner sorgfältig vorzugehen.</t>
   </si>
   <si>
-    <t>Rz 100</t>
-  </si>
-  <si>
     <t>Von diesem Grundsatz werden auch Konstellationen erfasst, in denen eine im Ausland ansässige Tochtergesellschaft, Zweigniederlassung oder dergleichen eines Schweizer Finanzinstituts Kunden grenzüberschreitend bedient.</t>
   </si>
   <si>
     <t>V. Sicherstellung der operationellen Resilienz</t>
   </si>
   <si>
-    <t>Rz 101</t>
-  </si>
-  <si>
     <t>Das Institut identifiziert seine kritischen Funktionen und deren Unterbrechungstoleranzen. Diese werden vom Oberleitungsorgan genehmigt. Ausserdem genehmigt und überwacht das Oberleitungsorgan regelmässig das Vorgehen zur Sicherstellung der operationellen Resilienz.</t>
   </si>
   <si>
-    <t>Rz 102</t>
-  </si>
-  <si>
     <t>Das Institut trifft Massnahmen zur Sicherstellung der operationellen Resilienz unter Berücksichtigung schwerwiegender, aber plausibler Szenarien25.</t>
   </si>
   <si>
     <t>[25] Es kann nicht ausgeschlossen werden, dass manche Szenarien nicht ohne Einbezug des Staates bewältigt werden können (bspw. Pandemien, Kriege, langanhaltende Strommangellage). Für solche Szenarien sind durch das Institut Vorarbeiten zwecks Stärkung seiner operationellen Resilienz gegenüber diesen Szenarien im Rahmen seiner Mög- lichkeiten zu leisten.</t>
   </si>
   <si>
-    <t>Rz 103</t>
-  </si>
-  <si>
     <t>Die kritischen Funktionen und die damit verbundenen Unterbrechungstoleranzen nach Rz 14 sind mindestens jährlich durch das Oberleitungsorgan zu genehmigen.</t>
   </si>
   <si>
-    <t>Rz 104</t>
-  </si>
-  <si>
     <t>Das Institut koordiniert die relevanten Bestandteile eines umfassenden Risikomanagements wie beispielsweise das Management der operationellen Risiken, inklusive das Management der IKT- und Cyber-Risiken, das Business Continuity Management, das Management von Auslagerungen (Outsourcing; vgl. das FINMA-Rundschreiben 2018/3 „Outsourcing“), und die Notfallplanung (Kapitel VI) dahingehend, dass diese zu einer Stärkung der operationellen Resilienz des Instituts beitragen. Dies beinhaltet einen angemessenen Austausch relevanter Informationen zwischen diesen verschiedenen Bereichen.</t>
   </si>
   <si>
-    <t>Rz 105</t>
-  </si>
-  <si>
     <t>Zur operationellen Resilienz hat mindestens jährlich eine Berichterstattung an das Oberleitungsorgan und die Geschäftsleitung zu erfolgen, sowie bei wesentlichen Kontrollschwächen oder Vorfällen, die die operationelle Resilienz gefährden.</t>
   </si>
   <si>
-    <t>Rz 106</t>
-  </si>
-  <si>
     <t>Für die kritischen Funktionen werden interne und externe Bedrohungen sowie die entsprechende Ausnützung von Verwundbarkeiten identifiziert und beurteilt. Die daraus resultierenden operationellen Risiken werden im Rahmen des Managements der operationellen Risiken identifiziert, beurteilt, begrenzt und überwacht.</t>
   </si>
   <si>
-    <t>Rz 107</t>
-  </si>
-  <si>
     <t>Das Institut führt ein Inventar seiner kritischen Funktionen, das mindestens jährlich überprüft und aktualisiert wird. Dieses Inventar beinhaltet die Unterbrechungstoleranzen der kritischen Funktionen, sowie die Verbindungen und Abhängigkeiten zwischen den benötigten kritischen Prozessen und deren Ressourcen26 zur Erbringung der kritischen Funktionen.</t>
   </si>
   <si>
     <t>[26] Inklusive die für die kritischen Funktionen relevanten Bestandteile des Inventars nach Rz 53</t>
   </si>
   <si>
-    <t>Rz 108</t>
-  </si>
-  <si>
     <t>Für die kritischen Funktionen werden mindestens die wesentlichen operationellen Risiken und die Schlüsselkontrollen dokumentiert.</t>
   </si>
   <si>
-    <t>Rz 109</t>
-  </si>
-  <si>
     <t>Die kritischen Funktionen und die dafür benötigten kritischen Prozesse und Ressourcen sind durch BCPs nach Kapitel IV Bst. E abgedeckt.</t>
   </si>
   <si>
-    <t>Rz 110</t>
-  </si>
-  <si>
     <t>Die Fähigkeit, kritische Funktionen innerhalb ihrer Unterbrechungstoleranz unter schwerwiegenden, aber plausiblen Szenarien erbringen zu können, wird regelmässig getestet oder geübt. Dazu gehören auch Szenarien, die sich von kürzeren und eher begrenzt wirkenden Unterbrechungen unterscheiden und sich durch eine längere Zeitdauer (bspw. über Monate hinweg) und einen Ausfall grundlegender Ressourcen auszeichnen27. Die Tests bzw. Übungen werden dabei so gestaltet sein, dass sie das Institut nicht grundlegend gefährden.</t>
   </si>
   <si>
     <t>[27] Beispiele sind eine Pandemie, eine Strommangellage, ein längerer Ausfall durch die Insolvenz eines wichtigen Dienstleisters (als Beispiel für einen Stressed Exit eines Dienstleisters) oder ein längeranhaltendes Verbot ausländi- scher Regierungen, gemäss dem auslandsbasierte Cloud-Anbieter oder andere Dienstleister schweizerische Firmen nicht mehr bedienen dürfen.</t>
   </si>
   <si>
-    <t>Rz 111</t>
-  </si>
-  <si>
     <t>Für systemrelevante Banken sind die für die Weiterführung der kritischen Funktionen nach Rz 14 relevanten BCP, DRP und die Krisenorganisation nach Kapitel IV Bst. E. mit der Notfallplanung nach Kapitel VI abzustimmen.</t>
   </si>
   <si>
     <t>VI. Weiterführung von kritischen Dienstleistungen bei der Abwicklung und Sanierung von systemrelevanten Banken</t>
   </si>
   <si>
-    <t>Rz 112</t>
-  </si>
-  <si>
     <t>Systemrelevante Banken treffen im Rahmen ihrer Notfallplanung die für die unterbruchsfreie Weiterführung von systemrelevanten Funktionen nötigen Massnahmen (Art. 9 Abs. 2 Bst. d BankG i.V.m. Art. 60 ff. BankV). Sie identifizieren die zur Fortführung der systemrelevanten Funktionen im Fall der Abwicklung, Sanierung oder Restrukturierung notwendigen Dienstleistungen („kritische Dienstleistungen“) und ergreifen die für deren Weiterführung nötigen Massnahmen. Dabei berücksichtigen sie die in diesem Zusammenhang von internationalen Standardsettern erlassenen Vorgaben.</t>
   </si>
   <si>
@@ -3417,16 +2055,10 @@
     <t>A. Betreffend die Sicherstellung der operationellen Resilienz</t>
   </si>
   <si>
-    <t>Rz 113</t>
-  </si>
-  <si>
     <t>Die Identifikation der kritischen Funktionen, die Definition der Unterbrechungstoleranzen und erste Genehmigungen nach Rz 101 und 103, sowie eine erste Berichterstattung nach Rz 105, werden ab Inkrafttreten des Rundschreibens erwartet. Für die Erfüllung der Anforderungen nach den Rz 106–109 sowie erste Tests nach Rz 110 gilt eine Übergangsfrist von einem Jahr ab Inkrafttreten. Die Sicherstellung der operationellen Resilienz nach Rz 102 sowie die Erfüllung der Anforderungen nach den Rz 104 und 111 werden innert einer Übergangsfrist von zwei Jahren erwartet.</t>
   </si>
   <si>
     <t>B. Betreffend die Eigenmittelanforderungen für operationelle Risiken</t>
-  </si>
-  <si>
-    <t>Rz 114</t>
   </si>
   <si>
     <t>Die Eigenmittelanforderungen für operationelle Risiken nach Art. 89 ff. ERV richten sich bis zum Inkrafttreten der im Rahmen des Revisionspakets „Basel III final“ revidierten ERV und der ausführenden FINMA-Verordnung dazu nach den Rz 3–116 des FINMA-Rundschreibens 2008/21 „Operationelle Risiken – Banken“.</t>
@@ -3486,13 +2118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3865,51 +2496,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>846</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>847</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>848</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
-        <v>1121</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1122</v>
+        <v>507</v>
+      </c>
+      <c r="B13" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3941,7 +2572,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4013,51 +2644,51 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>847</v>
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>848</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
-        <v>1121</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>849</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1122</v>
+        <v>507</v>
+      </c>
+      <c r="B12" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +2702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4109,31 +2740,31 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>575</v>
+        <v>347</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>576</v>
+        <v>348</v>
       </c>
       <c r="M1" t="s">
-        <v>848</v>
+        <v>506</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>849</v>
+        <v>507</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>850</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4146,84 +2777,66 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>577</v>
+        <v>349</v>
       </c>
       <c r="M2" t="s">
-        <v>851</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>460</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" t="s">
-        <v>578</v>
+        <v>190</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>579</v>
+        <v>350</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="M3" t="s">
-        <v>852</v>
+        <v>351</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>853</v>
+        <v>510</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>854</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>461</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" t="s">
-        <v>581</v>
+        <v>191</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M4" t="s">
-        <v>855</v>
+        <v>352</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>856</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4231,520 +2844,376 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>583</v>
+        <v>353</v>
       </c>
       <c r="M5" t="s">
-        <v>857</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>462</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J6" t="s">
-        <v>584</v>
+        <v>194</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>585</v>
+        <v>354</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="M6" t="s">
-        <v>858</v>
+        <v>355</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>859</v>
+        <v>514</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>860</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>463</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J7" t="s">
-        <v>587</v>
+        <v>195</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="M7" t="s">
-        <v>861</v>
+        <v>356</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>862</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>464</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8" t="s">
-        <v>589</v>
+        <v>196</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M8" t="s">
-        <v>863</v>
+        <v>357</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>864</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
+      <c r="C9">
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>465</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M9" t="s">
-        <v>865</v>
+        <v>358</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>866</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
+      <c r="C10">
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>466</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J10" t="s">
-        <v>593</v>
+        <v>198</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="M10" t="s">
-        <v>867</v>
+        <v>359</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>868</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
+      <c r="C11">
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" t="s">
-        <v>467</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J11" t="s">
-        <v>595</v>
+        <v>199</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M11" t="s">
-        <v>869</v>
+        <v>360</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>870</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
+      <c r="C12">
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>468</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J12" t="s">
-        <v>597</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="M12" t="s">
-        <v>871</v>
+        <v>361</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>872</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
+      <c r="C13">
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>469</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J13" t="s">
-        <v>599</v>
+        <v>201</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M13" t="s">
-        <v>873</v>
+        <v>362</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>874</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>51</v>
+      <c r="C14">
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>470</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J14" t="s">
-        <v>601</v>
+        <v>202</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="M14" t="s">
-        <v>875</v>
+        <v>363</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>876</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
+      <c r="C15">
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" t="s">
-        <v>471</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J15" t="s">
-        <v>603</v>
+        <v>203</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="M15" t="s">
-        <v>877</v>
+        <v>364</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>878</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
+      <c r="C16">
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>472</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J16" t="s">
-        <v>605</v>
+        <v>204</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="M16" t="s">
-        <v>879</v>
+        <v>365</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>880</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
+      <c r="C17">
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" t="s">
-        <v>473</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J17" t="s">
-        <v>607</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="M17" t="s">
-        <v>881</v>
+        <v>366</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>882</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>59</v>
+      <c r="C18">
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" t="s">
-        <v>474</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J18" t="s">
-        <v>609</v>
+        <v>206</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="M18" t="s">
-        <v>883</v>
+        <v>367</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>884</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>61</v>
+      <c r="C19">
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" t="s">
-        <v>475</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J19" t="s">
-        <v>611</v>
+        <v>207</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="M19" t="s">
-        <v>885</v>
+        <v>368</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>886</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>63</v>
+      <c r="C20">
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>476</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J20" t="s">
-        <v>613</v>
+        <v>208</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="M20" t="s">
-        <v>887</v>
+        <v>369</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>888</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>65</v>
+      <c r="C21">
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>477</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J21" t="s">
-        <v>615</v>
+        <v>210</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>616</v>
+        <v>370</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="M21" t="s">
-        <v>889</v>
+        <v>371</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>890</v>
+        <v>530</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>891</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -4752,108 +3221,81 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>618</v>
+        <v>372</v>
       </c>
       <c r="M22" t="s">
-        <v>892</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
+      <c r="C23">
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" t="s">
-        <v>478</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J23" t="s">
-        <v>619</v>
+        <v>212</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M23" t="s">
-        <v>893</v>
+        <v>373</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>894</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>71</v>
+      <c r="C24">
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" t="s">
-        <v>479</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J24" t="s">
-        <v>621</v>
+        <v>213</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="M24" t="s">
-        <v>895</v>
+        <v>374</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>896</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
+      <c r="C25">
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" t="s">
-        <v>480</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J25" t="s">
-        <v>623</v>
+        <v>214</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M25" t="s">
-        <v>897</v>
+        <v>375</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>898</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -4861,18 +3303,18 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>625</v>
+        <v>376</v>
       </c>
       <c r="M26" t="s">
-        <v>899</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -4880,917 +3322,692 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>626</v>
+        <v>377</v>
       </c>
       <c r="M27" t="s">
-        <v>900</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>77</v>
+      <c r="C28">
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" t="s">
-        <v>481</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J28" t="s">
-        <v>627</v>
+        <v>217</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M28" t="s">
-        <v>901</v>
+        <v>378</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>902</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>80</v>
+      <c r="C29">
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
-        <v>482</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="J29" t="s">
-        <v>629</v>
+        <v>219</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>630</v>
+        <v>379</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="M29" t="s">
-        <v>903</v>
+        <v>380</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>904</v>
+        <v>539</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>905</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>83</v>
+      <c r="C30">
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" t="s">
-        <v>483</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J30" t="s">
-        <v>632</v>
+        <v>220</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="M30" t="s">
-        <v>906</v>
+        <v>381</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>907</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>85</v>
+      <c r="C31">
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s">
-        <v>484</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J31" t="s">
-        <v>634</v>
+        <v>222</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="M31" t="s">
-        <v>908</v>
+        <v>383</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>909</v>
+        <v>542</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>910</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
-        <v>88</v>
+      <c r="C32">
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" t="s">
-        <v>485</v>
+        <v>64</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J32" t="s">
-        <v>637</v>
+        <v>224</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>638</v>
+        <v>384</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="M32" t="s">
-        <v>911</v>
+        <v>385</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>912</v>
+        <v>544</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>913</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
-        <v>91</v>
+      <c r="C33">
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" t="s">
-        <v>486</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J33" t="s">
-        <v>640</v>
+        <v>225</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M33" t="s">
-        <v>914</v>
+        <v>386</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>915</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
+      <c r="C34">
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" t="s">
-        <v>487</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J34" t="s">
-        <v>642</v>
+        <v>226</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="M34" t="s">
-        <v>916</v>
+        <v>387</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>917</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
-        <v>95</v>
+      <c r="C35">
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" t="s">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J35" t="s">
-        <v>644</v>
+        <v>228</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>645</v>
+        <v>388</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="M35" t="s">
-        <v>918</v>
+        <v>389</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>919</v>
+        <v>548</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>920</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>98</v>
+      <c r="C36">
+        <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>489</v>
+        <v>70</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J36" t="s">
-        <v>647</v>
+        <v>230</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>648</v>
+        <v>390</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M36" t="s">
-        <v>921</v>
+        <v>391</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>922</v>
+        <v>550</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>923</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>101</v>
+      <c r="C37">
+        <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" t="s">
-        <v>490</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J37" t="s">
-        <v>650</v>
+        <v>231</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="M37" t="s">
-        <v>924</v>
+        <v>392</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>925</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>103</v>
+      <c r="C38">
+        <v>32</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" t="s">
-        <v>491</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J38" t="s">
-        <v>652</v>
+        <v>232</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="M38" t="s">
-        <v>926</v>
+        <v>393</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>927</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
+      <c r="C39">
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" t="s">
-        <v>492</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J39" t="s">
-        <v>654</v>
+        <v>233</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="M39" t="s">
-        <v>928</v>
+        <v>394</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>929</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>107</v>
+      <c r="C40">
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" t="s">
-        <v>493</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J40" t="s">
-        <v>656</v>
+        <v>234</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M40" t="s">
-        <v>930</v>
+        <v>395</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>931</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>109</v>
+      <c r="C41">
+        <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" t="s">
-        <v>494</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="J41" t="s">
-        <v>658</v>
+        <v>235</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="M41" t="s">
-        <v>932</v>
+        <v>396</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>933</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>111</v>
+      <c r="C42">
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" t="s">
-        <v>495</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J42" t="s">
-        <v>660</v>
+        <v>236</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M42" t="s">
-        <v>934</v>
+        <v>397</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>935</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>113</v>
+      <c r="C43">
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" t="s">
-        <v>496</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J43" t="s">
-        <v>662</v>
+        <v>237</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="M43" t="s">
-        <v>936</v>
+        <v>398</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>937</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" t="s">
-        <v>497</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J44" t="s">
-        <v>664</v>
+        <v>239</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>665</v>
+        <v>399</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="M44" t="s">
-        <v>938</v>
+        <v>400</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>939</v>
+        <v>559</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>940</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>118</v>
+      <c r="C45">
+        <v>39</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" t="s">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J45" t="s">
-        <v>667</v>
+        <v>241</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>668</v>
+        <v>401</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="M45" t="s">
-        <v>941</v>
+        <v>402</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>942</v>
+        <v>561</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>943</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
-        <v>121</v>
+      <c r="C46">
+        <v>40</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" t="s">
-        <v>499</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J46" t="s">
-        <v>670</v>
+        <v>242</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M46" t="s">
-        <v>944</v>
+        <v>403</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>945</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>123</v>
+      <c r="C47">
+        <v>41</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" t="s">
-        <v>500</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J47" t="s">
-        <v>672</v>
+        <v>243</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="M47" t="s">
-        <v>946</v>
+        <v>404</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>947</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
-        <v>125</v>
+      <c r="C48">
+        <v>42</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" t="s">
-        <v>501</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J48" t="s">
-        <v>674</v>
+        <v>244</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="M48" t="s">
-        <v>948</v>
+        <v>405</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>949</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
-        <v>127</v>
+      <c r="C49">
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" t="s">
-        <v>502</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J49" t="s">
-        <v>676</v>
+        <v>245</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M49" t="s">
-        <v>950</v>
+        <v>406</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>951</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
-        <v>129</v>
+      <c r="C50">
+        <v>44</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" t="s">
-        <v>503</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J50" t="s">
-        <v>678</v>
+        <v>246</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M50" t="s">
-        <v>952</v>
+        <v>407</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>953</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
-        <v>131</v>
+      <c r="C51">
+        <v>45</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" t="s">
-        <v>504</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J51" t="s">
-        <v>680</v>
+        <v>247</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M51" t="s">
-        <v>954</v>
+        <v>408</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>955</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
-        <v>133</v>
+      <c r="C52">
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" t="s">
-        <v>505</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J52" t="s">
-        <v>682</v>
+        <v>248</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="M52" t="s">
-        <v>956</v>
+        <v>409</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>957</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -5798,18 +4015,18 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="J53" t="s">
-        <v>684</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s">
-        <v>958</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -5817,117 +4034,90 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" t="s">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="J54" t="s">
-        <v>685</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s">
-        <v>959</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
-        <v>137</v>
+      <c r="C55">
+        <v>47</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="G55" t="s">
-        <v>506</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J55" t="s">
-        <v>686</v>
+        <v>251</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="M55" t="s">
-        <v>960</v>
+        <v>412</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>961</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
-        <v>139</v>
+      <c r="C56">
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="G56" t="s">
-        <v>507</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J56" t="s">
-        <v>688</v>
+        <v>252</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="M56" t="s">
-        <v>962</v>
+        <v>413</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>963</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
-      <c r="D57" t="s">
-        <v>141</v>
+      <c r="C57">
+        <v>49</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="G57" t="s">
-        <v>508</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J57" t="s">
-        <v>690</v>
+        <v>253</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="M57" t="s">
-        <v>964</v>
+        <v>414</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>965</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -5935,128 +4125,101 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="J58" t="s">
-        <v>692</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s">
-        <v>966</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
-      <c r="D59" t="s">
-        <v>143</v>
+      <c r="C59">
+        <v>50</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" t="s">
-        <v>509</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J59" t="s">
-        <v>693</v>
+        <v>255</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="M59" t="s">
-        <v>967</v>
+        <v>416</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>968</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
-        <v>146</v>
+      <c r="C60">
+        <v>51</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" t="s">
-        <v>510</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J60" t="s">
-        <v>695</v>
+        <v>256</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="M60" t="s">
-        <v>969</v>
+        <v>417</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>970</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
-        <v>148</v>
+      <c r="C61">
+        <v>52</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" t="s">
-        <v>511</v>
+        <v>98</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J61" t="s">
-        <v>697</v>
+        <v>258</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>698</v>
+        <v>418</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M61" t="s">
-        <v>971</v>
+        <v>419</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>972</v>
+        <v>578</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>973</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -6064,183 +4227,138 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" t="s">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="J62" t="s">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s">
-        <v>974</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
-      <c r="D63" t="s">
-        <v>152</v>
+      <c r="C63">
+        <v>53</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1"/>
-      <c r="G63" t="s">
-        <v>512</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J63" t="s">
-        <v>701</v>
+        <v>260</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="M63" t="s">
-        <v>975</v>
+        <v>421</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>976</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
-        <v>154</v>
+      <c r="C64">
+        <v>54</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="G64" t="s">
-        <v>513</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J64" t="s">
-        <v>703</v>
+        <v>261</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="M64" t="s">
-        <v>977</v>
+        <v>422</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>978</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
-        <v>156</v>
+      <c r="C65">
+        <v>55</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" t="s">
-        <v>514</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J65" t="s">
-        <v>705</v>
+        <v>262</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="M65" t="s">
-        <v>979</v>
+        <v>423</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>980</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="D66" t="s">
-        <v>158</v>
+      <c r="C66">
+        <v>56</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" t="s">
-        <v>515</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J66" t="s">
-        <v>707</v>
+        <v>263</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="M66" t="s">
-        <v>981</v>
+        <v>424</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>982</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
-      <c r="D67" t="s">
-        <v>160</v>
+      <c r="C67">
+        <v>57</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" t="s">
-        <v>516</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J67" t="s">
-        <v>709</v>
+        <v>264</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="M67" t="s">
-        <v>983</v>
+        <v>425</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>984</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -6248,117 +4366,90 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="J68" t="s">
-        <v>711</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s">
-        <v>985</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
-      <c r="D69" t="s">
-        <v>163</v>
+      <c r="C69">
+        <v>58</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" t="s">
-        <v>517</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J69" t="s">
-        <v>712</v>
+        <v>266</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="M69" t="s">
-        <v>986</v>
+        <v>427</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>987</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
-      <c r="D70" t="s">
-        <v>165</v>
+      <c r="C70">
+        <v>59</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" t="s">
-        <v>518</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J70" t="s">
-        <v>714</v>
+        <v>267</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="M70" t="s">
-        <v>988</v>
+        <v>428</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>989</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
-      <c r="D71" t="s">
-        <v>167</v>
+      <c r="C71">
+        <v>60</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1"/>
-      <c r="G71" t="s">
-        <v>519</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J71" t="s">
-        <v>716</v>
+        <v>268</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="M71" t="s">
-        <v>990</v>
+        <v>429</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>991</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -6366,383 +4457,293 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" t="s">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="J72" t="s">
-        <v>718</v>
+        <v>430</v>
       </c>
       <c r="M72" t="s">
-        <v>992</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-      <c r="D73" t="s">
-        <v>170</v>
+      <c r="C73">
+        <v>61</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" t="s">
-        <v>520</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J73" t="s">
-        <v>719</v>
+        <v>270</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="M73" t="s">
-        <v>993</v>
+        <v>431</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>994</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
-        <v>172</v>
+      <c r="C74">
+        <v>62</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74" t="s">
-        <v>521</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J74" t="s">
-        <v>721</v>
+        <v>271</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M74" t="s">
-        <v>995</v>
+        <v>432</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>996</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
-        <v>174</v>
+      <c r="C75">
+        <v>63</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G75" t="s">
-        <v>522</v>
+        <v>113</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J75" t="s">
-        <v>723</v>
+        <v>273</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>724</v>
+        <v>433</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="M75" t="s">
-        <v>997</v>
+        <v>434</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>998</v>
+        <v>593</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>999</v>
+        <v>594</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-      <c r="D76" t="s">
-        <v>177</v>
+      <c r="C76">
+        <v>64</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76" t="s">
-        <v>523</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J76" t="s">
-        <v>726</v>
+        <v>274</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="M76" t="s">
-        <v>1000</v>
+        <v>435</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1001</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="D77" t="s">
-        <v>179</v>
+      <c r="C77">
+        <v>65</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" t="s">
-        <v>524</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J77" t="s">
-        <v>728</v>
+        <v>275</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="M77" t="s">
-        <v>1002</v>
+        <v>436</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>1003</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="D78" t="s">
-        <v>181</v>
+      <c r="C78">
+        <v>66</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="F78" s="1"/>
-      <c r="G78" t="s">
-        <v>525</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J78" t="s">
-        <v>730</v>
+        <v>276</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M78" t="s">
-        <v>1004</v>
+        <v>437</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>1005</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="D79" t="s">
-        <v>183</v>
+      <c r="C79">
+        <v>67</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79" t="s">
-        <v>526</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J79" t="s">
-        <v>732</v>
+        <v>277</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1006</v>
+        <v>438</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1007</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="D80" t="s">
-        <v>185</v>
+      <c r="C80">
+        <v>68</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" t="s">
-        <v>527</v>
+        <v>119</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J80" t="s">
-        <v>734</v>
+        <v>278</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1008</v>
+        <v>439</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>1009</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="D81" t="s">
-        <v>188</v>
+      <c r="C81">
+        <v>69</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G81" t="s">
-        <v>528</v>
+        <v>121</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J81" t="s">
-        <v>736</v>
+        <v>280</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>737</v>
+        <v>440</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="M81" t="s">
-        <v>1010</v>
+        <v>441</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>1012</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="D82" t="s">
-        <v>191</v>
+      <c r="C82">
+        <v>70</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G82" t="s">
-        <v>529</v>
+        <v>123</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>395</v>
+        <v>281</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J82" t="s">
-        <v>739</v>
+        <v>282</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>740</v>
+        <v>442</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1013</v>
+        <v>443</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>1014</v>
+        <v>602</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>1015</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -6750,458 +4751,350 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" t="s">
-        <v>397</v>
+        <v>283</v>
       </c>
       <c r="J83" t="s">
-        <v>742</v>
+        <v>444</v>
       </c>
       <c r="M83" t="s">
-        <v>1016</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="D84" t="s">
-        <v>195</v>
+      <c r="C84">
+        <v>71</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" t="s">
-        <v>530</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J84" t="s">
-        <v>743</v>
+        <v>284</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1017</v>
+        <v>445</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>1018</v>
+        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="D85" t="s">
-        <v>197</v>
+      <c r="C85">
+        <v>72</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" t="s">
-        <v>531</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J85" t="s">
-        <v>745</v>
+        <v>285</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1019</v>
+        <v>446</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1020</v>
+        <v>606</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="D86" t="s">
-        <v>199</v>
+      <c r="C86">
+        <v>73</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" t="s">
-        <v>532</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J86" t="s">
-        <v>747</v>
+        <v>286</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1021</v>
+        <v>447</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>1022</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
-      <c r="D87" t="s">
-        <v>201</v>
+      <c r="C87">
+        <v>74</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="F87" s="1"/>
-      <c r="G87" t="s">
-        <v>533</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J87" t="s">
-        <v>749</v>
+        <v>287</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1023</v>
+        <v>448</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>1024</v>
+        <v>608</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="D88" t="s">
-        <v>203</v>
+      <c r="C88">
+        <v>75</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" t="s">
-        <v>534</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J88" t="s">
-        <v>751</v>
+        <v>288</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1025</v>
+        <v>449</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1026</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="D89" t="s">
-        <v>205</v>
+      <c r="C89">
+        <v>76</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" t="s">
-        <v>535</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J89" t="s">
-        <v>753</v>
+        <v>289</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="M89" t="s">
-        <v>1027</v>
+        <v>450</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1028</v>
+        <v>610</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
-      <c r="D90" t="s">
-        <v>207</v>
+      <c r="C90">
+        <v>77</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" t="s">
-        <v>536</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J90" t="s">
-        <v>755</v>
+        <v>290</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1029</v>
+        <v>451</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>1030</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="D91" t="s">
-        <v>209</v>
+      <c r="C91">
+        <v>78</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G91" t="s">
-        <v>537</v>
+        <v>133</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="J91" t="s">
-        <v>757</v>
+        <v>292</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>758</v>
+        <v>452</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1031</v>
+        <v>453</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1032</v>
+        <v>612</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>1033</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
         <v>79</v>
       </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>212</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G92" t="s">
-        <v>538</v>
+        <v>135</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>407</v>
+        <v>293</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J92" t="s">
-        <v>760</v>
+        <v>294</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>761</v>
+        <v>454</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M92" t="s">
-        <v>1034</v>
+        <v>455</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>1035</v>
+        <v>614</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>1036</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="D93" t="s">
-        <v>215</v>
+      <c r="C93">
+        <v>80</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G93" t="s">
-        <v>539</v>
+        <v>137</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J93" t="s">
-        <v>763</v>
+        <v>296</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>764</v>
+        <v>456</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="M93" t="s">
-        <v>1037</v>
+        <v>457</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1038</v>
+        <v>616</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>1039</v>
+        <v>617</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="D94" t="s">
-        <v>218</v>
+      <c r="C94">
+        <v>81</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="F94" s="1"/>
-      <c r="G94" t="s">
-        <v>540</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="J94" t="s">
-        <v>766</v>
+        <v>297</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M94" t="s">
-        <v>1040</v>
+        <v>458</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>1041</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
-      <c r="D95" t="s">
-        <v>220</v>
+      <c r="C95">
+        <v>82</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G95" t="s">
-        <v>541</v>
+        <v>140</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J95" t="s">
-        <v>768</v>
+        <v>299</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>769</v>
+        <v>459</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="M95" t="s">
-        <v>1042</v>
+        <v>460</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1043</v>
+        <v>619</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>1044</v>
+        <v>620</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -7209,502 +5102,376 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="J96" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="M96" t="s">
-        <v>1045</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="D97" t="s">
-        <v>224</v>
+      <c r="C97">
+        <v>83</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" t="s">
-        <v>542</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J97" t="s">
-        <v>771</v>
+        <v>300</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1046</v>
+        <v>461</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>1047</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
-      <c r="D98" t="s">
-        <v>226</v>
+      <c r="C98">
+        <v>84</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G98" t="s">
-        <v>543</v>
+        <v>144</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J98" t="s">
-        <v>773</v>
+        <v>302</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>774</v>
+        <v>462</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1048</v>
+        <v>463</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>1049</v>
+        <v>623</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>1050</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
-      <c r="D99" t="s">
-        <v>229</v>
+      <c r="C99">
+        <v>85</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G99" t="s">
-        <v>544</v>
+        <v>146</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J99" t="s">
-        <v>776</v>
+        <v>304</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>777</v>
+        <v>464</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1051</v>
+        <v>465</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>1052</v>
+        <v>625</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>1053</v>
+        <v>626</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
-        <v>232</v>
+      <c r="C100">
+        <v>86</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100" t="s">
-        <v>545</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J100" t="s">
-        <v>779</v>
+        <v>305</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1054</v>
+        <v>466</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>1055</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
-      <c r="D101" t="s">
-        <v>234</v>
+      <c r="C101">
+        <v>87</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" t="s">
-        <v>546</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J101" t="s">
-        <v>781</v>
+        <v>306</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1056</v>
+        <v>467</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>1057</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
-      <c r="D102" t="s">
-        <v>236</v>
+      <c r="C102">
+        <v>88</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102" t="s">
-        <v>547</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J102" t="s">
-        <v>783</v>
+        <v>307</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="M102" t="s">
-        <v>1058</v>
+        <v>468</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>1059</v>
+        <v>629</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="D103" t="s">
-        <v>238</v>
+      <c r="C103">
+        <v>89</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103" t="s">
-        <v>548</v>
-      </c>
       <c r="H103" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J103" t="s">
-        <v>785</v>
+        <v>308</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="M103" t="s">
-        <v>1060</v>
+        <v>469</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>1061</v>
+        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
-      <c r="D104" t="s">
-        <v>240</v>
+      <c r="C104">
+        <v>90</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" t="s">
-        <v>549</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J104" t="s">
-        <v>787</v>
+        <v>309</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="M104" t="s">
-        <v>1062</v>
+        <v>470</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>1063</v>
+        <v>631</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-      <c r="D105" t="s">
-        <v>242</v>
+      <c r="C105">
+        <v>91</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105" t="s">
-        <v>550</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J105" t="s">
-        <v>789</v>
+        <v>310</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1064</v>
+        <v>471</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1065</v>
+        <v>632</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="D106" t="s">
-        <v>244</v>
+      <c r="C106">
+        <v>92</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" t="s">
-        <v>551</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J106" t="s">
-        <v>791</v>
+        <v>311</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1066</v>
+        <v>472</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>1067</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
-      <c r="D107" t="s">
-        <v>246</v>
+      <c r="C107">
+        <v>93</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="G107" t="s">
-        <v>552</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J107" t="s">
-        <v>793</v>
+        <v>312</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1068</v>
+        <v>473</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>1069</v>
+        <v>634</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
-      <c r="D108" t="s">
-        <v>248</v>
+      <c r="C108">
+        <v>94</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="F108" s="1"/>
-      <c r="G108" t="s">
-        <v>553</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J108" t="s">
-        <v>795</v>
+        <v>313</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="M108" t="s">
-        <v>1070</v>
+        <v>474</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>1071</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
-      <c r="D109" t="s">
-        <v>250</v>
+      <c r="C109">
+        <v>95</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="F109" s="1"/>
-      <c r="G109" t="s">
-        <v>554</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J109" t="s">
-        <v>797</v>
+        <v>314</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="M109" t="s">
-        <v>1072</v>
+        <v>475</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>1073</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
-      <c r="D110" t="s">
-        <v>252</v>
+      <c r="C110">
+        <v>96</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="F110" s="1"/>
-      <c r="G110" t="s">
-        <v>555</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J110" t="s">
-        <v>799</v>
+        <v>315</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="M110" t="s">
-        <v>1074</v>
+        <v>476</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>1075</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -7712,150 +5479,114 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" t="s">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="J111" t="s">
-        <v>801</v>
+        <v>477</v>
       </c>
       <c r="M111" t="s">
-        <v>1076</v>
+        <v>638</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
-      <c r="D112" t="s">
-        <v>255</v>
+      <c r="C112">
+        <v>97</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1"/>
-      <c r="G112" t="s">
-        <v>556</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J112" t="s">
-        <v>802</v>
+        <v>317</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="M112" t="s">
-        <v>1077</v>
+        <v>478</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>1078</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
-      <c r="D113" t="s">
-        <v>257</v>
+      <c r="C113">
+        <v>98</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="F113" s="1"/>
-      <c r="G113" t="s">
-        <v>557</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J113" t="s">
-        <v>804</v>
+        <v>318</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="M113" t="s">
-        <v>1079</v>
+        <v>479</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>1080</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
-      <c r="D114" t="s">
-        <v>259</v>
+      <c r="C114">
+        <v>99</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="F114" s="1"/>
-      <c r="G114" t="s">
-        <v>558</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J114" t="s">
-        <v>806</v>
+        <v>319</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="M114" t="s">
-        <v>1081</v>
+        <v>480</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>1082</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
-      <c r="D115" t="s">
-        <v>261</v>
+      <c r="C115">
+        <v>100</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F115" s="1"/>
-      <c r="G115" t="s">
-        <v>559</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J115" t="s">
-        <v>808</v>
+        <v>320</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1083</v>
+        <v>481</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>1084</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -7863,414 +5594,315 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="J116" t="s">
-        <v>810</v>
+        <v>482</v>
       </c>
       <c r="M116" t="s">
-        <v>1085</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
-      <c r="D117" t="s">
-        <v>264</v>
+      <c r="C117">
+        <v>101</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="F117" s="1"/>
-      <c r="G117" t="s">
-        <v>560</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J117" t="s">
-        <v>811</v>
+        <v>322</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="M117" t="s">
-        <v>1086</v>
+        <v>483</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1087</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-      <c r="D118" t="s">
-        <v>266</v>
+      <c r="C118">
+        <v>102</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G118" t="s">
-        <v>561</v>
+        <v>166</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J118" t="s">
-        <v>813</v>
+        <v>324</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>814</v>
+        <v>484</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="M118" t="s">
-        <v>1088</v>
+        <v>485</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1089</v>
+        <v>645</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1090</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
-      <c r="D119" t="s">
-        <v>269</v>
+      <c r="C119">
+        <v>103</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="F119" s="1"/>
-      <c r="G119" t="s">
-        <v>562</v>
-      </c>
       <c r="H119" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="J119" t="s">
-        <v>816</v>
+        <v>325</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="M119" t="s">
-        <v>1091</v>
+        <v>486</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1092</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="D120" t="s">
-        <v>271</v>
+      <c r="C120">
+        <v>104</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="F120" s="1"/>
-      <c r="G120" t="s">
-        <v>563</v>
-      </c>
       <c r="H120" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J120" t="s">
-        <v>818</v>
+        <v>326</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="M120" t="s">
-        <v>1093</v>
+        <v>487</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1094</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="D121" t="s">
-        <v>273</v>
+      <c r="C121">
+        <v>105</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="F121" s="1"/>
-      <c r="G121" t="s">
-        <v>564</v>
-      </c>
       <c r="H121" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="J121" t="s">
-        <v>820</v>
+        <v>327</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="M121" t="s">
-        <v>1095</v>
+        <v>488</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>1096</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
-      <c r="D122" t="s">
-        <v>275</v>
+      <c r="C122">
+        <v>106</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="F122" s="1"/>
-      <c r="G122" t="s">
-        <v>565</v>
-      </c>
       <c r="H122" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J122" t="s">
-        <v>822</v>
+        <v>328</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="M122" t="s">
-        <v>1097</v>
+        <v>489</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1098</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="D123" t="s">
-        <v>277</v>
+      <c r="C123">
+        <v>107</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G123" t="s">
-        <v>566</v>
+        <v>172</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J123" t="s">
-        <v>824</v>
+        <v>330</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>825</v>
+        <v>490</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="M123" t="s">
-        <v>1099</v>
+        <v>491</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1100</v>
+        <v>651</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1101</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="D124" t="s">
-        <v>280</v>
+      <c r="C124">
+        <v>108</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="F124" s="1"/>
-      <c r="G124" t="s">
-        <v>567</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J124" t="s">
-        <v>827</v>
+        <v>331</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="M124" t="s">
-        <v>1102</v>
+        <v>492</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1103</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="D125" t="s">
-        <v>282</v>
+      <c r="C125">
+        <v>109</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="F125" s="1"/>
-      <c r="G125" t="s">
-        <v>568</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J125" t="s">
-        <v>829</v>
+        <v>332</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="M125" t="s">
-        <v>1104</v>
+        <v>493</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1105</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="D126" t="s">
-        <v>284</v>
+      <c r="C126">
+        <v>110</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G126" t="s">
-        <v>569</v>
+        <v>176</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J126" t="s">
-        <v>831</v>
+        <v>334</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>832</v>
+        <v>494</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="M126" t="s">
-        <v>1106</v>
+        <v>495</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1107</v>
+        <v>655</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1108</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="D127" t="s">
-        <v>287</v>
+      <c r="C127">
+        <v>111</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="F127" s="1"/>
-      <c r="G127" t="s">
-        <v>570</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J127" t="s">
-        <v>834</v>
+        <v>335</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="M127" t="s">
-        <v>1109</v>
+        <v>496</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1110</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -8278,51 +5910,42 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="J128" t="s">
-        <v>836</v>
+        <v>497</v>
       </c>
       <c r="M128" t="s">
-        <v>1111</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="D129" t="s">
-        <v>290</v>
+      <c r="C129">
+        <v>112</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="F129" s="1"/>
-      <c r="G129" t="s">
-        <v>571</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J129" t="s">
-        <v>837</v>
+        <v>337</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="M129" t="s">
-        <v>1112</v>
+        <v>498</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>1113</v>
+        <v>659</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -8330,18 +5953,18 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="J130" t="s">
-        <v>839</v>
+        <v>499</v>
       </c>
       <c r="M130" t="s">
-        <v>1114</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
@@ -8349,48 +5972,39 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="J131" t="s">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="M131" t="s">
-        <v>1115</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3</v>
       </c>
-      <c r="D132" t="s">
-        <v>294</v>
+      <c r="C132">
+        <v>113</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="F132" s="1"/>
-      <c r="G132" t="s">
-        <v>572</v>
-      </c>
       <c r="H132" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J132" t="s">
-        <v>841</v>
+        <v>340</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="M132" t="s">
-        <v>1116</v>
+        <v>501</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>1117</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -8398,50 +6012,41 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="J133" t="s">
-        <v>843</v>
+        <v>502</v>
       </c>
       <c r="L133"/>
       <c r="M133" t="s">
-        <v>1118</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>3</v>
       </c>
-      <c r="D134" t="s">
-        <v>297</v>
+      <c r="C134">
+        <v>114</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="F134" s="1"/>
-      <c r="G134" t="s">
-        <v>573</v>
-      </c>
       <c r="H134" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="J134" t="s">
-        <v>844</v>
+        <v>342</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>845</v>
+        <v>503</v>
       </c>
       <c r="L134"/>
-      <c r="M134" t="s">
-        <v>1119</v>
-      </c>
       <c r="N134" s="1" t="s">
-        <v>1120</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
